--- a/doc/Tareas Esfuerzo.xlsx
+++ b/doc/Tareas Esfuerzo.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="42">
   <si>
     <t>Fecha</t>
   </si>
@@ -63,9 +63,6 @@
     <t>Prueba de concepto (Interfaz web)</t>
   </si>
   <si>
-    <t>Investigación de framework MVC</t>
-  </si>
-  <si>
     <t>Investigación Android</t>
   </si>
   <si>
@@ -93,9 +90,6 @@
     <t>Etapa 2</t>
   </si>
   <si>
-    <t>Iteración 1: Desarrollo de requerimientos principales</t>
-  </si>
-  <si>
     <t>Análisis</t>
   </si>
   <si>
@@ -108,12 +102,6 @@
     <t>Pruebas y ajustes</t>
   </si>
   <si>
-    <t>Iteración 2: Desarrollo de requerimientos secundarios</t>
-  </si>
-  <si>
-    <t>Iteración 3: Integración de las aplicaciones y ajustes finales</t>
-  </si>
-  <si>
     <t>Etapa 3</t>
   </si>
   <si>
@@ -136,6 +124,24 @@
   </si>
   <si>
     <t>Fase</t>
+  </si>
+  <si>
+    <t>Investigación de framework MVC (REST)</t>
+  </si>
+  <si>
+    <t>Pruebas y ajustes finales</t>
+  </si>
+  <si>
+    <t>Iteración 1: Desarrollo de CU prioridad alta</t>
+  </si>
+  <si>
+    <t>Iteración 2: Desarrollo de CU prioridad media</t>
+  </si>
+  <si>
+    <t>Iteración 3: Desarrollo de CU prioridad baja</t>
+  </si>
+  <si>
+    <t>Etapa3</t>
   </si>
 </sst>
 </file>
@@ -624,17 +630,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AV35"/>
+  <dimension ref="A1:AV36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38:D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="7" style="10" customWidth="1"/>
     <col min="4" max="4" width="27.140625" customWidth="1"/>
-    <col min="5" max="5" width="47.5703125" customWidth="1"/>
+    <col min="5" max="5" width="33.7109375" customWidth="1"/>
     <col min="9" max="48" width="11.42578125" style="10"/>
   </cols>
   <sheetData>
@@ -644,10 +650,10 @@
         <v>0</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>1</v>
@@ -673,11 +679,14 @@
       <c r="E3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="2"/>
+      <c r="F3" s="2">
+        <f>G3+H3</f>
+        <v>0</v>
+      </c>
       <c r="G3" s="2"/>
       <c r="H3" s="3"/>
     </row>
-    <row r="4" spans="2:8">
+    <row r="4" spans="2:8" ht="30">
       <c r="B4" s="1"/>
       <c r="C4" s="2" t="s">
         <v>5</v>
@@ -688,7 +697,10 @@
       <c r="E4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="2"/>
+      <c r="F4" s="2">
+        <f t="shared" ref="F4:F34" si="0">G4+H4</f>
+        <v>0</v>
+      </c>
       <c r="G4" s="2"/>
       <c r="H4" s="3"/>
     </row>
@@ -703,7 +715,10 @@
       <c r="E5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="2"/>
+      <c r="F5" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="G5" s="2"/>
       <c r="H5" s="3"/>
     </row>
@@ -718,7 +733,10 @@
       <c r="E6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="2"/>
+      <c r="F6" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="G6" s="2"/>
       <c r="H6" s="3"/>
     </row>
@@ -733,7 +751,10 @@
       <c r="E7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="2"/>
+      <c r="F7" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="G7" s="2"/>
       <c r="H7" s="3"/>
     </row>
@@ -748,7 +769,10 @@
       <c r="E8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="2"/>
+      <c r="F8" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="G8" s="2"/>
       <c r="H8" s="3"/>
     </row>
@@ -763,11 +787,14 @@
       <c r="E9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="2"/>
+      <c r="F9" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="G9" s="2"/>
       <c r="H9" s="3"/>
     </row>
-    <row r="10" spans="2:8">
+    <row r="10" spans="2:8" ht="30">
       <c r="B10" s="1"/>
       <c r="C10" s="2" t="s">
         <v>5</v>
@@ -776,9 +803,12 @@
         <v>10</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F10" s="2"/>
+        <v>36</v>
+      </c>
+      <c r="F10" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="G10" s="2"/>
       <c r="H10" s="3"/>
     </row>
@@ -791,9 +821,12 @@
         <v>10</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F11" s="2"/>
+        <v>15</v>
+      </c>
+      <c r="F11" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="G11" s="2"/>
       <c r="H11" s="3"/>
     </row>
@@ -806,24 +839,30 @@
         <v>10</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F12" s="2"/>
+        <v>16</v>
+      </c>
+      <c r="F12" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="G12" s="2"/>
       <c r="H12" s="3"/>
     </row>
-    <row r="13" spans="2:8">
+    <row r="13" spans="2:8" ht="30">
       <c r="B13" s="1"/>
       <c r="C13" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F13" s="2"/>
+      <c r="F13" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="G13" s="2"/>
       <c r="H13" s="3"/>
     </row>
@@ -833,27 +872,33 @@
         <v>5</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F14" s="2"/>
+        <v>19</v>
+      </c>
+      <c r="F14" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="G14" s="2"/>
       <c r="H14" s="3"/>
     </row>
-    <row r="15" spans="2:8">
+    <row r="15" spans="2:8" ht="30">
       <c r="B15" s="1"/>
       <c r="C15" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F15" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="F15" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="G15" s="2"/>
       <c r="H15" s="3"/>
     </row>
@@ -863,12 +908,15 @@
         <v>5</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F16" s="2"/>
+        <v>21</v>
+      </c>
+      <c r="F16" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="G16" s="2"/>
       <c r="H16" s="3"/>
     </row>
@@ -878,190 +926,223 @@
         <v>5</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F17" s="2"/>
+        <v>22</v>
+      </c>
+      <c r="F17" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="G17" s="2"/>
       <c r="H17" s="3"/>
     </row>
     <row r="18" spans="2:8" ht="30">
       <c r="B18" s="1"/>
       <c r="C18" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F18" s="2"/>
+      <c r="F18" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="G18" s="2"/>
       <c r="H18" s="3"/>
     </row>
     <row r="19" spans="2:8" ht="30">
       <c r="B19" s="1"/>
       <c r="C19" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D19" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E19" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E19" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F19" s="2"/>
+      <c r="F19" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="G19" s="2"/>
       <c r="H19" s="3"/>
     </row>
     <row r="20" spans="2:8" ht="30">
       <c r="B20" s="1"/>
       <c r="C20" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F20" s="2"/>
+        <v>26</v>
+      </c>
+      <c r="F20" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="G20" s="2"/>
       <c r="H20" s="3"/>
     </row>
     <row r="21" spans="2:8" ht="30">
       <c r="B21" s="1"/>
       <c r="C21" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F21" s="2"/>
+        <v>27</v>
+      </c>
+      <c r="F21" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="G21" s="2"/>
       <c r="H21" s="3"/>
     </row>
     <row r="22" spans="2:8" ht="30">
       <c r="B22" s="1"/>
       <c r="C22" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E22" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D22" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F22" s="2"/>
+      <c r="F22" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="G22" s="2"/>
       <c r="H22" s="3"/>
     </row>
     <row r="23" spans="2:8" ht="30">
       <c r="B23" s="1"/>
       <c r="C23" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F23" s="2"/>
+        <v>25</v>
+      </c>
+      <c r="F23" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="G23" s="2"/>
       <c r="H23" s="3"/>
     </row>
     <row r="24" spans="2:8" ht="30">
       <c r="B24" s="1"/>
       <c r="C24" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F24" s="2"/>
+        <v>26</v>
+      </c>
+      <c r="F24" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="G24" s="2"/>
       <c r="H24" s="3"/>
     </row>
     <row r="25" spans="2:8" ht="30">
       <c r="B25" s="1"/>
       <c r="C25" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F25" s="2"/>
+        <v>27</v>
+      </c>
+      <c r="F25" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="G25" s="2"/>
       <c r="H25" s="3"/>
     </row>
-    <row r="26" spans="2:8" ht="45">
+    <row r="26" spans="2:8" ht="30">
       <c r="B26" s="1"/>
       <c r="C26" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E26" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D26" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F26" s="2"/>
+      <c r="F26" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="G26" s="2"/>
       <c r="H26" s="3"/>
     </row>
-    <row r="27" spans="2:8" ht="45">
+    <row r="27" spans="2:8" ht="30">
       <c r="B27" s="1"/>
       <c r="C27" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F27" s="2"/>
+        <v>25</v>
+      </c>
+      <c r="F27" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="G27" s="2"/>
       <c r="H27" s="3"/>
     </row>
-    <row r="28" spans="2:8" ht="45">
+    <row r="28" spans="2:8" ht="30">
       <c r="B28" s="1"/>
       <c r="C28" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
       <c r="H28" s="3"/>
     </row>
-    <row r="29" spans="2:8" ht="45">
+    <row r="29" spans="2:8" ht="30">
       <c r="B29" s="1"/>
       <c r="C29" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
@@ -1070,80 +1151,110 @@
     <row r="30" spans="2:8">
       <c r="B30" s="1"/>
       <c r="C30" s="2" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F30" s="2"/>
+        <v>37</v>
+      </c>
+      <c r="F30" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="G30" s="2"/>
       <c r="H30" s="3"/>
     </row>
     <row r="31" spans="2:8">
       <c r="B31" s="1"/>
       <c r="C31" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F31" s="2"/>
+        <v>30</v>
+      </c>
+      <c r="F31" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="G31" s="2"/>
       <c r="H31" s="3"/>
     </row>
     <row r="32" spans="2:8">
       <c r="B32" s="1"/>
       <c r="C32" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F32" s="2"/>
+        <v>31</v>
+      </c>
+      <c r="F32" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="G32" s="2"/>
       <c r="H32" s="3"/>
     </row>
     <row r="33" spans="2:8">
       <c r="B33" s="1"/>
       <c r="C33" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E33" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D33" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E33" t="s">
-        <v>37</v>
-      </c>
-      <c r="F33" s="2"/>
+      <c r="F33" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="G33" s="2"/>
       <c r="H33" s="3"/>
     </row>
     <row r="34" spans="2:8">
       <c r="B34" s="1"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
+      <c r="C34" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>33</v>
+      </c>
+      <c r="F34" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="G34" s="2"/>
       <c r="H34" s="3"/>
     </row>
-    <row r="35" spans="2:8" ht="15.75" thickBot="1">
-      <c r="B35" s="4"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="5"/>
-      <c r="F35" s="5"/>
-      <c r="G35" s="5"/>
-      <c r="H35" s="6"/>
+    <row r="35" spans="2:8">
+      <c r="B35" s="1"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="3"/>
+    </row>
+    <row r="36" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B36" s="4"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/Tareas Esfuerzo.xlsx
+++ b/doc/Tareas Esfuerzo.xlsx
@@ -632,8 +632,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AV36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38:D39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -681,9 +681,11 @@
       </c>
       <c r="F3" s="2">
         <f>G3+H3</f>
-        <v>0</v>
-      </c>
-      <c r="G3" s="2"/>
+        <v>8</v>
+      </c>
+      <c r="G3" s="2">
+        <v>8</v>
+      </c>
       <c r="H3" s="3"/>
     </row>
     <row r="4" spans="2:8" ht="30">
@@ -699,9 +701,11 @@
       </c>
       <c r="F4" s="2">
         <f t="shared" ref="F4:F34" si="0">G4+H4</f>
-        <v>0</v>
-      </c>
-      <c r="G4" s="2"/>
+        <v>10</v>
+      </c>
+      <c r="G4" s="2">
+        <v>10</v>
+      </c>
       <c r="H4" s="3"/>
     </row>
     <row r="5" spans="2:8">
@@ -717,9 +721,11 @@
       </c>
       <c r="F5" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G5" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="G5" s="2">
+        <v>1</v>
+      </c>
       <c r="H5" s="3"/>
     </row>
     <row r="6" spans="2:8">
@@ -735,9 +741,11 @@
       </c>
       <c r="F6" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G6" s="2"/>
+        <v>15</v>
+      </c>
+      <c r="G6" s="2">
+        <v>15</v>
+      </c>
       <c r="H6" s="3"/>
     </row>
     <row r="7" spans="2:8">
@@ -753,9 +761,11 @@
       </c>
       <c r="F7" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G7" s="2"/>
+        <v>4</v>
+      </c>
+      <c r="G7" s="2">
+        <v>4</v>
+      </c>
       <c r="H7" s="3"/>
     </row>
     <row r="8" spans="2:8">
@@ -771,9 +781,11 @@
       </c>
       <c r="F8" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G8" s="2"/>
+        <v>25</v>
+      </c>
+      <c r="G8" s="2">
+        <v>25</v>
+      </c>
       <c r="H8" s="3"/>
     </row>
     <row r="9" spans="2:8">
@@ -789,9 +801,11 @@
       </c>
       <c r="F9" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G9" s="2"/>
+        <v>16</v>
+      </c>
+      <c r="G9" s="2">
+        <v>16</v>
+      </c>
       <c r="H9" s="3"/>
     </row>
     <row r="10" spans="2:8" ht="30">
@@ -807,9 +821,11 @@
       </c>
       <c r="F10" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G10" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="G10" s="2">
+        <v>20</v>
+      </c>
       <c r="H10" s="3"/>
     </row>
     <row r="11" spans="2:8">
@@ -825,9 +841,11 @@
       </c>
       <c r="F11" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G11" s="2"/>
+        <v>150</v>
+      </c>
+      <c r="G11" s="2">
+        <v>150</v>
+      </c>
       <c r="H11" s="3"/>
     </row>
     <row r="12" spans="2:8">
@@ -843,9 +861,11 @@
       </c>
       <c r="F12" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G12" s="2"/>
+        <v>30</v>
+      </c>
+      <c r="G12" s="2">
+        <v>30</v>
+      </c>
       <c r="H12" s="3"/>
     </row>
     <row r="13" spans="2:8" ht="30">
@@ -861,9 +881,11 @@
       </c>
       <c r="F13" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G13" s="2"/>
+        <v>10</v>
+      </c>
+      <c r="G13" s="2">
+        <v>10</v>
+      </c>
       <c r="H13" s="3"/>
     </row>
     <row r="14" spans="2:8">
@@ -879,9 +901,11 @@
       </c>
       <c r="F14" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G14" s="2"/>
+        <v>2</v>
+      </c>
+      <c r="G14" s="2">
+        <v>2</v>
+      </c>
       <c r="H14" s="3"/>
     </row>
     <row r="15" spans="2:8" ht="30">
@@ -897,9 +921,11 @@
       </c>
       <c r="F15" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G15" s="2"/>
+        <v>6</v>
+      </c>
+      <c r="G15" s="2">
+        <v>6</v>
+      </c>
       <c r="H15" s="3"/>
     </row>
     <row r="16" spans="2:8">
@@ -915,9 +941,11 @@
       </c>
       <c r="F16" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G16" s="2"/>
+        <v>50</v>
+      </c>
+      <c r="G16" s="2">
+        <v>50</v>
+      </c>
       <c r="H16" s="3"/>
     </row>
     <row r="17" spans="2:8">
@@ -933,9 +961,11 @@
       </c>
       <c r="F17" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G17" s="2"/>
+        <v>4</v>
+      </c>
+      <c r="G17" s="2">
+        <v>4</v>
+      </c>
       <c r="H17" s="3"/>
     </row>
     <row r="18" spans="2:8" ht="30">
@@ -951,9 +981,11 @@
       </c>
       <c r="F18" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G18" s="2"/>
+        <v>35</v>
+      </c>
+      <c r="G18" s="2">
+        <v>35</v>
+      </c>
       <c r="H18" s="3"/>
     </row>
     <row r="19" spans="2:8" ht="30">
@@ -969,9 +1001,11 @@
       </c>
       <c r="F19" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G19" s="2"/>
+        <v>50</v>
+      </c>
+      <c r="G19" s="2">
+        <v>50</v>
+      </c>
       <c r="H19" s="3"/>
     </row>
     <row r="20" spans="2:8" ht="30">
@@ -987,9 +1021,11 @@
       </c>
       <c r="F20" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G20" s="2"/>
+        <v>210</v>
+      </c>
+      <c r="G20" s="2">
+        <v>210</v>
+      </c>
       <c r="H20" s="3"/>
     </row>
     <row r="21" spans="2:8" ht="30">
@@ -1005,9 +1041,11 @@
       </c>
       <c r="F21" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G21" s="2"/>
+        <v>25</v>
+      </c>
+      <c r="G21" s="2">
+        <v>25</v>
+      </c>
       <c r="H21" s="3"/>
     </row>
     <row r="22" spans="2:8" ht="30">
@@ -1023,9 +1061,11 @@
       </c>
       <c r="F22" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G22" s="2"/>
+        <v>25</v>
+      </c>
+      <c r="G22" s="2">
+        <v>25</v>
+      </c>
       <c r="H22" s="3"/>
     </row>
     <row r="23" spans="2:8" ht="30">
@@ -1041,9 +1081,11 @@
       </c>
       <c r="F23" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G23" s="2"/>
+        <v>35</v>
+      </c>
+      <c r="G23" s="2">
+        <v>35</v>
+      </c>
       <c r="H23" s="3"/>
     </row>
     <row r="24" spans="2:8" ht="30">
@@ -1059,9 +1101,11 @@
       </c>
       <c r="F24" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G24" s="2"/>
+        <v>155</v>
+      </c>
+      <c r="G24" s="2">
+        <v>155</v>
+      </c>
       <c r="H24" s="3"/>
     </row>
     <row r="25" spans="2:8" ht="30">
@@ -1077,9 +1121,11 @@
       </c>
       <c r="F25" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G25" s="2"/>
+        <v>38</v>
+      </c>
+      <c r="G25" s="2">
+        <v>38</v>
+      </c>
       <c r="H25" s="3"/>
     </row>
     <row r="26" spans="2:8" ht="30">
@@ -1095,9 +1141,11 @@
       </c>
       <c r="F26" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G26" s="2"/>
+        <v>12</v>
+      </c>
+      <c r="G26" s="2">
+        <v>12</v>
+      </c>
       <c r="H26" s="3"/>
     </row>
     <row r="27" spans="2:8" ht="30">
@@ -1113,9 +1161,11 @@
       </c>
       <c r="F27" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G27" s="2"/>
+        <v>16</v>
+      </c>
+      <c r="G27" s="2">
+        <v>16</v>
+      </c>
       <c r="H27" s="3"/>
     </row>
     <row r="28" spans="2:8" ht="30">
@@ -1130,7 +1180,9 @@
         <v>26</v>
       </c>
       <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
+      <c r="G28" s="2">
+        <v>65</v>
+      </c>
       <c r="H28" s="3"/>
     </row>
     <row r="29" spans="2:8" ht="30">
@@ -1145,7 +1197,9 @@
         <v>27</v>
       </c>
       <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
+      <c r="G29" s="2">
+        <v>49</v>
+      </c>
       <c r="H29" s="3"/>
     </row>
     <row r="30" spans="2:8">
@@ -1161,9 +1215,11 @@
       </c>
       <c r="F30" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G30" s="2"/>
+        <v>85</v>
+      </c>
+      <c r="G30" s="2">
+        <v>85</v>
+      </c>
       <c r="H30" s="3"/>
     </row>
     <row r="31" spans="2:8">
@@ -1179,9 +1235,11 @@
       </c>
       <c r="F31" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G31" s="2"/>
+        <v>10</v>
+      </c>
+      <c r="G31" s="2">
+        <v>10</v>
+      </c>
       <c r="H31" s="3"/>
     </row>
     <row r="32" spans="2:8">
@@ -1197,9 +1255,11 @@
       </c>
       <c r="F32" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G32" s="2"/>
+        <v>16</v>
+      </c>
+      <c r="G32" s="2">
+        <v>16</v>
+      </c>
       <c r="H32" s="3"/>
     </row>
     <row r="33" spans="2:8">
@@ -1215,9 +1275,11 @@
       </c>
       <c r="F33" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G33" s="2"/>
+        <v>165</v>
+      </c>
+      <c r="G33" s="2">
+        <v>165</v>
+      </c>
       <c r="H33" s="3"/>
     </row>
     <row r="34" spans="2:8">
@@ -1233,9 +1295,11 @@
       </c>
       <c r="F34" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G34" s="2"/>
+        <v>25</v>
+      </c>
+      <c r="G34" s="2">
+        <v>25</v>
+      </c>
       <c r="H34" s="3"/>
     </row>
     <row r="35" spans="2:8">

--- a/doc/Tareas Esfuerzo.xlsx
+++ b/doc/Tareas Esfuerzo.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="73">
   <si>
     <t>Tarea</t>
   </si>
@@ -228,6 +228,15 @@
   </si>
   <si>
     <t>Investigación PostGis</t>
+  </si>
+  <si>
+    <t>1er It</t>
+  </si>
+  <si>
+    <t>2da It</t>
+  </si>
+  <si>
+    <t>3er It</t>
   </si>
 </sst>
 </file>
@@ -235,7 +244,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -293,7 +302,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -394,11 +403,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -416,7 +434,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -431,6 +449,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -728,8 +749,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AV41"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1607,10 +1628,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:G22"/>
+  <dimension ref="A2:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1621,12 +1642,12 @@
     <col min="7" max="7" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7">
+    <row r="2" spans="1:7">
       <c r="B2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="4" spans="2:7" ht="31.5">
+    <row r="4" spans="1:7" ht="31.5">
       <c r="B4" s="12" t="s">
         <v>65</v>
       </c>
@@ -1646,7 +1667,10 @@
         <v>67</v>
       </c>
     </row>
-    <row r="5" spans="2:7">
+    <row r="5" spans="1:7">
+      <c r="A5" s="15" t="s">
+        <v>70</v>
+      </c>
       <c r="B5" s="10" t="s">
         <v>48</v>
       </c>
@@ -1659,33 +1683,52 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:7">
+    <row r="6" spans="1:7">
+      <c r="A6" s="15"/>
       <c r="B6" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
+      <c r="C6" s="11">
+        <v>2</v>
+      </c>
+      <c r="D6" s="11">
+        <v>2</v>
+      </c>
+      <c r="E6" s="11">
+        <v>10</v>
+      </c>
+      <c r="F6" s="11">
+        <v>5</v>
+      </c>
       <c r="G6">
         <f t="shared" ref="G6:G21" si="0">SUM(C6:F6)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="15"/>
       <c r="B7" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
+      <c r="C7" s="11">
+        <v>1</v>
+      </c>
+      <c r="D7" s="11">
+        <v>1</v>
+      </c>
+      <c r="E7" s="11">
+        <v>4</v>
+      </c>
+      <c r="F7" s="11">
+        <v>2</v>
+      </c>
       <c r="G7">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="15"/>
       <c r="B8" s="10" t="s">
         <v>51</v>
       </c>
@@ -1698,7 +1741,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:7">
+    <row r="9" spans="1:7">
+      <c r="A9" s="15"/>
       <c r="B9" s="10" t="s">
         <v>52</v>
       </c>
@@ -1711,7 +1755,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:7">
+    <row r="10" spans="1:7">
+      <c r="A10" s="15"/>
       <c r="B10" s="10" t="s">
         <v>53</v>
       </c>
@@ -1724,7 +1769,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:7">
+    <row r="11" spans="1:7">
+      <c r="A11" s="15"/>
       <c r="B11" s="10" t="s">
         <v>54</v>
       </c>
@@ -1737,7 +1783,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:7">
+    <row r="12" spans="1:7">
+      <c r="A12" s="15" t="s">
+        <v>71</v>
+      </c>
       <c r="B12" s="10" t="s">
         <v>55</v>
       </c>
@@ -1750,7 +1799,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:7">
+    <row r="13" spans="1:7">
+      <c r="A13" s="15"/>
       <c r="B13" s="10" t="s">
         <v>56</v>
       </c>
@@ -1763,7 +1813,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:7">
+    <row r="14" spans="1:7">
+      <c r="A14" s="15"/>
       <c r="B14" s="10" t="s">
         <v>57</v>
       </c>
@@ -1776,7 +1827,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:7">
+    <row r="15" spans="1:7">
+      <c r="A15" s="15"/>
       <c r="B15" s="10" t="s">
         <v>58</v>
       </c>
@@ -1789,7 +1841,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:7">
+    <row r="16" spans="1:7">
+      <c r="A16" s="15"/>
       <c r="B16" s="10" t="s">
         <v>59</v>
       </c>
@@ -1802,7 +1855,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:7">
+    <row r="17" spans="1:7">
+      <c r="A17" s="15"/>
       <c r="B17" s="10" t="s">
         <v>60</v>
       </c>
@@ -1815,7 +1869,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:7">
+    <row r="18" spans="1:7">
+      <c r="A18" s="15" t="s">
+        <v>72</v>
+      </c>
       <c r="B18" s="10" t="s">
         <v>61</v>
       </c>
@@ -1828,7 +1885,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:7">
+    <row r="19" spans="1:7">
+      <c r="A19" s="15"/>
       <c r="B19" s="10" t="s">
         <v>62</v>
       </c>
@@ -1841,7 +1899,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:7">
+    <row r="20" spans="1:7">
+      <c r="A20" s="15"/>
       <c r="B20" s="10" t="s">
         <v>63</v>
       </c>
@@ -1854,7 +1913,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:7">
+    <row r="21" spans="1:7">
+      <c r="A21" s="15"/>
       <c r="B21" s="10" t="s">
         <v>64</v>
       </c>
@@ -1867,28 +1927,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:7">
+    <row r="22" spans="1:7">
       <c r="B22" s="14" t="s">
         <v>68</v>
       </c>
       <c r="C22">
         <f>SUM(C5:C21)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D22">
         <f t="shared" ref="D22:F22" si="1">SUM(D5:D21)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E22">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="F22">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A5:A11"/>
+    <mergeCell ref="A12:A17"/>
+    <mergeCell ref="A18:A21"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>

--- a/doc/Tareas Esfuerzo.xlsx
+++ b/doc/Tareas Esfuerzo.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="74">
   <si>
     <t>Tarea</t>
   </si>
@@ -237,6 +237,9 @@
   </si>
   <si>
     <t>3er It</t>
+  </si>
+  <si>
+    <t>TOTAL por It</t>
   </si>
 </sst>
 </file>
@@ -416,7 +419,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -449,6 +452,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1628,10 +1634,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:G22"/>
+  <dimension ref="A2:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1642,12 +1648,12 @@
     <col min="7" max="7" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:8">
       <c r="B2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="31.5">
+    <row r="4" spans="1:8" ht="31.5">
       <c r="B4" s="12" t="s">
         <v>65</v>
       </c>
@@ -1666,9 +1672,12 @@
       <c r="G4" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="15" t="s">
+      <c r="H4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="16" t="s">
         <v>70</v>
       </c>
       <c r="B5" s="10" t="s">
@@ -1682,9 +1691,13 @@
         <f>SUM(C5:F5)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="15"/>
+      <c r="H5" s="15">
+        <f>SUM(G5:G11)</f>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="16"/>
       <c r="B6" s="10" t="s">
         <v>49</v>
       </c>
@@ -1704,9 +1717,10 @@
         <f t="shared" ref="G6:G21" si="0">SUM(C6:F6)</f>
         <v>19</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="15"/>
+      <c r="H6" s="15"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="16"/>
       <c r="B7" s="10" t="s">
         <v>50</v>
       </c>
@@ -1726,9 +1740,10 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="15"/>
+      <c r="H7" s="15"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="16"/>
       <c r="B8" s="10" t="s">
         <v>51</v>
       </c>
@@ -1740,9 +1755,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="15"/>
+      <c r="H8" s="15"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="16"/>
       <c r="B9" s="10" t="s">
         <v>52</v>
       </c>
@@ -1754,9 +1770,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="15"/>
+      <c r="H9" s="15"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="16"/>
       <c r="B10" s="10" t="s">
         <v>53</v>
       </c>
@@ -1768,9 +1785,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="15"/>
+      <c r="H10" s="15"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="16"/>
       <c r="B11" s="10" t="s">
         <v>54</v>
       </c>
@@ -1782,9 +1800,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="15" t="s">
+      <c r="H11" s="15"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="16" t="s">
         <v>71</v>
       </c>
       <c r="B12" s="10" t="s">
@@ -1798,9 +1817,13 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="15"/>
+      <c r="H12" s="15">
+        <f>SUM(G12:G17)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="16"/>
       <c r="B13" s="10" t="s">
         <v>56</v>
       </c>
@@ -1812,9 +1835,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="15"/>
+      <c r="H13" s="15"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="16"/>
       <c r="B14" s="10" t="s">
         <v>57</v>
       </c>
@@ -1826,9 +1850,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="15"/>
+      <c r="H14" s="15"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="16"/>
       <c r="B15" s="10" t="s">
         <v>58</v>
       </c>
@@ -1840,9 +1865,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="15"/>
+      <c r="H15" s="15"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="16"/>
       <c r="B16" s="10" t="s">
         <v>59</v>
       </c>
@@ -1854,9 +1880,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="15"/>
+      <c r="H16" s="15"/>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="16"/>
       <c r="B17" s="10" t="s">
         <v>60</v>
       </c>
@@ -1868,9 +1895,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="15" t="s">
+      <c r="H17" s="15"/>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="16" t="s">
         <v>72</v>
       </c>
       <c r="B18" s="10" t="s">
@@ -1884,9 +1912,13 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="15"/>
+      <c r="H18" s="15">
+        <f>SUM(G18:G21)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="16"/>
       <c r="B19" s="10" t="s">
         <v>62</v>
       </c>
@@ -1898,9 +1930,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="15"/>
+      <c r="H19" s="15"/>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="16"/>
       <c r="B20" s="10" t="s">
         <v>63</v>
       </c>
@@ -1912,9 +1945,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="15"/>
+      <c r="H20" s="15"/>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="16"/>
       <c r="B21" s="10" t="s">
         <v>64</v>
       </c>
@@ -1926,8 +1960,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:7">
+      <c r="H21" s="15"/>
+    </row>
+    <row r="22" spans="1:8">
       <c r="B22" s="14" t="s">
         <v>68</v>
       </c>
@@ -1949,10 +1984,13 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="6">
     <mergeCell ref="A5:A11"/>
     <mergeCell ref="A12:A17"/>
     <mergeCell ref="A18:A21"/>
+    <mergeCell ref="H5:H11"/>
+    <mergeCell ref="H12:H17"/>
+    <mergeCell ref="H18:H21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>

--- a/doc/Tareas Esfuerzo.xlsx
+++ b/doc/Tareas Esfuerzo.xlsx
@@ -1637,7 +1637,7 @@
   <dimension ref="A2:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1693,7 +1693,7 @@
       </c>
       <c r="H5" s="15">
         <f>SUM(G5:G11)</f>
-        <v>27</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1747,13 +1747,21 @@
       <c r="B8" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
+      <c r="C8" s="11">
+        <v>5</v>
+      </c>
+      <c r="D8" s="11">
+        <v>2</v>
+      </c>
+      <c r="E8" s="11">
+        <v>10</v>
+      </c>
+      <c r="F8" s="11">
+        <v>2</v>
+      </c>
       <c r="G8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="H8" s="15"/>
     </row>
@@ -1809,17 +1817,23 @@
       <c r="B12" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
+      <c r="C12" s="11">
+        <v>1</v>
+      </c>
+      <c r="D12" s="11">
+        <v>2</v>
+      </c>
+      <c r="E12" s="11">
+        <v>8</v>
+      </c>
       <c r="F12" s="11"/>
       <c r="G12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="H12" s="15">
         <f>SUM(G12:G17)</f>
-        <v>0</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1827,13 +1841,19 @@
       <c r="B13" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
+      <c r="C13" s="11">
+        <v>1</v>
+      </c>
+      <c r="D13" s="11">
+        <v>1</v>
+      </c>
+      <c r="E13" s="11">
+        <v>8</v>
+      </c>
       <c r="F13" s="11"/>
       <c r="G13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H13" s="15"/>
     </row>
@@ -1842,13 +1862,19 @@
       <c r="B14" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
+      <c r="C14" s="11">
+        <v>1</v>
+      </c>
+      <c r="D14" s="11">
+        <v>1</v>
+      </c>
+      <c r="E14" s="11">
+        <v>8</v>
+      </c>
       <c r="F14" s="11"/>
       <c r="G14">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H14" s="15"/>
     </row>
@@ -1968,19 +1994,19 @@
       </c>
       <c r="C22">
         <f>SUM(C5:C21)</f>
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D22">
         <f t="shared" ref="D22:F22" si="1">SUM(D5:D21)</f>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E22">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="F22">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/doc/Tareas Esfuerzo.xlsx
+++ b/doc/Tareas Esfuerzo.xlsx
@@ -1637,7 +1637,7 @@
   <dimension ref="A2:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1826,14 +1826,16 @@
       <c r="E12" s="11">
         <v>8</v>
       </c>
-      <c r="F12" s="11"/>
+      <c r="F12" s="11">
+        <v>4</v>
+      </c>
       <c r="G12">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="H12" s="15">
         <f>SUM(G12:G17)</f>
-        <v>31</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1850,10 +1852,12 @@
       <c r="E13" s="11">
         <v>8</v>
       </c>
-      <c r="F13" s="11"/>
+      <c r="F13" s="11">
+        <v>1</v>
+      </c>
       <c r="G13">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H13" s="15"/>
     </row>
@@ -1871,10 +1875,12 @@
       <c r="E14" s="11">
         <v>8</v>
       </c>
-      <c r="F14" s="11"/>
+      <c r="F14" s="11">
+        <v>1</v>
+      </c>
       <c r="G14">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H14" s="15"/>
     </row>
@@ -2006,7 +2012,7 @@
       </c>
       <c r="F22">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/doc/Tareas Esfuerzo.xlsx
+++ b/doc/Tareas Esfuerzo.xlsx
@@ -4,22 +4,25 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190"/>
   </bookViews>
   <sheets>
-    <sheet name="GENERAL" sheetId="1" r:id="rId1"/>
-    <sheet name="POR CU" sheetId="2" r:id="rId2"/>
+    <sheet name="General" sheetId="3" r:id="rId1"/>
+    <sheet name="Por CU" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="__xlnm._FilterDatabase">GENERAL!$A$2:$AV$35</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">GENERAL!$A$2:$AV$35</definedName>
+    <definedName name="__xlnm._FilterDatabase">#REF!</definedName>
   </definedNames>
   <calcPr calcId="125725" iterateDelta="1E-4"/>
+  <pivotCaches>
+    <pivotCache cacheId="19" r:id="rId3"/>
+    <pivotCache cacheId="43" r:id="rId4"/>
+  </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="80">
   <si>
     <t>Etapa</t>
   </si>
@@ -45,9 +48,6 @@
     <t>Etapa 1</t>
   </si>
   <si>
-    <t>Documentacion</t>
-  </si>
-  <si>
     <t>Fase 1: Configuración</t>
   </si>
   <si>
@@ -60,9 +60,6 @@
     <t>Documento de calidad</t>
   </si>
   <si>
-    <t>Investigacion</t>
-  </si>
-  <si>
     <t>Fase 2: Investigación</t>
   </si>
   <si>
@@ -138,9 +135,6 @@
     <t>Iteración 3: Desarrollo de CU prioridad baja</t>
   </si>
   <si>
-    <t>Etapa3</t>
-  </si>
-  <si>
     <t>Pruebas y ajustes finales</t>
   </si>
   <si>
@@ -165,9 +159,6 @@
     <t>Total</t>
   </si>
   <si>
-    <t>hh por dia</t>
-  </si>
-  <si>
     <t>Detalle POR CU</t>
   </si>
   <si>
@@ -241,15 +232,42 @@
   </si>
   <si>
     <t>TOTAL por Fase</t>
+  </si>
+  <si>
+    <t>Rótulos de fila</t>
+  </si>
+  <si>
+    <t>Total general</t>
+  </si>
+  <si>
+    <t>Suma de Horas</t>
+  </si>
+  <si>
+    <t>Investigación</t>
+  </si>
+  <si>
+    <t>Iteración</t>
+  </si>
+  <si>
+    <t>Suma de Análisis</t>
+  </si>
+  <si>
+    <t>Valores</t>
+  </si>
+  <si>
+    <t>Suma de Diseño</t>
+  </si>
+  <si>
+    <t>Suma de Codificación</t>
+  </si>
+  <si>
+    <t>Suma de Pruebas y ajustes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.0"/>
-  </numFmts>
   <fonts count="5">
     <font>
       <sz val="10"/>
@@ -313,7 +331,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -380,7 +398,9 @@
       <right style="thin">
         <color indexed="8"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
       <bottom style="thin">
         <color indexed="8"/>
       </bottom>
@@ -388,12 +408,27 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color indexed="64"/>
       </left>
-      <right style="medium">
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
         <color indexed="8"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
       <bottom style="thin">
         <color indexed="8"/>
       </bottom>
@@ -409,17 +444,28 @@
       <top style="thin">
         <color indexed="8"/>
       </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
       <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="64"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -428,7 +474,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
@@ -444,30 +490,35 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -545,6 +596,2292 @@
     </indexedColors>
   </colors>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="es-CL"/>
+  <c:pivotSource>
+    <c:name>[Tareas Esfuerzo.xlsx]General!Tabla dinámica2</c:name>
+    <c:fmtId val="0"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Horas por Tareas</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>General!$C$43</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>General!$B$44:$B$50</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Analisis</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Diseño</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Pruebas</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Documentación</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Investigación</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Codificación</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>General!$C$44:$C$50</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>193</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>429</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>570</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>603</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>881</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="40384768"/>
+        <c:axId val="40570880"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="40384768"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="40570880"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="40570880"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="40384768"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="es-CL"/>
+  <c:pivotSource>
+    <c:name>[Tareas Esfuerzo.xlsx]General!Tabla dinámica3</c:name>
+    <c:fmtId val="0"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-CL"/>
+              <a:t>Horas</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-CL" baseline="0"/>
+              <a:t> por Etapas</a:t>
+            </a:r>
+            <a:endParaRPr lang="es-CL"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>General!$C$61</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>General!$B$62:$B$65</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Etapa 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Etapa 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Etapa 3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>General!$C$62:$C$65</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>723</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1569</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>543</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="62007936"/>
+        <c:axId val="67184512"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="62007936"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="67184512"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="67184512"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="62007936"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="es-CL"/>
+  <c:pivotSource>
+    <c:name>[Tareas Esfuerzo.xlsx]Por CU!Tabla dinámica5</c:name>
+    <c:fmtId val="0"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Por CU'!$C$30:$C$31</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Suma de Análisis</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Por CU'!$B$32:$B$35</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1er It</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2da It</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3er It</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Por CU'!$C$32:$C$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>28</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Por CU'!$D$30:$D$31</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Suma de Diseño</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Por CU'!$B$32:$B$35</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1er It</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2da It</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3er It</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Por CU'!$D$32:$D$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>36</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Por CU'!$E$30:$E$31</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Suma de Codificación</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Por CU'!$B$32:$B$35</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1er It</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2da It</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3er It</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Por CU'!$E$32:$E$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>435</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>99</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Por CU'!$F$30:$F$31</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Suma de Pruebas y ajustes</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Por CU'!$B$32:$B$35</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1er It</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2da It</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3er It</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Por CU'!$F$32:$F$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="100553856"/>
+        <c:axId val="100555392"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="100553856"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="100555392"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="100555392"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="100553856"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="es-CL"/>
+  <c:pivotSource>
+    <c:name>[Tareas Esfuerzo.xlsx]Por CU!Tabla dinámica6</c:name>
+    <c:fmtId val="0"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Por CU'!$C$48:$C$49</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Suma de Análisis</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Por CU'!$B$50:$B$67</c:f>
+              <c:strCache>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>CU01 - Login</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>CU02 - Crear Usuario</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>CU03 - Ver Perfil</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>CU04 - Modificar - Eliminar Usuario</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>CU05 - Buscar Usuario</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>CU06 - Ver Solicitudes de Amistad</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>CU07 - Generar Solicitud de Amistad</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>CU08 - Responder Solicitud de Amistad</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>CU09 - Ver Amigos</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>CU10 - Ubicar Amigos - Radar</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>CU11 - Compartir Ubicacion</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>CU12 - Invitar amigos</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>CU13 - Buscar Sitio</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>CU14 - Crear Sitio</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>CU15 - Modificar - Eliminar Sitio</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>CU16 - Ver Sitio</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>CU17 - Publicar Información</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Por CU'!$C$50:$C$67</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Por CU'!$D$48:$D$49</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Suma de Diseño</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Por CU'!$B$50:$B$67</c:f>
+              <c:strCache>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>CU01 - Login</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>CU02 - Crear Usuario</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>CU03 - Ver Perfil</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>CU04 - Modificar - Eliminar Usuario</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>CU05 - Buscar Usuario</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>CU06 - Ver Solicitudes de Amistad</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>CU07 - Generar Solicitud de Amistad</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>CU08 - Responder Solicitud de Amistad</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>CU09 - Ver Amigos</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>CU10 - Ubicar Amigos - Radar</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>CU11 - Compartir Ubicacion</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>CU12 - Invitar amigos</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>CU13 - Buscar Sitio</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>CU14 - Crear Sitio</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>CU15 - Modificar - Eliminar Sitio</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>CU16 - Ver Sitio</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>CU17 - Publicar Información</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Por CU'!$D$50:$D$67</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Por CU'!$E$48:$E$49</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Suma de Codificación</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Por CU'!$B$50:$B$67</c:f>
+              <c:strCache>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>CU01 - Login</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>CU02 - Crear Usuario</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>CU03 - Ver Perfil</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>CU04 - Modificar - Eliminar Usuario</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>CU05 - Buscar Usuario</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>CU06 - Ver Solicitudes de Amistad</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>CU07 - Generar Solicitud de Amistad</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>CU08 - Responder Solicitud de Amistad</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>CU09 - Ver Amigos</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>CU10 - Ubicar Amigos - Radar</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>CU11 - Compartir Ubicacion</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>CU12 - Invitar amigos</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>CU13 - Buscar Sitio</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>CU14 - Crear Sitio</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>CU15 - Modificar - Eliminar Sitio</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>CU16 - Ver Sitio</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>CU17 - Publicar Información</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Por CU'!$E$50:$E$67</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>35</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Por CU'!$F$48:$F$49</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Suma de Pruebas y ajustes</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Por CU'!$B$50:$B$67</c:f>
+              <c:strCache>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>CU01 - Login</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>CU02 - Crear Usuario</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>CU03 - Ver Perfil</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>CU04 - Modificar - Eliminar Usuario</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>CU05 - Buscar Usuario</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>CU06 - Ver Solicitudes de Amistad</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>CU07 - Generar Solicitud de Amistad</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>CU08 - Responder Solicitud de Amistad</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>CU09 - Ver Amigos</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>CU10 - Ubicar Amigos - Radar</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>CU11 - Compartir Ubicacion</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>CU12 - Invitar amigos</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>CU13 - Buscar Sitio</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>CU14 - Crear Sitio</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>CU15 - Modificar - Eliminar Sitio</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>CU16 - Ver Sitio</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>CU17 - Publicar Información</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Por CU'!$F$50:$F$67</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="139099520"/>
+        <c:axId val="139281536"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="139099520"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="139281536"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="139281536"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="139099520"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1581150</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="2 Gráfico"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1504950</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="3 Gráfico"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="1 Gráfico"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>752474</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="2 Gráfico"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Martin Loureiro" refreshedDate="40987.560084722223" createdVersion="3" refreshedVersion="3" minRefreshableVersion="3" recordCount="37">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="B2:H39" sheet="General"/>
+  </cacheSource>
+  <cacheFields count="7">
+    <cacheField name="Etapa" numFmtId="0">
+      <sharedItems count="4">
+        <s v="Etapa 1"/>
+        <s v="Etapa 2"/>
+        <s v="Etapa 3"/>
+        <s v="Etapa3" u="1"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Tipo" numFmtId="0">
+      <sharedItems count="6">
+        <s v="Documentación"/>
+        <s v="Investigación"/>
+        <s v="Pruebas"/>
+        <s v="Analisis"/>
+        <s v="Diseño"/>
+        <s v="Codificación"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Fase" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Tarea" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Horas" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="470"/>
+    </cacheField>
+    <cacheField name="Antonio" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="250"/>
+    </cacheField>
+    <cacheField name="Martín" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="220"/>
+    </cacheField>
+  </cacheFields>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Martin Loureiro" refreshedDate="40987.567424189816" createdVersion="3" refreshedVersion="3" minRefreshableVersion="3" recordCount="17">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="B4:G21" sheet="Por CU"/>
+  </cacheSource>
+  <cacheFields count="6">
+    <cacheField name="Iteración" numFmtId="0">
+      <sharedItems containsBlank="1" count="4">
+        <s v="1er It"/>
+        <s v="2da It"/>
+        <s v="3er It"/>
+        <m u="1"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="CU" numFmtId="0">
+      <sharedItems count="17">
+        <s v="CU01 - Login"/>
+        <s v="CU02 - Crear Usuario"/>
+        <s v="CU03 - Ver Perfil"/>
+        <s v="CU05 - Buscar Usuario"/>
+        <s v="CU13 - Buscar Sitio"/>
+        <s v="CU14 - Crear Sitio"/>
+        <s v="CU16 - Ver Sitio"/>
+        <s v="CU06 - Ver Solicitudes de Amistad"/>
+        <s v="CU07 - Generar Solicitud de Amistad"/>
+        <s v="CU08 - Responder Solicitud de Amistad"/>
+        <s v="CU09 - Ver Amigos"/>
+        <s v="CU12 - Invitar amigos"/>
+        <s v="CU17 - Publicar Información"/>
+        <s v="CU04 - Modificar - Eliminar Usuario"/>
+        <s v="CU10 - Ubicar Amigos - Radar"/>
+        <s v="CU11 - Compartir Ubicacion"/>
+        <s v="CU15 - Modificar - Eliminar Sitio"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Análisis" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="3" maxValue="20"/>
+    </cacheField>
+    <cacheField name="Diseño" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="20"/>
+    </cacheField>
+    <cacheField name="Codificación" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="85"/>
+    </cacheField>
+    <cacheField name="Pruebas y ajustes" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="10" count="6">
+        <n v="10"/>
+        <n v="5"/>
+        <n v="1"/>
+        <n v="7"/>
+        <n v="9"/>
+        <n v="8"/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="37">
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="Fase 1: Configuración"/>
+    <s v="Plan de Proyecto"/>
+    <n v="18"/>
+    <n v="8"/>
+    <n v="10"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="Fase 1: Configuración"/>
+    <s v="Documento de gestion de configuración (SCM)"/>
+    <n v="12"/>
+    <n v="10"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="Fase 1: Configuración"/>
+    <s v="Documento de calidad"/>
+    <n v="12"/>
+    <n v="2"/>
+    <n v="10"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="Fase 2: Investigación"/>
+    <s v="Investigación JME"/>
+    <n v="20"/>
+    <n v="15"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="Fase 2: Investigación"/>
+    <s v="Definición de ambiente"/>
+    <n v="8"/>
+    <n v="4"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="Fase 2: Investigación"/>
+    <s v="Prueba de concepto (Interfaz móvil)"/>
+    <n v="45"/>
+    <n v="25"/>
+    <n v="20"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="Fase 2: Investigación"/>
+    <s v="Prueba de concepto (Interfaz web)"/>
+    <n v="18"/>
+    <n v="16"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="Fase 2: Investigación"/>
+    <s v="Investigación de framework MVC (REST)"/>
+    <n v="36"/>
+    <n v="20"/>
+    <n v="16"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="Fase 2: Investigación"/>
+    <s v="Investigación Android"/>
+    <n v="290"/>
+    <n v="150"/>
+    <n v="140"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="Fase 2: Investigación"/>
+    <s v="Investigación PostGis"/>
+    <n v="70"/>
+    <n v="35"/>
+    <n v="35"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="Fase 2: Investigación"/>
+    <s v="Documento de estado del arte"/>
+    <n v="35"/>
+    <n v="25"/>
+    <n v="10"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="Fase 3: Elaboración"/>
+    <s v="Documento de especificación de requerimientos"/>
+    <n v="30"/>
+    <n v="10"/>
+    <n v="20"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="Fase 3: Elaboración"/>
+    <s v="Documento de análisis de riesgo"/>
+    <n v="12"/>
+    <n v="2"/>
+    <n v="10"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="Fase 3: Elaboración"/>
+    <s v="Documento de investigación de mercado"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="Fase 3: Elaboración"/>
+    <s v="Documento de investigación de mercado"/>
+    <n v="8"/>
+    <n v="6"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="Fase 3: Elaboración"/>
+    <s v="Documento de Arquitectura"/>
+    <n v="80"/>
+    <n v="45"/>
+    <n v="35"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <s v="Fase 3: Elaboración"/>
+    <s v="Plan de Pruebas"/>
+    <n v="29"/>
+    <n v="4"/>
+    <n v="25"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="Iteración 1: Desarrollo de CU prioridad alta"/>
+    <s v="Investigación"/>
+    <n v="60"/>
+    <n v="30"/>
+    <n v="30"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="3"/>
+    <s v="Iteración 1: Desarrollo de CU prioridad alta"/>
+    <s v="Análisis"/>
+    <n v="75"/>
+    <n v="45"/>
+    <n v="30"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="4"/>
+    <s v="Iteración 1: Desarrollo de CU prioridad alta"/>
+    <s v="Diseño"/>
+    <n v="100"/>
+    <n v="60"/>
+    <n v="40"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="5"/>
+    <s v="Iteración 1: Desarrollo de CU prioridad alta"/>
+    <s v="Codificación"/>
+    <n v="470"/>
+    <n v="250"/>
+    <n v="220"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <s v="Iteración 1: Desarrollo de CU prioridad alta"/>
+    <s v="Pruebas y ajustes"/>
+    <n v="50"/>
+    <n v="25"/>
+    <n v="25"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="Iteración 2: Desarrollo de CU prioridad media"/>
+    <s v="Investigación"/>
+    <n v="40"/>
+    <n v="15"/>
+    <n v="25"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="3"/>
+    <s v="Iteración 2: Desarrollo de CU prioridad media"/>
+    <s v="Análisis"/>
+    <n v="60"/>
+    <n v="25"/>
+    <n v="35"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="4"/>
+    <s v="Iteración 2: Desarrollo de CU prioridad media"/>
+    <s v="Diseño"/>
+    <n v="63"/>
+    <n v="25"/>
+    <n v="38"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="5"/>
+    <s v="Iteración 2: Desarrollo de CU prioridad media"/>
+    <s v="Codificación"/>
+    <n v="284"/>
+    <n v="134"/>
+    <n v="150"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <s v="Iteración 2: Desarrollo de CU prioridad media"/>
+    <s v="Pruebas y ajustes"/>
+    <n v="70"/>
+    <n v="35"/>
+    <n v="35"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="Iteración 3: Desarrollo de CU prioridad baja"/>
+    <s v="Investigación"/>
+    <n v="16"/>
+    <n v="8"/>
+    <n v="8"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="3"/>
+    <s v="Iteración 3: Desarrollo de CU prioridad baja"/>
+    <s v="Análisis"/>
+    <n v="24"/>
+    <n v="12"/>
+    <n v="12"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="4"/>
+    <s v="Iteración 3: Desarrollo de CU prioridad baja"/>
+    <s v="Diseño"/>
+    <n v="30"/>
+    <n v="16"/>
+    <n v="14"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="5"/>
+    <s v="Iteración 3: Desarrollo de CU prioridad baja"/>
+    <s v="Codificación"/>
+    <n v="127"/>
+    <n v="62"/>
+    <n v="65"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <s v="Iteración 3: Desarrollo de CU prioridad baja"/>
+    <s v="Pruebas y ajustes"/>
+    <n v="100"/>
+    <n v="50"/>
+    <n v="50"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <s v="Pruebas y ajustes finales"/>
+    <s v="Pruebas y ajustes finales"/>
+    <n v="180"/>
+    <n v="85"/>
+    <n v="95"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <s v="Documentación"/>
+    <s v="Manual Instalación"/>
+    <n v="13"/>
+    <n v="10"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <s v="Documentación"/>
+    <s v="Manual Usuario"/>
+    <n v="18"/>
+    <n v="14"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <s v="Documentación"/>
+    <s v="Carpeta"/>
+    <n v="300"/>
+    <n v="150"/>
+    <n v="150"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <s v="Presentación"/>
+    <s v="Presentación"/>
+    <n v="32"/>
+    <n v="16"/>
+    <n v="16"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="17">
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="15"/>
+    <n v="16"/>
+    <n v="70"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="15"/>
+    <n v="15"/>
+    <n v="70"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="5"/>
+    <n v="10"/>
+    <n v="45"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="3"/>
+    <n v="10"/>
+    <n v="15"/>
+    <n v="70"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+    <n v="15"/>
+    <n v="20"/>
+    <n v="85"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+    <n v="10"/>
+    <n v="12"/>
+    <n v="55"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+    <n v="5"/>
+    <n v="12"/>
+    <n v="40"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="7"/>
+    <n v="12"/>
+    <n v="12"/>
+    <n v="8"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="8"/>
+    <n v="6"/>
+    <n v="6"/>
+    <n v="8"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="9"/>
+    <n v="6"/>
+    <n v="6"/>
+    <n v="8"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="10"/>
+    <n v="11"/>
+    <n v="15"/>
+    <n v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="11"/>
+    <n v="5"/>
+    <n v="10"/>
+    <n v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="12"/>
+    <n v="20"/>
+    <n v="15"/>
+    <n v="35"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="13"/>
+    <n v="3"/>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="14"/>
+    <n v="8"/>
+    <n v="10"/>
+    <n v="37"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="15"/>
+    <n v="9"/>
+    <n v="14"/>
+    <n v="31"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="16"/>
+    <n v="8"/>
+    <n v="11"/>
+    <n v="30"/>
+    <x v="5"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica3" cacheId="19" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="B61:C65" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="7">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="5">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item m="1" x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Suma de Horas" fld="4" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica2" cacheId="19" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="B43:C50" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="7">
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0" sortType="ascending">
+      <items count="7">
+        <item x="3"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+      <autoSortScope>
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="7">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Suma de Horas" fld="4" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica6" cacheId="43" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="B48:F67" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="6">
+    <pivotField showAll="0">
+      <items count="5">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item m="1" x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="18">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="13"/>
+        <item x="3"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="11"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="16"/>
+        <item x="6"/>
+        <item x="12"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0">
+      <items count="7">
+        <item x="2"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="18">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
+  </colItems>
+  <dataFields count="4">
+    <dataField name="Suma de Análisis" fld="2" baseField="0" baseItem="0"/>
+    <dataField name="Suma de Diseño" fld="3" baseField="0" baseItem="0"/>
+    <dataField name="Suma de Codificación" fld="4" baseField="0" baseItem="0"/>
+    <dataField name="Suma de Pruebas y ajustes" fld="5" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica5" cacheId="43" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="B30:F35" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="6">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="5">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item m="1" x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
+  </colItems>
+  <dataFields count="4">
+    <dataField name="Suma de Análisis" fld="2" baseField="0" baseItem="0"/>
+    <dataField name="Suma de Diseño" fld="3" baseField="0" baseItem="0"/>
+    <dataField name="Suma de Codificación" fld="4" baseField="0" baseItem="0"/>
+    <dataField name="Suma de Pruebas y ajustes" fld="5" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="4">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="3" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -895,18 +3232,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:AV41"/>
+  <dimension ref="A1:AV78"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="7" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" style="2"/>
-    <col min="3" max="3" width="18.28515625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" style="2" customWidth="1"/>
     <col min="4" max="4" width="27.28515625" style="2" customWidth="1"/>
     <col min="5" max="5" width="33.85546875" style="2" customWidth="1"/>
     <col min="6" max="6" width="7.7109375" style="2" customWidth="1"/>
@@ -916,8 +3252,8 @@
     <col min="49" max="16384" width="10.5703125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" s="1" customFormat="1"/>
-    <row r="2" spans="2:8" ht="30.75" customHeight="1">
+    <row r="1" spans="2:8" s="1" customFormat="1" ht="15.75" thickBot="1"/>
+    <row r="2" spans="2:8" ht="30.75" customHeight="1" thickBot="1">
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
@@ -940,18 +3276,18 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="2:8" hidden="1">
+    <row r="3" spans="2:8">
       <c r="B3" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="E3" s="5" t="s">
         <v>9</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>10</v>
       </c>
       <c r="F3" s="5">
         <f>G3+H3</f>
@@ -964,21 +3300,21 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="30" hidden="1">
+    <row r="4" spans="2:8" ht="30">
       <c r="B4" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>9</v>
-      </c>
       <c r="E4" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F4" s="5">
-        <f t="shared" ref="F4:F35" si="0">G4+H4</f>
+        <f t="shared" ref="F4:F39" si="0">G4+H4</f>
         <v>12</v>
       </c>
       <c r="G4" s="5">
@@ -988,18 +3324,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:8" hidden="1">
+    <row r="5" spans="2:8">
       <c r="B5" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>9</v>
-      </c>
       <c r="E5" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F5" s="5">
         <f t="shared" si="0"/>
@@ -1012,18 +3348,18 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="2:8" hidden="1">
+    <row r="6" spans="2:8">
       <c r="B6" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="5" t="s">
         <v>13</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>15</v>
       </c>
       <c r="F6" s="5">
         <f t="shared" si="0"/>
@@ -1036,18 +3372,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="2:8" hidden="1">
+    <row r="7" spans="2:8">
       <c r="B7" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="D7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="5" t="s">
         <v>14</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>16</v>
       </c>
       <c r="F7" s="5">
         <f t="shared" si="0"/>
@@ -1060,18 +3396,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="2:8" hidden="1">
+    <row r="8" spans="2:8">
       <c r="B8" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" si="0"/>
@@ -1084,18 +3420,18 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="2:8" hidden="1">
+    <row r="9" spans="2:8">
       <c r="B9" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F9" s="5">
         <f t="shared" si="0"/>
@@ -1108,18 +3444,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="2:8" ht="30" hidden="1">
+    <row r="10" spans="2:8" ht="30">
       <c r="B10" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" si="0"/>
@@ -1132,18 +3468,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="2:8" hidden="1">
+    <row r="11" spans="2:8">
       <c r="B11" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" si="0"/>
@@ -1156,66 +3492,66 @@
         <v>140</v>
       </c>
     </row>
-    <row r="12" spans="2:8" hidden="1">
+    <row r="12" spans="2:8">
       <c r="B12" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F12" s="5">
         <f t="shared" si="0"/>
         <v>70</v>
       </c>
       <c r="G12" s="5">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H12" s="6">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8" hidden="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8">
       <c r="B13" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F13" s="5">
         <f t="shared" si="0"/>
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G13" s="5">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="H13" s="6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8" ht="30" hidden="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" ht="30">
       <c r="B14" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F14" s="5">
         <f t="shared" si="0"/>
@@ -1228,18 +3564,18 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="2:8" hidden="1">
+    <row r="15" spans="2:8">
       <c r="B15" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="D15" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" s="5" t="s">
         <v>23</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>25</v>
       </c>
       <c r="F15" s="5">
         <f t="shared" si="0"/>
@@ -1252,265 +3588,265 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="2:8" ht="30" hidden="1">
+    <row r="16" spans="2:8" ht="30">
       <c r="B16" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>8</v>
+        <v>73</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F16" s="5">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G16" s="5">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H16" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" hidden="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" ht="30">
       <c r="B17" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F17" s="5">
         <f t="shared" si="0"/>
-        <v>80</v>
+        <v>8</v>
       </c>
       <c r="G17" s="5">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="H17" s="6">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" hidden="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8">
       <c r="B18" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F18" s="5">
         <f t="shared" si="0"/>
-        <v>29</v>
+        <v>80</v>
       </c>
       <c r="G18" s="5">
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="H18" s="6">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" ht="30">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8">
       <c r="B19" s="5" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="F19" s="5">
         <f t="shared" si="0"/>
-        <v>75</v>
+        <v>29</v>
       </c>
       <c r="G19" s="5">
-        <v>45</v>
+        <v>4</v>
       </c>
       <c r="H19" s="6">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" spans="2:8" ht="30">
       <c r="B20" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D20" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C20" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>32</v>
-      </c>
       <c r="E20" s="5" t="s">
-        <v>34</v>
+        <v>73</v>
       </c>
       <c r="F20" s="5">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="G20" s="5">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="H20" s="6">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="2:8" ht="30">
       <c r="B21" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D21" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C21" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>32</v>
-      </c>
       <c r="E21" s="5" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F21" s="5">
         <f t="shared" si="0"/>
-        <v>530</v>
+        <v>75</v>
       </c>
       <c r="G21" s="5">
-        <v>280</v>
+        <v>45</v>
       </c>
       <c r="H21" s="6">
-        <v>250</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="2:8" ht="30">
       <c r="B22" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D22" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C22" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D22" s="5" t="s">
+      <c r="E22" s="5" t="s">
         <v>32</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>36</v>
       </c>
       <c r="F22" s="5">
         <f t="shared" si="0"/>
-        <v>55</v>
+        <v>100</v>
       </c>
       <c r="G22" s="5">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="H22" s="6">
-        <v>25</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23" spans="2:8" ht="30">
       <c r="B23" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D23" s="5" t="s">
         <v>30</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>37</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>33</v>
       </c>
       <c r="F23" s="5">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>470</v>
       </c>
       <c r="G23" s="5">
-        <v>25</v>
+        <v>250</v>
       </c>
       <c r="H23" s="6">
-        <v>35</v>
+        <v>220</v>
       </c>
     </row>
     <row r="24" spans="2:8" ht="30">
       <c r="B24" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" s="5" t="s">
         <v>30</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>37</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>34</v>
       </c>
       <c r="F24" s="5">
         <f t="shared" si="0"/>
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="G24" s="5">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="H24" s="6">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" spans="2:8" ht="30">
       <c r="B25" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C25" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D25" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D25" s="5" t="s">
-        <v>37</v>
-      </c>
       <c r="E25" s="5" t="s">
-        <v>35</v>
+        <v>73</v>
       </c>
       <c r="F25" s="5">
         <f t="shared" si="0"/>
-        <v>305</v>
+        <v>40</v>
       </c>
       <c r="G25" s="5">
-        <v>155</v>
+        <v>15</v>
       </c>
       <c r="H25" s="6">
-        <v>150</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" spans="2:8" ht="30">
       <c r="B26" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F26" s="5">
         <f t="shared" si="0"/>
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="G26" s="5">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="H26" s="6">
         <v>35</v>
@@ -1518,788 +3854,1800 @@
     </row>
     <row r="27" spans="2:8" ht="30">
       <c r="B27" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F27" s="5">
         <f t="shared" si="0"/>
-        <v>27</v>
+        <v>63</v>
       </c>
       <c r="G27" s="5">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="H27" s="6">
-        <v>15</v>
+        <v>38</v>
       </c>
     </row>
     <row r="28" spans="2:8" ht="30">
       <c r="B28" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F28" s="5">
-        <f>G28+H28</f>
-        <v>31</v>
+        <f t="shared" si="0"/>
+        <v>284</v>
       </c>
       <c r="G28" s="5">
-        <v>16</v>
+        <v>134</v>
       </c>
       <c r="H28" s="6">
-        <v>15</v>
+        <v>150</v>
       </c>
     </row>
     <row r="29" spans="2:8" ht="30">
       <c r="B29" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C29" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D29" s="5" t="s">
-        <v>38</v>
-      </c>
       <c r="E29" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F29" s="5">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="G29" s="5">
         <v>35</v>
       </c>
-      <c r="F29" s="5">
-        <f t="shared" ref="F29:F30" si="1">G29+H29</f>
-        <v>135</v>
-      </c>
-      <c r="G29" s="5">
-        <v>65</v>
-      </c>
       <c r="H29" s="6">
-        <v>70</v>
+        <v>35</v>
       </c>
     </row>
     <row r="30" spans="2:8" ht="30">
       <c r="B30" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C30" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F30" s="5">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="G30" s="5">
+        <v>8</v>
+      </c>
+      <c r="H30" s="6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" ht="30">
+      <c r="B31" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D30" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E30" s="5" t="s">
+      <c r="C31" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D31" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="F30" s="5">
-        <f t="shared" si="1"/>
-        <v>99</v>
-      </c>
-      <c r="G30" s="5">
-        <v>49</v>
-      </c>
-      <c r="H30" s="6">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="31" spans="2:8" hidden="1">
-      <c r="B31" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>40</v>
-      </c>
       <c r="E31" s="5" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="F31" s="5">
         <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="G31" s="5">
+        <v>12</v>
+      </c>
+      <c r="H31" s="6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" ht="30">
+      <c r="B32" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F32" s="5">
+        <f>G32+H32</f>
+        <v>30</v>
+      </c>
+      <c r="G32" s="5">
+        <v>16</v>
+      </c>
+      <c r="H32" s="6">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" ht="30">
+      <c r="B33" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F33" s="5">
+        <f t="shared" ref="F33:F34" si="1">G33+H33</f>
+        <v>127</v>
+      </c>
+      <c r="G33" s="5">
+        <v>62</v>
+      </c>
+      <c r="H33" s="6">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" ht="30">
+      <c r="B34" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F34" s="5">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="G34" s="5">
+        <v>50</v>
+      </c>
+      <c r="H34" s="6">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8">
+      <c r="B35" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F35" s="5">
+        <f t="shared" si="0"/>
         <v>180</v>
       </c>
-      <c r="G31" s="5">
+      <c r="G35" s="5">
         <v>85</v>
       </c>
-      <c r="H31" s="6">
+      <c r="H35" s="6">
         <v>95</v>
       </c>
     </row>
-    <row r="32" spans="2:8" hidden="1">
-      <c r="B32" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="E32" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="F32" s="5">
+    <row r="36" spans="2:8">
+      <c r="B36" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F36" s="5">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="G32" s="5">
+      <c r="G36" s="5">
         <v>10</v>
       </c>
-      <c r="H32" s="6">
+      <c r="H36" s="6">
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="2:8" hidden="1">
-      <c r="B33" s="5" t="s">
+    <row r="37" spans="2:8">
+      <c r="B37" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E37" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C33" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="E33" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="F33" s="5">
+      <c r="F37" s="5">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="G33" s="5">
-        <v>16</v>
-      </c>
-      <c r="H33" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="2:8" hidden="1">
-      <c r="B34" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D34" s="5" t="s">
+      <c r="G37" s="5">
+        <v>14</v>
+      </c>
+      <c r="H37" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8">
+      <c r="B38" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E38" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="E34" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="F34" s="5">
+      <c r="F38" s="5">
         <f t="shared" si="0"/>
         <v>300</v>
       </c>
-      <c r="G34" s="5">
+      <c r="G38" s="5">
         <v>150</v>
       </c>
-      <c r="H34" s="6">
+      <c r="H38" s="6">
         <v>150</v>
       </c>
     </row>
-    <row r="35" spans="2:8" hidden="1">
-      <c r="B35" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F35" s="5">
+    <row r="39" spans="2:8">
+      <c r="B39" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F39" s="5">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="G35" s="5">
+      <c r="G39" s="5">
         <v>16</v>
       </c>
-      <c r="H35" s="6">
+      <c r="H39" s="6">
         <v>16</v>
       </c>
     </row>
-    <row r="36" spans="2:8">
-      <c r="B36" s="7"/>
-      <c r="C36" s="7"/>
-      <c r="D36" s="7"/>
-      <c r="E36" s="7"/>
-      <c r="F36" s="7"/>
-      <c r="G36" s="7"/>
-      <c r="H36" s="8"/>
-    </row>
-    <row r="39" spans="2:8">
-      <c r="E39" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="F39" s="2">
-        <f>SUM(F3:F36)</f>
-        <v>2820</v>
-      </c>
-      <c r="G39" s="2">
-        <f t="shared" ref="G39:H39" si="2">SUM(G3:G36)</f>
-        <v>1479</v>
-      </c>
-      <c r="H39" s="2">
-        <f t="shared" si="2"/>
-        <v>1341</v>
-      </c>
+    <row r="40" spans="2:8">
+      <c r="B40" s="14"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
+      <c r="F40" s="14"/>
+      <c r="G40" s="14"/>
+      <c r="H40" s="15"/>
     </row>
     <row r="41" spans="2:8">
-      <c r="E41" s="2">
-        <v>341</v>
-      </c>
-      <c r="F41" s="10">
-        <f>F39/E41/2</f>
-        <v>4.1348973607038122</v>
-      </c>
-      <c r="G41" s="2" t="s">
-        <v>48</v>
-      </c>
+      <c r="B41" s="14"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
+      <c r="F41" s="14"/>
+      <c r="G41" s="14"/>
+      <c r="H41" s="15"/>
+    </row>
+    <row r="43" spans="2:8">
+      <c r="B43" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C43" t="s">
+        <v>72</v>
+      </c>
+      <c r="D43"/>
+    </row>
+    <row r="44" spans="2:8">
+      <c r="B44" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C44" s="13">
+        <v>159</v>
+      </c>
+      <c r="D44"/>
+    </row>
+    <row r="45" spans="2:8">
+      <c r="B45" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C45" s="13">
+        <v>193</v>
+      </c>
+      <c r="D45"/>
+    </row>
+    <row r="46" spans="2:8">
+      <c r="B46" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C46" s="13">
+        <v>429</v>
+      </c>
+      <c r="D46"/>
+    </row>
+    <row r="47" spans="2:8">
+      <c r="B47" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C47" s="13">
+        <v>570</v>
+      </c>
+      <c r="D47"/>
+    </row>
+    <row r="48" spans="2:8">
+      <c r="B48" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="C48" s="13">
+        <v>603</v>
+      </c>
+      <c r="D48"/>
+    </row>
+    <row r="49" spans="2:4">
+      <c r="B49" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C49" s="13">
+        <v>881</v>
+      </c>
+      <c r="D49"/>
+    </row>
+    <row r="50" spans="2:4">
+      <c r="B50" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="C50" s="13">
+        <v>2835</v>
+      </c>
+      <c r="D50"/>
+    </row>
+    <row r="51" spans="2:4">
+      <c r="B51"/>
+      <c r="C51"/>
+      <c r="D51"/>
+    </row>
+    <row r="52" spans="2:4">
+      <c r="B52"/>
+      <c r="C52"/>
+      <c r="D52"/>
+    </row>
+    <row r="53" spans="2:4">
+      <c r="B53"/>
+      <c r="C53"/>
+      <c r="D53"/>
+    </row>
+    <row r="54" spans="2:4">
+      <c r="B54"/>
+      <c r="C54"/>
+      <c r="D54"/>
+    </row>
+    <row r="55" spans="2:4">
+      <c r="B55"/>
+      <c r="C55"/>
+      <c r="D55"/>
+    </row>
+    <row r="56" spans="2:4">
+      <c r="B56"/>
+      <c r="C56"/>
+      <c r="D56"/>
+    </row>
+    <row r="57" spans="2:4">
+      <c r="B57"/>
+      <c r="C57"/>
+      <c r="D57"/>
+    </row>
+    <row r="58" spans="2:4">
+      <c r="B58"/>
+      <c r="C58"/>
+      <c r="D58"/>
+    </row>
+    <row r="59" spans="2:4">
+      <c r="B59"/>
+      <c r="C59"/>
+      <c r="D59"/>
+    </row>
+    <row r="60" spans="2:4">
+      <c r="B60"/>
+      <c r="C60"/>
+      <c r="D60"/>
+    </row>
+    <row r="61" spans="2:4">
+      <c r="B61" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C61" t="s">
+        <v>72</v>
+      </c>
+      <c r="D61"/>
+    </row>
+    <row r="62" spans="2:4">
+      <c r="B62" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C62" s="13">
+        <v>723</v>
+      </c>
+      <c r="D62"/>
+    </row>
+    <row r="63" spans="2:4">
+      <c r="B63" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C63" s="13">
+        <v>1569</v>
+      </c>
+      <c r="D63"/>
+    </row>
+    <row r="64" spans="2:4">
+      <c r="B64" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C64" s="13">
+        <v>543</v>
+      </c>
+      <c r="D64"/>
+    </row>
+    <row r="65" spans="2:4">
+      <c r="B65" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="C65" s="13">
+        <v>2835</v>
+      </c>
+      <c r="D65"/>
+    </row>
+    <row r="66" spans="2:4">
+      <c r="B66"/>
+      <c r="C66"/>
+      <c r="D66"/>
+    </row>
+    <row r="67" spans="2:4">
+      <c r="B67"/>
+      <c r="C67"/>
+      <c r="D67"/>
+    </row>
+    <row r="68" spans="2:4">
+      <c r="B68"/>
+      <c r="C68"/>
+      <c r="D68"/>
+    </row>
+    <row r="69" spans="2:4">
+      <c r="B69"/>
+      <c r="C69"/>
+      <c r="D69"/>
+    </row>
+    <row r="70" spans="2:4">
+      <c r="B70"/>
+      <c r="C70"/>
+      <c r="D70"/>
+    </row>
+    <row r="71" spans="2:4">
+      <c r="B71"/>
+      <c r="C71"/>
+      <c r="D71"/>
+    </row>
+    <row r="72" spans="2:4">
+      <c r="B72"/>
+      <c r="C72"/>
+      <c r="D72"/>
+    </row>
+    <row r="73" spans="2:4">
+      <c r="B73"/>
+      <c r="C73"/>
+      <c r="D73"/>
+    </row>
+    <row r="74" spans="2:4">
+      <c r="B74"/>
+      <c r="C74"/>
+      <c r="D74"/>
+    </row>
+    <row r="75" spans="2:4">
+      <c r="B75"/>
+      <c r="C75"/>
+      <c r="D75"/>
+    </row>
+    <row r="76" spans="2:4">
+      <c r="B76"/>
+      <c r="C76"/>
+      <c r="D76"/>
+    </row>
+    <row r="77" spans="2:4">
+      <c r="B77"/>
+      <c r="C77"/>
+      <c r="D77"/>
+    </row>
+    <row r="78" spans="2:4">
+      <c r="B78"/>
+      <c r="C78"/>
+      <c r="D78"/>
     </row>
   </sheetData>
-  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
-  <autoFilter ref="A2:AV35">
-    <filterColumn colId="3">
-      <filters>
-        <filter val="Iteración 1: Desarrollo de CU prioridad alta"/>
-        <filter val="Iteración 2: Desarrollo de CU prioridad media"/>
-        <filter val="Iteración 3: Desarrollo de CU prioridad baja"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555551" footer="0.51180555555555551"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter alignWithMargins="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:H27"/>
+  <dimension ref="B2:I84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F46" sqref="F46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" style="2"/>
-    <col min="2" max="2" width="34.5703125" style="2" customWidth="1"/>
-    <col min="3" max="4" width="10.5703125" style="2"/>
-    <col min="5" max="5" width="13.7109375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="15" style="2" customWidth="1"/>
-    <col min="7" max="7" width="15.5703125" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="10.5703125" style="2"/>
+    <col min="1" max="1" width="16" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12" style="2" customWidth="1"/>
+    <col min="3" max="3" width="20.5703125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="21.28515625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="19.140625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="15" style="2" customWidth="1"/>
+    <col min="8" max="8" width="15.5703125" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="10.5703125" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8">
-      <c r="B2" s="2" t="s">
+    <row r="2" spans="2:9">
+      <c r="C2" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" ht="31.5">
+      <c r="B4" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9">
+      <c r="B5" s="19" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" ht="31.5">
-      <c r="B4" s="11" t="s">
+      <c r="C5" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="C4" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="G4" s="2" t="s">
+      <c r="D5" s="9">
+        <v>15</v>
+      </c>
+      <c r="E5" s="9">
+        <v>16</v>
+      </c>
+      <c r="F5" s="9">
+        <v>70</v>
+      </c>
+      <c r="G5" s="9">
+        <v>10</v>
+      </c>
+      <c r="H5" s="2">
+        <f>SUM(D5:G5)</f>
+        <v>111</v>
+      </c>
+      <c r="I5" s="10">
+        <f>SUM(H5:H11)</f>
+        <v>665</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9">
+      <c r="B6" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="D6" s="9">
+        <v>15</v>
+      </c>
+      <c r="E6" s="9">
+        <v>15</v>
+      </c>
+      <c r="F6" s="9">
+        <v>70</v>
+      </c>
+      <c r="G6" s="9">
+        <v>10</v>
+      </c>
+      <c r="H6" s="2">
+        <f t="shared" ref="H6:H21" si="0">SUM(D6:G6)</f>
+        <v>110</v>
+      </c>
+      <c r="I6" s="10"/>
+    </row>
+    <row r="7" spans="2:9">
+      <c r="B7" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" s="16" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="C5" s="14">
-        <v>15</v>
-      </c>
-      <c r="D5" s="14">
-        <v>16</v>
-      </c>
-      <c r="E5" s="14">
-        <v>70</v>
-      </c>
-      <c r="F5" s="14">
+      <c r="D7" s="9">
+        <v>5</v>
+      </c>
+      <c r="E7" s="9">
         <v>10</v>
       </c>
-      <c r="G5" s="2">
-        <f>SUM(C5:F5)</f>
-        <v>111</v>
-      </c>
-      <c r="H5" s="17">
-        <f>SUM(G5:G11)</f>
-        <v>665</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="16"/>
-      <c r="B6" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="C6" s="14">
-        <v>15</v>
-      </c>
-      <c r="D6" s="14">
-        <v>15</v>
-      </c>
-      <c r="E6" s="14">
-        <v>70</v>
-      </c>
-      <c r="F6" s="14">
-        <v>10</v>
-      </c>
-      <c r="G6" s="2">
-        <f t="shared" ref="G6:G21" si="0">SUM(C6:F6)</f>
-        <v>110</v>
-      </c>
-      <c r="H6" s="17"/>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="16"/>
-      <c r="B7" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="C7" s="14">
+      <c r="F7" s="9">
+        <v>45</v>
+      </c>
+      <c r="G7" s="9">
         <v>5</v>
       </c>
-      <c r="D7" s="14">
-        <v>10</v>
-      </c>
-      <c r="E7" s="14">
-        <v>45</v>
-      </c>
-      <c r="F7" s="14">
-        <v>5</v>
-      </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <f t="shared" si="0"/>
         <v>65</v>
       </c>
-      <c r="H7" s="17"/>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="16"/>
-      <c r="B8" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="C8" s="14">
+      <c r="I7" s="10"/>
+    </row>
+    <row r="8" spans="2:9">
+      <c r="B8" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8" s="9">
         <v>10</v>
       </c>
-      <c r="D8" s="14">
+      <c r="E8" s="9">
         <v>15</v>
       </c>
-      <c r="E8" s="14">
+      <c r="F8" s="9">
         <v>70</v>
       </c>
-      <c r="F8" s="14">
+      <c r="G8" s="9">
         <v>10</v>
       </c>
-      <c r="G8" s="2">
+      <c r="H8" s="2">
         <f t="shared" si="0"/>
         <v>105</v>
       </c>
-      <c r="H8" s="17"/>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="16"/>
-      <c r="B9" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="C9" s="14">
+      <c r="I8" s="10"/>
+    </row>
+    <row r="9" spans="2:9">
+      <c r="B9" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9" s="9">
         <v>15</v>
       </c>
-      <c r="D9" s="14">
+      <c r="E9" s="9">
         <v>20</v>
       </c>
-      <c r="E9" s="14">
+      <c r="F9" s="9">
         <v>85</v>
       </c>
-      <c r="F9" s="14">
+      <c r="G9" s="9">
         <v>5</v>
       </c>
-      <c r="G9" s="2">
+      <c r="H9" s="2">
         <f t="shared" si="0"/>
         <v>125</v>
       </c>
-      <c r="H9" s="17"/>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="16"/>
-      <c r="B10" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="C10" s="14">
+      <c r="I9" s="10"/>
+    </row>
+    <row r="10" spans="2:9">
+      <c r="B10" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" s="9">
         <v>10</v>
       </c>
-      <c r="D10" s="14">
+      <c r="E10" s="9">
         <v>12</v>
       </c>
-      <c r="E10" s="14">
+      <c r="F10" s="9">
         <v>55</v>
       </c>
-      <c r="F10" s="14">
+      <c r="G10" s="9">
         <v>10</v>
       </c>
-      <c r="G10" s="2">
+      <c r="H10" s="2">
         <f t="shared" si="0"/>
         <v>87</v>
       </c>
-      <c r="H10" s="17"/>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="16"/>
-      <c r="B11" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="C11" s="14">
+      <c r="I10" s="10"/>
+    </row>
+    <row r="11" spans="2:9">
+      <c r="B11" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11" s="9">
         <v>5</v>
       </c>
-      <c r="D11" s="14">
+      <c r="E11" s="9">
         <v>12</v>
       </c>
-      <c r="E11" s="14">
+      <c r="F11" s="9">
         <v>40</v>
       </c>
-      <c r="F11" s="14">
+      <c r="G11" s="9">
         <v>5</v>
       </c>
-      <c r="G11" s="2">
+      <c r="H11" s="2">
         <f t="shared" si="0"/>
         <v>62</v>
       </c>
-      <c r="H11" s="17"/>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="16" t="s">
+      <c r="I11" s="10"/>
+    </row>
+    <row r="12" spans="2:9">
+      <c r="B12" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" s="9">
+        <v>12</v>
+      </c>
+      <c r="E12" s="9">
+        <v>12</v>
+      </c>
+      <c r="F12" s="9">
+        <v>8</v>
+      </c>
+      <c r="G12" s="9">
+        <v>1</v>
+      </c>
+      <c r="H12" s="2">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="I12" s="10">
+        <f>SUM(H12:H17)</f>
+        <v>197</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9">
+      <c r="B13" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="D13" s="9">
+        <v>6</v>
+      </c>
+      <c r="E13" s="9">
+        <v>6</v>
+      </c>
+      <c r="F13" s="9">
+        <v>8</v>
+      </c>
+      <c r="G13" s="9">
+        <v>1</v>
+      </c>
+      <c r="H13" s="2">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="I13" s="10"/>
+    </row>
+    <row r="14" spans="2:9">
+      <c r="B14" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="D14" s="9">
+        <v>6</v>
+      </c>
+      <c r="E14" s="9">
+        <v>6</v>
+      </c>
+      <c r="F14" s="9">
+        <v>8</v>
+      </c>
+      <c r="G14" s="9">
+        <v>1</v>
+      </c>
+      <c r="H14" s="2">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="I14" s="10"/>
+    </row>
+    <row r="15" spans="2:9">
+      <c r="B15" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="D15" s="9">
+        <v>11</v>
+      </c>
+      <c r="E15" s="9">
+        <v>15</v>
+      </c>
+      <c r="F15" s="9">
+        <v>1</v>
+      </c>
+      <c r="G15" s="9">
+        <v>1</v>
+      </c>
+      <c r="H15" s="2">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="I15" s="10"/>
+    </row>
+    <row r="16" spans="2:9">
+      <c r="B16" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="C16" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="C12" s="14">
-        <v>12</v>
-      </c>
-      <c r="D12" s="14">
-        <v>12</v>
-      </c>
-      <c r="E12" s="14">
-        <v>8</v>
-      </c>
-      <c r="F12" s="14"/>
-      <c r="G12" s="2">
+      <c r="D16" s="9">
+        <v>5</v>
+      </c>
+      <c r="E16" s="9">
+        <v>10</v>
+      </c>
+      <c r="F16" s="9">
+        <v>1</v>
+      </c>
+      <c r="G16" s="9">
+        <v>1</v>
+      </c>
+      <c r="H16" s="2">
         <f t="shared" si="0"/>
-        <v>32</v>
-      </c>
-      <c r="H12" s="17">
-        <f>SUM(G12:G17)</f>
-        <v>190</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="16"/>
-      <c r="B13" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="I16" s="10"/>
+    </row>
+    <row r="17" spans="2:9">
+      <c r="B17" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="C13" s="14">
-        <v>6</v>
-      </c>
-      <c r="D13" s="14">
-        <v>6</v>
-      </c>
-      <c r="E13" s="14">
-        <v>8</v>
-      </c>
-      <c r="F13" s="14"/>
-      <c r="G13" s="2">
-        <f t="shared" si="0"/>
+      <c r="D17" s="9">
         <v>20</v>
       </c>
-      <c r="H13" s="17"/>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="16"/>
-      <c r="B14" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="C14" s="14">
-        <v>6</v>
-      </c>
-      <c r="D14" s="14">
-        <v>6</v>
-      </c>
-      <c r="E14" s="14">
-        <v>8</v>
-      </c>
-      <c r="F14" s="14"/>
-      <c r="G14" s="2">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="H14" s="17"/>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="16"/>
-      <c r="B15" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="C15" s="14">
-        <v>11</v>
-      </c>
-      <c r="D15" s="14">
+      <c r="E17" s="9">
         <v>15</v>
       </c>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="2">
-        <f t="shared" si="0"/>
-        <v>26</v>
-      </c>
-      <c r="H15" s="17"/>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="16"/>
-      <c r="B16" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="C16" s="14">
-        <v>5</v>
-      </c>
-      <c r="D16" s="14">
-        <v>10</v>
-      </c>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="2">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="H16" s="17"/>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="16"/>
-      <c r="B17" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="C17" s="14">
-        <v>20</v>
-      </c>
-      <c r="D17" s="14">
-        <v>15</v>
-      </c>
-      <c r="E17" s="14">
+      <c r="F17" s="9">
         <v>35</v>
       </c>
-      <c r="F17" s="14">
+      <c r="G17" s="9">
         <v>7</v>
       </c>
-      <c r="G17" s="2">
+      <c r="H17" s="2">
         <f t="shared" si="0"/>
         <v>77</v>
       </c>
-      <c r="H17" s="17"/>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="B18" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="2">
+      <c r="I17" s="10"/>
+    </row>
+    <row r="18" spans="2:9">
+      <c r="B18" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="D18" s="9">
+        <v>3</v>
+      </c>
+      <c r="E18" s="9">
+        <v>1</v>
+      </c>
+      <c r="F18" s="9">
+        <v>1</v>
+      </c>
+      <c r="G18" s="9">
+        <v>1</v>
+      </c>
+      <c r="H18" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H18" s="17">
-        <f>SUM(G18:G21)</f>
-        <v>175</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="16"/>
-      <c r="B19" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="C19" s="14">
+        <v>6</v>
+      </c>
+      <c r="I18" s="10">
+        <f>SUM(H18:H21)</f>
+        <v>182</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9">
+      <c r="B19" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="D19" s="9">
         <v>8</v>
       </c>
-      <c r="D19" s="14">
+      <c r="E19" s="9">
         <v>10</v>
       </c>
-      <c r="E19" s="14">
+      <c r="F19" s="9">
         <v>37</v>
       </c>
-      <c r="F19" s="14"/>
-      <c r="G19" s="2">
+      <c r="G19" s="9">
+        <v>1</v>
+      </c>
+      <c r="H19" s="2">
         <f t="shared" si="0"/>
-        <v>55</v>
-      </c>
-      <c r="H19" s="17"/>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="16"/>
-      <c r="B20" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="C20" s="14">
+        <v>56</v>
+      </c>
+      <c r="I19" s="10"/>
+    </row>
+    <row r="20" spans="2:9">
+      <c r="B20" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="D20" s="9">
         <v>9</v>
       </c>
-      <c r="D20" s="14">
+      <c r="E20" s="9">
         <v>14</v>
       </c>
-      <c r="E20" s="14">
+      <c r="F20" s="9">
         <v>31</v>
       </c>
-      <c r="F20" s="14">
+      <c r="G20" s="9">
         <v>9</v>
       </c>
-      <c r="G20" s="2">
+      <c r="H20" s="2">
         <f t="shared" si="0"/>
         <v>63</v>
       </c>
-      <c r="H20" s="17"/>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="16"/>
-      <c r="B21" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="C21" s="14">
+      <c r="I20" s="10"/>
+    </row>
+    <row r="21" spans="2:9">
+      <c r="B21" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="D21" s="9">
         <v>8</v>
       </c>
-      <c r="D21" s="14">
+      <c r="E21" s="9">
         <v>11</v>
       </c>
-      <c r="E21" s="14">
+      <c r="F21" s="9">
         <v>30</v>
       </c>
-      <c r="F21" s="14">
+      <c r="G21" s="9">
         <v>8</v>
       </c>
-      <c r="G21" s="2">
+      <c r="H21" s="2">
         <f t="shared" si="0"/>
         <v>57</v>
       </c>
-      <c r="H21" s="17"/>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="B22" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="C22" s="2">
-        <f>SUM(C5:C21)</f>
-        <v>160</v>
+      <c r="I21" s="10"/>
+    </row>
+    <row r="22" spans="2:9">
+      <c r="C22" s="18" t="s">
+        <v>69</v>
       </c>
       <c r="D22" s="2">
-        <f t="shared" ref="D22:F22" si="1">SUM(D5:D21)</f>
-        <v>199</v>
+        <f>SUM(D5:D21)</f>
+        <v>163</v>
       </c>
       <c r="E22" s="2">
-        <f t="shared" si="1"/>
-        <v>592</v>
+        <f t="shared" ref="E22:G22" si="1">SUM(E5:E21)</f>
+        <v>200</v>
       </c>
       <c r="F22" s="2">
         <f t="shared" si="1"/>
+        <v>595</v>
+      </c>
+      <c r="G22" s="2">
+        <f t="shared" si="1"/>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9">
+      <c r="C25" s="2">
+        <v>1</v>
+      </c>
+      <c r="D25" s="2">
+        <v>75</v>
+      </c>
+      <c r="E25" s="2">
+        <v>100</v>
+      </c>
+      <c r="F25" s="2">
+        <v>530</v>
+      </c>
+      <c r="G25" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9">
+      <c r="C26" s="2">
+        <v>2</v>
+      </c>
+      <c r="D26" s="2">
+        <v>60</v>
+      </c>
+      <c r="E26" s="2">
+        <v>65</v>
+      </c>
+      <c r="F26" s="2">
+        <v>305</v>
+      </c>
+      <c r="G26" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9">
+      <c r="C27" s="2">
+        <v>3</v>
+      </c>
+      <c r="D27" s="2">
+        <v>27</v>
+      </c>
+      <c r="E27" s="2">
+        <v>31</v>
+      </c>
+      <c r="F27" s="2">
+        <v>135</v>
+      </c>
+      <c r="G27" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9">
+      <c r="B30"/>
+      <c r="C30" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D30"/>
+      <c r="E30"/>
+      <c r="F30"/>
+    </row>
+    <row r="31" spans="2:9">
+      <c r="B31" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C31" t="s">
+        <v>75</v>
+      </c>
+      <c r="D31" t="s">
+        <v>77</v>
+      </c>
+      <c r="E31" t="s">
+        <v>78</v>
+      </c>
+      <c r="F31" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
-      <c r="B25" s="2">
+    <row r="32" spans="2:9">
+      <c r="B32" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C32" s="13">
+        <v>75</v>
+      </c>
+      <c r="D32" s="13">
+        <v>100</v>
+      </c>
+      <c r="E32" s="13">
+        <v>435</v>
+      </c>
+      <c r="F32" s="13">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6">
+      <c r="B33" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="C33" s="13">
+        <v>60</v>
+      </c>
+      <c r="D33" s="13">
+        <v>64</v>
+      </c>
+      <c r="E33" s="13">
+        <v>61</v>
+      </c>
+      <c r="F33" s="13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6">
+      <c r="B34" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="C34" s="13">
+        <v>28</v>
+      </c>
+      <c r="D34" s="13">
+        <v>36</v>
+      </c>
+      <c r="E34" s="13">
+        <v>99</v>
+      </c>
+      <c r="F34" s="13">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6">
+      <c r="B35" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="C35" s="13">
+        <v>163</v>
+      </c>
+      <c r="D35" s="13">
+        <v>200</v>
+      </c>
+      <c r="E35" s="13">
+        <v>595</v>
+      </c>
+      <c r="F35" s="13">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6">
+      <c r="B36"/>
+      <c r="C36"/>
+      <c r="D36"/>
+    </row>
+    <row r="37" spans="2:6">
+      <c r="B37"/>
+      <c r="C37"/>
+      <c r="D37"/>
+    </row>
+    <row r="38" spans="2:6">
+      <c r="B38"/>
+      <c r="C38"/>
+      <c r="D38"/>
+    </row>
+    <row r="39" spans="2:6">
+      <c r="B39"/>
+      <c r="C39"/>
+      <c r="D39"/>
+    </row>
+    <row r="40" spans="2:6">
+      <c r="B40"/>
+      <c r="C40"/>
+      <c r="D40"/>
+    </row>
+    <row r="41" spans="2:6">
+      <c r="B41"/>
+      <c r="C41"/>
+      <c r="D41"/>
+    </row>
+    <row r="42" spans="2:6">
+      <c r="B42"/>
+      <c r="C42"/>
+      <c r="D42"/>
+    </row>
+    <row r="43" spans="2:6">
+      <c r="B43"/>
+      <c r="C43"/>
+      <c r="D43"/>
+    </row>
+    <row r="44" spans="2:6">
+      <c r="B44"/>
+      <c r="C44"/>
+      <c r="D44"/>
+    </row>
+    <row r="45" spans="2:6">
+      <c r="B45"/>
+      <c r="C45"/>
+      <c r="D45"/>
+    </row>
+    <row r="46" spans="2:6">
+      <c r="B46"/>
+      <c r="C46"/>
+      <c r="D46"/>
+    </row>
+    <row r="47" spans="2:6">
+      <c r="B47"/>
+      <c r="C47"/>
+      <c r="D47"/>
+    </row>
+    <row r="48" spans="2:6">
+      <c r="B48"/>
+      <c r="C48" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D48"/>
+      <c r="E48"/>
+      <c r="F48"/>
+    </row>
+    <row r="49" spans="2:7">
+      <c r="B49" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C49" t="s">
+        <v>75</v>
+      </c>
+      <c r="D49" t="s">
+        <v>77</v>
+      </c>
+      <c r="E49" t="s">
+        <v>78</v>
+      </c>
+      <c r="F49" t="s">
+        <v>79</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="50" spans="2:7">
+      <c r="B50" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C50" s="13">
+        <v>15</v>
+      </c>
+      <c r="D50" s="13">
+        <v>16</v>
+      </c>
+      <c r="E50" s="13">
+        <v>70</v>
+      </c>
+      <c r="F50" s="13">
+        <v>10</v>
+      </c>
+      <c r="G50" s="2">
+        <f>SUM(C50:F50)</f>
+        <v>111</v>
+      </c>
+    </row>
+    <row r="51" spans="2:7">
+      <c r="B51" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C51" s="13">
+        <v>15</v>
+      </c>
+      <c r="D51" s="13">
+        <v>15</v>
+      </c>
+      <c r="E51" s="13">
+        <v>70</v>
+      </c>
+      <c r="F51" s="13">
+        <v>10</v>
+      </c>
+      <c r="G51" s="2">
+        <f t="shared" ref="G51:G66" si="2">SUM(C51:F51)</f>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="52" spans="2:7">
+      <c r="B52" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C52" s="13">
+        <v>5</v>
+      </c>
+      <c r="D52" s="13">
+        <v>10</v>
+      </c>
+      <c r="E52" s="13">
+        <v>45</v>
+      </c>
+      <c r="F52" s="13">
+        <v>5</v>
+      </c>
+      <c r="G52" s="2">
+        <f t="shared" si="2"/>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="53" spans="2:7">
+      <c r="B53" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="C53" s="13">
+        <v>3</v>
+      </c>
+      <c r="D53" s="13">
         <v>1</v>
       </c>
-      <c r="C25" s="2">
-        <v>75</v>
-      </c>
-      <c r="D25" s="2">
-        <v>100</v>
-      </c>
-      <c r="E25" s="2">
-        <v>530</v>
-      </c>
-      <c r="F25" s="2">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="B26" s="2">
-        <v>2</v>
-      </c>
-      <c r="C26" s="2">
+      <c r="E53" s="13">
+        <v>1</v>
+      </c>
+      <c r="F53" s="13">
+        <v>1</v>
+      </c>
+      <c r="G53" s="2">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54" spans="2:7">
+      <c r="B54" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C54" s="13">
+        <v>10</v>
+      </c>
+      <c r="D54" s="13">
+        <v>15</v>
+      </c>
+      <c r="E54" s="13">
+        <v>70</v>
+      </c>
+      <c r="F54" s="13">
+        <v>10</v>
+      </c>
+      <c r="G54" s="2">
+        <f t="shared" si="2"/>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="55" spans="2:7">
+      <c r="B55" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C55" s="13">
+        <v>12</v>
+      </c>
+      <c r="D55" s="13">
+        <v>12</v>
+      </c>
+      <c r="E55" s="13">
+        <v>8</v>
+      </c>
+      <c r="F55" s="13">
+        <v>1</v>
+      </c>
+      <c r="G55" s="2">
+        <f t="shared" si="2"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="56" spans="2:7">
+      <c r="B56" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C56" s="13">
+        <v>6</v>
+      </c>
+      <c r="D56" s="13">
+        <v>6</v>
+      </c>
+      <c r="E56" s="13">
+        <v>8</v>
+      </c>
+      <c r="F56" s="13">
+        <v>1</v>
+      </c>
+      <c r="G56" s="2">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="57" spans="2:7">
+      <c r="B57" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="D26" s="2">
-        <v>65</v>
-      </c>
-      <c r="E26" s="2">
-        <v>305</v>
-      </c>
-      <c r="F26" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="B27" s="2">
-        <v>3</v>
-      </c>
-      <c r="C27" s="2">
-        <v>27</v>
-      </c>
-      <c r="D27" s="2">
+      <c r="C57" s="13">
+        <v>6</v>
+      </c>
+      <c r="D57" s="13">
+        <v>6</v>
+      </c>
+      <c r="E57" s="13">
+        <v>8</v>
+      </c>
+      <c r="F57" s="13">
+        <v>1</v>
+      </c>
+      <c r="G57" s="2">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="58" spans="2:7">
+      <c r="B58" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C58" s="13">
+        <v>11</v>
+      </c>
+      <c r="D58" s="13">
+        <v>15</v>
+      </c>
+      <c r="E58" s="13">
+        <v>1</v>
+      </c>
+      <c r="F58" s="13">
+        <v>1</v>
+      </c>
+      <c r="G58" s="2">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="59" spans="2:7">
+      <c r="B59" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C59" s="13">
+        <v>8</v>
+      </c>
+      <c r="D59" s="13">
+        <v>10</v>
+      </c>
+      <c r="E59" s="13">
+        <v>37</v>
+      </c>
+      <c r="F59" s="13">
+        <v>1</v>
+      </c>
+      <c r="G59" s="2">
+        <f t="shared" si="2"/>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="60" spans="2:7">
+      <c r="B60" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="C60" s="13">
+        <v>9</v>
+      </c>
+      <c r="D60" s="13">
+        <v>14</v>
+      </c>
+      <c r="E60" s="13">
         <v>31</v>
       </c>
-      <c r="E27" s="2">
-        <v>135</v>
-      </c>
-      <c r="F27" s="2">
-        <v>50</v>
-      </c>
+      <c r="F60" s="13">
+        <v>9</v>
+      </c>
+      <c r="G60" s="2">
+        <f t="shared" si="2"/>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="61" spans="2:7">
+      <c r="B61" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="C61" s="13">
+        <v>5</v>
+      </c>
+      <c r="D61" s="13">
+        <v>10</v>
+      </c>
+      <c r="E61" s="13">
+        <v>1</v>
+      </c>
+      <c r="F61" s="13">
+        <v>1</v>
+      </c>
+      <c r="G61" s="2">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="62" spans="2:7">
+      <c r="B62" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C62" s="13">
+        <v>15</v>
+      </c>
+      <c r="D62" s="13">
+        <v>20</v>
+      </c>
+      <c r="E62" s="13">
+        <v>85</v>
+      </c>
+      <c r="F62" s="13">
+        <v>5</v>
+      </c>
+      <c r="G62" s="2">
+        <f t="shared" si="2"/>
+        <v>125</v>
+      </c>
+    </row>
+    <row r="63" spans="2:7">
+      <c r="B63" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C63" s="13">
+        <v>10</v>
+      </c>
+      <c r="D63" s="13">
+        <v>12</v>
+      </c>
+      <c r="E63" s="13">
+        <v>55</v>
+      </c>
+      <c r="F63" s="13">
+        <v>10</v>
+      </c>
+      <c r="G63" s="2">
+        <f t="shared" si="2"/>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="64" spans="2:7">
+      <c r="B64" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="C64" s="13">
+        <v>8</v>
+      </c>
+      <c r="D64" s="13">
+        <v>11</v>
+      </c>
+      <c r="E64" s="13">
+        <v>30</v>
+      </c>
+      <c r="F64" s="13">
+        <v>8</v>
+      </c>
+      <c r="G64" s="2">
+        <f t="shared" si="2"/>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="65" spans="2:7">
+      <c r="B65" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="C65" s="13">
+        <v>5</v>
+      </c>
+      <c r="D65" s="13">
+        <v>12</v>
+      </c>
+      <c r="E65" s="13">
+        <v>40</v>
+      </c>
+      <c r="F65" s="13">
+        <v>5</v>
+      </c>
+      <c r="G65" s="2">
+        <f t="shared" si="2"/>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="66" spans="2:7">
+      <c r="B66" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="C66" s="13">
+        <v>20</v>
+      </c>
+      <c r="D66" s="13">
+        <v>15</v>
+      </c>
+      <c r="E66" s="13">
+        <v>35</v>
+      </c>
+      <c r="F66" s="13">
+        <v>7</v>
+      </c>
+      <c r="G66" s="2">
+        <f t="shared" si="2"/>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="67" spans="2:7">
+      <c r="B67" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="C67" s="13">
+        <v>163</v>
+      </c>
+      <c r="D67" s="13">
+        <v>200</v>
+      </c>
+      <c r="E67" s="13">
+        <v>595</v>
+      </c>
+      <c r="F67" s="13">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="68" spans="2:7">
+      <c r="B68"/>
+      <c r="C68"/>
+      <c r="D68"/>
+      <c r="E68"/>
+      <c r="F68"/>
+    </row>
+    <row r="69" spans="2:7">
+      <c r="B69"/>
+      <c r="C69"/>
+      <c r="D69"/>
+      <c r="E69"/>
+      <c r="F69"/>
+    </row>
+    <row r="70" spans="2:7">
+      <c r="B70"/>
+      <c r="C70"/>
+      <c r="D70"/>
+      <c r="E70"/>
+      <c r="F70"/>
+    </row>
+    <row r="71" spans="2:7">
+      <c r="B71"/>
+      <c r="C71"/>
+      <c r="D71"/>
+      <c r="E71"/>
+    </row>
+    <row r="72" spans="2:7">
+      <c r="B72"/>
+      <c r="C72"/>
+      <c r="D72"/>
+      <c r="E72"/>
+    </row>
+    <row r="73" spans="2:7">
+      <c r="B73"/>
+      <c r="C73"/>
+      <c r="D73"/>
+      <c r="E73"/>
+    </row>
+    <row r="74" spans="2:7">
+      <c r="B74"/>
+      <c r="C74"/>
+      <c r="D74"/>
+      <c r="E74"/>
+    </row>
+    <row r="75" spans="2:7">
+      <c r="B75"/>
+      <c r="C75"/>
+      <c r="D75"/>
+      <c r="E75"/>
+    </row>
+    <row r="76" spans="2:7">
+      <c r="B76"/>
+      <c r="C76"/>
+      <c r="D76"/>
+      <c r="E76"/>
+    </row>
+    <row r="77" spans="2:7">
+      <c r="B77"/>
+      <c r="C77"/>
+      <c r="D77"/>
+      <c r="E77"/>
+    </row>
+    <row r="78" spans="2:7">
+      <c r="B78"/>
+      <c r="C78"/>
+      <c r="D78"/>
+      <c r="E78"/>
+    </row>
+    <row r="79" spans="2:7">
+      <c r="B79"/>
+      <c r="C79"/>
+      <c r="D79"/>
+      <c r="E79"/>
+    </row>
+    <row r="80" spans="2:7">
+      <c r="B80"/>
+      <c r="C80"/>
+      <c r="D80"/>
+      <c r="E80"/>
+    </row>
+    <row r="81" spans="2:5">
+      <c r="B81"/>
+      <c r="C81"/>
+      <c r="D81"/>
+      <c r="E81"/>
+    </row>
+    <row r="82" spans="2:5">
+      <c r="B82"/>
+      <c r="C82"/>
+      <c r="D82"/>
+      <c r="E82"/>
+    </row>
+    <row r="83" spans="2:5">
+      <c r="B83"/>
+      <c r="C83"/>
+      <c r="D83"/>
+      <c r="E83"/>
+    </row>
+    <row r="84" spans="2:5">
+      <c r="B84"/>
+      <c r="C84"/>
+      <c r="D84"/>
+      <c r="E84"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
-  <mergeCells count="6">
-    <mergeCell ref="A5:A11"/>
-    <mergeCell ref="H5:H11"/>
-    <mergeCell ref="A12:A17"/>
-    <mergeCell ref="H12:H17"/>
-    <mergeCell ref="A18:A21"/>
-    <mergeCell ref="H18:H21"/>
+  <mergeCells count="3">
+    <mergeCell ref="I5:I11"/>
+    <mergeCell ref="I12:I17"/>
+    <mergeCell ref="I18:I21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555551" footer="0.51180555555555551"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
   <headerFooter alignWithMargins="0"/>
+  <drawing r:id="rId4"/>
 </worksheet>
 </file>
--- a/doc/Tareas Esfuerzo.xlsx
+++ b/doc/Tareas Esfuerzo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="3" r:id="rId1"/>
@@ -12,17 +12,17 @@
   </sheets>
   <definedNames>
     <definedName name="__xlnm._FilterDatabase">#REF!</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">General!$B$2:$H$39</definedName>
   </definedNames>
   <calcPr calcId="125725" iterateDelta="1E-4"/>
   <pivotCaches>
-    <pivotCache cacheId="19" r:id="rId3"/>
-    <pivotCache cacheId="43" r:id="rId4"/>
+    <pivotCache cacheId="67" r:id="rId3"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="73">
   <si>
     <t>Etapa</t>
   </si>
@@ -156,12 +156,6 @@
     <t>Presentación</t>
   </si>
   <si>
-    <t>Total</t>
-  </si>
-  <si>
-    <t>Detalle POR CU</t>
-  </si>
-  <si>
     <t>CU</t>
   </si>
   <si>
@@ -247,21 +241,6 @@
   </si>
   <si>
     <t>Iteración</t>
-  </si>
-  <si>
-    <t>Suma de Análisis</t>
-  </si>
-  <si>
-    <t>Valores</t>
-  </si>
-  <si>
-    <t>Suma de Diseño</t>
-  </si>
-  <si>
-    <t>Suma de Codificación</t>
-  </si>
-  <si>
-    <t>Suma de Pruebas y ajustes</t>
   </si>
 </sst>
 </file>
@@ -684,10 +663,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>159</c:v>
+                  <c:v>172</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>193</c:v>
+                  <c:v>203</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>429</c:v>
@@ -696,10 +675,10 @@
                   <c:v>570</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>603</c:v>
+                  <c:v>612</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>881</c:v>
+                  <c:v>848</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -831,10 +810,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>723</c:v>
+                  <c:v>729</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1569</c:v>
+                  <c:v>1562</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>543</c:v>
@@ -887,920 +866,6 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="es-CL"/>
-  <c:pivotSource>
-    <c:name>[Tareas Esfuerzo.xlsx]Por CU!Tabla dinámica5</c:name>
-    <c:fmtId val="0"/>
-  </c:pivotSource>
-  <c:chart>
-    <c:pivotFmts>
-      <c:pivotFmt>
-        <c:idx val="0"/>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="1"/>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="2"/>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="3"/>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-      </c:pivotFmt>
-    </c:pivotFmts>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Por CU'!$C$30:$C$31</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Suma de Análisis</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Por CU'!$B$32:$B$35</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>1er It</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2da It</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3er It</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Por CU'!$C$32:$C$35</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>28</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Por CU'!$D$30:$D$31</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Suma de Diseño</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Por CU'!$B$32:$B$35</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>1er It</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2da It</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3er It</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Por CU'!$D$32:$D$35</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>36</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Por CU'!$E$30:$E$31</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Suma de Codificación</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Por CU'!$B$32:$B$35</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>1er It</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2da It</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3er It</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Por CU'!$E$32:$E$35</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>435</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>61</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>99</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Por CU'!$F$30:$F$31</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Suma de Pruebas y ajustes</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Por CU'!$B$32:$B$35</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>1er It</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2da It</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3er It</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Por CU'!$F$32:$F$35</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>19</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:marker val="1"/>
-        <c:axId val="100553856"/>
-        <c:axId val="100555392"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="100553856"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="b"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100555392"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="100555392"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100553856"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="es-CL"/>
-  <c:pivotSource>
-    <c:name>[Tareas Esfuerzo.xlsx]Por CU!Tabla dinámica6</c:name>
-    <c:fmtId val="0"/>
-  </c:pivotSource>
-  <c:chart>
-    <c:pivotFmts>
-      <c:pivotFmt>
-        <c:idx val="0"/>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="1"/>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="2"/>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="3"/>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-      </c:pivotFmt>
-    </c:pivotFmts>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Por CU'!$C$48:$C$49</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Suma de Análisis</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Por CU'!$B$50:$B$67</c:f>
-              <c:strCache>
-                <c:ptCount val="17"/>
-                <c:pt idx="0">
-                  <c:v>CU01 - Login</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>CU02 - Crear Usuario</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>CU03 - Ver Perfil</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>CU04 - Modificar - Eliminar Usuario</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>CU05 - Buscar Usuario</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>CU06 - Ver Solicitudes de Amistad</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>CU07 - Generar Solicitud de Amistad</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>CU08 - Responder Solicitud de Amistad</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>CU09 - Ver Amigos</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>CU10 - Ubicar Amigos - Radar</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>CU11 - Compartir Ubicacion</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>CU12 - Invitar amigos</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>CU13 - Buscar Sitio</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>CU14 - Crear Sitio</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>CU15 - Modificar - Eliminar Sitio</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>CU16 - Ver Sitio</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>CU17 - Publicar Información</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Por CU'!$C$50:$C$67</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
-                <c:pt idx="0">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>20</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Por CU'!$D$48:$D$49</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Suma de Diseño</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Por CU'!$B$50:$B$67</c:f>
-              <c:strCache>
-                <c:ptCount val="17"/>
-                <c:pt idx="0">
-                  <c:v>CU01 - Login</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>CU02 - Crear Usuario</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>CU03 - Ver Perfil</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>CU04 - Modificar - Eliminar Usuario</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>CU05 - Buscar Usuario</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>CU06 - Ver Solicitudes de Amistad</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>CU07 - Generar Solicitud de Amistad</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>CU08 - Responder Solicitud de Amistad</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>CU09 - Ver Amigos</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>CU10 - Ubicar Amigos - Radar</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>CU11 - Compartir Ubicacion</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>CU12 - Invitar amigos</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>CU13 - Buscar Sitio</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>CU14 - Crear Sitio</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>CU15 - Modificar - Eliminar Sitio</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>CU16 - Ver Sitio</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>CU17 - Publicar Información</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Por CU'!$D$50:$D$67</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
-                <c:pt idx="0">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>15</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Por CU'!$E$48:$E$49</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Suma de Codificación</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Por CU'!$B$50:$B$67</c:f>
-              <c:strCache>
-                <c:ptCount val="17"/>
-                <c:pt idx="0">
-                  <c:v>CU01 - Login</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>CU02 - Crear Usuario</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>CU03 - Ver Perfil</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>CU04 - Modificar - Eliminar Usuario</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>CU05 - Buscar Usuario</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>CU06 - Ver Solicitudes de Amistad</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>CU07 - Generar Solicitud de Amistad</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>CU08 - Responder Solicitud de Amistad</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>CU09 - Ver Amigos</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>CU10 - Ubicar Amigos - Radar</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>CU11 - Compartir Ubicacion</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>CU12 - Invitar amigos</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>CU13 - Buscar Sitio</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>CU14 - Crear Sitio</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>CU15 - Modificar - Eliminar Sitio</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>CU16 - Ver Sitio</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>CU17 - Publicar Información</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Por CU'!$E$50:$E$67</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
-                <c:pt idx="0">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>85</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>35</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Por CU'!$F$48:$F$49</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Suma de Pruebas y ajustes</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Por CU'!$B$50:$B$67</c:f>
-              <c:strCache>
-                <c:ptCount val="17"/>
-                <c:pt idx="0">
-                  <c:v>CU01 - Login</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>CU02 - Crear Usuario</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>CU03 - Ver Perfil</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>CU04 - Modificar - Eliminar Usuario</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>CU05 - Buscar Usuario</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>CU06 - Ver Solicitudes de Amistad</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>CU07 - Generar Solicitud de Amistad</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>CU08 - Responder Solicitud de Amistad</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>CU09 - Ver Amigos</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>CU10 - Ubicar Amigos - Radar</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>CU11 - Compartir Ubicacion</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>CU12 - Invitar amigos</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>CU13 - Buscar Sitio</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>CU14 - Crear Sitio</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>CU15 - Modificar - Eliminar Sitio</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>CU16 - Ver Sitio</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>CU17 - Publicar Información</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Por CU'!$F$50:$F$67</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
-                <c:pt idx="0">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>7</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:axId val="139099520"/>
-        <c:axId val="139281536"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="139099520"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="b"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="139281536"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="139281536"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="139099520"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1813,8 +878,8 @@
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1866,73 +931,8 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="1 Gráfico"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>752474</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="2 Gráfico"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Martin Loureiro" refreshedDate="40987.560084722223" createdVersion="3" refreshedVersion="3" minRefreshableVersion="3" recordCount="37">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Martin Loureiro" refreshedDate="40987.59875474537" createdVersion="3" refreshedVersion="3" minRefreshableVersion="3" recordCount="37">
   <cacheSource type="worksheet">
     <worksheetSource ref="B2:H39" sheet="General"/>
   </cacheSource>
@@ -1962,71 +962,13 @@
       <sharedItems/>
     </cacheField>
     <cacheField name="Horas" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="470"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="6" maxValue="450"/>
     </cacheField>
     <cacheField name="Antonio" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="250"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="2" maxValue="240"/>
     </cacheField>
     <cacheField name="Martín" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="220"/>
-    </cacheField>
-  </cacheFields>
-</pivotCacheDefinition>
-</file>
-
-<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Martin Loureiro" refreshedDate="40987.567424189816" createdVersion="3" refreshedVersion="3" minRefreshableVersion="3" recordCount="17">
-  <cacheSource type="worksheet">
-    <worksheetSource ref="B4:G21" sheet="Por CU"/>
-  </cacheSource>
-  <cacheFields count="6">
-    <cacheField name="Iteración" numFmtId="0">
-      <sharedItems containsBlank="1" count="4">
-        <s v="1er It"/>
-        <s v="2da It"/>
-        <s v="3er It"/>
-        <m u="1"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="CU" numFmtId="0">
-      <sharedItems count="17">
-        <s v="CU01 - Login"/>
-        <s v="CU02 - Crear Usuario"/>
-        <s v="CU03 - Ver Perfil"/>
-        <s v="CU05 - Buscar Usuario"/>
-        <s v="CU13 - Buscar Sitio"/>
-        <s v="CU14 - Crear Sitio"/>
-        <s v="CU16 - Ver Sitio"/>
-        <s v="CU06 - Ver Solicitudes de Amistad"/>
-        <s v="CU07 - Generar Solicitud de Amistad"/>
-        <s v="CU08 - Responder Solicitud de Amistad"/>
-        <s v="CU09 - Ver Amigos"/>
-        <s v="CU12 - Invitar amigos"/>
-        <s v="CU17 - Publicar Información"/>
-        <s v="CU04 - Modificar - Eliminar Usuario"/>
-        <s v="CU10 - Ubicar Amigos - Radar"/>
-        <s v="CU11 - Compartir Ubicacion"/>
-        <s v="CU15 - Modificar - Eliminar Sitio"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="Análisis" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="3" maxValue="20"/>
-    </cacheField>
-    <cacheField name="Diseño" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="20"/>
-    </cacheField>
-    <cacheField name="Codificación" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="85"/>
-    </cacheField>
-    <cacheField name="Pruebas y ajustes" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="10" count="6">
-        <n v="10"/>
-        <n v="5"/>
-        <n v="1"/>
-        <n v="7"/>
-        <n v="9"/>
-        <n v="8"/>
-      </sharedItems>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="2" maxValue="210"/>
     </cacheField>
   </cacheFields>
 </pivotCacheDefinition>
@@ -2156,9 +1098,9 @@
     <x v="1"/>
     <s v="Fase 3: Elaboración"/>
     <s v="Documento de investigación de mercado"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
+    <n v="6"/>
+    <n v="4"/>
+    <n v="2"/>
   </r>
   <r>
     <x v="0"/>
@@ -2192,8 +1134,8 @@
     <x v="1"/>
     <s v="Iteración 1: Desarrollo de CU prioridad alta"/>
     <s v="Investigación"/>
-    <n v="60"/>
-    <n v="30"/>
+    <n v="65"/>
+    <n v="35"/>
     <n v="30"/>
   </r>
   <r>
@@ -2201,27 +1143,27 @@
     <x v="3"/>
     <s v="Iteración 1: Desarrollo de CU prioridad alta"/>
     <s v="Análisis"/>
-    <n v="75"/>
-    <n v="45"/>
-    <n v="30"/>
+    <n v="85"/>
+    <n v="50"/>
+    <n v="35"/>
   </r>
   <r>
     <x v="1"/>
     <x v="4"/>
     <s v="Iteración 1: Desarrollo de CU prioridad alta"/>
     <s v="Diseño"/>
-    <n v="100"/>
+    <n v="105"/>
     <n v="60"/>
-    <n v="40"/>
+    <n v="45"/>
   </r>
   <r>
     <x v="1"/>
     <x v="5"/>
     <s v="Iteración 1: Desarrollo de CU prioridad alta"/>
     <s v="Codificación"/>
-    <n v="470"/>
-    <n v="250"/>
-    <n v="220"/>
+    <n v="450"/>
+    <n v="240"/>
+    <n v="210"/>
   </r>
   <r>
     <x v="1"/>
@@ -2237,36 +1179,36 @@
     <x v="1"/>
     <s v="Iteración 2: Desarrollo de CU prioridad media"/>
     <s v="Investigación"/>
-    <n v="40"/>
-    <n v="15"/>
-    <n v="25"/>
+    <n v="33"/>
+    <n v="13"/>
+    <n v="20"/>
   </r>
   <r>
     <x v="1"/>
     <x v="3"/>
     <s v="Iteración 2: Desarrollo de CU prioridad media"/>
     <s v="Análisis"/>
-    <n v="60"/>
+    <n v="63"/>
     <n v="25"/>
-    <n v="35"/>
+    <n v="38"/>
   </r>
   <r>
     <x v="1"/>
     <x v="4"/>
     <s v="Iteración 2: Desarrollo de CU prioridad media"/>
     <s v="Diseño"/>
-    <n v="63"/>
-    <n v="25"/>
-    <n v="38"/>
+    <n v="68"/>
+    <n v="28"/>
+    <n v="40"/>
   </r>
   <r>
     <x v="1"/>
     <x v="5"/>
     <s v="Iteración 2: Desarrollo de CU prioridad media"/>
     <s v="Codificación"/>
-    <n v="284"/>
-    <n v="134"/>
-    <n v="150"/>
+    <n v="275"/>
+    <n v="130"/>
+    <n v="145"/>
   </r>
   <r>
     <x v="1"/>
@@ -2282,9 +1224,9 @@
     <x v="1"/>
     <s v="Iteración 3: Desarrollo de CU prioridad baja"/>
     <s v="Investigación"/>
-    <n v="16"/>
-    <n v="8"/>
-    <n v="8"/>
+    <n v="21"/>
+    <n v="9"/>
+    <n v="12"/>
   </r>
   <r>
     <x v="1"/>
@@ -2309,8 +1251,8 @@
     <x v="5"/>
     <s v="Iteración 3: Desarrollo de CU prioridad baja"/>
     <s v="Codificación"/>
-    <n v="127"/>
-    <n v="62"/>
+    <n v="123"/>
+    <n v="58"/>
     <n v="65"/>
   </r>
   <r>
@@ -2370,149 +1312,8 @@
 </pivotCacheRecords>
 </file>
 
-<file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="17">
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="15"/>
-    <n v="16"/>
-    <n v="70"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="1"/>
-    <n v="15"/>
-    <n v="15"/>
-    <n v="70"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-    <n v="5"/>
-    <n v="10"/>
-    <n v="45"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="3"/>
-    <n v="10"/>
-    <n v="15"/>
-    <n v="70"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-    <n v="15"/>
-    <n v="20"/>
-    <n v="85"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-    <n v="10"/>
-    <n v="12"/>
-    <n v="55"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-    <n v="5"/>
-    <n v="12"/>
-    <n v="40"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="7"/>
-    <n v="12"/>
-    <n v="12"/>
-    <n v="8"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="8"/>
-    <n v="6"/>
-    <n v="6"/>
-    <n v="8"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="9"/>
-    <n v="6"/>
-    <n v="6"/>
-    <n v="8"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="10"/>
-    <n v="11"/>
-    <n v="15"/>
-    <n v="1"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="11"/>
-    <n v="5"/>
-    <n v="10"/>
-    <n v="1"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="12"/>
-    <n v="20"/>
-    <n v="15"/>
-    <n v="35"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="13"/>
-    <n v="3"/>
-    <n v="1"/>
-    <n v="1"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="14"/>
-    <n v="8"/>
-    <n v="10"/>
-    <n v="37"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="15"/>
-    <n v="9"/>
-    <n v="14"/>
-    <n v="31"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="16"/>
-    <n v="8"/>
-    <n v="11"/>
-    <n v="30"/>
-    <x v="5"/>
-  </r>
-</pivotCacheRecords>
-</file>
-
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica3" cacheId="19" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica3" cacheId="67" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="B61:C65" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField axis="axisRow" showAll="0">
@@ -2570,7 +1371,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica2" cacheId="19" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica2" cacheId="67" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="B43:C50" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField showAll="0"/>
@@ -2638,243 +1439,6 @@
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
             <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica6" cacheId="43" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="B48:F67" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="6">
-    <pivotField showAll="0">
-      <items count="5">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item m="1" x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="18">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="13"/>
-        <item x="3"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="11"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="16"/>
-        <item x="6"/>
-        <item x="12"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0">
-      <items count="7">
-        <item x="2"/>
-        <item x="1"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item x="4"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="1"/>
-  </rowFields>
-  <rowItems count="18">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i>
-      <x v="12"/>
-    </i>
-    <i>
-      <x v="13"/>
-    </i>
-    <i>
-      <x v="14"/>
-    </i>
-    <i>
-      <x v="15"/>
-    </i>
-    <i>
-      <x v="16"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="4">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-    <i i="2">
-      <x v="2"/>
-    </i>
-    <i i="3">
-      <x v="3"/>
-    </i>
-  </colItems>
-  <dataFields count="4">
-    <dataField name="Suma de Análisis" fld="2" baseField="0" baseItem="0"/>
-    <dataField name="Suma de Diseño" fld="3" baseField="0" baseItem="0"/>
-    <dataField name="Suma de Codificación" fld="4" baseField="0" baseItem="0"/>
-    <dataField name="Suma de Pruebas y ajustes" fld="5" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica5" cacheId="43" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="B30:F35" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="6">
-    <pivotField axis="axisRow" showAll="0">
-      <items count="5">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item m="1" x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="4">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="4">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-    <i i="2">
-      <x v="2"/>
-    </i>
-    <i i="3">
-      <x v="3"/>
-    </i>
-  </colItems>
-  <dataFields count="4">
-    <dataField name="Suma de Análisis" fld="2" baseField="0" baseItem="0"/>
-    <dataField name="Suma de Diseño" fld="3" baseField="0" baseItem="0"/>
-    <dataField name="Suma de Codificación" fld="4" baseField="0" baseItem="0"/>
-    <dataField name="Suma de Pruebas y ajustes" fld="5" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="4">
-    <chartFormat chart="0" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="2" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="3" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
           </reference>
         </references>
       </pivotArea>
@@ -3234,8 +1798,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AV78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B56" sqref="B56"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="15"/>
@@ -3353,7 +1917,7 @@
         <v>7</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>12</v>
@@ -3377,7 +1941,7 @@
         <v>7</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>12</v>
@@ -3401,7 +1965,7 @@
         <v>7</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>12</v>
@@ -3425,7 +1989,7 @@
         <v>7</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>12</v>
@@ -3449,7 +2013,7 @@
         <v>7</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>12</v>
@@ -3473,7 +2037,7 @@
         <v>7</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>12</v>
@@ -3497,7 +2061,7 @@
         <v>7</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>12</v>
@@ -3593,7 +2157,7 @@
         <v>7</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>21</v>
@@ -3603,13 +2167,13 @@
       </c>
       <c r="F16" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G16" s="5">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H16" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="2:8" ht="30">
@@ -3689,20 +2253,20 @@
         <v>28</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D20" s="5" t="s">
         <v>30</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F20" s="5">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="G20" s="5">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H20" s="6">
         <v>30</v>
@@ -3723,13 +2287,13 @@
       </c>
       <c r="F21" s="5">
         <f t="shared" si="0"/>
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="G21" s="5">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="H21" s="6">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="2:8" ht="30">
@@ -3747,13 +2311,13 @@
       </c>
       <c r="F22" s="5">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="G22" s="5">
         <v>60</v>
       </c>
       <c r="H22" s="6">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23" spans="2:8" ht="30">
@@ -3771,13 +2335,13 @@
       </c>
       <c r="F23" s="5">
         <f t="shared" si="0"/>
-        <v>470</v>
+        <v>440</v>
       </c>
       <c r="G23" s="5">
-        <v>250</v>
+        <v>230</v>
       </c>
       <c r="H23" s="6">
-        <v>220</v>
+        <v>210</v>
       </c>
     </row>
     <row r="24" spans="2:8" ht="30">
@@ -3809,23 +2373,23 @@
         <v>28</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D25" s="5" t="s">
         <v>35</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F25" s="5">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G25" s="5">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="H25" s="6">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="2:8" ht="30">
@@ -3843,13 +2407,13 @@
       </c>
       <c r="F26" s="5">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G26" s="5">
         <v>25</v>
       </c>
       <c r="H26" s="6">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="2:8" ht="30">
@@ -3867,13 +2431,13 @@
       </c>
       <c r="F27" s="5">
         <f t="shared" si="0"/>
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="G27" s="5">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="H27" s="6">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28" spans="2:8" ht="30">
@@ -3891,13 +2455,13 @@
       </c>
       <c r="F28" s="5">
         <f t="shared" si="0"/>
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="G28" s="5">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="H28" s="6">
-        <v>150</v>
+        <v>145</v>
       </c>
     </row>
     <row r="29" spans="2:8" ht="30">
@@ -3929,23 +2493,23 @@
         <v>28</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D30" s="5" t="s">
         <v>36</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F30" s="5">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="G30" s="5">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H30" s="6">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" spans="2:8" ht="30">
@@ -3963,13 +2527,13 @@
       </c>
       <c r="F31" s="5">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G31" s="5">
         <v>12</v>
       </c>
       <c r="H31" s="6">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="32" spans="2:8" ht="30">
@@ -4011,13 +2575,13 @@
       </c>
       <c r="F33" s="5">
         <f t="shared" ref="F33:F34" si="1">G33+H33</f>
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="G33" s="5">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="H33" s="6">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="34" spans="2:8" ht="30">
@@ -4182,10 +2746,10 @@
     </row>
     <row r="43" spans="2:8">
       <c r="B43" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43" t="s">
         <v>70</v>
-      </c>
-      <c r="C43" t="s">
-        <v>72</v>
       </c>
       <c r="D43"/>
     </row>
@@ -4194,7 +2758,7 @@
         <v>29</v>
       </c>
       <c r="C44" s="13">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="D44"/>
     </row>
@@ -4203,7 +2767,7 @@
         <v>32</v>
       </c>
       <c r="C45" s="13">
-        <v>193</v>
+        <v>203</v>
       </c>
       <c r="D45"/>
     </row>
@@ -4227,10 +2791,10 @@
     </row>
     <row r="48" spans="2:8">
       <c r="B48" s="12" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C48" s="13">
-        <v>603</v>
+        <v>612</v>
       </c>
       <c r="D48"/>
     </row>
@@ -4239,16 +2803,16 @@
         <v>33</v>
       </c>
       <c r="C49" s="13">
-        <v>881</v>
+        <v>848</v>
       </c>
       <c r="D49"/>
     </row>
     <row r="50" spans="2:4">
       <c r="B50" s="12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C50" s="13">
-        <v>2835</v>
+        <v>2834</v>
       </c>
       <c r="D50"/>
     </row>
@@ -4304,10 +2868,10 @@
     </row>
     <row r="61" spans="2:4">
       <c r="B61" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="C61" t="s">
         <v>70</v>
-      </c>
-      <c r="C61" t="s">
-        <v>72</v>
       </c>
       <c r="D61"/>
     </row>
@@ -4316,7 +2880,7 @@
         <v>7</v>
       </c>
       <c r="C62" s="13">
-        <v>723</v>
+        <v>729</v>
       </c>
       <c r="D62"/>
     </row>
@@ -4325,7 +2889,7 @@
         <v>28</v>
       </c>
       <c r="C63" s="13">
-        <v>1569</v>
+        <v>1562</v>
       </c>
       <c r="D63"/>
     </row>
@@ -4340,10 +2904,10 @@
     </row>
     <row r="65" spans="2:4">
       <c r="B65" s="12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C65" s="13">
-        <v>2835</v>
+        <v>2834</v>
       </c>
       <c r="D65"/>
     </row>
@@ -4413,6 +2977,7 @@
       <c r="D78"/>
     </row>
   </sheetData>
+  <autoFilter ref="B2:H39"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId3"/>
 </worksheet>
@@ -4420,1234 +2985,634 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:I84"/>
+  <dimension ref="B3:J25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F46" sqref="F46"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12" style="2" customWidth="1"/>
-    <col min="3" max="3" width="20.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="15.85546875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="21.28515625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="19.140625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="15" style="2" customWidth="1"/>
-    <col min="8" max="8" width="15.5703125" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="10.5703125" style="2"/>
+    <col min="1" max="1" width="10.5703125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="36.28515625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="15.42578125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="15" style="2" customWidth="1"/>
+    <col min="9" max="9" width="15.5703125" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="10.5703125" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9">
-      <c r="C2" s="2" t="s">
+    <row r="3" spans="2:10" ht="31.5">
+      <c r="B3" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="4" spans="2:9" ht="31.5">
-      <c r="B4" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="C4" s="7" t="s">
+      <c r="J3" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D4" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="H4" s="2" t="s">
+    </row>
+    <row r="4" spans="2:10">
+      <c r="B4" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="C4" s="16" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="5" spans="2:9">
+      <c r="D4" s="16">
+        <v>13</v>
+      </c>
+      <c r="E4" s="9">
+        <v>15</v>
+      </c>
+      <c r="F4" s="9">
+        <v>16</v>
+      </c>
+      <c r="G4" s="9">
+        <v>70</v>
+      </c>
+      <c r="H4" s="9">
+        <v>8</v>
+      </c>
+      <c r="I4" s="2">
+        <f>SUM(D4:H4)</f>
+        <v>122</v>
+      </c>
+      <c r="J4" s="10">
+        <f>SUM(I4:I10)</f>
+        <v>745</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10">
       <c r="B5" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="D5" s="16">
+        <v>15</v>
+      </c>
+      <c r="E5" s="9">
+        <v>15</v>
+      </c>
+      <c r="F5" s="9">
+        <v>15</v>
+      </c>
+      <c r="G5" s="9">
+        <v>70</v>
+      </c>
+      <c r="H5" s="9">
+        <v>10</v>
+      </c>
+      <c r="I5" s="2">
+        <f t="shared" ref="I5:I20" si="0">SUM(D5:H5)</f>
+        <v>125</v>
+      </c>
+      <c r="J5" s="10"/>
+    </row>
+    <row r="6" spans="2:10">
+      <c r="B6" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D6" s="16">
+        <v>2</v>
+      </c>
+      <c r="E6" s="9">
+        <v>8</v>
+      </c>
+      <c r="F6" s="9">
+        <v>12</v>
+      </c>
+      <c r="G6" s="9">
+        <v>45</v>
+      </c>
+      <c r="H6" s="9">
+        <v>5</v>
+      </c>
+      <c r="I6" s="2">
+        <f t="shared" si="0"/>
+        <v>72</v>
+      </c>
+      <c r="J6" s="10"/>
+    </row>
+    <row r="7" spans="2:10">
+      <c r="B7" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" s="16">
         <v>15</v>
       </c>
-      <c r="E5" s="9">
-        <v>16</v>
-      </c>
-      <c r="F5" s="9">
-        <v>70</v>
-      </c>
-      <c r="G5" s="9">
-        <v>10</v>
-      </c>
-      <c r="H5" s="2">
-        <f>SUM(D5:G5)</f>
-        <v>111</v>
-      </c>
-      <c r="I5" s="10">
-        <f>SUM(H5:H11)</f>
-        <v>665</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9">
-      <c r="B6" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="D6" s="9">
+      <c r="E7" s="9">
+        <v>12</v>
+      </c>
+      <c r="F7" s="9">
         <v>15</v>
       </c>
-      <c r="E6" s="9">
-        <v>15</v>
-      </c>
-      <c r="F6" s="9">
-        <v>70</v>
-      </c>
-      <c r="G6" s="9">
-        <v>10</v>
-      </c>
-      <c r="H6" s="2">
-        <f t="shared" ref="H6:H21" si="0">SUM(D6:G6)</f>
-        <v>110</v>
-      </c>
-      <c r="I6" s="10"/>
-    </row>
-    <row r="7" spans="2:9">
-      <c r="B7" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="C7" s="16" t="s">
+      <c r="G7" s="9">
+        <v>75</v>
+      </c>
+      <c r="H7" s="9">
+        <v>8</v>
+      </c>
+      <c r="I7" s="2">
+        <f t="shared" si="0"/>
+        <v>125</v>
+      </c>
+      <c r="J7" s="10"/>
+    </row>
+    <row r="8" spans="2:10">
+      <c r="B8" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="D7" s="9">
-        <v>5</v>
-      </c>
-      <c r="E7" s="9">
-        <v>10</v>
-      </c>
-      <c r="F7" s="9">
-        <v>45</v>
-      </c>
-      <c r="G7" s="9">
-        <v>5</v>
-      </c>
-      <c r="H7" s="2">
-        <f t="shared" si="0"/>
-        <v>65</v>
-      </c>
-      <c r="I7" s="10"/>
-    </row>
-    <row r="8" spans="2:9">
-      <c r="B8" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="D8" s="9">
+      <c r="D8" s="16">
         <v>10</v>
       </c>
       <c r="E8" s="9">
         <v>15</v>
       </c>
       <c r="F8" s="9">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="G8" s="9">
-        <v>10</v>
-      </c>
-      <c r="H8" s="2">
-        <f t="shared" si="0"/>
-        <v>105</v>
-      </c>
-      <c r="I8" s="10"/>
-    </row>
-    <row r="9" spans="2:9">
+        <v>80</v>
+      </c>
+      <c r="H8" s="9">
+        <v>9</v>
+      </c>
+      <c r="I8" s="2">
+        <f t="shared" si="0"/>
+        <v>134</v>
+      </c>
+      <c r="J8" s="10"/>
+    </row>
+    <row r="9" spans="2:10">
       <c r="B9" s="19" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C9" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="D9" s="16">
+        <v>8</v>
+      </c>
+      <c r="E9" s="9">
+        <v>12</v>
+      </c>
+      <c r="F9" s="9">
+        <v>15</v>
+      </c>
+      <c r="G9" s="9">
+        <v>55</v>
+      </c>
+      <c r="H9" s="9">
+        <v>5</v>
+      </c>
+      <c r="I9" s="2">
+        <f t="shared" si="0"/>
+        <v>95</v>
+      </c>
+      <c r="J9" s="10"/>
+    </row>
+    <row r="10" spans="2:10">
+      <c r="B10" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="D9" s="9">
-        <v>15</v>
-      </c>
-      <c r="E9" s="9">
-        <v>20</v>
-      </c>
-      <c r="F9" s="9">
-        <v>85</v>
-      </c>
-      <c r="G9" s="9">
+      <c r="D10" s="16">
+        <v>2</v>
+      </c>
+      <c r="E10" s="9">
+        <v>8</v>
+      </c>
+      <c r="F10" s="9">
+        <v>12</v>
+      </c>
+      <c r="G10" s="9">
+        <v>45</v>
+      </c>
+      <c r="H10" s="9">
         <v>5</v>
       </c>
-      <c r="H9" s="2">
-        <f t="shared" si="0"/>
-        <v>125</v>
-      </c>
-      <c r="I9" s="10"/>
-    </row>
-    <row r="10" spans="2:9">
-      <c r="B10" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="C10" s="16" t="s">
+      <c r="I10" s="2">
+        <f t="shared" si="0"/>
+        <v>72</v>
+      </c>
+      <c r="J10" s="10"/>
+    </row>
+    <row r="11" spans="2:10">
+      <c r="B11" s="19" t="s">
         <v>55</v>
-      </c>
-      <c r="D10" s="9">
-        <v>10</v>
-      </c>
-      <c r="E10" s="9">
-        <v>12</v>
-      </c>
-      <c r="F10" s="9">
-        <v>55</v>
-      </c>
-      <c r="G10" s="9">
-        <v>10</v>
-      </c>
-      <c r="H10" s="2">
-        <f t="shared" si="0"/>
-        <v>87</v>
-      </c>
-      <c r="I10" s="10"/>
-    </row>
-    <row r="11" spans="2:9">
-      <c r="B11" s="19" t="s">
-        <v>49</v>
       </c>
       <c r="C11" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="D11" s="9">
-        <v>5</v>
+      <c r="D11" s="16">
+        <v>10</v>
       </c>
       <c r="E11" s="9">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F11" s="9">
+        <v>15</v>
+      </c>
+      <c r="G11" s="9">
         <v>40</v>
       </c>
-      <c r="G11" s="9">
-        <v>5</v>
-      </c>
-      <c r="H11" s="2">
-        <f t="shared" si="0"/>
-        <v>62</v>
-      </c>
-      <c r="I11" s="10"/>
-    </row>
-    <row r="12" spans="2:9">
+      <c r="H11" s="9">
+        <v>10</v>
+      </c>
+      <c r="I11" s="2">
+        <f t="shared" si="0"/>
+        <v>89</v>
+      </c>
+      <c r="J11" s="10">
+        <f>SUM(I11:I16)</f>
+        <v>518</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10">
       <c r="B12" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="C12" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="D12" s="9">
-        <v>12</v>
+      <c r="D12" s="16">
+        <v>2</v>
       </c>
       <c r="E12" s="9">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F12" s="9">
         <v>8</v>
       </c>
       <c r="G12" s="9">
-        <v>1</v>
-      </c>
-      <c r="H12" s="2">
-        <f t="shared" si="0"/>
-        <v>33</v>
-      </c>
-      <c r="I12" s="10">
-        <f>SUM(H12:H17)</f>
-        <v>197</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9">
+        <v>35</v>
+      </c>
+      <c r="H12" s="9">
+        <v>8</v>
+      </c>
+      <c r="I12" s="2">
+        <f>SUM(D12:H12)</f>
+        <v>61</v>
+      </c>
+      <c r="J12" s="10"/>
+    </row>
+    <row r="13" spans="2:10">
       <c r="B13" s="19" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="D13" s="9">
-        <v>6</v>
+        <v>58</v>
+      </c>
+      <c r="D13" s="16">
+        <v>2</v>
       </c>
       <c r="E13" s="9">
         <v>6</v>
       </c>
       <c r="F13" s="9">
+        <v>6</v>
+      </c>
+      <c r="G13" s="9">
+        <v>30</v>
+      </c>
+      <c r="H13" s="9">
+        <v>10</v>
+      </c>
+      <c r="I13" s="2">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="J13" s="10"/>
+    </row>
+    <row r="14" spans="2:10">
+      <c r="B14" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="D14" s="16">
         <v>8</v>
       </c>
-      <c r="G13" s="9">
-        <v>1</v>
-      </c>
-      <c r="H13" s="2">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="I13" s="10"/>
-    </row>
-    <row r="14" spans="2:9">
-      <c r="B14" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="C14" s="16" t="s">
+      <c r="E14" s="9">
+        <v>10</v>
+      </c>
+      <c r="F14" s="9">
+        <v>12</v>
+      </c>
+      <c r="G14" s="9">
+        <v>50</v>
+      </c>
+      <c r="H14" s="9">
+        <v>12</v>
+      </c>
+      <c r="I14" s="2">
+        <f t="shared" si="0"/>
+        <v>92</v>
+      </c>
+      <c r="J14" s="10"/>
+    </row>
+    <row r="15" spans="2:10">
+      <c r="B15" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="D14" s="9">
-        <v>6</v>
-      </c>
-      <c r="E14" s="9">
-        <v>6</v>
-      </c>
-      <c r="F14" s="9">
+      <c r="D15" s="16">
+        <v>10</v>
+      </c>
+      <c r="E15" s="9">
         <v>8</v>
       </c>
-      <c r="G14" s="9">
-        <v>1</v>
-      </c>
-      <c r="H14" s="2">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="I14" s="10"/>
-    </row>
-    <row r="15" spans="2:9">
-      <c r="B15" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="C15" s="16" t="s">
+      <c r="F15" s="9">
+        <v>10</v>
+      </c>
+      <c r="G15" s="9">
+        <v>50</v>
+      </c>
+      <c r="H15" s="9">
+        <v>15</v>
+      </c>
+      <c r="I15" s="2">
+        <f t="shared" si="0"/>
+        <v>93</v>
+      </c>
+      <c r="J15" s="10"/>
+    </row>
+    <row r="16" spans="2:10">
+      <c r="B16" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="D15" s="9">
-        <v>11</v>
-      </c>
-      <c r="E15" s="9">
+      <c r="D16" s="16">
+        <v>10</v>
+      </c>
+      <c r="E16" s="9">
+        <v>17</v>
+      </c>
+      <c r="F16" s="9">
+        <v>17</v>
+      </c>
+      <c r="G16" s="9">
+        <v>70</v>
+      </c>
+      <c r="H16" s="9">
         <v>15</v>
       </c>
-      <c r="F15" s="9">
-        <v>1</v>
-      </c>
-      <c r="G15" s="9">
-        <v>1</v>
-      </c>
-      <c r="H15" s="2">
-        <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-      <c r="I15" s="10"/>
-    </row>
-    <row r="16" spans="2:9">
-      <c r="B16" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="C16" s="16" t="s">
+      <c r="I16" s="2">
+        <f t="shared" si="0"/>
+        <v>129</v>
+      </c>
+      <c r="J16" s="10"/>
+    </row>
+    <row r="17" spans="2:10">
+      <c r="B17" s="19" t="s">
         <v>62</v>
-      </c>
-      <c r="D16" s="9">
-        <v>5</v>
-      </c>
-      <c r="E16" s="9">
-        <v>10</v>
-      </c>
-      <c r="F16" s="9">
-        <v>1</v>
-      </c>
-      <c r="G16" s="9">
-        <v>1</v>
-      </c>
-      <c r="H16" s="2">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="I16" s="10"/>
-    </row>
-    <row r="17" spans="2:9">
-      <c r="B17" s="19" t="s">
-        <v>57</v>
       </c>
       <c r="C17" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="D17" s="9">
+      <c r="D17" s="16">
+        <v>1</v>
+      </c>
+      <c r="E17" s="9">
+        <v>3</v>
+      </c>
+      <c r="F17" s="9">
+        <v>3</v>
+      </c>
+      <c r="G17" s="9">
+        <v>24</v>
+      </c>
+      <c r="H17" s="9">
         <v>20</v>
       </c>
-      <c r="E17" s="9">
+      <c r="I17" s="2">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="J17" s="10">
+        <f>SUM(I17:I20)</f>
+        <v>297</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10">
+      <c r="B18" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="D18" s="16">
+        <v>7</v>
+      </c>
+      <c r="E18" s="9">
+        <v>8</v>
+      </c>
+      <c r="F18" s="9">
+        <v>8</v>
+      </c>
+      <c r="G18" s="9">
+        <v>32</v>
+      </c>
+      <c r="H18" s="9">
+        <v>30</v>
+      </c>
+      <c r="I18" s="2">
+        <f t="shared" si="0"/>
+        <v>85</v>
+      </c>
+      <c r="J18" s="10"/>
+    </row>
+    <row r="19" spans="2:10">
+      <c r="B19" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="D19" s="16">
+        <v>11</v>
+      </c>
+      <c r="E19" s="9">
+        <v>11</v>
+      </c>
+      <c r="F19" s="9">
         <v>15</v>
       </c>
-      <c r="F17" s="9">
-        <v>35</v>
-      </c>
-      <c r="G17" s="9">
-        <v>7</v>
-      </c>
-      <c r="H17" s="2">
-        <f t="shared" si="0"/>
-        <v>77</v>
-      </c>
-      <c r="I17" s="10"/>
-    </row>
-    <row r="18" spans="2:9">
-      <c r="B18" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="C18" s="16" t="s">
+      <c r="G19" s="9">
+        <v>36</v>
+      </c>
+      <c r="H19" s="9">
+        <v>30</v>
+      </c>
+      <c r="I19" s="2">
+        <f t="shared" si="0"/>
+        <v>103</v>
+      </c>
+      <c r="J19" s="10"/>
+    </row>
+    <row r="20" spans="2:10">
+      <c r="B20" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="D20" s="16">
+        <v>2</v>
+      </c>
+      <c r="E20" s="9">
+        <v>4</v>
+      </c>
+      <c r="F20" s="9">
+        <v>4</v>
+      </c>
+      <c r="G20" s="9">
+        <v>28</v>
+      </c>
+      <c r="H20" s="9">
+        <v>20</v>
+      </c>
+      <c r="I20" s="2">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+      <c r="J20" s="10"/>
+    </row>
+    <row r="21" spans="2:10">
+      <c r="C21" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="D21" s="2">
+        <f>SUM(D4:D20)</f>
+        <v>128</v>
+      </c>
+      <c r="E21" s="2">
+        <f>SUM(E4:E20)</f>
+        <v>174</v>
+      </c>
+      <c r="F21" s="2">
+        <f t="shared" ref="F21:H21" si="1">SUM(F4:F20)</f>
+        <v>203</v>
+      </c>
+      <c r="G21" s="2">
+        <f t="shared" si="1"/>
+        <v>835</v>
+      </c>
+      <c r="H21" s="2">
+        <f t="shared" si="1"/>
+        <v>220</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10">
+      <c r="C23" s="2">
+        <v>1</v>
+      </c>
+      <c r="D23" s="2">
         <v>65</v>
       </c>
-      <c r="D18" s="9">
+      <c r="E23" s="2">
+        <v>85</v>
+      </c>
+      <c r="F23" s="2">
+        <v>105</v>
+      </c>
+      <c r="G23" s="2">
+        <v>440</v>
+      </c>
+      <c r="H23" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10">
+      <c r="C24" s="2">
+        <v>2</v>
+      </c>
+      <c r="D24" s="2">
+        <v>42</v>
+      </c>
+      <c r="E24" s="2">
+        <v>63</v>
+      </c>
+      <c r="F24" s="2">
+        <v>68</v>
+      </c>
+      <c r="G24" s="2">
+        <v>275</v>
+      </c>
+      <c r="H24" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10">
+      <c r="C25" s="2">
         <v>3</v>
       </c>
-      <c r="E18" s="9">
-        <v>1</v>
-      </c>
-      <c r="F18" s="9">
-        <v>1</v>
-      </c>
-      <c r="G18" s="9">
-        <v>1</v>
-      </c>
-      <c r="H18" s="2">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="I18" s="10">
-        <f>SUM(H18:H21)</f>
-        <v>182</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9">
-      <c r="B19" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="C19" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="D19" s="9">
-        <v>8</v>
-      </c>
-      <c r="E19" s="9">
-        <v>10</v>
-      </c>
-      <c r="F19" s="9">
-        <v>37</v>
-      </c>
-      <c r="G19" s="9">
-        <v>1</v>
-      </c>
-      <c r="H19" s="2">
-        <f t="shared" si="0"/>
-        <v>56</v>
-      </c>
-      <c r="I19" s="10"/>
-    </row>
-    <row r="20" spans="2:9">
-      <c r="B20" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="C20" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="D20" s="9">
-        <v>9</v>
-      </c>
-      <c r="E20" s="9">
-        <v>14</v>
-      </c>
-      <c r="F20" s="9">
-        <v>31</v>
-      </c>
-      <c r="G20" s="9">
-        <v>9</v>
-      </c>
-      <c r="H20" s="2">
-        <f t="shared" si="0"/>
-        <v>63</v>
-      </c>
-      <c r="I20" s="10"/>
-    </row>
-    <row r="21" spans="2:9">
-      <c r="B21" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="C21" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="D21" s="9">
-        <v>8</v>
-      </c>
-      <c r="E21" s="9">
-        <v>11</v>
-      </c>
-      <c r="F21" s="9">
+      <c r="D25" s="2">
+        <v>21</v>
+      </c>
+      <c r="E25" s="2">
+        <v>26</v>
+      </c>
+      <c r="F25" s="2">
         <v>30</v>
       </c>
-      <c r="G21" s="9">
-        <v>8</v>
-      </c>
-      <c r="H21" s="2">
-        <f t="shared" si="0"/>
-        <v>57</v>
-      </c>
-      <c r="I21" s="10"/>
-    </row>
-    <row r="22" spans="2:9">
-      <c r="C22" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="D22" s="2">
-        <f>SUM(D5:D21)</f>
-        <v>163</v>
-      </c>
-      <c r="E22" s="2">
-        <f t="shared" ref="E22:G22" si="1">SUM(E5:E21)</f>
-        <v>200</v>
-      </c>
-      <c r="F22" s="2">
-        <f t="shared" si="1"/>
-        <v>595</v>
-      </c>
-      <c r="G22" s="2">
-        <f t="shared" si="1"/>
-        <v>86</v>
-      </c>
-    </row>
-    <row r="25" spans="2:9">
-      <c r="C25" s="2">
-        <v>1</v>
-      </c>
-      <c r="D25" s="2">
-        <v>75</v>
-      </c>
-      <c r="E25" s="2">
+      <c r="G25" s="2">
+        <v>120</v>
+      </c>
+      <c r="H25" s="2">
         <v>100</v>
       </c>
-      <c r="F25" s="2">
-        <v>530</v>
-      </c>
-      <c r="G25" s="2">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="26" spans="2:9">
-      <c r="C26" s="2">
-        <v>2</v>
-      </c>
-      <c r="D26" s="2">
-        <v>60</v>
-      </c>
-      <c r="E26" s="2">
-        <v>65</v>
-      </c>
-      <c r="F26" s="2">
-        <v>305</v>
-      </c>
-      <c r="G26" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="27" spans="2:9">
-      <c r="C27" s="2">
-        <v>3</v>
-      </c>
-      <c r="D27" s="2">
-        <v>27</v>
-      </c>
-      <c r="E27" s="2">
-        <v>31</v>
-      </c>
-      <c r="F27" s="2">
-        <v>135</v>
-      </c>
-      <c r="G27" s="2">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="30" spans="2:9">
-      <c r="B30"/>
-      <c r="C30" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="D30"/>
-      <c r="E30"/>
-      <c r="F30"/>
-    </row>
-    <row r="31" spans="2:9">
-      <c r="B31" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="C31" t="s">
-        <v>75</v>
-      </c>
-      <c r="D31" t="s">
-        <v>77</v>
-      </c>
-      <c r="E31" t="s">
-        <v>78</v>
-      </c>
-      <c r="F31" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="32" spans="2:9">
-      <c r="B32" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="C32" s="13">
-        <v>75</v>
-      </c>
-      <c r="D32" s="13">
-        <v>100</v>
-      </c>
-      <c r="E32" s="13">
-        <v>435</v>
-      </c>
-      <c r="F32" s="13">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="33" spans="2:6">
-      <c r="B33" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="C33" s="13">
-        <v>60</v>
-      </c>
-      <c r="D33" s="13">
-        <v>64</v>
-      </c>
-      <c r="E33" s="13">
-        <v>61</v>
-      </c>
-      <c r="F33" s="13">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="34" spans="2:6">
-      <c r="B34" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="C34" s="13">
-        <v>28</v>
-      </c>
-      <c r="D34" s="13">
-        <v>36</v>
-      </c>
-      <c r="E34" s="13">
-        <v>99</v>
-      </c>
-      <c r="F34" s="13">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="35" spans="2:6">
-      <c r="B35" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="C35" s="13">
-        <v>163</v>
-      </c>
-      <c r="D35" s="13">
-        <v>200</v>
-      </c>
-      <c r="E35" s="13">
-        <v>595</v>
-      </c>
-      <c r="F35" s="13">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="36" spans="2:6">
-      <c r="B36"/>
-      <c r="C36"/>
-      <c r="D36"/>
-    </row>
-    <row r="37" spans="2:6">
-      <c r="B37"/>
-      <c r="C37"/>
-      <c r="D37"/>
-    </row>
-    <row r="38" spans="2:6">
-      <c r="B38"/>
-      <c r="C38"/>
-      <c r="D38"/>
-    </row>
-    <row r="39" spans="2:6">
-      <c r="B39"/>
-      <c r="C39"/>
-      <c r="D39"/>
-    </row>
-    <row r="40" spans="2:6">
-      <c r="B40"/>
-      <c r="C40"/>
-      <c r="D40"/>
-    </row>
-    <row r="41" spans="2:6">
-      <c r="B41"/>
-      <c r="C41"/>
-      <c r="D41"/>
-    </row>
-    <row r="42" spans="2:6">
-      <c r="B42"/>
-      <c r="C42"/>
-      <c r="D42"/>
-    </row>
-    <row r="43" spans="2:6">
-      <c r="B43"/>
-      <c r="C43"/>
-      <c r="D43"/>
-    </row>
-    <row r="44" spans="2:6">
-      <c r="B44"/>
-      <c r="C44"/>
-      <c r="D44"/>
-    </row>
-    <row r="45" spans="2:6">
-      <c r="B45"/>
-      <c r="C45"/>
-      <c r="D45"/>
-    </row>
-    <row r="46" spans="2:6">
-      <c r="B46"/>
-      <c r="C46"/>
-      <c r="D46"/>
-    </row>
-    <row r="47" spans="2:6">
-      <c r="B47"/>
-      <c r="C47"/>
-      <c r="D47"/>
-    </row>
-    <row r="48" spans="2:6">
-      <c r="B48"/>
-      <c r="C48" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="D48"/>
-      <c r="E48"/>
-      <c r="F48"/>
-    </row>
-    <row r="49" spans="2:7">
-      <c r="B49" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="C49" t="s">
-        <v>75</v>
-      </c>
-      <c r="D49" t="s">
-        <v>77</v>
-      </c>
-      <c r="E49" t="s">
-        <v>78</v>
-      </c>
-      <c r="F49" t="s">
-        <v>79</v>
-      </c>
-      <c r="G49" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="50" spans="2:7">
-      <c r="B50" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="C50" s="13">
-        <v>15</v>
-      </c>
-      <c r="D50" s="13">
-        <v>16</v>
-      </c>
-      <c r="E50" s="13">
-        <v>70</v>
-      </c>
-      <c r="F50" s="13">
-        <v>10</v>
-      </c>
-      <c r="G50" s="2">
-        <f>SUM(C50:F50)</f>
-        <v>111</v>
-      </c>
-    </row>
-    <row r="51" spans="2:7">
-      <c r="B51" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="C51" s="13">
-        <v>15</v>
-      </c>
-      <c r="D51" s="13">
-        <v>15</v>
-      </c>
-      <c r="E51" s="13">
-        <v>70</v>
-      </c>
-      <c r="F51" s="13">
-        <v>10</v>
-      </c>
-      <c r="G51" s="2">
-        <f t="shared" ref="G51:G66" si="2">SUM(C51:F51)</f>
-        <v>110</v>
-      </c>
-    </row>
-    <row r="52" spans="2:7">
-      <c r="B52" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="C52" s="13">
-        <v>5</v>
-      </c>
-      <c r="D52" s="13">
-        <v>10</v>
-      </c>
-      <c r="E52" s="13">
-        <v>45</v>
-      </c>
-      <c r="F52" s="13">
-        <v>5</v>
-      </c>
-      <c r="G52" s="2">
-        <f t="shared" si="2"/>
-        <v>65</v>
-      </c>
-    </row>
-    <row r="53" spans="2:7">
-      <c r="B53" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="C53" s="13">
-        <v>3</v>
-      </c>
-      <c r="D53" s="13">
-        <v>1</v>
-      </c>
-      <c r="E53" s="13">
-        <v>1</v>
-      </c>
-      <c r="F53" s="13">
-        <v>1</v>
-      </c>
-      <c r="G53" s="2">
-        <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="54" spans="2:7">
-      <c r="B54" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="C54" s="13">
-        <v>10</v>
-      </c>
-      <c r="D54" s="13">
-        <v>15</v>
-      </c>
-      <c r="E54" s="13">
-        <v>70</v>
-      </c>
-      <c r="F54" s="13">
-        <v>10</v>
-      </c>
-      <c r="G54" s="2">
-        <f t="shared" si="2"/>
-        <v>105</v>
-      </c>
-    </row>
-    <row r="55" spans="2:7">
-      <c r="B55" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="C55" s="13">
-        <v>12</v>
-      </c>
-      <c r="D55" s="13">
-        <v>12</v>
-      </c>
-      <c r="E55" s="13">
-        <v>8</v>
-      </c>
-      <c r="F55" s="13">
-        <v>1</v>
-      </c>
-      <c r="G55" s="2">
-        <f t="shared" si="2"/>
-        <v>33</v>
-      </c>
-    </row>
-    <row r="56" spans="2:7">
-      <c r="B56" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="C56" s="13">
-        <v>6</v>
-      </c>
-      <c r="D56" s="13">
-        <v>6</v>
-      </c>
-      <c r="E56" s="13">
-        <v>8</v>
-      </c>
-      <c r="F56" s="13">
-        <v>1</v>
-      </c>
-      <c r="G56" s="2">
-        <f t="shared" si="2"/>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="57" spans="2:7">
-      <c r="B57" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="C57" s="13">
-        <v>6</v>
-      </c>
-      <c r="D57" s="13">
-        <v>6</v>
-      </c>
-      <c r="E57" s="13">
-        <v>8</v>
-      </c>
-      <c r="F57" s="13">
-        <v>1</v>
-      </c>
-      <c r="G57" s="2">
-        <f t="shared" si="2"/>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="58" spans="2:7">
-      <c r="B58" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="C58" s="13">
-        <v>11</v>
-      </c>
-      <c r="D58" s="13">
-        <v>15</v>
-      </c>
-      <c r="E58" s="13">
-        <v>1</v>
-      </c>
-      <c r="F58" s="13">
-        <v>1</v>
-      </c>
-      <c r="G58" s="2">
-        <f t="shared" si="2"/>
-        <v>28</v>
-      </c>
-    </row>
-    <row r="59" spans="2:7">
-      <c r="B59" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="C59" s="13">
-        <v>8</v>
-      </c>
-      <c r="D59" s="13">
-        <v>10</v>
-      </c>
-      <c r="E59" s="13">
-        <v>37</v>
-      </c>
-      <c r="F59" s="13">
-        <v>1</v>
-      </c>
-      <c r="G59" s="2">
-        <f t="shared" si="2"/>
-        <v>56</v>
-      </c>
-    </row>
-    <row r="60" spans="2:7">
-      <c r="B60" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="C60" s="13">
-        <v>9</v>
-      </c>
-      <c r="D60" s="13">
-        <v>14</v>
-      </c>
-      <c r="E60" s="13">
-        <v>31</v>
-      </c>
-      <c r="F60" s="13">
-        <v>9</v>
-      </c>
-      <c r="G60" s="2">
-        <f t="shared" si="2"/>
-        <v>63</v>
-      </c>
-    </row>
-    <row r="61" spans="2:7">
-      <c r="B61" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="C61" s="13">
-        <v>5</v>
-      </c>
-      <c r="D61" s="13">
-        <v>10</v>
-      </c>
-      <c r="E61" s="13">
-        <v>1</v>
-      </c>
-      <c r="F61" s="13">
-        <v>1</v>
-      </c>
-      <c r="G61" s="2">
-        <f t="shared" si="2"/>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="62" spans="2:7">
-      <c r="B62" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="C62" s="13">
-        <v>15</v>
-      </c>
-      <c r="D62" s="13">
-        <v>20</v>
-      </c>
-      <c r="E62" s="13">
-        <v>85</v>
-      </c>
-      <c r="F62" s="13">
-        <v>5</v>
-      </c>
-      <c r="G62" s="2">
-        <f t="shared" si="2"/>
-        <v>125</v>
-      </c>
-    </row>
-    <row r="63" spans="2:7">
-      <c r="B63" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="C63" s="13">
-        <v>10</v>
-      </c>
-      <c r="D63" s="13">
-        <v>12</v>
-      </c>
-      <c r="E63" s="13">
-        <v>55</v>
-      </c>
-      <c r="F63" s="13">
-        <v>10</v>
-      </c>
-      <c r="G63" s="2">
-        <f t="shared" si="2"/>
-        <v>87</v>
-      </c>
-    </row>
-    <row r="64" spans="2:7">
-      <c r="B64" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="C64" s="13">
-        <v>8</v>
-      </c>
-      <c r="D64" s="13">
-        <v>11</v>
-      </c>
-      <c r="E64" s="13">
-        <v>30</v>
-      </c>
-      <c r="F64" s="13">
-        <v>8</v>
-      </c>
-      <c r="G64" s="2">
-        <f t="shared" si="2"/>
-        <v>57</v>
-      </c>
-    </row>
-    <row r="65" spans="2:7">
-      <c r="B65" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="C65" s="13">
-        <v>5</v>
-      </c>
-      <c r="D65" s="13">
-        <v>12</v>
-      </c>
-      <c r="E65" s="13">
-        <v>40</v>
-      </c>
-      <c r="F65" s="13">
-        <v>5</v>
-      </c>
-      <c r="G65" s="2">
-        <f t="shared" si="2"/>
-        <v>62</v>
-      </c>
-    </row>
-    <row r="66" spans="2:7">
-      <c r="B66" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="C66" s="13">
-        <v>20</v>
-      </c>
-      <c r="D66" s="13">
-        <v>15</v>
-      </c>
-      <c r="E66" s="13">
-        <v>35</v>
-      </c>
-      <c r="F66" s="13">
-        <v>7</v>
-      </c>
-      <c r="G66" s="2">
-        <f t="shared" si="2"/>
-        <v>77</v>
-      </c>
-    </row>
-    <row r="67" spans="2:7">
-      <c r="B67" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="C67" s="13">
-        <v>163</v>
-      </c>
-      <c r="D67" s="13">
-        <v>200</v>
-      </c>
-      <c r="E67" s="13">
-        <v>595</v>
-      </c>
-      <c r="F67" s="13">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="68" spans="2:7">
-      <c r="B68"/>
-      <c r="C68"/>
-      <c r="D68"/>
-      <c r="E68"/>
-      <c r="F68"/>
-    </row>
-    <row r="69" spans="2:7">
-      <c r="B69"/>
-      <c r="C69"/>
-      <c r="D69"/>
-      <c r="E69"/>
-      <c r="F69"/>
-    </row>
-    <row r="70" spans="2:7">
-      <c r="B70"/>
-      <c r="C70"/>
-      <c r="D70"/>
-      <c r="E70"/>
-      <c r="F70"/>
-    </row>
-    <row r="71" spans="2:7">
-      <c r="B71"/>
-      <c r="C71"/>
-      <c r="D71"/>
-      <c r="E71"/>
-    </row>
-    <row r="72" spans="2:7">
-      <c r="B72"/>
-      <c r="C72"/>
-      <c r="D72"/>
-      <c r="E72"/>
-    </row>
-    <row r="73" spans="2:7">
-      <c r="B73"/>
-      <c r="C73"/>
-      <c r="D73"/>
-      <c r="E73"/>
-    </row>
-    <row r="74" spans="2:7">
-      <c r="B74"/>
-      <c r="C74"/>
-      <c r="D74"/>
-      <c r="E74"/>
-    </row>
-    <row r="75" spans="2:7">
-      <c r="B75"/>
-      <c r="C75"/>
-      <c r="D75"/>
-      <c r="E75"/>
-    </row>
-    <row r="76" spans="2:7">
-      <c r="B76"/>
-      <c r="C76"/>
-      <c r="D76"/>
-      <c r="E76"/>
-    </row>
-    <row r="77" spans="2:7">
-      <c r="B77"/>
-      <c r="C77"/>
-      <c r="D77"/>
-      <c r="E77"/>
-    </row>
-    <row r="78" spans="2:7">
-      <c r="B78"/>
-      <c r="C78"/>
-      <c r="D78"/>
-      <c r="E78"/>
-    </row>
-    <row r="79" spans="2:7">
-      <c r="B79"/>
-      <c r="C79"/>
-      <c r="D79"/>
-      <c r="E79"/>
-    </row>
-    <row r="80" spans="2:7">
-      <c r="B80"/>
-      <c r="C80"/>
-      <c r="D80"/>
-      <c r="E80"/>
-    </row>
-    <row r="81" spans="2:5">
-      <c r="B81"/>
-      <c r="C81"/>
-      <c r="D81"/>
-      <c r="E81"/>
-    </row>
-    <row r="82" spans="2:5">
-      <c r="B82"/>
-      <c r="C82"/>
-      <c r="D82"/>
-      <c r="E82"/>
-    </row>
-    <row r="83" spans="2:5">
-      <c r="B83"/>
-      <c r="C83"/>
-      <c r="D83"/>
-      <c r="E83"/>
-    </row>
-    <row r="84" spans="2:5">
-      <c r="B84"/>
-      <c r="C84"/>
-      <c r="D84"/>
-      <c r="E84"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="3">
-    <mergeCell ref="I5:I11"/>
-    <mergeCell ref="I12:I17"/>
-    <mergeCell ref="I18:I21"/>
+    <mergeCell ref="J4:J10"/>
+    <mergeCell ref="J11:J16"/>
+    <mergeCell ref="J17:J20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555551" footer="0.51180555555555551"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
-  <drawing r:id="rId4"/>
 </worksheet>
 </file>
--- a/doc/Tareas Esfuerzo.xlsx
+++ b/doc/Tareas Esfuerzo.xlsx
@@ -16,13 +16,16 @@
   </definedNames>
   <calcPr calcId="125725" iterateDelta="1E-4"/>
   <pivotCaches>
-    <pivotCache cacheId="67" r:id="rId3"/>
+    <pivotCache cacheId="0" r:id="rId3"/>
+    <pivotCache cacheId="6" r:id="rId4"/>
+    <pivotCache cacheId="5" r:id="rId5"/>
   </pivotCaches>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="80">
   <si>
     <t>Etapa</t>
   </si>
@@ -241,6 +244,27 @@
   </si>
   <si>
     <t>Iteración</t>
+  </si>
+  <si>
+    <t>Suma de Investigación</t>
+  </si>
+  <si>
+    <t>Valores</t>
+  </si>
+  <si>
+    <t>Suma de Análisis</t>
+  </si>
+  <si>
+    <t>Suma de Diseño</t>
+  </si>
+  <si>
+    <t>Suma de Codificación</t>
+  </si>
+  <si>
+    <t>Suma de Pruebas y ajustes</t>
+  </si>
+  <si>
+    <t>Suma de TOTAL por CU</t>
   </si>
 </sst>
 </file>
@@ -474,9 +498,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -498,6 +519,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -684,24 +708,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="40384768"/>
-        <c:axId val="40570880"/>
+        <c:axId val="94920704"/>
+        <c:axId val="94922240"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="40384768"/>
+        <c:axId val="94920704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="40570880"/>
+        <c:crossAx val="94922240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="40570880"/>
+        <c:axId val="94922240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -709,7 +733,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="40384768"/>
+        <c:crossAx val="94920704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -722,7 +746,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -822,24 +846,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="62007936"/>
-        <c:axId val="67184512"/>
+        <c:axId val="94991872"/>
+        <c:axId val="94993408"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="62007936"/>
+        <c:axId val="94991872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="67184512"/>
+        <c:crossAx val="94993408"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="67184512"/>
+        <c:axId val="94993408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -847,7 +871,1363 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="62007936"/>
+        <c:crossAx val="94991872"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="es-CL"/>
+  <c:pivotSource>
+    <c:name>[Tareas Esfuerzo.xlsx]Por CU!Tabla dinámica2</c:name>
+    <c:fmtId val="0"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="4"/>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="5"/>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Por CU'!$C$29:$C$30</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Suma de Investigación</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Por CU'!$B$31:$B$34</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1er It</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2da It</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3er It</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Por CU'!$C$31:$C$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>21</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Por CU'!$D$29:$D$30</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Suma de Análisis</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Por CU'!$B$31:$B$34</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1er It</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2da It</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3er It</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Por CU'!$D$31:$D$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>26</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Por CU'!$E$29:$E$30</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Suma de Diseño</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Por CU'!$B$31:$B$34</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1er It</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2da It</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3er It</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Por CU'!$E$31:$E$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Por CU'!$F$29:$F$30</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Suma de Codificación</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Por CU'!$B$31:$B$34</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1er It</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2da It</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3er It</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Por CU'!$F$31:$F$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>440</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>275</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>120</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Por CU'!$G$29:$G$30</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Suma de Pruebas y ajustes</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Por CU'!$B$31:$B$34</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1er It</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2da It</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3er It</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Por CU'!$G$31:$G$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Por CU'!$H$29:$H$30</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Suma de TOTAL por CU</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Por CU'!$B$31:$B$34</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1er It</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2da It</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3er It</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Por CU'!$H$31:$H$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>745</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>518</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>297</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="95668864"/>
+        <c:axId val="95674752"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="95668864"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="95674752"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="95674752"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="95668864"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="es-CL"/>
+  <c:pivotSource>
+    <c:name>[Tareas Esfuerzo.xlsx]Por CU!Tabla dinámica3</c:name>
+    <c:fmtId val="0"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="4"/>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Por CU'!$C$56:$C$57</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Suma de Investigación</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Por CU'!$B$58:$B$75</c:f>
+              <c:strCache>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>CU01 - Login</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>CU02 - Crear Usuario</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>CU03 - Ver Perfil</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>CU04 - Modificar - Eliminar Usuario</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>CU05 - Buscar Usuario</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>CU06 - Ver Solicitudes de Amistad</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>CU07 - Generar Solicitud de Amistad</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>CU08 - Responder Solicitud de Amistad</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>CU09 - Ver Amigos</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>CU10 - Ubicar Amigos - Radar</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>CU11 - Compartir Ubicacion</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>CU12 - Invitar amigos</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>CU13 - Buscar Sitio</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>CU14 - Crear Sitio</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>CU15 - Modificar - Eliminar Sitio</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>CU16 - Ver Sitio</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>CU17 - Publicar Información</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Por CU'!$C$58:$C$75</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Por CU'!$D$56:$D$57</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Suma de Análisis</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Por CU'!$B$58:$B$75</c:f>
+              <c:strCache>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>CU01 - Login</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>CU02 - Crear Usuario</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>CU03 - Ver Perfil</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>CU04 - Modificar - Eliminar Usuario</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>CU05 - Buscar Usuario</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>CU06 - Ver Solicitudes de Amistad</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>CU07 - Generar Solicitud de Amistad</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>CU08 - Responder Solicitud de Amistad</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>CU09 - Ver Amigos</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>CU10 - Ubicar Amigos - Radar</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>CU11 - Compartir Ubicacion</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>CU12 - Invitar amigos</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>CU13 - Buscar Sitio</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>CU14 - Crear Sitio</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>CU15 - Modificar - Eliminar Sitio</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>CU16 - Ver Sitio</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>CU17 - Publicar Información</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Por CU'!$D$58:$D$75</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Por CU'!$E$56:$E$57</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Suma de Diseño</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Por CU'!$B$58:$B$75</c:f>
+              <c:strCache>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>CU01 - Login</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>CU02 - Crear Usuario</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>CU03 - Ver Perfil</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>CU04 - Modificar - Eliminar Usuario</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>CU05 - Buscar Usuario</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>CU06 - Ver Solicitudes de Amistad</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>CU07 - Generar Solicitud de Amistad</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>CU08 - Responder Solicitud de Amistad</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>CU09 - Ver Amigos</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>CU10 - Ubicar Amigos - Radar</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>CU11 - Compartir Ubicacion</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>CU12 - Invitar amigos</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>CU13 - Buscar Sitio</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>CU14 - Crear Sitio</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>CU15 - Modificar - Eliminar Sitio</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>CU16 - Ver Sitio</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>CU17 - Publicar Información</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Por CU'!$E$58:$E$75</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Por CU'!$F$56:$F$57</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Suma de Codificación</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Por CU'!$B$58:$B$75</c:f>
+              <c:strCache>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>CU01 - Login</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>CU02 - Crear Usuario</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>CU03 - Ver Perfil</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>CU04 - Modificar - Eliminar Usuario</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>CU05 - Buscar Usuario</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>CU06 - Ver Solicitudes de Amistad</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>CU07 - Generar Solicitud de Amistad</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>CU08 - Responder Solicitud de Amistad</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>CU09 - Ver Amigos</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>CU10 - Ubicar Amigos - Radar</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>CU11 - Compartir Ubicacion</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>CU12 - Invitar amigos</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>CU13 - Buscar Sitio</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>CU14 - Crear Sitio</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>CU15 - Modificar - Eliminar Sitio</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>CU16 - Ver Sitio</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>CU17 - Publicar Información</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Por CU'!$F$58:$F$75</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>70</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Por CU'!$G$56:$G$57</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Suma de Pruebas y ajustes</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Por CU'!$B$58:$B$75</c:f>
+              <c:strCache>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>CU01 - Login</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>CU02 - Crear Usuario</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>CU03 - Ver Perfil</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>CU04 - Modificar - Eliminar Usuario</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>CU05 - Buscar Usuario</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>CU06 - Ver Solicitudes de Amistad</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>CU07 - Generar Solicitud de Amistad</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>CU08 - Responder Solicitud de Amistad</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>CU09 - Ver Amigos</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>CU10 - Ubicar Amigos - Radar</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>CU11 - Compartir Ubicacion</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>CU12 - Invitar amigos</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>CU13 - Buscar Sitio</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>CU14 - Crear Sitio</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>CU15 - Modificar - Eliminar Sitio</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>CU16 - Ver Sitio</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>CU17 - Publicar Información</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Por CU'!$G$58:$G$75</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="96766592"/>
+        <c:axId val="96780672"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="96766592"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="96780672"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="96780672"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="96766592"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="es-CL"/>
+  <c:pivotSource>
+    <c:name>[Tareas Esfuerzo.xlsx]Por CU!Tabla dinámica1</c:name>
+    <c:fmtId val="0"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+    </c:title>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Por CU'!$C$95</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Por CU'!$B$96:$B$113</c:f>
+              <c:strCache>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>CU01 - Login</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>CU02 - Crear Usuario</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>CU03 - Ver Perfil</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>CU04 - Modificar - Eliminar Usuario</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>CU05 - Buscar Usuario</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>CU06 - Ver Solicitudes de Amistad</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>CU07 - Generar Solicitud de Amistad</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>CU08 - Responder Solicitud de Amistad</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>CU09 - Ver Amigos</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>CU10 - Ubicar Amigos - Radar</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>CU11 - Compartir Ubicacion</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>CU12 - Invitar amigos</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>CU13 - Buscar Sitio</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>CU14 - Crear Sitio</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>CU15 - Modificar - Eliminar Sitio</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>CU16 - Ver Sitio</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>CU17 - Publicar Información</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Por CU'!$C$96:$C$113</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>129</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="102649216"/>
+        <c:axId val="102659200"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="102649216"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="102659200"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="102659200"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="102649216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -931,6 +2311,101 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>876300</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>161924</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="1 Gráfico"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="2 Gráfico"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>695326</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="4 Gráfico"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Martin Loureiro" refreshedDate="40987.59875474537" createdVersion="3" refreshedVersion="3" minRefreshableVersion="3" recordCount="37">
   <cacheSource type="worksheet">
@@ -974,6 +2449,133 @@
 </pivotCacheDefinition>
 </file>
 
+<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Martin Loureiro" refreshedDate="40987.631493865738" createdVersion="3" refreshedVersion="3" minRefreshableVersion="3" recordCount="17">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="B3:H20" sheet="Por CU"/>
+  </cacheSource>
+  <cacheFields count="7">
+    <cacheField name="Iteración" numFmtId="0">
+      <sharedItems count="3">
+        <s v="1er It"/>
+        <s v="2da It"/>
+        <s v="3er It"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="CU" numFmtId="0">
+      <sharedItems count="17">
+        <s v="CU01 - Login"/>
+        <s v="CU02 - Crear Usuario"/>
+        <s v="CU03 - Ver Perfil"/>
+        <s v="CU05 - Buscar Usuario"/>
+        <s v="CU13 - Buscar Sitio"/>
+        <s v="CU14 - Crear Sitio"/>
+        <s v="CU16 - Ver Sitio"/>
+        <s v="CU06 - Ver Solicitudes de Amistad"/>
+        <s v="CU07 - Generar Solicitud de Amistad"/>
+        <s v="CU08 - Responder Solicitud de Amistad"/>
+        <s v="CU09 - Ver Amigos"/>
+        <s v="CU12 - Invitar amigos"/>
+        <s v="CU17 - Publicar Información"/>
+        <s v="CU04 - Modificar - Eliminar Usuario"/>
+        <s v="CU10 - Ubicar Amigos - Radar"/>
+        <s v="CU11 - Compartir Ubicacion"/>
+        <s v="CU15 - Modificar - Eliminar Sitio"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Investigación" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="15" count="8">
+        <n v="13"/>
+        <n v="15"/>
+        <n v="2"/>
+        <n v="10"/>
+        <n v="8"/>
+        <n v="1"/>
+        <n v="7"/>
+        <n v="11"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Análisis" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="3" maxValue="17"/>
+    </cacheField>
+    <cacheField name="Diseño" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="3" maxValue="20"/>
+    </cacheField>
+    <cacheField name="Codificación" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="24" maxValue="80"/>
+    </cacheField>
+    <cacheField name="Pruebas y ajustes" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="5" maxValue="30" count="8">
+        <n v="8"/>
+        <n v="10"/>
+        <n v="5"/>
+        <n v="9"/>
+        <n v="12"/>
+        <n v="15"/>
+        <n v="20"/>
+        <n v="30"/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Martin Loureiro" refreshedDate="40987.634994675929" createdVersion="3" refreshedVersion="3" minRefreshableVersion="3" recordCount="17">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="B3:I20" sheet="Por CU"/>
+  </cacheSource>
+  <cacheFields count="8">
+    <cacheField name="Iteración" numFmtId="0">
+      <sharedItems count="3">
+        <s v="1er It"/>
+        <s v="2da It"/>
+        <s v="3er It"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="CU" numFmtId="0">
+      <sharedItems count="17">
+        <s v="CU01 - Login"/>
+        <s v="CU02 - Crear Usuario"/>
+        <s v="CU03 - Ver Perfil"/>
+        <s v="CU05 - Buscar Usuario"/>
+        <s v="CU13 - Buscar Sitio"/>
+        <s v="CU14 - Crear Sitio"/>
+        <s v="CU16 - Ver Sitio"/>
+        <s v="CU06 - Ver Solicitudes de Amistad"/>
+        <s v="CU07 - Generar Solicitud de Amistad"/>
+        <s v="CU08 - Responder Solicitud de Amistad"/>
+        <s v="CU09 - Ver Amigos"/>
+        <s v="CU12 - Invitar amigos"/>
+        <s v="CU17 - Publicar Información"/>
+        <s v="CU04 - Modificar - Eliminar Usuario"/>
+        <s v="CU10 - Ubicar Amigos - Radar"/>
+        <s v="CU11 - Compartir Ubicacion"/>
+        <s v="CU15 - Modificar - Eliminar Sitio"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Investigación" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="15"/>
+    </cacheField>
+    <cacheField name="Análisis" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="3" maxValue="17"/>
+    </cacheField>
+    <cacheField name="Diseño" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="3" maxValue="20"/>
+    </cacheField>
+    <cacheField name="Codificación" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="24" maxValue="80"/>
+    </cacheField>
+    <cacheField name="Pruebas y ajustes" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="5" maxValue="30"/>
+    </cacheField>
+    <cacheField name="TOTAL por CU" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="51" maxValue="134"/>
+    </cacheField>
+  </cacheFields>
+</pivotCacheDefinition>
+</file>
+
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="37">
   <r>
@@ -1312,8 +2914,341 @@
 </pivotCacheRecords>
 </file>
 
+<file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="17">
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="15"/>
+    <n v="16"/>
+    <n v="70"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="15"/>
+    <n v="15"/>
+    <n v="70"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="8"/>
+    <n v="12"/>
+    <n v="45"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="1"/>
+    <n v="12"/>
+    <n v="15"/>
+    <n v="75"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+    <x v="3"/>
+    <n v="15"/>
+    <n v="20"/>
+    <n v="80"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+    <x v="4"/>
+    <n v="12"/>
+    <n v="15"/>
+    <n v="55"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+    <x v="2"/>
+    <n v="8"/>
+    <n v="12"/>
+    <n v="45"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="7"/>
+    <x v="3"/>
+    <n v="14"/>
+    <n v="15"/>
+    <n v="40"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="8"/>
+    <x v="2"/>
+    <n v="8"/>
+    <n v="8"/>
+    <n v="35"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="9"/>
+    <x v="2"/>
+    <n v="6"/>
+    <n v="6"/>
+    <n v="30"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="10"/>
+    <x v="4"/>
+    <n v="10"/>
+    <n v="12"/>
+    <n v="50"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="11"/>
+    <x v="3"/>
+    <n v="8"/>
+    <n v="10"/>
+    <n v="50"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="12"/>
+    <x v="3"/>
+    <n v="17"/>
+    <n v="17"/>
+    <n v="70"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="13"/>
+    <x v="5"/>
+    <n v="3"/>
+    <n v="3"/>
+    <n v="24"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="14"/>
+    <x v="6"/>
+    <n v="8"/>
+    <n v="8"/>
+    <n v="32"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="15"/>
+    <x v="7"/>
+    <n v="11"/>
+    <n v="15"/>
+    <n v="36"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="16"/>
+    <x v="2"/>
+    <n v="4"/>
+    <n v="4"/>
+    <n v="28"/>
+    <x v="6"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="17">
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="13"/>
+    <n v="15"/>
+    <n v="16"/>
+    <n v="70"/>
+    <n v="8"/>
+    <n v="122"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="15"/>
+    <n v="15"/>
+    <n v="15"/>
+    <n v="70"/>
+    <n v="10"/>
+    <n v="125"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="2"/>
+    <n v="8"/>
+    <n v="12"/>
+    <n v="45"/>
+    <n v="5"/>
+    <n v="72"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="3"/>
+    <n v="15"/>
+    <n v="12"/>
+    <n v="15"/>
+    <n v="75"/>
+    <n v="8"/>
+    <n v="125"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+    <n v="10"/>
+    <n v="15"/>
+    <n v="20"/>
+    <n v="80"/>
+    <n v="9"/>
+    <n v="134"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+    <n v="8"/>
+    <n v="12"/>
+    <n v="15"/>
+    <n v="55"/>
+    <n v="5"/>
+    <n v="95"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+    <n v="2"/>
+    <n v="8"/>
+    <n v="12"/>
+    <n v="45"/>
+    <n v="5"/>
+    <n v="72"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="7"/>
+    <n v="10"/>
+    <n v="14"/>
+    <n v="15"/>
+    <n v="40"/>
+    <n v="10"/>
+    <n v="89"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="8"/>
+    <n v="2"/>
+    <n v="8"/>
+    <n v="8"/>
+    <n v="35"/>
+    <n v="8"/>
+    <n v="61"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="9"/>
+    <n v="2"/>
+    <n v="6"/>
+    <n v="6"/>
+    <n v="30"/>
+    <n v="10"/>
+    <n v="54"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="10"/>
+    <n v="8"/>
+    <n v="10"/>
+    <n v="12"/>
+    <n v="50"/>
+    <n v="12"/>
+    <n v="92"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="11"/>
+    <n v="10"/>
+    <n v="8"/>
+    <n v="10"/>
+    <n v="50"/>
+    <n v="15"/>
+    <n v="93"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="12"/>
+    <n v="10"/>
+    <n v="17"/>
+    <n v="17"/>
+    <n v="70"/>
+    <n v="15"/>
+    <n v="129"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="13"/>
+    <n v="1"/>
+    <n v="3"/>
+    <n v="3"/>
+    <n v="24"/>
+    <n v="20"/>
+    <n v="51"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="14"/>
+    <n v="7"/>
+    <n v="8"/>
+    <n v="8"/>
+    <n v="32"/>
+    <n v="30"/>
+    <n v="85"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="15"/>
+    <n v="11"/>
+    <n v="11"/>
+    <n v="15"/>
+    <n v="36"/>
+    <n v="30"/>
+    <n v="103"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="16"/>
+    <n v="2"/>
+    <n v="4"/>
+    <n v="4"/>
+    <n v="28"/>
+    <n v="20"/>
+    <n v="58"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica3" cacheId="67" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="B61:C65" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField axis="axisRow" showAll="0">
@@ -1371,7 +3306,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica2" cacheId="67" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="B43:C50" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField showAll="0"/>
@@ -1439,6 +3374,443 @@
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
             <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica1" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+  <location ref="B95:C113" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="8">
+    <pivotField showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="18">
+        <item sd="0" x="0"/>
+        <item sd="0" x="1"/>
+        <item x="2"/>
+        <item x="13"/>
+        <item x="3"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="11"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="16"/>
+        <item x="6"/>
+        <item x="12"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="18">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Suma de TOTAL por CU" fld="7" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="3">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica2" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="B29:H34" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="8">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="6">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
+    <i i="4">
+      <x v="4"/>
+    </i>
+    <i i="5">
+      <x v="5"/>
+    </i>
+  </colItems>
+  <dataFields count="6">
+    <dataField name="Suma de Investigación" fld="2" baseField="0" baseItem="0"/>
+    <dataField name="Suma de Análisis" fld="3" baseField="0" baseItem="0"/>
+    <dataField name="Suma de Diseño" fld="4" baseField="0" baseItem="0"/>
+    <dataField name="Suma de Codificación" fld="5" baseField="0" baseItem="0"/>
+    <dataField name="Suma de Pruebas y ajustes" fld="6" baseField="0" baseItem="0"/>
+    <dataField name="Suma de TOTAL por CU" fld="7" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="6">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="3" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="4" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="5" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica3" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="B56:G75" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="7">
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="18">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="13"/>
+        <item x="3"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="11"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="16"/>
+        <item x="6"/>
+        <item x="12"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="18">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
+    <i i="4">
+      <x v="4"/>
+    </i>
+  </colItems>
+  <dataFields count="5">
+    <dataField name="Suma de Investigación" fld="2" baseField="0" baseItem="0"/>
+    <dataField name="Suma de Análisis" fld="3" baseField="0" baseItem="0"/>
+    <dataField name="Suma de Diseño" fld="4" baseField="0" baseItem="0"/>
+    <dataField name="Suma de Codificación" fld="5" baseField="0" baseItem="0"/>
+    <dataField name="Suma de Pruebas y ajustes" fld="6" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="5">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="3" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="4" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
           </reference>
         </references>
       </pivotArea>
@@ -1798,7 +4170,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AV78"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A67" workbookViewId="0">
       <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
@@ -2574,7 +4946,7 @@
         <v>33</v>
       </c>
       <c r="F33" s="5">
-        <f t="shared" ref="F33:F34" si="1">G33+H33</f>
+        <f>G33+H33</f>
         <v>120</v>
       </c>
       <c r="G33" s="5">
@@ -2598,7 +4970,7 @@
         <v>34</v>
       </c>
       <c r="F34" s="5">
-        <f t="shared" si="1"/>
+        <f>G34+H34</f>
         <v>100</v>
       </c>
       <c r="G34" s="5">
@@ -2729,23 +5101,23 @@
       </c>
     </row>
     <row r="40" spans="2:8">
-      <c r="B40" s="14"/>
-      <c r="C40" s="14"/>
-      <c r="D40" s="14"/>
-      <c r="F40" s="14"/>
-      <c r="G40" s="14"/>
-      <c r="H40" s="15"/>
+      <c r="B40" s="13"/>
+      <c r="C40" s="13"/>
+      <c r="D40" s="13"/>
+      <c r="F40" s="13"/>
+      <c r="G40" s="13"/>
+      <c r="H40" s="14"/>
     </row>
     <row r="41" spans="2:8">
-      <c r="B41" s="14"/>
-      <c r="C41" s="14"/>
-      <c r="D41" s="14"/>
-      <c r="F41" s="14"/>
-      <c r="G41" s="14"/>
-      <c r="H41" s="15"/>
+      <c r="B41" s="13"/>
+      <c r="C41" s="13"/>
+      <c r="D41" s="13"/>
+      <c r="F41" s="13"/>
+      <c r="G41" s="13"/>
+      <c r="H41" s="14"/>
     </row>
     <row r="43" spans="2:8">
-      <c r="B43" s="11" t="s">
+      <c r="B43" s="10" t="s">
         <v>68</v>
       </c>
       <c r="C43" t="s">
@@ -2754,64 +5126,64 @@
       <c r="D43"/>
     </row>
     <row r="44" spans="2:8">
-      <c r="B44" s="12" t="s">
+      <c r="B44" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="C44" s="13">
+      <c r="C44" s="12">
         <v>172</v>
       </c>
       <c r="D44"/>
     </row>
     <row r="45" spans="2:8">
-      <c r="B45" s="12" t="s">
+      <c r="B45" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="C45" s="13">
+      <c r="C45" s="12">
         <v>203</v>
       </c>
       <c r="D45"/>
     </row>
     <row r="46" spans="2:8">
-      <c r="B46" s="12" t="s">
+      <c r="B46" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C46" s="13">
+      <c r="C46" s="12">
         <v>429</v>
       </c>
       <c r="D46"/>
     </row>
     <row r="47" spans="2:8">
-      <c r="B47" s="12" t="s">
+      <c r="B47" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="C47" s="13">
+      <c r="C47" s="12">
         <v>570</v>
       </c>
       <c r="D47"/>
     </row>
     <row r="48" spans="2:8">
-      <c r="B48" s="12" t="s">
+      <c r="B48" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="C48" s="13">
+      <c r="C48" s="12">
         <v>612</v>
       </c>
       <c r="D48"/>
     </row>
     <row r="49" spans="2:4">
-      <c r="B49" s="12" t="s">
+      <c r="B49" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="C49" s="13">
+      <c r="C49" s="12">
         <v>848</v>
       </c>
       <c r="D49"/>
     </row>
     <row r="50" spans="2:4">
-      <c r="B50" s="12" t="s">
+      <c r="B50" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="C50" s="13">
+      <c r="C50" s="12">
         <v>2834</v>
       </c>
       <c r="D50"/>
@@ -2867,7 +5239,7 @@
       <c r="D60"/>
     </row>
     <row r="61" spans="2:4">
-      <c r="B61" s="11" t="s">
+      <c r="B61" s="10" t="s">
         <v>68</v>
       </c>
       <c r="C61" t="s">
@@ -2876,37 +5248,37 @@
       <c r="D61"/>
     </row>
     <row r="62" spans="2:4">
-      <c r="B62" s="12" t="s">
+      <c r="B62" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C62" s="13">
+      <c r="C62" s="12">
         <v>729</v>
       </c>
       <c r="D62"/>
     </row>
     <row r="63" spans="2:4">
-      <c r="B63" s="12" t="s">
+      <c r="B63" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C63" s="13">
+      <c r="C63" s="12">
         <v>1562</v>
       </c>
       <c r="D63"/>
     </row>
     <row r="64" spans="2:4">
-      <c r="B64" s="12" t="s">
+      <c r="B64" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="C64" s="13">
+      <c r="C64" s="12">
         <v>543</v>
       </c>
       <c r="D64"/>
     </row>
     <row r="65" spans="2:4">
-      <c r="B65" s="12" t="s">
+      <c r="B65" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="C65" s="13">
+      <c r="C65" s="12">
         <v>2834</v>
       </c>
       <c r="D65"/>
@@ -2985,28 +5357,28 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B3:J25"/>
+  <dimension ref="B3:J130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="H117" sqref="H117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.5703125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="36.28515625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="15.42578125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="15" style="2" customWidth="1"/>
+    <col min="2" max="2" width="34.42578125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="22.85546875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="21.28515625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="25.85546875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="22.85546875" style="2" customWidth="1"/>
     <col min="9" max="9" width="15.5703125" style="2" customWidth="1"/>
     <col min="10" max="16384" width="10.5703125" style="2"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:10" ht="31.5">
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="16" t="s">
         <v>72</v>
       </c>
       <c r="C3" s="7" t="s">
@@ -3035,13 +5407,13 @@
       </c>
     </row>
     <row r="4" spans="2:10">
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="D4" s="16">
+      <c r="D4" s="15">
         <v>13</v>
       </c>
       <c r="E4" s="9">
@@ -3060,19 +5432,19 @@
         <f>SUM(D4:H4)</f>
         <v>122</v>
       </c>
-      <c r="J4" s="10">
+      <c r="J4" s="20">
         <f>SUM(I4:I10)</f>
         <v>745</v>
       </c>
     </row>
     <row r="5" spans="2:10">
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="D5" s="16">
+      <c r="D5" s="15">
         <v>15</v>
       </c>
       <c r="E5" s="9">
@@ -3091,16 +5463,16 @@
         <f t="shared" ref="I5:I20" si="0">SUM(D5:H5)</f>
         <v>125</v>
       </c>
-      <c r="J5" s="10"/>
+      <c r="J5" s="20"/>
     </row>
     <row r="6" spans="2:10">
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="D6" s="16">
+      <c r="D6" s="15">
         <v>2</v>
       </c>
       <c r="E6" s="9">
@@ -3119,16 +5491,16 @@
         <f t="shared" si="0"/>
         <v>72</v>
       </c>
-      <c r="J6" s="10"/>
+      <c r="J6" s="20"/>
     </row>
     <row r="7" spans="2:10">
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="D7" s="16">
+      <c r="D7" s="15">
         <v>15</v>
       </c>
       <c r="E7" s="9">
@@ -3147,16 +5519,16 @@
         <f t="shared" si="0"/>
         <v>125</v>
       </c>
-      <c r="J7" s="10"/>
+      <c r="J7" s="20"/>
     </row>
     <row r="8" spans="2:10">
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="D8" s="16">
+      <c r="D8" s="15">
         <v>10</v>
       </c>
       <c r="E8" s="9">
@@ -3175,16 +5547,16 @@
         <f t="shared" si="0"/>
         <v>134</v>
       </c>
-      <c r="J8" s="10"/>
+      <c r="J8" s="20"/>
     </row>
     <row r="9" spans="2:10">
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="D9" s="16">
+      <c r="D9" s="15">
         <v>8</v>
       </c>
       <c r="E9" s="9">
@@ -3203,16 +5575,16 @@
         <f t="shared" si="0"/>
         <v>95</v>
       </c>
-      <c r="J9" s="10"/>
+      <c r="J9" s="20"/>
     </row>
     <row r="10" spans="2:10">
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="D10" s="16">
+      <c r="D10" s="15">
         <v>2</v>
       </c>
       <c r="E10" s="9">
@@ -3231,16 +5603,16 @@
         <f t="shared" si="0"/>
         <v>72</v>
       </c>
-      <c r="J10" s="10"/>
+      <c r="J10" s="20"/>
     </row>
     <row r="11" spans="2:10">
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="C11" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="D11" s="16">
+      <c r="D11" s="15">
         <v>10</v>
       </c>
       <c r="E11" s="9">
@@ -3259,19 +5631,19 @@
         <f t="shared" si="0"/>
         <v>89</v>
       </c>
-      <c r="J11" s="10">
+      <c r="J11" s="20">
         <f>SUM(I11:I16)</f>
         <v>518</v>
       </c>
     </row>
     <row r="12" spans="2:10">
-      <c r="B12" s="19" t="s">
+      <c r="B12" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="C12" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="D12" s="16">
+      <c r="D12" s="15">
         <v>2</v>
       </c>
       <c r="E12" s="9">
@@ -3290,16 +5662,16 @@
         <f>SUM(D12:H12)</f>
         <v>61</v>
       </c>
-      <c r="J12" s="10"/>
+      <c r="J12" s="20"/>
     </row>
     <row r="13" spans="2:10">
-      <c r="B13" s="19" t="s">
+      <c r="B13" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="C13" s="16" t="s">
+      <c r="C13" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="D13" s="16">
+      <c r="D13" s="15">
         <v>2</v>
       </c>
       <c r="E13" s="9">
@@ -3318,16 +5690,16 @@
         <f t="shared" si="0"/>
         <v>54</v>
       </c>
-      <c r="J13" s="10"/>
+      <c r="J13" s="20"/>
     </row>
     <row r="14" spans="2:10">
-      <c r="B14" s="19" t="s">
+      <c r="B14" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="C14" s="16" t="s">
+      <c r="C14" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="D14" s="16">
+      <c r="D14" s="15">
         <v>8</v>
       </c>
       <c r="E14" s="9">
@@ -3346,16 +5718,16 @@
         <f t="shared" si="0"/>
         <v>92</v>
       </c>
-      <c r="J14" s="10"/>
+      <c r="J14" s="20"/>
     </row>
     <row r="15" spans="2:10">
-      <c r="B15" s="19" t="s">
+      <c r="B15" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="C15" s="16" t="s">
+      <c r="C15" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="D15" s="16">
+      <c r="D15" s="15">
         <v>10</v>
       </c>
       <c r="E15" s="9">
@@ -3374,16 +5746,16 @@
         <f t="shared" si="0"/>
         <v>93</v>
       </c>
-      <c r="J15" s="10"/>
+      <c r="J15" s="20"/>
     </row>
     <row r="16" spans="2:10">
-      <c r="B16" s="19" t="s">
+      <c r="B16" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="C16" s="16" t="s">
+      <c r="C16" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="D16" s="16">
+      <c r="D16" s="15">
         <v>10</v>
       </c>
       <c r="E16" s="9">
@@ -3402,16 +5774,16 @@
         <f t="shared" si="0"/>
         <v>129</v>
       </c>
-      <c r="J16" s="10"/>
+      <c r="J16" s="20"/>
     </row>
     <row r="17" spans="2:10">
-      <c r="B17" s="19" t="s">
+      <c r="B17" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="C17" s="16" t="s">
+      <c r="C17" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="D17" s="16">
+      <c r="D17" s="15">
         <v>1</v>
       </c>
       <c r="E17" s="9">
@@ -3430,19 +5802,19 @@
         <f t="shared" si="0"/>
         <v>51</v>
       </c>
-      <c r="J17" s="10">
+      <c r="J17" s="20">
         <f>SUM(I17:I20)</f>
         <v>297</v>
       </c>
     </row>
     <row r="18" spans="2:10">
-      <c r="B18" s="19" t="s">
+      <c r="B18" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="C18" s="16" t="s">
+      <c r="C18" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="D18" s="16">
+      <c r="D18" s="15">
         <v>7</v>
       </c>
       <c r="E18" s="9">
@@ -3461,16 +5833,16 @@
         <f t="shared" si="0"/>
         <v>85</v>
       </c>
-      <c r="J18" s="10"/>
+      <c r="J18" s="20"/>
     </row>
     <row r="19" spans="2:10">
-      <c r="B19" s="19" t="s">
+      <c r="B19" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="C19" s="16" t="s">
+      <c r="C19" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="D19" s="16">
+      <c r="D19" s="15">
         <v>11</v>
       </c>
       <c r="E19" s="9">
@@ -3489,16 +5861,16 @@
         <f t="shared" si="0"/>
         <v>103</v>
       </c>
-      <c r="J19" s="10"/>
+      <c r="J19" s="20"/>
     </row>
     <row r="20" spans="2:10">
-      <c r="B20" s="20" t="s">
+      <c r="B20" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="C20" s="16" t="s">
+      <c r="C20" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="D20" s="16">
+      <c r="D20" s="15">
         <v>2</v>
       </c>
       <c r="E20" s="9">
@@ -3517,10 +5889,10 @@
         <f t="shared" si="0"/>
         <v>58</v>
       </c>
-      <c r="J20" s="10"/>
+      <c r="J20" s="20"/>
     </row>
     <row r="21" spans="2:10">
-      <c r="C21" s="18" t="s">
+      <c r="C21" s="17" t="s">
         <v>67</v>
       </c>
       <c r="D21" s="2">
@@ -3532,15 +5904,15 @@
         <v>174</v>
       </c>
       <c r="F21" s="2">
-        <f t="shared" ref="F21:H21" si="1">SUM(F4:F20)</f>
+        <f>SUM(F4:F20)</f>
         <v>203</v>
       </c>
       <c r="G21" s="2">
-        <f t="shared" si="1"/>
+        <f>SUM(G4:G20)</f>
         <v>835</v>
       </c>
       <c r="H21" s="2">
-        <f t="shared" si="1"/>
+        <f>SUM(H4:H20)</f>
         <v>220</v>
       </c>
     </row>
@@ -3603,6 +5975,835 @@
       <c r="H25" s="2">
         <v>100</v>
       </c>
+    </row>
+    <row r="26" spans="2:10">
+      <c r="B26"/>
+      <c r="C26"/>
+      <c r="D26"/>
+    </row>
+    <row r="27" spans="2:10">
+      <c r="B27"/>
+      <c r="C27"/>
+      <c r="D27"/>
+    </row>
+    <row r="28" spans="2:10">
+      <c r="B28"/>
+      <c r="C28"/>
+      <c r="D28"/>
+    </row>
+    <row r="29" spans="2:10">
+      <c r="B29"/>
+      <c r="C29" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="D29"/>
+      <c r="E29"/>
+      <c r="F29"/>
+      <c r="G29"/>
+      <c r="H29"/>
+    </row>
+    <row r="30" spans="2:10">
+      <c r="B30" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C30" t="s">
+        <v>73</v>
+      </c>
+      <c r="D30" t="s">
+        <v>75</v>
+      </c>
+      <c r="E30" t="s">
+        <v>76</v>
+      </c>
+      <c r="F30" t="s">
+        <v>77</v>
+      </c>
+      <c r="G30" t="s">
+        <v>78</v>
+      </c>
+      <c r="H30" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10">
+      <c r="B31" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C31" s="12">
+        <v>65</v>
+      </c>
+      <c r="D31" s="12">
+        <v>85</v>
+      </c>
+      <c r="E31" s="12">
+        <v>105</v>
+      </c>
+      <c r="F31" s="12">
+        <v>440</v>
+      </c>
+      <c r="G31" s="12">
+        <v>50</v>
+      </c>
+      <c r="H31" s="12">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10">
+      <c r="B32" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C32" s="12">
+        <v>42</v>
+      </c>
+      <c r="D32" s="12">
+        <v>63</v>
+      </c>
+      <c r="E32" s="12">
+        <v>68</v>
+      </c>
+      <c r="F32" s="12">
+        <v>275</v>
+      </c>
+      <c r="G32" s="12">
+        <v>70</v>
+      </c>
+      <c r="H32" s="12">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8">
+      <c r="B33" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="C33" s="12">
+        <v>21</v>
+      </c>
+      <c r="D33" s="12">
+        <v>26</v>
+      </c>
+      <c r="E33" s="12">
+        <v>30</v>
+      </c>
+      <c r="F33" s="12">
+        <v>120</v>
+      </c>
+      <c r="G33" s="12">
+        <v>100</v>
+      </c>
+      <c r="H33" s="12">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8">
+      <c r="B34" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="C34" s="12">
+        <v>128</v>
+      </c>
+      <c r="D34" s="12">
+        <v>174</v>
+      </c>
+      <c r="E34" s="12">
+        <v>203</v>
+      </c>
+      <c r="F34" s="12">
+        <v>835</v>
+      </c>
+      <c r="G34" s="12">
+        <v>220</v>
+      </c>
+      <c r="H34" s="12">
+        <v>1560</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8">
+      <c r="B35"/>
+      <c r="C35"/>
+      <c r="D35"/>
+    </row>
+    <row r="36" spans="2:8">
+      <c r="B36"/>
+      <c r="C36"/>
+      <c r="D36"/>
+    </row>
+    <row r="37" spans="2:8">
+      <c r="B37"/>
+      <c r="C37"/>
+      <c r="D37"/>
+    </row>
+    <row r="38" spans="2:8">
+      <c r="B38"/>
+      <c r="C38"/>
+      <c r="D38"/>
+    </row>
+    <row r="39" spans="2:8">
+      <c r="B39"/>
+      <c r="C39"/>
+      <c r="D39"/>
+    </row>
+    <row r="40" spans="2:8">
+      <c r="B40"/>
+      <c r="C40"/>
+      <c r="D40"/>
+    </row>
+    <row r="41" spans="2:8">
+      <c r="B41"/>
+      <c r="C41"/>
+      <c r="D41"/>
+    </row>
+    <row r="42" spans="2:8">
+      <c r="B42"/>
+      <c r="C42"/>
+      <c r="D42"/>
+    </row>
+    <row r="43" spans="2:8">
+      <c r="B43"/>
+      <c r="C43"/>
+      <c r="D43"/>
+    </row>
+    <row r="44" spans="2:8">
+      <c r="B44"/>
+      <c r="C44"/>
+      <c r="D44"/>
+    </row>
+    <row r="45" spans="2:8">
+      <c r="B45"/>
+      <c r="C45"/>
+      <c r="D45"/>
+    </row>
+    <row r="46" spans="2:8">
+      <c r="B46"/>
+      <c r="C46"/>
+      <c r="D46"/>
+    </row>
+    <row r="56" spans="2:7">
+      <c r="B56"/>
+      <c r="C56" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="D56"/>
+      <c r="E56"/>
+      <c r="F56"/>
+      <c r="G56"/>
+    </row>
+    <row r="57" spans="2:7">
+      <c r="B57" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C57" t="s">
+        <v>73</v>
+      </c>
+      <c r="D57" t="s">
+        <v>75</v>
+      </c>
+      <c r="E57" t="s">
+        <v>76</v>
+      </c>
+      <c r="F57" t="s">
+        <v>77</v>
+      </c>
+      <c r="G57" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="58" spans="2:7">
+      <c r="B58" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C58" s="12">
+        <v>13</v>
+      </c>
+      <c r="D58" s="12">
+        <v>15</v>
+      </c>
+      <c r="E58" s="12">
+        <v>16</v>
+      </c>
+      <c r="F58" s="12">
+        <v>70</v>
+      </c>
+      <c r="G58" s="12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="2:7">
+      <c r="B59" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C59" s="12">
+        <v>15</v>
+      </c>
+      <c r="D59" s="12">
+        <v>15</v>
+      </c>
+      <c r="E59" s="12">
+        <v>15</v>
+      </c>
+      <c r="F59" s="12">
+        <v>70</v>
+      </c>
+      <c r="G59" s="12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60" spans="2:7">
+      <c r="B60" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C60" s="12">
+        <v>2</v>
+      </c>
+      <c r="D60" s="12">
+        <v>8</v>
+      </c>
+      <c r="E60" s="12">
+        <v>12</v>
+      </c>
+      <c r="F60" s="12">
+        <v>45</v>
+      </c>
+      <c r="G60" s="12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="2:7">
+      <c r="B61" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="C61" s="12">
+        <v>1</v>
+      </c>
+      <c r="D61" s="12">
+        <v>3</v>
+      </c>
+      <c r="E61" s="12">
+        <v>3</v>
+      </c>
+      <c r="F61" s="12">
+        <v>24</v>
+      </c>
+      <c r="G61" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="62" spans="2:7">
+      <c r="B62" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C62" s="12">
+        <v>15</v>
+      </c>
+      <c r="D62" s="12">
+        <v>12</v>
+      </c>
+      <c r="E62" s="12">
+        <v>15</v>
+      </c>
+      <c r="F62" s="12">
+        <v>75</v>
+      </c>
+      <c r="G62" s="12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="2:7">
+      <c r="B63" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C63" s="12">
+        <v>10</v>
+      </c>
+      <c r="D63" s="12">
+        <v>14</v>
+      </c>
+      <c r="E63" s="12">
+        <v>15</v>
+      </c>
+      <c r="F63" s="12">
+        <v>40</v>
+      </c>
+      <c r="G63" s="12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64" spans="2:7">
+      <c r="B64" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C64" s="12">
+        <v>2</v>
+      </c>
+      <c r="D64" s="12">
+        <v>8</v>
+      </c>
+      <c r="E64" s="12">
+        <v>8</v>
+      </c>
+      <c r="F64" s="12">
+        <v>35</v>
+      </c>
+      <c r="G64" s="12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65" spans="2:7">
+      <c r="B65" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C65" s="12">
+        <v>2</v>
+      </c>
+      <c r="D65" s="12">
+        <v>6</v>
+      </c>
+      <c r="E65" s="12">
+        <v>6</v>
+      </c>
+      <c r="F65" s="12">
+        <v>30</v>
+      </c>
+      <c r="G65" s="12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66" spans="2:7">
+      <c r="B66" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="C66" s="12">
+        <v>8</v>
+      </c>
+      <c r="D66" s="12">
+        <v>10</v>
+      </c>
+      <c r="E66" s="12">
+        <v>12</v>
+      </c>
+      <c r="F66" s="12">
+        <v>50</v>
+      </c>
+      <c r="G66" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="67" spans="2:7">
+      <c r="B67" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="C67" s="12">
+        <v>7</v>
+      </c>
+      <c r="D67" s="12">
+        <v>8</v>
+      </c>
+      <c r="E67" s="12">
+        <v>8</v>
+      </c>
+      <c r="F67" s="12">
+        <v>32</v>
+      </c>
+      <c r="G67" s="12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="68" spans="2:7">
+      <c r="B68" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="C68" s="12">
+        <v>11</v>
+      </c>
+      <c r="D68" s="12">
+        <v>11</v>
+      </c>
+      <c r="E68" s="12">
+        <v>15</v>
+      </c>
+      <c r="F68" s="12">
+        <v>36</v>
+      </c>
+      <c r="G68" s="12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="69" spans="2:7">
+      <c r="B69" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="C69" s="12">
+        <v>10</v>
+      </c>
+      <c r="D69" s="12">
+        <v>8</v>
+      </c>
+      <c r="E69" s="12">
+        <v>10</v>
+      </c>
+      <c r="F69" s="12">
+        <v>50</v>
+      </c>
+      <c r="G69" s="12">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="70" spans="2:7">
+      <c r="B70" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C70" s="12">
+        <v>10</v>
+      </c>
+      <c r="D70" s="12">
+        <v>15</v>
+      </c>
+      <c r="E70" s="12">
+        <v>20</v>
+      </c>
+      <c r="F70" s="12">
+        <v>80</v>
+      </c>
+      <c r="G70" s="12">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71" spans="2:7">
+      <c r="B71" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C71" s="12">
+        <v>8</v>
+      </c>
+      <c r="D71" s="12">
+        <v>12</v>
+      </c>
+      <c r="E71" s="12">
+        <v>15</v>
+      </c>
+      <c r="F71" s="12">
+        <v>55</v>
+      </c>
+      <c r="G71" s="12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72" spans="2:7">
+      <c r="B72" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C72" s="12">
+        <v>2</v>
+      </c>
+      <c r="D72" s="12">
+        <v>4</v>
+      </c>
+      <c r="E72" s="12">
+        <v>4</v>
+      </c>
+      <c r="F72" s="12">
+        <v>28</v>
+      </c>
+      <c r="G72" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="73" spans="2:7">
+      <c r="B73" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C73" s="12">
+        <v>2</v>
+      </c>
+      <c r="D73" s="12">
+        <v>8</v>
+      </c>
+      <c r="E73" s="12">
+        <v>12</v>
+      </c>
+      <c r="F73" s="12">
+        <v>45</v>
+      </c>
+      <c r="G73" s="12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74" spans="2:7">
+      <c r="B74" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="C74" s="12">
+        <v>10</v>
+      </c>
+      <c r="D74" s="12">
+        <v>17</v>
+      </c>
+      <c r="E74" s="12">
+        <v>17</v>
+      </c>
+      <c r="F74" s="12">
+        <v>70</v>
+      </c>
+      <c r="G74" s="12">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="75" spans="2:7">
+      <c r="B75" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="C75" s="12">
+        <v>128</v>
+      </c>
+      <c r="D75" s="12">
+        <v>174</v>
+      </c>
+      <c r="E75" s="12">
+        <v>203</v>
+      </c>
+      <c r="F75" s="12">
+        <v>835</v>
+      </c>
+      <c r="G75" s="12">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="95" spans="2:4">
+      <c r="B95" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C95" t="s">
+        <v>79</v>
+      </c>
+      <c r="D95"/>
+    </row>
+    <row r="96" spans="2:4">
+      <c r="B96" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C96" s="12">
+        <v>122</v>
+      </c>
+      <c r="D96"/>
+    </row>
+    <row r="97" spans="2:4">
+      <c r="B97" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C97" s="12">
+        <v>125</v>
+      </c>
+      <c r="D97"/>
+    </row>
+    <row r="98" spans="2:4">
+      <c r="B98" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C98" s="12">
+        <v>72</v>
+      </c>
+      <c r="D98"/>
+    </row>
+    <row r="99" spans="2:4">
+      <c r="B99" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="C99" s="12">
+        <v>51</v>
+      </c>
+      <c r="D99"/>
+    </row>
+    <row r="100" spans="2:4">
+      <c r="B100" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C100" s="12">
+        <v>125</v>
+      </c>
+      <c r="D100"/>
+    </row>
+    <row r="101" spans="2:4">
+      <c r="B101" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C101" s="12">
+        <v>89</v>
+      </c>
+      <c r="D101"/>
+    </row>
+    <row r="102" spans="2:4">
+      <c r="B102" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C102" s="12">
+        <v>61</v>
+      </c>
+      <c r="D102"/>
+    </row>
+    <row r="103" spans="2:4">
+      <c r="B103" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C103" s="12">
+        <v>54</v>
+      </c>
+      <c r="D103"/>
+    </row>
+    <row r="104" spans="2:4">
+      <c r="B104" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="C104" s="12">
+        <v>92</v>
+      </c>
+      <c r="D104"/>
+    </row>
+    <row r="105" spans="2:4">
+      <c r="B105" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="C105" s="12">
+        <v>85</v>
+      </c>
+      <c r="D105"/>
+    </row>
+    <row r="106" spans="2:4">
+      <c r="B106" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="C106" s="12">
+        <v>103</v>
+      </c>
+      <c r="D106"/>
+    </row>
+    <row r="107" spans="2:4">
+      <c r="B107" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="C107" s="12">
+        <v>93</v>
+      </c>
+      <c r="D107"/>
+    </row>
+    <row r="108" spans="2:4">
+      <c r="B108" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C108" s="12">
+        <v>134</v>
+      </c>
+      <c r="D108"/>
+    </row>
+    <row r="109" spans="2:4">
+      <c r="B109" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C109" s="12">
+        <v>95</v>
+      </c>
+      <c r="D109"/>
+    </row>
+    <row r="110" spans="2:4">
+      <c r="B110" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C110" s="12">
+        <v>58</v>
+      </c>
+      <c r="D110"/>
+    </row>
+    <row r="111" spans="2:4">
+      <c r="B111" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C111" s="12">
+        <v>72</v>
+      </c>
+      <c r="D111"/>
+    </row>
+    <row r="112" spans="2:4">
+      <c r="B112" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="C112" s="12">
+        <v>129</v>
+      </c>
+      <c r="D112"/>
+    </row>
+    <row r="113" spans="2:3">
+      <c r="B113" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="C113" s="12">
+        <v>1560</v>
+      </c>
+    </row>
+    <row r="114" spans="2:3">
+      <c r="B114"/>
+      <c r="C114"/>
+    </row>
+    <row r="115" spans="2:3">
+      <c r="B115"/>
+      <c r="C115"/>
+    </row>
+    <row r="116" spans="2:3">
+      <c r="B116"/>
+      <c r="C116"/>
+    </row>
+    <row r="117" spans="2:3">
+      <c r="B117"/>
+      <c r="C117"/>
+    </row>
+    <row r="118" spans="2:3">
+      <c r="B118"/>
+      <c r="C118"/>
+    </row>
+    <row r="119" spans="2:3">
+      <c r="B119"/>
+      <c r="C119"/>
+    </row>
+    <row r="120" spans="2:3">
+      <c r="B120"/>
+      <c r="C120"/>
+    </row>
+    <row r="121" spans="2:3">
+      <c r="B121"/>
+      <c r="C121"/>
+    </row>
+    <row r="122" spans="2:3">
+      <c r="B122"/>
+      <c r="C122"/>
+    </row>
+    <row r="123" spans="2:3">
+      <c r="B123"/>
+      <c r="C123"/>
+    </row>
+    <row r="124" spans="2:3">
+      <c r="B124"/>
+      <c r="C124"/>
+    </row>
+    <row r="125" spans="2:3">
+      <c r="B125"/>
+      <c r="C125"/>
+    </row>
+    <row r="126" spans="2:3">
+      <c r="B126"/>
+      <c r="C126"/>
+    </row>
+    <row r="127" spans="2:3">
+      <c r="B127"/>
+      <c r="C127"/>
+    </row>
+    <row r="128" spans="2:3">
+      <c r="B128"/>
+      <c r="C128"/>
+    </row>
+    <row r="129" spans="2:3">
+      <c r="B129"/>
+      <c r="C129"/>
+    </row>
+    <row r="130" spans="2:3">
+      <c r="B130"/>
+      <c r="C130"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
@@ -3612,7 +6813,8 @@
     <mergeCell ref="J17:J20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555551" footer="0.51180555555555551"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId4"/>
   <headerFooter alignWithMargins="0"/>
+  <drawing r:id="rId5"/>
 </worksheet>
 </file>
--- a/doc/Tareas Esfuerzo.xlsx
+++ b/doc/Tareas Esfuerzo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="3" r:id="rId1"/>
@@ -16,11 +16,10 @@
   </definedNames>
   <calcPr calcId="125725" iterateDelta="1E-4"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId3"/>
-    <pivotCache cacheId="6" r:id="rId4"/>
-    <pivotCache cacheId="5" r:id="rId5"/>
+    <pivotCache cacheId="1" r:id="rId3"/>
+    <pivotCache cacheId="2" r:id="rId4"/>
+    <pivotCache cacheId="10" r:id="rId5"/>
   </pivotCaches>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -687,45 +686,45 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>172</c:v>
+                  <c:v>174</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>203</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>429</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>570</c:v>
+                  <c:v>599</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>612</c:v>
+                  <c:v>621</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>848</c:v>
+                  <c:v>835</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="94920704"/>
-        <c:axId val="94922240"/>
+        <c:axId val="96567296"/>
+        <c:axId val="96568832"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="94920704"/>
+        <c:axId val="96567296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="94922240"/>
+        <c:crossAx val="96568832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="94922240"/>
+        <c:axId val="96568832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -733,7 +732,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="94920704"/>
+        <c:crossAx val="96567296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -746,7 +745,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -837,7 +836,7 @@
                   <c:v>729</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1562</c:v>
+                  <c:v>1560</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>543</c:v>
@@ -846,24 +845,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="94991872"/>
-        <c:axId val="94993408"/>
+        <c:axId val="99296768"/>
+        <c:axId val="99298304"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="94991872"/>
+        <c:axId val="99296768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="94993408"/>
+        <c:crossAx val="99298304"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="94993408"/>
+        <c:axId val="99298304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -871,7 +870,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="94991872"/>
+        <c:crossAx val="99296768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -884,7 +883,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1241,24 +1240,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="95668864"/>
-        <c:axId val="95674752"/>
+        <c:axId val="99376512"/>
+        <c:axId val="99390592"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="95668864"/>
+        <c:axId val="99376512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="95674752"/>
+        <c:crossAx val="99390592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="95674752"/>
+        <c:axId val="99390592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1266,7 +1265,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="95668864"/>
+        <c:crossAx val="99376512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1279,7 +1278,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2000,24 +1999,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="96766592"/>
-        <c:axId val="96780672"/>
+        <c:axId val="99487104"/>
+        <c:axId val="99505280"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="96766592"/>
+        <c:axId val="99487104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="96780672"/>
+        <c:crossAx val="99505280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="96780672"/>
+        <c:axId val="99505280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2025,7 +2024,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="96766592"/>
+        <c:crossAx val="99487104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2038,7 +2037,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2202,24 +2201,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="102649216"/>
-        <c:axId val="102659200"/>
+        <c:axId val="99516800"/>
+        <c:axId val="99518336"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="102649216"/>
+        <c:axId val="99516800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="102659200"/>
+        <c:crossAx val="99518336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="102659200"/>
+        <c:axId val="99518336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2227,7 +2226,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="102649216"/>
+        <c:crossAx val="99516800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2240,7 +2239,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2407,49 +2406,6 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Martin Loureiro" refreshedDate="40987.59875474537" createdVersion="3" refreshedVersion="3" minRefreshableVersion="3" recordCount="37">
-  <cacheSource type="worksheet">
-    <worksheetSource ref="B2:H39" sheet="General"/>
-  </cacheSource>
-  <cacheFields count="7">
-    <cacheField name="Etapa" numFmtId="0">
-      <sharedItems count="4">
-        <s v="Etapa 1"/>
-        <s v="Etapa 2"/>
-        <s v="Etapa 3"/>
-        <s v="Etapa3" u="1"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="Tipo" numFmtId="0">
-      <sharedItems count="6">
-        <s v="Documentación"/>
-        <s v="Investigación"/>
-        <s v="Pruebas"/>
-        <s v="Analisis"/>
-        <s v="Diseño"/>
-        <s v="Codificación"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="Fase" numFmtId="0">
-      <sharedItems/>
-    </cacheField>
-    <cacheField name="Tarea" numFmtId="0">
-      <sharedItems/>
-    </cacheField>
-    <cacheField name="Horas" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="6" maxValue="450"/>
-    </cacheField>
-    <cacheField name="Antonio" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="2" maxValue="240"/>
-    </cacheField>
-    <cacheField name="Martín" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="2" maxValue="210"/>
-    </cacheField>
-  </cacheFields>
-</pivotCacheDefinition>
-</file>
-
-<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Martin Loureiro" refreshedDate="40987.631493865738" createdVersion="3" refreshedVersion="3" minRefreshableVersion="3" recordCount="17">
   <cacheSource type="worksheet">
     <worksheetSource ref="B3:H20" sheet="Por CU"/>
@@ -2520,7 +2476,7 @@
 </pivotCacheDefinition>
 </file>
 
-<file path=xl/pivotCache/pivotCacheDefinition3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Martin Loureiro" refreshedDate="40987.634994675929" createdVersion="3" refreshedVersion="3" minRefreshableVersion="3" recordCount="17">
   <cacheSource type="worksheet">
     <worksheetSource ref="B3:I20" sheet="Por CU"/>
@@ -2576,345 +2532,50 @@
 </pivotCacheDefinition>
 </file>
 
-<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="37">
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <s v="Fase 1: Configuración"/>
-    <s v="Plan de Proyecto"/>
-    <n v="18"/>
-    <n v="8"/>
-    <n v="10"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <s v="Fase 1: Configuración"/>
-    <s v="Documento de gestion de configuración (SCM)"/>
-    <n v="12"/>
-    <n v="10"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <s v="Fase 1: Configuración"/>
-    <s v="Documento de calidad"/>
-    <n v="12"/>
-    <n v="2"/>
-    <n v="10"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="1"/>
-    <s v="Fase 2: Investigación"/>
-    <s v="Investigación JME"/>
-    <n v="20"/>
-    <n v="15"/>
-    <n v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="1"/>
-    <s v="Fase 2: Investigación"/>
-    <s v="Definición de ambiente"/>
-    <n v="8"/>
-    <n v="4"/>
-    <n v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="1"/>
-    <s v="Fase 2: Investigación"/>
-    <s v="Prueba de concepto (Interfaz móvil)"/>
-    <n v="45"/>
-    <n v="25"/>
-    <n v="20"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="1"/>
-    <s v="Fase 2: Investigación"/>
-    <s v="Prueba de concepto (Interfaz web)"/>
-    <n v="18"/>
-    <n v="16"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="1"/>
-    <s v="Fase 2: Investigación"/>
-    <s v="Investigación de framework MVC (REST)"/>
-    <n v="36"/>
-    <n v="20"/>
-    <n v="16"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="1"/>
-    <s v="Fase 2: Investigación"/>
-    <s v="Investigación Android"/>
-    <n v="290"/>
-    <n v="150"/>
-    <n v="140"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="1"/>
-    <s v="Fase 2: Investigación"/>
-    <s v="Investigación PostGis"/>
-    <n v="70"/>
-    <n v="35"/>
-    <n v="35"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <s v="Fase 2: Investigación"/>
-    <s v="Documento de estado del arte"/>
-    <n v="35"/>
-    <n v="25"/>
-    <n v="10"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <s v="Fase 3: Elaboración"/>
-    <s v="Documento de especificación de requerimientos"/>
-    <n v="30"/>
-    <n v="10"/>
-    <n v="20"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <s v="Fase 3: Elaboración"/>
-    <s v="Documento de análisis de riesgo"/>
-    <n v="12"/>
-    <n v="2"/>
-    <n v="10"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="1"/>
-    <s v="Fase 3: Elaboración"/>
-    <s v="Documento de investigación de mercado"/>
-    <n v="6"/>
-    <n v="4"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <s v="Fase 3: Elaboración"/>
-    <s v="Documento de investigación de mercado"/>
-    <n v="8"/>
-    <n v="6"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <s v="Fase 3: Elaboración"/>
-    <s v="Documento de Arquitectura"/>
-    <n v="80"/>
-    <n v="45"/>
-    <n v="35"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-    <s v="Fase 3: Elaboración"/>
-    <s v="Plan de Pruebas"/>
-    <n v="29"/>
-    <n v="4"/>
-    <n v="25"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="1"/>
-    <s v="Iteración 1: Desarrollo de CU prioridad alta"/>
-    <s v="Investigación"/>
-    <n v="65"/>
-    <n v="35"/>
-    <n v="30"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="3"/>
-    <s v="Iteración 1: Desarrollo de CU prioridad alta"/>
-    <s v="Análisis"/>
-    <n v="85"/>
-    <n v="50"/>
-    <n v="35"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="4"/>
-    <s v="Iteración 1: Desarrollo de CU prioridad alta"/>
-    <s v="Diseño"/>
-    <n v="105"/>
-    <n v="60"/>
-    <n v="45"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="5"/>
-    <s v="Iteración 1: Desarrollo de CU prioridad alta"/>
-    <s v="Codificación"/>
-    <n v="450"/>
-    <n v="240"/>
-    <n v="210"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="2"/>
-    <s v="Iteración 1: Desarrollo de CU prioridad alta"/>
-    <s v="Pruebas y ajustes"/>
-    <n v="50"/>
-    <n v="25"/>
-    <n v="25"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="1"/>
-    <s v="Iteración 2: Desarrollo de CU prioridad media"/>
-    <s v="Investigación"/>
-    <n v="33"/>
-    <n v="13"/>
-    <n v="20"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="3"/>
-    <s v="Iteración 2: Desarrollo de CU prioridad media"/>
-    <s v="Análisis"/>
-    <n v="63"/>
-    <n v="25"/>
-    <n v="38"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="4"/>
-    <s v="Iteración 2: Desarrollo de CU prioridad media"/>
-    <s v="Diseño"/>
-    <n v="68"/>
-    <n v="28"/>
-    <n v="40"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="5"/>
-    <s v="Iteración 2: Desarrollo de CU prioridad media"/>
-    <s v="Codificación"/>
-    <n v="275"/>
-    <n v="130"/>
-    <n v="145"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="2"/>
-    <s v="Iteración 2: Desarrollo de CU prioridad media"/>
-    <s v="Pruebas y ajustes"/>
-    <n v="70"/>
-    <n v="35"/>
-    <n v="35"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="1"/>
-    <s v="Iteración 3: Desarrollo de CU prioridad baja"/>
-    <s v="Investigación"/>
-    <n v="21"/>
-    <n v="9"/>
-    <n v="12"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="3"/>
-    <s v="Iteración 3: Desarrollo de CU prioridad baja"/>
-    <s v="Análisis"/>
-    <n v="24"/>
-    <n v="12"/>
-    <n v="12"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="4"/>
-    <s v="Iteración 3: Desarrollo de CU prioridad baja"/>
-    <s v="Diseño"/>
-    <n v="30"/>
-    <n v="16"/>
-    <n v="14"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="5"/>
-    <s v="Iteración 3: Desarrollo de CU prioridad baja"/>
-    <s v="Codificación"/>
-    <n v="123"/>
-    <n v="58"/>
-    <n v="65"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="2"/>
-    <s v="Iteración 3: Desarrollo de CU prioridad baja"/>
-    <s v="Pruebas y ajustes"/>
-    <n v="100"/>
-    <n v="50"/>
-    <n v="50"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="2"/>
-    <s v="Pruebas y ajustes finales"/>
-    <s v="Pruebas y ajustes finales"/>
-    <n v="180"/>
-    <n v="85"/>
-    <n v="95"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="0"/>
-    <s v="Documentación"/>
-    <s v="Manual Instalación"/>
-    <n v="13"/>
-    <n v="10"/>
-    <n v="3"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="0"/>
-    <s v="Documentación"/>
-    <s v="Manual Usuario"/>
-    <n v="18"/>
-    <n v="14"/>
-    <n v="4"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="0"/>
-    <s v="Documentación"/>
-    <s v="Carpeta"/>
-    <n v="300"/>
-    <n v="150"/>
-    <n v="150"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="0"/>
-    <s v="Presentación"/>
-    <s v="Presentación"/>
-    <n v="32"/>
-    <n v="16"/>
-    <n v="16"/>
-  </r>
-</pivotCacheRecords>
+<file path=xl/pivotCache/pivotCacheDefinition3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Martin Loureiro" refreshedDate="40988.121901620369" createdVersion="3" refreshedVersion="3" minRefreshableVersion="3" recordCount="37">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="B2:H39" sheet="General"/>
+  </cacheSource>
+  <cacheFields count="7">
+    <cacheField name="Etapa" numFmtId="0">
+      <sharedItems count="4">
+        <s v="Etapa 1"/>
+        <s v="Etapa 2"/>
+        <s v="Etapa 3"/>
+        <s v="Etapa3" u="1"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Tipo" numFmtId="0">
+      <sharedItems count="6">
+        <s v="Documentación"/>
+        <s v="Investigación"/>
+        <s v="Analisis"/>
+        <s v="Diseño"/>
+        <s v="Codificación"/>
+        <s v="Pruebas"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Fase" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Tarea" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Horas" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="6" maxValue="440"/>
+    </cacheField>
+    <cacheField name="Antonio" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="2" maxValue="230"/>
+    </cacheField>
+    <cacheField name="Martín" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="2" maxValue="210"/>
+    </cacheField>
+  </cacheFields>
+</pivotCacheDefinition>
 </file>
 
-<file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="17">
   <r>
     <x v="0"/>
@@ -3072,7 +2733,7 @@
 </pivotCacheRecords>
 </file>
 
-<file path=xl/pivotCache/pivotCacheRecords3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="17">
   <r>
     <x v="0"/>
@@ -3247,8 +2908,346 @@
 </pivotCacheRecords>
 </file>
 
+<file path=xl/pivotCache/pivotCacheRecords3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="37">
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="Fase 1: Configuración"/>
+    <s v="Plan de Proyecto"/>
+    <n v="18"/>
+    <n v="8"/>
+    <n v="10"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="Fase 1: Configuración"/>
+    <s v="Documento de gestion de configuración (SCM)"/>
+    <n v="12"/>
+    <n v="10"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="Fase 1: Configuración"/>
+    <s v="Documento de calidad"/>
+    <n v="12"/>
+    <n v="2"/>
+    <n v="10"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="Fase 2: Investigación"/>
+    <s v="Investigación JME"/>
+    <n v="20"/>
+    <n v="15"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="Fase 2: Investigación"/>
+    <s v="Definición de ambiente"/>
+    <n v="8"/>
+    <n v="4"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="Fase 2: Investigación"/>
+    <s v="Prueba de concepto (Interfaz móvil)"/>
+    <n v="45"/>
+    <n v="25"/>
+    <n v="20"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="Fase 2: Investigación"/>
+    <s v="Prueba de concepto (Interfaz web)"/>
+    <n v="18"/>
+    <n v="16"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="Fase 2: Investigación"/>
+    <s v="Investigación de framework MVC (REST)"/>
+    <n v="36"/>
+    <n v="20"/>
+    <n v="16"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="Fase 2: Investigación"/>
+    <s v="Investigación Android"/>
+    <n v="290"/>
+    <n v="150"/>
+    <n v="140"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="Fase 2: Investigación"/>
+    <s v="Investigación PostGis"/>
+    <n v="70"/>
+    <n v="35"/>
+    <n v="35"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="Fase 2: Investigación"/>
+    <s v="Documento de estado del arte"/>
+    <n v="35"/>
+    <n v="25"/>
+    <n v="10"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="Fase 3: Elaboración"/>
+    <s v="Documento de especificación de requerimientos"/>
+    <n v="30"/>
+    <n v="10"/>
+    <n v="20"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="Fase 3: Elaboración"/>
+    <s v="Documento de análisis de riesgo"/>
+    <n v="12"/>
+    <n v="2"/>
+    <n v="10"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="Fase 3: Elaboración"/>
+    <s v="Documento de investigación de mercado"/>
+    <n v="6"/>
+    <n v="4"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="Fase 3: Elaboración"/>
+    <s v="Documento de investigación de mercado"/>
+    <n v="8"/>
+    <n v="6"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="Fase 3: Elaboración"/>
+    <s v="Documento de Arquitectura"/>
+    <n v="80"/>
+    <n v="45"/>
+    <n v="35"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="Fase 3: Elaboración"/>
+    <s v="Plan de Pruebas"/>
+    <n v="29"/>
+    <n v="4"/>
+    <n v="25"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="Iteración 1: Desarrollo de CU prioridad alta"/>
+    <s v="Investigación"/>
+    <n v="65"/>
+    <n v="35"/>
+    <n v="30"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <s v="Iteración 1: Desarrollo de CU prioridad alta"/>
+    <s v="Análisis"/>
+    <n v="85"/>
+    <n v="50"/>
+    <n v="35"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="3"/>
+    <s v="Iteración 1: Desarrollo de CU prioridad alta"/>
+    <s v="Diseño"/>
+    <n v="105"/>
+    <n v="60"/>
+    <n v="45"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="4"/>
+    <s v="Iteración 1: Desarrollo de CU prioridad alta"/>
+    <s v="Codificación"/>
+    <n v="440"/>
+    <n v="230"/>
+    <n v="210"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="5"/>
+    <s v="Iteración 1: Desarrollo de CU prioridad alta"/>
+    <s v="Pruebas y ajustes"/>
+    <n v="50"/>
+    <n v="25"/>
+    <n v="25"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="Iteración 2: Desarrollo de CU prioridad media"/>
+    <s v="Investigación"/>
+    <n v="42"/>
+    <n v="18"/>
+    <n v="24"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <s v="Iteración 2: Desarrollo de CU prioridad media"/>
+    <s v="Análisis"/>
+    <n v="63"/>
+    <n v="25"/>
+    <n v="38"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="3"/>
+    <s v="Iteración 2: Desarrollo de CU prioridad media"/>
+    <s v="Diseño"/>
+    <n v="68"/>
+    <n v="28"/>
+    <n v="40"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="4"/>
+    <s v="Iteración 2: Desarrollo de CU prioridad media"/>
+    <s v="Codificación"/>
+    <n v="275"/>
+    <n v="130"/>
+    <n v="145"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="5"/>
+    <s v="Iteración 2: Desarrollo de CU prioridad media"/>
+    <s v="Pruebas y ajustes"/>
+    <n v="70"/>
+    <n v="35"/>
+    <n v="35"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="Iteración 3: Desarrollo de CU prioridad baja"/>
+    <s v="Investigación"/>
+    <n v="21"/>
+    <n v="9"/>
+    <n v="12"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <s v="Iteración 3: Desarrollo de CU prioridad baja"/>
+    <s v="Análisis"/>
+    <n v="26"/>
+    <n v="12"/>
+    <n v="14"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="3"/>
+    <s v="Iteración 3: Desarrollo de CU prioridad baja"/>
+    <s v="Diseño"/>
+    <n v="30"/>
+    <n v="16"/>
+    <n v="14"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="4"/>
+    <s v="Iteración 3: Desarrollo de CU prioridad baja"/>
+    <s v="Codificación"/>
+    <n v="120"/>
+    <n v="57"/>
+    <n v="63"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="5"/>
+    <s v="Iteración 3: Desarrollo de CU prioridad baja"/>
+    <s v="Pruebas y ajustes"/>
+    <n v="100"/>
+    <n v="50"/>
+    <n v="50"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="5"/>
+    <s v="Pruebas y ajustes finales"/>
+    <s v="Pruebas y ajustes finales"/>
+    <n v="180"/>
+    <n v="85"/>
+    <n v="95"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <s v="Documentación"/>
+    <s v="Manual Instalación"/>
+    <n v="13"/>
+    <n v="10"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <s v="Documentación"/>
+    <s v="Manual Usuario"/>
+    <n v="18"/>
+    <n v="14"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <s v="Documentación"/>
+    <s v="Carpeta"/>
+    <n v="300"/>
+    <n v="150"/>
+    <n v="150"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <s v="Presentación"/>
+    <s v="Presentación"/>
+    <n v="32"/>
+    <n v="16"/>
+    <n v="16"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica3" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="B61:C65" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField axis="axisRow" showAll="0">
@@ -3306,18 +3305,18 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica2" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="B43:C50" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField showAll="0"/>
     <pivotField axis="axisRow" showAll="0" sortType="ascending">
       <items count="7">
+        <item x="2"/>
+        <item x="4"/>
         <item x="3"/>
-        <item x="5"/>
-        <item x="4"/>
         <item x="0"/>
         <item x="1"/>
-        <item x="2"/>
+        <item x="5"/>
         <item t="default"/>
       </items>
       <autoSortScope>
@@ -3384,7 +3383,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica1" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
   <location ref="B95:C113" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField showAll="0">
@@ -3523,7 +3522,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica2" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica2" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="B29:H34" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField axis="axisRow" showAll="0">
@@ -3651,7 +3650,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica3" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica3" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="B56:G75" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField showAll="0"/>
@@ -4170,8 +4169,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AV78"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="C72" sqref="C72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="15"/>
@@ -4601,7 +4600,7 @@
         <v>7</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>21</v>
@@ -5130,7 +5129,7 @@
         <v>29</v>
       </c>
       <c r="C44" s="12">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D44"/>
     </row>
@@ -5148,7 +5147,7 @@
         <v>26</v>
       </c>
       <c r="C46" s="12">
-        <v>429</v>
+        <v>400</v>
       </c>
       <c r="D46"/>
     </row>
@@ -5157,7 +5156,7 @@
         <v>39</v>
       </c>
       <c r="C47" s="12">
-        <v>570</v>
+        <v>599</v>
       </c>
       <c r="D47"/>
     </row>
@@ -5166,7 +5165,7 @@
         <v>71</v>
       </c>
       <c r="C48" s="12">
-        <v>612</v>
+        <v>621</v>
       </c>
       <c r="D48"/>
     </row>
@@ -5175,7 +5174,7 @@
         <v>33</v>
       </c>
       <c r="C49" s="12">
-        <v>848</v>
+        <v>835</v>
       </c>
       <c r="D49"/>
     </row>
@@ -5184,7 +5183,7 @@
         <v>69</v>
       </c>
       <c r="C50" s="12">
-        <v>2834</v>
+        <v>2832</v>
       </c>
       <c r="D50"/>
     </row>
@@ -5261,7 +5260,7 @@
         <v>28</v>
       </c>
       <c r="C63" s="12">
-        <v>1562</v>
+        <v>1560</v>
       </c>
       <c r="D63"/>
     </row>
@@ -5279,7 +5278,7 @@
         <v>69</v>
       </c>
       <c r="C65" s="12">
-        <v>2834</v>
+        <v>2832</v>
       </c>
       <c r="D65"/>
     </row>
@@ -5359,8 +5358,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B3:J130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="H117" sqref="H117"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="15"/>
@@ -5377,7 +5376,7 @@
     <col min="10" max="16384" width="10.5703125" style="2"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:10" ht="31.5">
+    <row r="3" spans="2:10" ht="15.75">
       <c r="B3" s="16" t="s">
         <v>72</v>
       </c>

--- a/doc/Tareas Esfuerzo.xlsx
+++ b/doc/Tareas Esfuerzo.xlsx
@@ -9,22 +9,23 @@
   <sheets>
     <sheet name="General" sheetId="3" r:id="rId1"/>
     <sheet name="Por CU" sheetId="2" r:id="rId2"/>
+    <sheet name="Hoja1" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="__xlnm._FilterDatabase">#REF!</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">General!$B$2:$H$39</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">General!$C$2:$I$39</definedName>
   </definedNames>
   <calcPr calcId="125725" iterateDelta="1E-4"/>
   <pivotCaches>
-    <pivotCache cacheId="1" r:id="rId3"/>
-    <pivotCache cacheId="2" r:id="rId4"/>
-    <pivotCache cacheId="10" r:id="rId5"/>
+    <pivotCache cacheId="1" r:id="rId4"/>
+    <pivotCache cacheId="2" r:id="rId5"/>
+    <pivotCache cacheId="11" r:id="rId6"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="83">
   <si>
     <t>Etapa</t>
   </si>
@@ -265,6 +266,15 @@
   <si>
     <t>Suma de TOTAL por CU</t>
   </si>
+  <si>
+    <t>Incidencia</t>
+  </si>
+  <si>
+    <t>Inicio</t>
+  </si>
+  <si>
+    <t>Desarrollo y Testing</t>
+  </si>
 </sst>
 </file>
 
@@ -476,7 +486,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
@@ -522,6 +532,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Excel Built-in Normal" xfId="1"/>
@@ -644,7 +658,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>General!$C$43</c:f>
+              <c:f>General!$D$43</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -655,7 +669,7 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>General!$B$44:$B$50</c:f>
+              <c:f>General!$C$44:$C$50</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -681,7 +695,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>General!$C$44:$C$50</c:f>
+              <c:f>General!$D$44:$D$50</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -800,7 +814,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>General!$C$61</c:f>
+              <c:f>General!$D$61</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -811,7 +825,7 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>General!$B$62:$B$65</c:f>
+              <c:f>General!$C$62:$C$65</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -828,7 +842,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>General!$C$62:$C$65</c:f>
+              <c:f>General!$D$62:$D$65</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -890,6 +904,921 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="es-CL"/>
+  <c:pivotSource>
+    <c:name>[Tareas Esfuerzo.xlsx]General!Tabla dinámica2</c:name>
+    <c:fmtId val="1"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+    </c:title>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>General!$D$43</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>General!$C$44:$C$50</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Analisis</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Diseño</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Pruebas</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Documentación</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Investigación</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Codificación</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>General!$D$44:$D$50</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>203</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>599</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>621</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>835</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="es-CL"/>
+  <c:pivotSource>
+    <c:name>[Tareas Esfuerzo.xlsx]General!Tabla dinámica4</c:name>
+    <c:fmtId val="0"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+    </c:title>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>General!$D$79</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>General!$C$80:$C$92</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="9"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Documentación</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Investigación</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Analisis</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Codificación</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Diseño</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Investigación</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Pruebas</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>Documentación</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>Pruebas</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Etapa 1</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Etapa 2</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>Etapa 3</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>General!$D$80:$D$92</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>236</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>493</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>835</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>203</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>363</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>180</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="144032896"/>
+        <c:axId val="144034432"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="144032896"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="144034432"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="144034432"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="144032896"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="es-CL"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>General!$B$108</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Documentación</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>General!$C$107:$F$107</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Inicio</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Etapa 1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Etapa 2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Etapa 3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>General!$C$108:$F$108</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="General">
+                  <c:v>0.67</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>General!$B$109</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Investigación</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>General!$C$107:$F$107</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Inicio</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Etapa 1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Etapa 2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Etapa 3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>General!$C$109:$F$109</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.68</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="General">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>General!$B$110</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Analisis</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>General!$C$107:$F$107</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Inicio</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Etapa 1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Etapa 2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Etapa 3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>General!$C$110:$F$110</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.11</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>General!$B$111</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Codificación</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>General!$C$107:$F$107</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Inicio</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Etapa 1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Etapa 2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Etapa 3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>General!$C$111:$F$111</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.54</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>General!$B$112</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Diseño</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>General!$C$107:$F$107</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Inicio</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Etapa 1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Etapa 2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Etapa 3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>General!$C$112:$F$112</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.13</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>General!$B$113</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Pruebas</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>General!$C$107:$F$107</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Inicio</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Etapa 1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Etapa 2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Etapa 3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>General!$C$113:$F$113</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.33</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="120168832"/>
+        <c:axId val="120349824"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="120168832"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="120349824"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="120349824"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="120168832"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="es-CL"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>General!$B$121</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Documentación</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>General!$C$120:$F$120</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Inicio</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Etapa 1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Etapa 2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Etapa 3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>General!$C$121:$F$121</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="General">
+                  <c:v>0.67</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>General!$B$122</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Investigación</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>General!$C$120:$F$120</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Inicio</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Etapa 1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Etapa 2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Etapa 3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>General!$C$122:$F$122</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.68</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="General">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>General!$B$123</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Desarrollo y Testing</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>General!$C$120:$F$120</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Inicio</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Etapa 1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Etapa 2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Etapa 3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>General!$C$123:$F$123</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.92</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.33</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="67943040"/>
+        <c:axId val="68064384"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="67943040"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="68064384"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="68064384"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="67943040"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="es-CL"/>
   <c:pivotSource>
@@ -1284,7 +2213,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="es-CL"/>
   <c:pivotSource>
@@ -2043,7 +2972,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="es-CL"/>
   <c:pivotSource>
@@ -2249,16 +3178,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1581150</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
       <xdr:row>41</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>447675</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
       <xdr:row>56</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2279,16 +3208,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1504950</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>752475</xdr:colOff>
       <xdr:row>59</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>371475</xdr:colOff>
+      <xdr:colOff>133350</xdr:colOff>
       <xdr:row>74</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2302,6 +3231,126 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="9 Gráfico"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1209675</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="12" name="11 Gráfico"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>504824</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>47624</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="13" name="12 Gráfico"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>133</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="14" name="13 Gráfico"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2535,7 +3584,7 @@
 <file path=xl/pivotCache/pivotCacheDefinition3.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Martin Loureiro" refreshedDate="40988.121901620369" createdVersion="3" refreshedVersion="3" minRefreshableVersion="3" recordCount="37">
   <cacheSource type="worksheet">
-    <worksheetSource ref="B2:H39" sheet="General"/>
+    <worksheetSource ref="C2:I39" sheet="General"/>
   </cacheSource>
   <cacheFields count="7">
     <cacheField name="Etapa" numFmtId="0">
@@ -3247,8 +4296,104 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica3" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="B61:C65" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica4" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="C79:D92" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="7">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="5">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item m="1" x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="7">
+        <item x="2"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="5"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="0"/>
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="13">
+    <i>
+      <x/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Suma de Horas" fld="4" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica3" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="C61:D65" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField axis="axisRow" showAll="0">
       <items count="5">
@@ -3304,9 +4449,9 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica2" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="B43:C50" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica2" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
+  <location ref="C43:D50" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField showAll="0"/>
     <pivotField axis="axisRow" showAll="0" sortType="ascending">
@@ -3367,8 +4512,17 @@
   <dataFields count="1">
     <dataField name="Suma de Horas" fld="4" baseField="0" baseItem="0"/>
   </dataFields>
-  <chartFormats count="1">
+  <chartFormats count="2">
     <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="0" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -3382,7 +4536,7 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
   <location ref="B95:C113" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
@@ -3521,7 +4675,7 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica2" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="B29:H34" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="8">
@@ -3649,7 +4803,7 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica3" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="B56:G75" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="7">
@@ -4167,1190 +5321,2332 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AV78"/>
+  <dimension ref="A1:AW301"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="C72" sqref="C72"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="L138" sqref="L138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="7" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="27.28515625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="33.85546875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="7.7109375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="9" style="2" customWidth="1"/>
-    <col min="8" max="8" width="7.7109375" style="2" customWidth="1"/>
-    <col min="9" max="48" width="11.42578125" style="1" customWidth="1"/>
-    <col min="49" max="16384" width="10.5703125" style="2"/>
+    <col min="1" max="1" width="10.5703125" style="2"/>
+    <col min="2" max="2" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="27.28515625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="29.28515625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="7.7109375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="9" style="2" customWidth="1"/>
+    <col min="9" max="9" width="7.7109375" style="2" customWidth="1"/>
+    <col min="10" max="49" width="11.42578125" style="1" customWidth="1"/>
+    <col min="50" max="16384" width="10.5703125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" s="1" customFormat="1" ht="15.75" thickBot="1"/>
-    <row r="2" spans="2:8" ht="30.75" customHeight="1" thickBot="1">
-      <c r="B2" s="3" t="s">
+    <row r="1" spans="1:9" s="1" customFormat="1" ht="15.75" thickBot="1"/>
+    <row r="2" spans="1:9" ht="30.75" customHeight="1" thickBot="1">
+      <c r="A2" s="1"/>
+      <c r="C2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="I2" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="2:8">
-      <c r="B3" s="5" t="s">
+    <row r="3" spans="1:9">
+      <c r="A3" s="1"/>
+      <c r="C3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="D3" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="E3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="F3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="5">
-        <f>G3+H3</f>
+      <c r="G3" s="5">
+        <f>H3+I3</f>
         <v>18</v>
       </c>
-      <c r="G3" s="5">
+      <c r="H3" s="5">
         <v>8</v>
       </c>
-      <c r="H3" s="6">
+      <c r="I3" s="6">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="30">
-      <c r="B4" s="5" t="s">
+    <row r="4" spans="1:9" ht="30">
+      <c r="A4" s="1"/>
+      <c r="C4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="D4" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="E4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="F4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="5">
-        <f t="shared" ref="F4:F39" si="0">G4+H4</f>
+      <c r="G4" s="5">
+        <f t="shared" ref="G4:G39" si="0">H4+I4</f>
         <v>12</v>
       </c>
-      <c r="G4" s="5">
+      <c r="H4" s="5">
         <v>10</v>
       </c>
-      <c r="H4" s="6">
+      <c r="I4" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:8">
-      <c r="B5" s="5" t="s">
+    <row r="5" spans="1:9">
+      <c r="A5" s="1"/>
+      <c r="C5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="D5" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="E5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="F5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="5">
+      <c r="G5" s="5">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="G5" s="5">
+      <c r="H5" s="5">
         <v>2</v>
       </c>
-      <c r="H5" s="6">
+      <c r="I5" s="6">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="2:8">
-      <c r="B6" s="5" t="s">
+    <row r="6" spans="1:9">
+      <c r="A6" s="1"/>
+      <c r="C6" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="D6" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="E6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="F6" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="5">
+      <c r="G6" s="5">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="G6" s="5">
+      <c r="H6" s="5">
         <v>15</v>
       </c>
-      <c r="H6" s="6">
+      <c r="I6" s="6">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="2:8">
-      <c r="B7" s="5" t="s">
+    <row r="7" spans="1:9">
+      <c r="A7" s="1"/>
+      <c r="C7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="D7" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="E7" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="F7" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="5">
+      <c r="G7" s="5">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="G7" s="5">
+      <c r="H7" s="5">
         <v>4</v>
       </c>
-      <c r="H7" s="6">
+      <c r="I7" s="6">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="2:8">
-      <c r="B8" s="5" t="s">
+    <row r="8" spans="1:9">
+      <c r="A8" s="1"/>
+      <c r="C8" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="D8" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="E8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="F8" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="5">
+      <c r="G8" s="5">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="G8" s="5">
+      <c r="H8" s="5">
         <v>25</v>
       </c>
-      <c r="H8" s="6">
+      <c r="I8" s="6">
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="2:8">
-      <c r="B9" s="5" t="s">
+    <row r="9" spans="1:9">
+      <c r="A9" s="1"/>
+      <c r="C9" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="D9" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="E9" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="F9" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F9" s="5">
+      <c r="G9" s="5">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="G9" s="5">
+      <c r="H9" s="5">
         <v>16</v>
       </c>
-      <c r="H9" s="6">
+      <c r="I9" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="2:8" ht="30">
-      <c r="B10" s="5" t="s">
+    <row r="10" spans="1:9" ht="30">
+      <c r="A10" s="1"/>
+      <c r="C10" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="D10" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="E10" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="F10" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="5">
+      <c r="G10" s="5">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="G10" s="5">
+      <c r="H10" s="5">
         <v>20</v>
       </c>
-      <c r="H10" s="6">
+      <c r="I10" s="6">
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="2:8">
-      <c r="B11" s="5" t="s">
+    <row r="11" spans="1:9">
+      <c r="A11" s="1"/>
+      <c r="C11" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="D11" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="E11" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="F11" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F11" s="5">
+      <c r="G11" s="5">
         <f t="shared" si="0"/>
         <v>290</v>
       </c>
-      <c r="G11" s="5">
+      <c r="H11" s="5">
         <v>150</v>
       </c>
-      <c r="H11" s="6">
+      <c r="I11" s="6">
         <v>140</v>
       </c>
     </row>
-    <row r="12" spans="2:8">
-      <c r="B12" s="5" t="s">
+    <row r="12" spans="1:9">
+      <c r="A12" s="1"/>
+      <c r="C12" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="D12" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="E12" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="F12" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F12" s="5">
+      <c r="G12" s="5">
         <f t="shared" si="0"/>
         <v>70</v>
       </c>
-      <c r="G12" s="5">
+      <c r="H12" s="5">
         <v>35</v>
       </c>
-      <c r="H12" s="6">
+      <c r="I12" s="6">
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="2:8">
-      <c r="B13" s="5" t="s">
+    <row r="13" spans="1:9">
+      <c r="A13" s="1"/>
+      <c r="C13" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="D13" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="E13" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="F13" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F13" s="5">
+      <c r="G13" s="5">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="G13" s="5">
+      <c r="H13" s="5">
         <v>25</v>
       </c>
-      <c r="H13" s="6">
+      <c r="I13" s="6">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="2:8" ht="30">
-      <c r="B14" s="5" t="s">
+    <row r="14" spans="1:9" ht="30">
+      <c r="A14" s="1"/>
+      <c r="C14" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="D14" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="E14" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="F14" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="F14" s="5">
+      <c r="G14" s="5">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="G14" s="5">
+      <c r="H14" s="5">
         <v>10</v>
       </c>
-      <c r="H14" s="6">
+      <c r="I14" s="6">
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="2:8">
-      <c r="B15" s="5" t="s">
+    <row r="15" spans="1:9">
+      <c r="A15" s="1"/>
+      <c r="C15" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="D15" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="E15" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="F15" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F15" s="5">
+      <c r="G15" s="5">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="G15" s="5">
+      <c r="H15" s="5">
         <v>2</v>
       </c>
-      <c r="H15" s="6">
+      <c r="I15" s="6">
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="2:8" ht="30">
-      <c r="B16" s="5" t="s">
+    <row r="16" spans="1:9" ht="30">
+      <c r="A16" s="1"/>
+      <c r="C16" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="D16" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="E16" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="F16" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F16" s="5">
+      <c r="G16" s="5">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="G16" s="5">
+      <c r="H16" s="5">
         <v>4</v>
       </c>
-      <c r="H16" s="6">
+      <c r="I16" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="2:8" ht="30">
-      <c r="B17" s="5" t="s">
+    <row r="17" spans="1:9" ht="30">
+      <c r="A17" s="1"/>
+      <c r="C17" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="D17" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="E17" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="F17" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F17" s="5">
+      <c r="G17" s="5">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="G17" s="5">
+      <c r="H17" s="5">
         <v>6</v>
       </c>
-      <c r="H17" s="6">
+      <c r="I17" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="2:8">
-      <c r="B18" s="5" t="s">
+    <row r="18" spans="1:9">
+      <c r="A18" s="1"/>
+      <c r="C18" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="D18" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="E18" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="F18" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F18" s="5">
+      <c r="G18" s="5">
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
-      <c r="G18" s="5">
+      <c r="H18" s="5">
         <v>45</v>
       </c>
-      <c r="H18" s="6">
+      <c r="I18" s="6">
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="2:8">
-      <c r="B19" s="5" t="s">
+    <row r="19" spans="1:9">
+      <c r="A19" s="1"/>
+      <c r="C19" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="D19" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="E19" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="F19" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F19" s="5">
+      <c r="G19" s="5">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="G19" s="5">
+      <c r="H19" s="5">
         <v>4</v>
       </c>
-      <c r="H19" s="6">
+      <c r="I19" s="6">
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="2:8" ht="30">
-      <c r="B20" s="5" t="s">
+    <row r="20" spans="1:9" ht="30">
+      <c r="A20" s="1"/>
+      <c r="C20" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="D20" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="E20" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E20" s="5" t="s">
+      <c r="F20" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="F20" s="5">
+      <c r="G20" s="5">
         <f t="shared" si="0"/>
         <v>65</v>
       </c>
-      <c r="G20" s="5">
+      <c r="H20" s="5">
         <v>35</v>
       </c>
-      <c r="H20" s="6">
+      <c r="I20" s="6">
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="2:8" ht="30">
-      <c r="B21" s="5" t="s">
+    <row r="21" spans="1:9" ht="30">
+      <c r="A21" s="1"/>
+      <c r="C21" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="D21" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="E21" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E21" s="5" t="s">
+      <c r="F21" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="F21" s="5">
+      <c r="G21" s="5">
         <f t="shared" si="0"/>
         <v>85</v>
       </c>
-      <c r="G21" s="5">
+      <c r="H21" s="5">
         <v>50</v>
       </c>
-      <c r="H21" s="6">
+      <c r="I21" s="6">
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="2:8" ht="30">
-      <c r="B22" s="5" t="s">
+    <row r="22" spans="1:9" ht="30">
+      <c r="A22" s="1"/>
+      <c r="C22" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="D22" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="E22" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E22" s="5" t="s">
+      <c r="F22" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="F22" s="5">
+      <c r="G22" s="5">
         <f t="shared" si="0"/>
         <v>105</v>
       </c>
-      <c r="G22" s="5">
+      <c r="H22" s="5">
         <v>60</v>
       </c>
-      <c r="H22" s="6">
+      <c r="I22" s="6">
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="2:8" ht="30">
-      <c r="B23" s="5" t="s">
+    <row r="23" spans="1:9" ht="30">
+      <c r="A23" s="1"/>
+      <c r="C23" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="D23" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="E23" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E23" s="5" t="s">
+      <c r="F23" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="F23" s="5">
+      <c r="G23" s="5">
         <f t="shared" si="0"/>
         <v>440</v>
       </c>
-      <c r="G23" s="5">
+      <c r="H23" s="5">
         <v>230</v>
       </c>
-      <c r="H23" s="6">
+      <c r="I23" s="6">
         <v>210</v>
       </c>
     </row>
-    <row r="24" spans="2:8" ht="30">
-      <c r="B24" s="5" t="s">
+    <row r="24" spans="1:9" ht="30">
+      <c r="A24" s="1"/>
+      <c r="C24" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="D24" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="E24" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E24" s="5" t="s">
+      <c r="F24" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="F24" s="5">
+      <c r="G24" s="5">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="G24" s="5">
+      <c r="H24" s="5">
         <v>25</v>
       </c>
-      <c r="H24" s="6">
+      <c r="I24" s="6">
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="2:8" ht="30">
-      <c r="B25" s="5" t="s">
+    <row r="25" spans="1:9" ht="30">
+      <c r="A25" s="1"/>
+      <c r="C25" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="D25" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="E25" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="E25" s="5" t="s">
+      <c r="F25" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="F25" s="5">
+      <c r="G25" s="5">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="G25" s="5">
+      <c r="H25" s="5">
         <v>18</v>
       </c>
-      <c r="H25" s="6">
+      <c r="I25" s="6">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="2:8" ht="30">
-      <c r="B26" s="5" t="s">
+    <row r="26" spans="1:9" ht="30">
+      <c r="A26" s="1"/>
+      <c r="C26" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="D26" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D26" s="5" t="s">
+      <c r="E26" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="E26" s="5" t="s">
+      <c r="F26" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="F26" s="5">
+      <c r="G26" s="5">
         <f t="shared" si="0"/>
         <v>63</v>
       </c>
-      <c r="G26" s="5">
+      <c r="H26" s="5">
         <v>25</v>
       </c>
-      <c r="H26" s="6">
+      <c r="I26" s="6">
         <v>38</v>
       </c>
     </row>
-    <row r="27" spans="2:8" ht="30">
-      <c r="B27" s="5" t="s">
+    <row r="27" spans="1:9" ht="30">
+      <c r="A27" s="1"/>
+      <c r="C27" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="D27" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D27" s="5" t="s">
+      <c r="E27" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="E27" s="5" t="s">
+      <c r="F27" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="F27" s="5">
+      <c r="G27" s="5">
         <f t="shared" si="0"/>
         <v>68</v>
       </c>
-      <c r="G27" s="5">
+      <c r="H27" s="5">
         <v>28</v>
       </c>
-      <c r="H27" s="6">
+      <c r="I27" s="6">
         <v>40</v>
       </c>
     </row>
-    <row r="28" spans="2:8" ht="30">
-      <c r="B28" s="5" t="s">
+    <row r="28" spans="1:9" ht="30">
+      <c r="A28" s="1"/>
+      <c r="C28" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="D28" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="E28" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="E28" s="5" t="s">
+      <c r="F28" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="F28" s="5">
+      <c r="G28" s="5">
         <f t="shared" si="0"/>
         <v>275</v>
       </c>
-      <c r="G28" s="5">
+      <c r="H28" s="5">
         <v>130</v>
       </c>
-      <c r="H28" s="6">
+      <c r="I28" s="6">
         <v>145</v>
       </c>
     </row>
-    <row r="29" spans="2:8" ht="30">
-      <c r="B29" s="5" t="s">
+    <row r="29" spans="1:9" ht="30">
+      <c r="A29" s="1"/>
+      <c r="C29" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="D29" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D29" s="5" t="s">
+      <c r="E29" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="E29" s="5" t="s">
+      <c r="F29" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="F29" s="5">
+      <c r="G29" s="5">
         <f t="shared" si="0"/>
         <v>70</v>
       </c>
-      <c r="G29" s="5">
+      <c r="H29" s="5">
         <v>35</v>
       </c>
-      <c r="H29" s="6">
+      <c r="I29" s="6">
         <v>35</v>
       </c>
     </row>
-    <row r="30" spans="2:8" ht="30">
-      <c r="B30" s="5" t="s">
+    <row r="30" spans="1:9" ht="30">
+      <c r="A30" s="1"/>
+      <c r="C30" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="D30" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="D30" s="5" t="s">
+      <c r="E30" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="E30" s="5" t="s">
+      <c r="F30" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="F30" s="5">
+      <c r="G30" s="5">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="G30" s="5">
+      <c r="H30" s="5">
         <v>9</v>
       </c>
-      <c r="H30" s="6">
+      <c r="I30" s="6">
         <v>12</v>
       </c>
     </row>
-    <row r="31" spans="2:8" ht="30">
-      <c r="B31" s="5" t="s">
+    <row r="31" spans="1:9" ht="30">
+      <c r="A31" s="1"/>
+      <c r="C31" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C31" s="5" t="s">
+      <c r="D31" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D31" s="5" t="s">
+      <c r="E31" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="E31" s="5" t="s">
+      <c r="F31" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="F31" s="5">
+      <c r="G31" s="5">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="G31" s="5">
+      <c r="H31" s="5">
         <v>12</v>
       </c>
-      <c r="H31" s="6">
+      <c r="I31" s="6">
         <v>14</v>
       </c>
     </row>
-    <row r="32" spans="2:8" ht="30">
-      <c r="B32" s="5" t="s">
+    <row r="32" spans="1:9" ht="30">
+      <c r="A32" s="1"/>
+      <c r="C32" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C32" s="5" t="s">
+      <c r="D32" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D32" s="5" t="s">
+      <c r="E32" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="E32" s="5" t="s">
+      <c r="F32" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="F32" s="5">
-        <f>G32+H32</f>
+      <c r="G32" s="5">
+        <f>H32+I32</f>
         <v>30</v>
       </c>
-      <c r="G32" s="5">
+      <c r="H32" s="5">
         <v>16</v>
       </c>
-      <c r="H32" s="6">
+      <c r="I32" s="6">
         <v>14</v>
       </c>
     </row>
-    <row r="33" spans="2:8" ht="30">
-      <c r="B33" s="5" t="s">
+    <row r="33" spans="1:9" ht="30">
+      <c r="A33" s="1"/>
+      <c r="C33" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C33" s="5" t="s">
+      <c r="D33" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D33" s="5" t="s">
+      <c r="E33" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="E33" s="5" t="s">
+      <c r="F33" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="F33" s="5">
-        <f>G33+H33</f>
+      <c r="G33" s="5">
+        <f>H33+I33</f>
         <v>120</v>
       </c>
-      <c r="G33" s="5">
+      <c r="H33" s="5">
         <v>57</v>
       </c>
-      <c r="H33" s="6">
+      <c r="I33" s="6">
         <v>63</v>
       </c>
     </row>
-    <row r="34" spans="2:8" ht="30">
-      <c r="B34" s="5" t="s">
+    <row r="34" spans="1:9" ht="30">
+      <c r="A34" s="1"/>
+      <c r="C34" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C34" s="5" t="s">
+      <c r="D34" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D34" s="5" t="s">
+      <c r="E34" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="E34" s="5" t="s">
+      <c r="F34" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="F34" s="5">
-        <f>G34+H34</f>
+      <c r="G34" s="5">
+        <f>H34+I34</f>
         <v>100</v>
       </c>
-      <c r="G34" s="5">
+      <c r="H34" s="5">
         <v>50</v>
       </c>
-      <c r="H34" s="6">
+      <c r="I34" s="6">
         <v>50</v>
       </c>
     </row>
-    <row r="35" spans="2:8">
-      <c r="B35" s="5" t="s">
+    <row r="35" spans="1:9">
+      <c r="A35" s="1"/>
+      <c r="C35" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C35" s="5" t="s">
+      <c r="D35" s="5" t="s">
         <v>26</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>37</v>
       </c>
       <c r="E35" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="F35" s="5">
+      <c r="F35" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G35" s="5">
         <f t="shared" si="0"/>
         <v>180</v>
       </c>
-      <c r="G35" s="5">
+      <c r="H35" s="5">
         <v>85</v>
       </c>
-      <c r="H35" s="6">
+      <c r="I35" s="6">
         <v>95</v>
       </c>
     </row>
-    <row r="36" spans="2:8">
-      <c r="B36" s="5" t="s">
+    <row r="36" spans="1:9">
+      <c r="A36" s="1"/>
+      <c r="C36" s="5" t="s">
         <v>38</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>39</v>
       </c>
       <c r="D36" s="5" t="s">
         <v>39</v>
       </c>
       <c r="E36" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F36" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="F36" s="5">
+      <c r="G36" s="5">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="G36" s="5">
+      <c r="H36" s="5">
         <v>10</v>
       </c>
-      <c r="H36" s="6">
+      <c r="I36" s="6">
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="2:8">
-      <c r="B37" s="5" t="s">
+    <row r="37" spans="1:9">
+      <c r="A37" s="1"/>
+      <c r="C37" s="5" t="s">
         <v>38</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>39</v>
       </c>
       <c r="D37" s="5" t="s">
         <v>39</v>
       </c>
       <c r="E37" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F37" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="F37" s="5">
+      <c r="G37" s="5">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="G37" s="5">
+      <c r="H37" s="5">
         <v>14</v>
       </c>
-      <c r="H37" s="6">
+      <c r="I37" s="6">
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="2:8">
-      <c r="B38" s="5" t="s">
+    <row r="38" spans="1:9">
+      <c r="A38" s="1"/>
+      <c r="C38" s="5" t="s">
         <v>38</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>39</v>
       </c>
       <c r="D38" s="5" t="s">
         <v>39</v>
       </c>
       <c r="E38" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F38" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="F38" s="5">
+      <c r="G38" s="5">
         <f t="shared" si="0"/>
         <v>300</v>
       </c>
-      <c r="G38" s="5">
+      <c r="H38" s="5">
         <v>150</v>
       </c>
-      <c r="H38" s="6">
+      <c r="I38" s="6">
         <v>150</v>
       </c>
     </row>
-    <row r="39" spans="2:8">
-      <c r="B39" s="5" t="s">
+    <row r="39" spans="1:9">
+      <c r="A39" s="1"/>
+      <c r="C39" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C39" s="5" t="s">
+      <c r="D39" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D39" s="5" t="s">
+      <c r="E39" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="E39" s="2" t="s">
+      <c r="F39" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="F39" s="5">
+      <c r="G39" s="5">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="G39" s="5">
+      <c r="H39" s="5">
         <v>16</v>
       </c>
-      <c r="H39" s="6">
+      <c r="I39" s="6">
         <v>16</v>
       </c>
     </row>
-    <row r="40" spans="2:8">
-      <c r="B40" s="13"/>
+    <row r="40" spans="1:9">
+      <c r="A40" s="1"/>
       <c r="C40" s="13"/>
       <c r="D40" s="13"/>
-      <c r="F40" s="13"/>
+      <c r="E40" s="13"/>
       <c r="G40" s="13"/>
-      <c r="H40" s="14"/>
-    </row>
-    <row r="41" spans="2:8">
-      <c r="B41" s="13"/>
+      <c r="H40" s="13"/>
+      <c r="I40" s="14"/>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" s="1"/>
       <c r="C41" s="13"/>
       <c r="D41" s="13"/>
-      <c r="F41" s="13"/>
+      <c r="E41" s="13"/>
       <c r="G41" s="13"/>
-      <c r="H41" s="14"/>
-    </row>
-    <row r="43" spans="2:8">
-      <c r="B43" s="10" t="s">
+      <c r="H41" s="13"/>
+      <c r="I41" s="14"/>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" s="1"/>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43" s="1"/>
+      <c r="C43" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="C43" t="s">
+      <c r="D43" t="s">
         <v>70</v>
       </c>
-      <c r="D43"/>
-    </row>
-    <row r="44" spans="2:8">
-      <c r="B44" s="11" t="s">
+      <c r="E43"/>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" s="1"/>
+      <c r="C44" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="C44" s="12">
+      <c r="D44" s="12">
         <v>174</v>
       </c>
-      <c r="D44"/>
-    </row>
-    <row r="45" spans="2:8">
-      <c r="B45" s="11" t="s">
+      <c r="E44"/>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" s="1"/>
+      <c r="C45" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="C45" s="12">
+      <c r="D45" s="12">
         <v>203</v>
       </c>
-      <c r="D45"/>
-    </row>
-    <row r="46" spans="2:8">
-      <c r="B46" s="11" t="s">
+      <c r="E45"/>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46" s="1"/>
+      <c r="C46" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C46" s="12">
+      <c r="D46" s="12">
         <v>400</v>
       </c>
-      <c r="D46"/>
-    </row>
-    <row r="47" spans="2:8">
-      <c r="B47" s="11" t="s">
+      <c r="E46"/>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47" s="1"/>
+      <c r="C47" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="C47" s="12">
+      <c r="D47" s="12">
         <v>599</v>
       </c>
-      <c r="D47"/>
-    </row>
-    <row r="48" spans="2:8">
-      <c r="B48" s="11" t="s">
+      <c r="E47"/>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48" s="1"/>
+      <c r="C48" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="C48" s="12">
+      <c r="D48" s="12">
         <v>621</v>
       </c>
-      <c r="D48"/>
-    </row>
-    <row r="49" spans="2:4">
-      <c r="B49" s="11" t="s">
+      <c r="E48"/>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="1"/>
+      <c r="C49" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="C49" s="12">
+      <c r="D49" s="12">
         <v>835</v>
       </c>
-      <c r="D49"/>
-    </row>
-    <row r="50" spans="2:4">
-      <c r="B50" s="11" t="s">
+      <c r="E49"/>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="1"/>
+      <c r="C50" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="C50" s="12">
+      <c r="D50" s="12">
         <v>2832</v>
       </c>
-      <c r="D50"/>
-    </row>
-    <row r="51" spans="2:4">
-      <c r="B51"/>
+      <c r="E50"/>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="1"/>
       <c r="C51"/>
       <c r="D51"/>
-    </row>
-    <row r="52" spans="2:4">
-      <c r="B52"/>
+      <c r="E51"/>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="1"/>
       <c r="C52"/>
       <c r="D52"/>
-    </row>
-    <row r="53" spans="2:4">
-      <c r="B53"/>
+      <c r="E52"/>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="1"/>
       <c r="C53"/>
       <c r="D53"/>
-    </row>
-    <row r="54" spans="2:4">
-      <c r="B54"/>
+      <c r="E53"/>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="1"/>
       <c r="C54"/>
       <c r="D54"/>
-    </row>
-    <row r="55" spans="2:4">
-      <c r="B55"/>
+      <c r="E54"/>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="1"/>
       <c r="C55"/>
       <c r="D55"/>
-    </row>
-    <row r="56" spans="2:4">
-      <c r="B56"/>
+      <c r="E55"/>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="1"/>
       <c r="C56"/>
       <c r="D56"/>
-    </row>
-    <row r="57" spans="2:4">
-      <c r="B57"/>
+      <c r="E56"/>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="1"/>
       <c r="C57"/>
       <c r="D57"/>
-    </row>
-    <row r="58" spans="2:4">
-      <c r="B58"/>
+      <c r="E57"/>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="1"/>
       <c r="C58"/>
       <c r="D58"/>
-    </row>
-    <row r="59" spans="2:4">
-      <c r="B59"/>
+      <c r="E58"/>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" s="1"/>
       <c r="C59"/>
       <c r="D59"/>
-    </row>
-    <row r="60" spans="2:4">
-      <c r="B60"/>
+      <c r="E59"/>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" s="1"/>
       <c r="C60"/>
       <c r="D60"/>
-    </row>
-    <row r="61" spans="2:4">
-      <c r="B61" s="10" t="s">
+      <c r="E60"/>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" s="1"/>
+      <c r="C61" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="C61" t="s">
+      <c r="D61" t="s">
         <v>70</v>
       </c>
-      <c r="D61"/>
-    </row>
-    <row r="62" spans="2:4">
-      <c r="B62" s="11" t="s">
+      <c r="E61"/>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" s="1"/>
+      <c r="C62" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C62" s="12">
+      <c r="D62" s="12">
         <v>729</v>
       </c>
-      <c r="D62"/>
-    </row>
-    <row r="63" spans="2:4">
-      <c r="B63" s="11" t="s">
+      <c r="E62"/>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" s="1"/>
+      <c r="C63" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C63" s="12">
+      <c r="D63" s="12">
         <v>1560</v>
       </c>
-      <c r="D63"/>
-    </row>
-    <row r="64" spans="2:4">
-      <c r="B64" s="11" t="s">
+      <c r="E63"/>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" s="1"/>
+      <c r="C64" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="C64" s="12">
+      <c r="D64" s="12">
         <v>543</v>
       </c>
-      <c r="D64"/>
-    </row>
-    <row r="65" spans="2:4">
-      <c r="B65" s="11" t="s">
+      <c r="E64"/>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" s="1"/>
+      <c r="C65" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="C65" s="12">
+      <c r="D65" s="12">
         <v>2832</v>
       </c>
-      <c r="D65"/>
-    </row>
-    <row r="66" spans="2:4">
-      <c r="B66"/>
+      <c r="E65"/>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" s="1"/>
       <c r="C66"/>
       <c r="D66"/>
-    </row>
-    <row r="67" spans="2:4">
-      <c r="B67"/>
+      <c r="E66"/>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" s="1"/>
       <c r="C67"/>
       <c r="D67"/>
-    </row>
-    <row r="68" spans="2:4">
-      <c r="B68"/>
+      <c r="E67"/>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" s="1"/>
       <c r="C68"/>
       <c r="D68"/>
-    </row>
-    <row r="69" spans="2:4">
-      <c r="B69"/>
+      <c r="E68"/>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" s="1"/>
       <c r="C69"/>
       <c r="D69"/>
-    </row>
-    <row r="70" spans="2:4">
-      <c r="B70"/>
+      <c r="E69"/>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" s="1"/>
       <c r="C70"/>
       <c r="D70"/>
-    </row>
-    <row r="71" spans="2:4">
-      <c r="B71"/>
+      <c r="E70"/>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" s="1"/>
       <c r="C71"/>
       <c r="D71"/>
-    </row>
-    <row r="72" spans="2:4">
-      <c r="B72"/>
+      <c r="E71"/>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" s="1"/>
       <c r="C72"/>
       <c r="D72"/>
-    </row>
-    <row r="73" spans="2:4">
-      <c r="B73"/>
+      <c r="E72"/>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" s="1"/>
       <c r="C73"/>
       <c r="D73"/>
-    </row>
-    <row r="74" spans="2:4">
-      <c r="B74"/>
+      <c r="E73"/>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" s="1"/>
       <c r="C74"/>
       <c r="D74"/>
-    </row>
-    <row r="75" spans="2:4">
-      <c r="B75"/>
+      <c r="E74"/>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" s="1"/>
       <c r="C75"/>
       <c r="D75"/>
-    </row>
-    <row r="76" spans="2:4">
-      <c r="B76"/>
+      <c r="E75"/>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" s="1"/>
       <c r="C76"/>
       <c r="D76"/>
-    </row>
-    <row r="77" spans="2:4">
-      <c r="B77"/>
-      <c r="C77"/>
-      <c r="D77"/>
-    </row>
-    <row r="78" spans="2:4">
-      <c r="B78"/>
-      <c r="C78"/>
-      <c r="D78"/>
+      <c r="E76"/>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" s="1"/>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" s="1"/>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" s="1"/>
+      <c r="C79" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="D79" t="s">
+        <v>70</v>
+      </c>
+      <c r="E79" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" s="1"/>
+      <c r="C80" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D80" s="12">
+        <v>729</v>
+      </c>
+      <c r="E80"/>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" s="1"/>
+      <c r="C81" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="D81" s="12">
+        <v>236</v>
+      </c>
+      <c r="E81" s="22">
+        <f>GETPIVOTDATA("Horas",$C$79,"Etapa","Etapa 1","Tipo","Documentación")/GETPIVOTDATA("Horas",$C$79,"Etapa","Etapa 1")</f>
+        <v>0.32373113854595337</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82" s="1"/>
+      <c r="C82" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="D82" s="12">
+        <v>493</v>
+      </c>
+      <c r="E82" s="22">
+        <f>GETPIVOTDATA("Horas",$C$79,"Etapa","Etapa 1","Tipo","Investigación")/GETPIVOTDATA("Horas",$C$79,"Etapa","Etapa 1")</f>
+        <v>0.67626886145404663</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83" s="1"/>
+      <c r="C83" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D83" s="12">
+        <v>1560</v>
+      </c>
+      <c r="E83" s="22"/>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84" s="1"/>
+      <c r="C84" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="D84" s="12">
+        <v>174</v>
+      </c>
+      <c r="E84" s="22">
+        <f>GETPIVOTDATA("Horas",$C$79,"Etapa","Etapa 2","Tipo","Analisis")/GETPIVOTDATA("Horas",$C$79,"Etapa","Etapa 2")</f>
+        <v>0.11153846153846154</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85" s="1"/>
+      <c r="C85" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D85" s="12">
+        <v>835</v>
+      </c>
+      <c r="E85" s="22">
+        <f>GETPIVOTDATA("Horas",$C$79,"Etapa","Etapa 2","Tipo","Codificación")/GETPIVOTDATA("Horas",$C$79,"Etapa","Etapa 2")</f>
+        <v>0.53525641025641024</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86" s="1"/>
+      <c r="C86" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="D86" s="12">
+        <v>203</v>
+      </c>
+      <c r="E86" s="22">
+        <f>GETPIVOTDATA("Horas",$C$79,"Etapa","Etapa 2","Tipo","Diseño")/GETPIVOTDATA("Horas",$C$79,"Etapa","Etapa 2")</f>
+        <v>0.13012820512820514</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87" s="1"/>
+      <c r="C87" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="D87" s="12">
+        <v>128</v>
+      </c>
+      <c r="E87" s="22">
+        <f>GETPIVOTDATA("Horas",$C$79,"Etapa","Etapa 2","Tipo","Investigación")/GETPIVOTDATA("Horas",$C$79,"Etapa","Etapa 2")</f>
+        <v>8.2051282051282051E-2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88" s="1"/>
+      <c r="C88" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D88" s="12">
+        <v>220</v>
+      </c>
+      <c r="E88" s="22">
+        <f>GETPIVOTDATA("Horas",$C$79,"Etapa","Etapa 2","Tipo","Pruebas")/GETPIVOTDATA("Horas",$C$79,"Etapa","Etapa 2")</f>
+        <v>0.14102564102564102</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89" s="1"/>
+      <c r="C89" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D89" s="12">
+        <v>543</v>
+      </c>
+      <c r="E89" s="22"/>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90" s="1"/>
+      <c r="C90" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="D90" s="12">
+        <v>363</v>
+      </c>
+      <c r="E90" s="22">
+        <f>GETPIVOTDATA("Horas",$C$79,"Etapa","Etapa 3","Tipo","Documentación")/GETPIVOTDATA("Horas",$C$79,"Etapa","Etapa 3")</f>
+        <v>0.66850828729281764</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91" s="1"/>
+      <c r="C91" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D91" s="12">
+        <v>180</v>
+      </c>
+      <c r="E91" s="22">
+        <f>GETPIVOTDATA("Horas",$C$79,"Etapa","Etapa 3","Tipo","Pruebas")/GETPIVOTDATA("Horas",$C$79,"Etapa","Etapa 3")</f>
+        <v>0.33149171270718231</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92" s="1"/>
+      <c r="C92" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="D92" s="12">
+        <v>2832</v>
+      </c>
+      <c r="E92"/>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93" s="1"/>
+      <c r="C93"/>
+      <c r="D93"/>
+      <c r="E93"/>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94" s="1"/>
+      <c r="C94"/>
+      <c r="D94"/>
+      <c r="E94"/>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95" s="1"/>
+      <c r="C95"/>
+      <c r="D95"/>
+      <c r="E95" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96" s="1"/>
+      <c r="D96" s="12"/>
+      <c r="E96"/>
+    </row>
+    <row r="97" spans="1:6">
+      <c r="A97" s="1"/>
+      <c r="C97" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D97" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="E97" s="22">
+        <f>GETPIVOTDATA("Horas",$C$79,"Etapa","Etapa 1","Tipo","Documentación")/GETPIVOTDATA("Horas",$C$79,"Etapa","Etapa 1")</f>
+        <v>0.32373113854595337</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="A98" s="1"/>
+      <c r="C98" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D98" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="E98" s="22">
+        <f>GETPIVOTDATA("Horas",$C$79,"Etapa","Etapa 1","Tipo","Investigación")/GETPIVOTDATA("Horas",$C$79,"Etapa","Etapa 1")</f>
+        <v>0.67626886145404663</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
+      <c r="A99" s="1"/>
+      <c r="C99" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D99" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="E99" s="22">
+        <f>GETPIVOTDATA("Horas",$C$79,"Etapa","Etapa 2","Tipo","Analisis")/GETPIVOTDATA("Horas",$C$79,"Etapa","Etapa 2")</f>
+        <v>0.11153846153846154</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
+      <c r="A100" s="1"/>
+      <c r="C100" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D100" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="E100" s="22">
+        <f>GETPIVOTDATA("Horas",$C$79,"Etapa","Etapa 2","Tipo","Codificación")/GETPIVOTDATA("Horas",$C$79,"Etapa","Etapa 2")</f>
+        <v>0.53525641025641024</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
+      <c r="A101" s="1"/>
+      <c r="C101" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D101" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="E101" s="22">
+        <f>GETPIVOTDATA("Horas",$C$79,"Etapa","Etapa 2","Tipo","Diseño")/GETPIVOTDATA("Horas",$C$79,"Etapa","Etapa 2")</f>
+        <v>0.13012820512820514</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
+      <c r="A102" s="1"/>
+      <c r="C102" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D102" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="E102" s="22">
+        <f>GETPIVOTDATA("Horas",$C$79,"Etapa","Etapa 2","Tipo","Investigación")/GETPIVOTDATA("Horas",$C$79,"Etapa","Etapa 2")</f>
+        <v>8.2051282051282051E-2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
+      <c r="A103" s="1"/>
+      <c r="C103" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D103" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="E103" s="22">
+        <f>GETPIVOTDATA("Horas",$C$79,"Etapa","Etapa 2","Tipo","Pruebas")/GETPIVOTDATA("Horas",$C$79,"Etapa","Etapa 2")</f>
+        <v>0.14102564102564102</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
+      <c r="A104" s="1"/>
+      <c r="C104" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D104" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="E104" s="22">
+        <f>GETPIVOTDATA("Horas",$C$79,"Etapa","Etapa 3","Tipo","Documentación")/GETPIVOTDATA("Horas",$C$79,"Etapa","Etapa 3")</f>
+        <v>0.66850828729281764</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6">
+      <c r="A105" s="1"/>
+      <c r="C105" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D105" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="E105" s="22">
+        <f>GETPIVOTDATA("Horas",$C$79,"Etapa","Etapa 3","Tipo","Pruebas")/GETPIVOTDATA("Horas",$C$79,"Etapa","Etapa 3")</f>
+        <v>0.33149171270718231</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6">
+      <c r="A106" s="1"/>
+      <c r="D106" s="12"/>
+    </row>
+    <row r="107" spans="1:6">
+      <c r="A107" s="1"/>
+      <c r="B107" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D107" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E107" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F107" s="11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6">
+      <c r="A108" s="1"/>
+      <c r="B108" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="C108" s="2">
+        <v>0</v>
+      </c>
+      <c r="D108" s="22">
+        <v>0.32</v>
+      </c>
+      <c r="E108" s="2">
+        <v>0</v>
+      </c>
+      <c r="F108" s="2">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6">
+      <c r="A109" s="1"/>
+      <c r="B109" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="C109" s="2">
+        <v>0</v>
+      </c>
+      <c r="D109" s="22">
+        <v>0.68</v>
+      </c>
+      <c r="E109" s="2">
+        <v>0.08</v>
+      </c>
+      <c r="F109" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6">
+      <c r="A110" s="1"/>
+      <c r="B110" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="C110" s="2">
+        <v>0</v>
+      </c>
+      <c r="D110" s="2">
+        <v>0</v>
+      </c>
+      <c r="E110" s="2">
+        <v>0.11</v>
+      </c>
+      <c r="F110" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6">
+      <c r="A111" s="1"/>
+      <c r="B111" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="C111" s="2">
+        <v>0</v>
+      </c>
+      <c r="D111" s="2">
+        <v>0</v>
+      </c>
+      <c r="E111" s="2">
+        <v>0.54</v>
+      </c>
+      <c r="F111" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6">
+      <c r="A112" s="1"/>
+      <c r="B112" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="C112" s="2">
+        <v>0</v>
+      </c>
+      <c r="D112" s="2">
+        <v>0</v>
+      </c>
+      <c r="E112" s="2">
+        <v>0.13</v>
+      </c>
+      <c r="F112" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6">
+      <c r="A113" s="1"/>
+      <c r="B113" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C113" s="2">
+        <v>0</v>
+      </c>
+      <c r="D113" s="2">
+        <v>0</v>
+      </c>
+      <c r="E113" s="2">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="F113" s="2">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6">
+      <c r="A114" s="1"/>
+    </row>
+    <row r="115" spans="1:6">
+      <c r="A115" s="1"/>
+    </row>
+    <row r="116" spans="1:6">
+      <c r="A116" s="1"/>
+    </row>
+    <row r="117" spans="1:6">
+      <c r="A117" s="1"/>
+    </row>
+    <row r="118" spans="1:6">
+      <c r="A118" s="1"/>
+    </row>
+    <row r="119" spans="1:6">
+      <c r="A119" s="1"/>
+    </row>
+    <row r="120" spans="1:6">
+      <c r="A120" s="1"/>
+      <c r="B120" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D120" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E120" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F120" s="11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6">
+      <c r="A121" s="1"/>
+      <c r="B121" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="C121" s="2">
+        <v>0</v>
+      </c>
+      <c r="D121" s="22">
+        <v>0.32</v>
+      </c>
+      <c r="E121" s="2">
+        <v>0</v>
+      </c>
+      <c r="F121" s="2">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6">
+      <c r="A122" s="1"/>
+      <c r="B122" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="C122" s="2">
+        <v>0</v>
+      </c>
+      <c r="D122" s="22">
+        <v>0.68</v>
+      </c>
+      <c r="E122" s="2">
+        <v>0.08</v>
+      </c>
+      <c r="F122" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6">
+      <c r="A123" s="1"/>
+      <c r="B123" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="C123" s="2">
+        <v>0</v>
+      </c>
+      <c r="D123" s="2">
+        <v>0</v>
+      </c>
+      <c r="E123" s="2">
+        <v>0.92</v>
+      </c>
+      <c r="F123" s="2">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6">
+      <c r="A124" s="1"/>
+      <c r="B124" s="21"/>
+    </row>
+    <row r="125" spans="1:6">
+      <c r="A125" s="1"/>
+      <c r="B125" s="21"/>
+    </row>
+    <row r="126" spans="1:6">
+      <c r="A126" s="1"/>
+      <c r="B126" s="21"/>
+    </row>
+    <row r="127" spans="1:6">
+      <c r="A127" s="1"/>
+    </row>
+    <row r="128" spans="1:6">
+      <c r="A128" s="1"/>
+    </row>
+    <row r="129" spans="1:1">
+      <c r="A129" s="1"/>
+    </row>
+    <row r="130" spans="1:1">
+      <c r="A130" s="1"/>
+    </row>
+    <row r="131" spans="1:1">
+      <c r="A131" s="1"/>
+    </row>
+    <row r="132" spans="1:1">
+      <c r="A132" s="1"/>
+    </row>
+    <row r="133" spans="1:1">
+      <c r="A133" s="1"/>
+    </row>
+    <row r="134" spans="1:1">
+      <c r="A134" s="1"/>
+    </row>
+    <row r="135" spans="1:1">
+      <c r="A135" s="1"/>
+    </row>
+    <row r="136" spans="1:1">
+      <c r="A136" s="1"/>
+    </row>
+    <row r="137" spans="1:1">
+      <c r="A137" s="1"/>
+    </row>
+    <row r="138" spans="1:1">
+      <c r="A138" s="1"/>
+    </row>
+    <row r="139" spans="1:1">
+      <c r="A139" s="1"/>
+    </row>
+    <row r="140" spans="1:1">
+      <c r="A140" s="1"/>
+    </row>
+    <row r="141" spans="1:1">
+      <c r="A141" s="1"/>
+    </row>
+    <row r="142" spans="1:1">
+      <c r="A142" s="1"/>
+    </row>
+    <row r="143" spans="1:1">
+      <c r="A143" s="1"/>
+    </row>
+    <row r="144" spans="1:1">
+      <c r="A144" s="1"/>
+    </row>
+    <row r="145" spans="1:1">
+      <c r="A145" s="1"/>
+    </row>
+    <row r="146" spans="1:1">
+      <c r="A146" s="1"/>
+    </row>
+    <row r="147" spans="1:1">
+      <c r="A147" s="1"/>
+    </row>
+    <row r="148" spans="1:1">
+      <c r="A148" s="1"/>
+    </row>
+    <row r="149" spans="1:1">
+      <c r="A149" s="1"/>
+    </row>
+    <row r="150" spans="1:1">
+      <c r="A150" s="1"/>
+    </row>
+    <row r="151" spans="1:1">
+      <c r="A151" s="1"/>
+    </row>
+    <row r="152" spans="1:1">
+      <c r="A152" s="1"/>
+    </row>
+    <row r="153" spans="1:1">
+      <c r="A153" s="1"/>
+    </row>
+    <row r="154" spans="1:1">
+      <c r="A154" s="1"/>
+    </row>
+    <row r="155" spans="1:1">
+      <c r="A155" s="1"/>
+    </row>
+    <row r="156" spans="1:1">
+      <c r="A156" s="1"/>
+    </row>
+    <row r="157" spans="1:1">
+      <c r="A157" s="1"/>
+    </row>
+    <row r="158" spans="1:1">
+      <c r="A158" s="1"/>
+    </row>
+    <row r="159" spans="1:1">
+      <c r="A159" s="1"/>
+    </row>
+    <row r="160" spans="1:1">
+      <c r="A160" s="1"/>
+    </row>
+    <row r="161" spans="1:1">
+      <c r="A161" s="1"/>
+    </row>
+    <row r="162" spans="1:1">
+      <c r="A162" s="1"/>
+    </row>
+    <row r="163" spans="1:1">
+      <c r="A163" s="1"/>
+    </row>
+    <row r="164" spans="1:1">
+      <c r="A164" s="1"/>
+    </row>
+    <row r="165" spans="1:1">
+      <c r="A165" s="1"/>
+    </row>
+    <row r="166" spans="1:1">
+      <c r="A166" s="1"/>
+    </row>
+    <row r="167" spans="1:1">
+      <c r="A167" s="1"/>
+    </row>
+    <row r="168" spans="1:1">
+      <c r="A168" s="1"/>
+    </row>
+    <row r="169" spans="1:1">
+      <c r="A169" s="1"/>
+    </row>
+    <row r="170" spans="1:1">
+      <c r="A170" s="1"/>
+    </row>
+    <row r="171" spans="1:1">
+      <c r="A171" s="1"/>
+    </row>
+    <row r="172" spans="1:1">
+      <c r="A172" s="1"/>
+    </row>
+    <row r="173" spans="1:1">
+      <c r="A173" s="1"/>
+    </row>
+    <row r="174" spans="1:1">
+      <c r="A174" s="1"/>
+    </row>
+    <row r="175" spans="1:1">
+      <c r="A175" s="1"/>
+    </row>
+    <row r="176" spans="1:1">
+      <c r="A176" s="1"/>
+    </row>
+    <row r="177" spans="1:1">
+      <c r="A177" s="1"/>
+    </row>
+    <row r="178" spans="1:1">
+      <c r="A178" s="1"/>
+    </row>
+    <row r="179" spans="1:1">
+      <c r="A179" s="1"/>
+    </row>
+    <row r="180" spans="1:1">
+      <c r="A180" s="1"/>
+    </row>
+    <row r="181" spans="1:1">
+      <c r="A181" s="1"/>
+    </row>
+    <row r="182" spans="1:1">
+      <c r="A182" s="1"/>
+    </row>
+    <row r="183" spans="1:1">
+      <c r="A183" s="1"/>
+    </row>
+    <row r="184" spans="1:1">
+      <c r="A184" s="1"/>
+    </row>
+    <row r="185" spans="1:1">
+      <c r="A185" s="1"/>
+    </row>
+    <row r="186" spans="1:1">
+      <c r="A186" s="1"/>
+    </row>
+    <row r="187" spans="1:1">
+      <c r="A187" s="1"/>
+    </row>
+    <row r="188" spans="1:1">
+      <c r="A188" s="1"/>
+    </row>
+    <row r="189" spans="1:1">
+      <c r="A189" s="1"/>
+    </row>
+    <row r="190" spans="1:1">
+      <c r="A190" s="1"/>
+    </row>
+    <row r="191" spans="1:1">
+      <c r="A191" s="1"/>
+    </row>
+    <row r="192" spans="1:1">
+      <c r="A192" s="1"/>
+    </row>
+    <row r="193" spans="1:1">
+      <c r="A193" s="1"/>
+    </row>
+    <row r="194" spans="1:1">
+      <c r="A194" s="1"/>
+    </row>
+    <row r="195" spans="1:1">
+      <c r="A195" s="1"/>
+    </row>
+    <row r="196" spans="1:1">
+      <c r="A196" s="1"/>
+    </row>
+    <row r="197" spans="1:1">
+      <c r="A197" s="1"/>
+    </row>
+    <row r="198" spans="1:1">
+      <c r="A198" s="1"/>
+    </row>
+    <row r="199" spans="1:1">
+      <c r="A199" s="1"/>
+    </row>
+    <row r="200" spans="1:1">
+      <c r="A200" s="1"/>
+    </row>
+    <row r="201" spans="1:1">
+      <c r="A201" s="1"/>
+    </row>
+    <row r="202" spans="1:1">
+      <c r="A202" s="1"/>
+    </row>
+    <row r="203" spans="1:1">
+      <c r="A203" s="1"/>
+    </row>
+    <row r="204" spans="1:1">
+      <c r="A204" s="1"/>
+    </row>
+    <row r="205" spans="1:1">
+      <c r="A205" s="1"/>
+    </row>
+    <row r="206" spans="1:1">
+      <c r="A206" s="1"/>
+    </row>
+    <row r="207" spans="1:1">
+      <c r="A207" s="1"/>
+    </row>
+    <row r="208" spans="1:1">
+      <c r="A208" s="1"/>
+    </row>
+    <row r="209" spans="1:1">
+      <c r="A209" s="1"/>
+    </row>
+    <row r="210" spans="1:1">
+      <c r="A210" s="1"/>
+    </row>
+    <row r="211" spans="1:1">
+      <c r="A211" s="1"/>
+    </row>
+    <row r="212" spans="1:1">
+      <c r="A212" s="1"/>
+    </row>
+    <row r="213" spans="1:1">
+      <c r="A213" s="1"/>
+    </row>
+    <row r="214" spans="1:1">
+      <c r="A214" s="1"/>
+    </row>
+    <row r="215" spans="1:1">
+      <c r="A215" s="1"/>
+    </row>
+    <row r="216" spans="1:1">
+      <c r="A216" s="1"/>
+    </row>
+    <row r="217" spans="1:1">
+      <c r="A217" s="1"/>
+    </row>
+    <row r="218" spans="1:1">
+      <c r="A218" s="1"/>
+    </row>
+    <row r="219" spans="1:1">
+      <c r="A219" s="1"/>
+    </row>
+    <row r="220" spans="1:1">
+      <c r="A220" s="1"/>
+    </row>
+    <row r="221" spans="1:1">
+      <c r="A221" s="1"/>
+    </row>
+    <row r="222" spans="1:1">
+      <c r="A222" s="1"/>
+    </row>
+    <row r="223" spans="1:1">
+      <c r="A223" s="1"/>
+    </row>
+    <row r="224" spans="1:1">
+      <c r="A224" s="1"/>
+    </row>
+    <row r="225" spans="1:1">
+      <c r="A225" s="1"/>
+    </row>
+    <row r="226" spans="1:1">
+      <c r="A226" s="1"/>
+    </row>
+    <row r="227" spans="1:1">
+      <c r="A227" s="1"/>
+    </row>
+    <row r="228" spans="1:1">
+      <c r="A228" s="1"/>
+    </row>
+    <row r="229" spans="1:1">
+      <c r="A229" s="1"/>
+    </row>
+    <row r="230" spans="1:1">
+      <c r="A230" s="1"/>
+    </row>
+    <row r="231" spans="1:1">
+      <c r="A231" s="1"/>
+    </row>
+    <row r="232" spans="1:1">
+      <c r="A232" s="1"/>
+    </row>
+    <row r="233" spans="1:1">
+      <c r="A233" s="1"/>
+    </row>
+    <row r="234" spans="1:1">
+      <c r="A234" s="1"/>
+    </row>
+    <row r="235" spans="1:1">
+      <c r="A235" s="1"/>
+    </row>
+    <row r="236" spans="1:1">
+      <c r="A236" s="1"/>
+    </row>
+    <row r="237" spans="1:1">
+      <c r="A237" s="1"/>
+    </row>
+    <row r="238" spans="1:1">
+      <c r="A238" s="1"/>
+    </row>
+    <row r="239" spans="1:1">
+      <c r="A239" s="1"/>
+    </row>
+    <row r="240" spans="1:1">
+      <c r="A240" s="1"/>
+    </row>
+    <row r="241" spans="1:1">
+      <c r="A241" s="1"/>
+    </row>
+    <row r="242" spans="1:1">
+      <c r="A242" s="1"/>
+    </row>
+    <row r="243" spans="1:1">
+      <c r="A243" s="1"/>
+    </row>
+    <row r="244" spans="1:1">
+      <c r="A244" s="1"/>
+    </row>
+    <row r="245" spans="1:1">
+      <c r="A245" s="1"/>
+    </row>
+    <row r="246" spans="1:1">
+      <c r="A246" s="1"/>
+    </row>
+    <row r="247" spans="1:1">
+      <c r="A247" s="1"/>
+    </row>
+    <row r="248" spans="1:1">
+      <c r="A248" s="1"/>
+    </row>
+    <row r="249" spans="1:1">
+      <c r="A249" s="1"/>
+    </row>
+    <row r="250" spans="1:1">
+      <c r="A250" s="1"/>
+    </row>
+    <row r="251" spans="1:1">
+      <c r="A251" s="1"/>
+    </row>
+    <row r="252" spans="1:1">
+      <c r="A252" s="1"/>
+    </row>
+    <row r="253" spans="1:1">
+      <c r="A253" s="1"/>
+    </row>
+    <row r="254" spans="1:1">
+      <c r="A254" s="1"/>
+    </row>
+    <row r="255" spans="1:1">
+      <c r="A255" s="1"/>
+    </row>
+    <row r="256" spans="1:1">
+      <c r="A256" s="1"/>
+    </row>
+    <row r="257" spans="1:1">
+      <c r="A257" s="1"/>
+    </row>
+    <row r="258" spans="1:1">
+      <c r="A258" s="1"/>
+    </row>
+    <row r="259" spans="1:1">
+      <c r="A259" s="1"/>
+    </row>
+    <row r="260" spans="1:1">
+      <c r="A260" s="1"/>
+    </row>
+    <row r="261" spans="1:1">
+      <c r="A261" s="1"/>
+    </row>
+    <row r="262" spans="1:1">
+      <c r="A262" s="1"/>
+    </row>
+    <row r="263" spans="1:1">
+      <c r="A263" s="1"/>
+    </row>
+    <row r="264" spans="1:1">
+      <c r="A264" s="1"/>
+    </row>
+    <row r="265" spans="1:1">
+      <c r="A265" s="1"/>
+    </row>
+    <row r="266" spans="1:1">
+      <c r="A266" s="1"/>
+    </row>
+    <row r="267" spans="1:1">
+      <c r="A267" s="1"/>
+    </row>
+    <row r="268" spans="1:1">
+      <c r="A268" s="1"/>
+    </row>
+    <row r="269" spans="1:1">
+      <c r="A269" s="1"/>
+    </row>
+    <row r="270" spans="1:1">
+      <c r="A270" s="1"/>
+    </row>
+    <row r="271" spans="1:1">
+      <c r="A271" s="1"/>
+    </row>
+    <row r="272" spans="1:1">
+      <c r="A272" s="1"/>
+    </row>
+    <row r="273" spans="1:1">
+      <c r="A273" s="1"/>
+    </row>
+    <row r="274" spans="1:1">
+      <c r="A274" s="1"/>
+    </row>
+    <row r="275" spans="1:1">
+      <c r="A275" s="1"/>
+    </row>
+    <row r="276" spans="1:1">
+      <c r="A276" s="1"/>
+    </row>
+    <row r="277" spans="1:1">
+      <c r="A277" s="1"/>
+    </row>
+    <row r="278" spans="1:1">
+      <c r="A278" s="1"/>
+    </row>
+    <row r="279" spans="1:1">
+      <c r="A279" s="1"/>
+    </row>
+    <row r="280" spans="1:1">
+      <c r="A280" s="1"/>
+    </row>
+    <row r="281" spans="1:1">
+      <c r="A281" s="1"/>
+    </row>
+    <row r="282" spans="1:1">
+      <c r="A282" s="1"/>
+    </row>
+    <row r="283" spans="1:1">
+      <c r="A283" s="1"/>
+    </row>
+    <row r="284" spans="1:1">
+      <c r="A284" s="1"/>
+    </row>
+    <row r="285" spans="1:1">
+      <c r="A285" s="1"/>
+    </row>
+    <row r="286" spans="1:1">
+      <c r="A286" s="1"/>
+    </row>
+    <row r="287" spans="1:1">
+      <c r="A287" s="1"/>
+    </row>
+    <row r="288" spans="1:1">
+      <c r="A288" s="1"/>
+    </row>
+    <row r="289" spans="1:1">
+      <c r="A289" s="1"/>
+    </row>
+    <row r="290" spans="1:1">
+      <c r="A290" s="1"/>
+    </row>
+    <row r="291" spans="1:1">
+      <c r="A291" s="1"/>
+    </row>
+    <row r="292" spans="1:1">
+      <c r="A292" s="1"/>
+    </row>
+    <row r="293" spans="1:1">
+      <c r="A293" s="1"/>
+    </row>
+    <row r="294" spans="1:1">
+      <c r="A294" s="1"/>
+    </row>
+    <row r="295" spans="1:1">
+      <c r="A295" s="1"/>
+    </row>
+    <row r="296" spans="1:1">
+      <c r="A296" s="1"/>
+    </row>
+    <row r="297" spans="1:1">
+      <c r="A297" s="1"/>
+    </row>
+    <row r="298" spans="1:1">
+      <c r="A298" s="1"/>
+    </row>
+    <row r="299" spans="1:1">
+      <c r="A299" s="1"/>
+    </row>
+    <row r="300" spans="1:1">
+      <c r="A300" s="1"/>
+    </row>
+    <row r="301" spans="1:1">
+      <c r="A301" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="B2:H39"/>
+  <autoFilter ref="C2:I39"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId3"/>
+  <drawing r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -6816,4 +9112,18 @@
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/doc/Tareas Esfuerzo.xlsx
+++ b/doc/Tareas Esfuerzo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="3" r:id="rId1"/>
@@ -17,15 +17,16 @@
   </definedNames>
   <calcPr calcId="125725" iterateDelta="1E-4"/>
   <pivotCaches>
-    <pivotCache cacheId="1" r:id="rId4"/>
-    <pivotCache cacheId="2" r:id="rId5"/>
+    <pivotCache cacheId="19" r:id="rId4"/>
+    <pivotCache cacheId="18" r:id="rId5"/>
     <pivotCache cacheId="11" r:id="rId6"/>
+    <pivotCache cacheId="27" r:id="rId7"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="87">
   <si>
     <t>Etapa</t>
   </si>
@@ -275,6 +276,18 @@
   <si>
     <t>Desarrollo y Testing</t>
   </si>
+  <si>
+    <t>Rótulos de columna</t>
+  </si>
+  <si>
+    <t>Total Iteracion</t>
+  </si>
+  <si>
+    <t>inicio</t>
+  </si>
+  <si>
+    <t>Análisis y Diseño</t>
+  </si>
 </sst>
 </file>
 
@@ -486,7 +499,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
@@ -532,6 +545,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
@@ -765,6 +779,567 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="es-CL"/>
+  <c:pivotSource>
+    <c:name>[Tareas Esfuerzo.xlsx]Por CU!Tabla dinámica7</c:name>
+    <c:fmtId val="0"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Por CU'!$C$114:$C$115</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1er It</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Por CU'!$B$116:$B$120</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Suma de Investigación</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Suma de Análisis</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Suma de Diseño</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Suma de Codificación</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Suma de Pruebas y ajustes</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Por CU'!$C$116:$C$120</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>440</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Por CU'!$D$114:$D$115</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2da It</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Por CU'!$B$116:$B$120</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Suma de Investigación</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Suma de Análisis</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Suma de Diseño</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Suma de Codificación</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Suma de Pruebas y ajustes</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Por CU'!$D$116:$D$120</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>275</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>70</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Por CU'!$E$114:$E$115</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3er It</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Por CU'!$B$116:$B$120</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Suma de Investigación</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Suma de Análisis</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Suma de Diseño</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Suma de Codificación</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Suma de Pruebas y ajustes</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Por CU'!$E$116:$E$120</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="147273984"/>
+        <c:axId val="147543936"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="147273984"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="147543936"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="147543936"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="147273984"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="es-CL"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Por CU'!$B$142</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Investigación</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Por CU'!$C$141:$F$141</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>inicio</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1er It</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2da It</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3er It</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Por CU'!$C$142:$F$142</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="General">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="General">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Por CU'!$B$143</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Análisis y Diseño</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Por CU'!$C$141:$F$141</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>inicio</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1er It</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2da It</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3er It</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Por CU'!$C$143:$F$143</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="General">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="General">
+                  <c:v>0.19</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Por CU'!$B$144</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Codificación</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Por CU'!$C$141:$F$141</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>inicio</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1er It</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2da It</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3er It</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Por CU'!$C$144:$F$144</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.59</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="General">
+                  <c:v>0.53</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="General">
+                  <c:v>0.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Por CU'!$B$145</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Pruebas y ajustes</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Por CU'!$C$141:$F$141</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>inicio</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1er It</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2da It</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3er It</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Por CU'!$C$145:$F$145</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="General">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="General">
+                  <c:v>0.34</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="91023616"/>
+        <c:axId val="93532160"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="91023616"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="93532160"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="93532160"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="91023616"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="es-CL"/>
@@ -1874,7 +2449,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Por CU'!$C$29:$C$30</c:f>
+              <c:f>'Por CU'!$C$26:$C$27</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1885,7 +2460,7 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'Por CU'!$B$31:$B$34</c:f>
+              <c:f>'Por CU'!$B$28:$B$31</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -1902,7 +2477,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Por CU'!$C$31:$C$34</c:f>
+              <c:f>'Por CU'!$C$28:$C$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -1924,7 +2499,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Por CU'!$D$29:$D$30</c:f>
+              <c:f>'Por CU'!$D$26:$D$27</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1935,7 +2510,7 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'Por CU'!$B$31:$B$34</c:f>
+              <c:f>'Por CU'!$B$28:$B$31</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -1952,7 +2527,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Por CU'!$D$31:$D$34</c:f>
+              <c:f>'Por CU'!$D$28:$D$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -1974,7 +2549,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Por CU'!$E$29:$E$30</c:f>
+              <c:f>'Por CU'!$E$26:$E$27</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1985,7 +2560,7 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'Por CU'!$B$31:$B$34</c:f>
+              <c:f>'Por CU'!$B$28:$B$31</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -2002,7 +2577,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Por CU'!$E$31:$E$34</c:f>
+              <c:f>'Por CU'!$E$28:$E$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -2024,7 +2599,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Por CU'!$F$29:$F$30</c:f>
+              <c:f>'Por CU'!$F$26:$F$27</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2035,7 +2610,7 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'Por CU'!$B$31:$B$34</c:f>
+              <c:f>'Por CU'!$B$28:$B$31</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -2052,7 +2627,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Por CU'!$F$31:$F$34</c:f>
+              <c:f>'Por CU'!$F$28:$F$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -2074,7 +2649,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Por CU'!$G$29:$G$30</c:f>
+              <c:f>'Por CU'!$G$26:$G$27</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2085,7 +2660,7 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'Por CU'!$B$31:$B$34</c:f>
+              <c:f>'Por CU'!$B$28:$B$31</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -2102,7 +2677,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Por CU'!$G$31:$G$34</c:f>
+              <c:f>'Por CU'!$G$28:$G$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -2124,7 +2699,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Por CU'!$H$29:$H$30</c:f>
+              <c:f>'Por CU'!$H$26:$H$27</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2135,7 +2710,7 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'Por CU'!$B$31:$B$34</c:f>
+              <c:f>'Por CU'!$B$28:$B$31</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -2152,7 +2727,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Por CU'!$H$31:$H$34</c:f>
+              <c:f>'Por CU'!$H$28:$H$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -2263,7 +2838,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Por CU'!$C$56:$C$57</c:f>
+              <c:f>'Por CU'!$C$53:$C$54</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2274,7 +2849,7 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'Por CU'!$B$58:$B$75</c:f>
+              <c:f>'Por CU'!$B$55:$B$72</c:f>
               <c:strCache>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
@@ -2333,7 +2908,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Por CU'!$C$58:$C$75</c:f>
+              <c:f>'Por CU'!$C$55:$C$72</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
@@ -2397,7 +2972,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Por CU'!$D$56:$D$57</c:f>
+              <c:f>'Por CU'!$D$53:$D$54</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2408,7 +2983,7 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'Por CU'!$B$58:$B$75</c:f>
+              <c:f>'Por CU'!$B$55:$B$72</c:f>
               <c:strCache>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
@@ -2467,7 +3042,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Por CU'!$D$58:$D$75</c:f>
+              <c:f>'Por CU'!$D$55:$D$72</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
@@ -2531,7 +3106,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Por CU'!$E$56:$E$57</c:f>
+              <c:f>'Por CU'!$E$53:$E$54</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2542,7 +3117,7 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'Por CU'!$B$58:$B$75</c:f>
+              <c:f>'Por CU'!$B$55:$B$72</c:f>
               <c:strCache>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
@@ -2601,7 +3176,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Por CU'!$E$58:$E$75</c:f>
+              <c:f>'Por CU'!$E$55:$E$72</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
@@ -2665,7 +3240,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Por CU'!$F$56:$F$57</c:f>
+              <c:f>'Por CU'!$F$53:$F$54</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2676,7 +3251,7 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'Por CU'!$B$58:$B$75</c:f>
+              <c:f>'Por CU'!$B$55:$B$72</c:f>
               <c:strCache>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
@@ -2735,7 +3310,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Por CU'!$F$58:$F$75</c:f>
+              <c:f>'Por CU'!$F$55:$F$72</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
@@ -2799,7 +3374,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Por CU'!$G$56:$G$57</c:f>
+              <c:f>'Por CU'!$G$53:$G$54</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2810,7 +3385,7 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'Por CU'!$B$58:$B$75</c:f>
+              <c:f>'Por CU'!$B$55:$B$72</c:f>
               <c:strCache>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
@@ -2869,7 +3444,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Por CU'!$G$58:$G$75</c:f>
+              <c:f>'Por CU'!$G$55:$G$72</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
@@ -3001,7 +3576,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Por CU'!$C$95</c:f>
+              <c:f>'Por CU'!$C$92</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3012,7 +3587,7 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'Por CU'!$B$96:$B$113</c:f>
+              <c:f>'Por CU'!$B$93:$B$110</c:f>
               <c:strCache>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
@@ -3071,7 +3646,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Por CU'!$C$96:$C$113</c:f>
+              <c:f>'Por CU'!$C$93:$C$110</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
@@ -3365,13 +3940,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>876300</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>161924</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -3395,13 +3970,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>77</xdr:row>
+      <xdr:row>74</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>91</xdr:row>
+      <xdr:row>88</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -3425,13 +4000,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>95</xdr:row>
+      <xdr:row>92</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>695326</xdr:colOff>
-      <xdr:row>110</xdr:row>
+      <xdr:row>107</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -3446,6 +4021,66 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1524000</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="6 Gráfico"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>885825</xdr:colOff>
+      <xdr:row>131</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>146</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name="10 Gráfico"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3560,19 +4195,73 @@
       </sharedItems>
     </cacheField>
     <cacheField name="Investigación" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="15"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="15" count="8">
+        <n v="13"/>
+        <n v="15"/>
+        <n v="2"/>
+        <n v="10"/>
+        <n v="8"/>
+        <n v="1"/>
+        <n v="7"/>
+        <n v="11"/>
+      </sharedItems>
     </cacheField>
     <cacheField name="Análisis" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="3" maxValue="17"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="3" maxValue="17" count="10">
+        <n v="15"/>
+        <n v="8"/>
+        <n v="12"/>
+        <n v="14"/>
+        <n v="6"/>
+        <n v="10"/>
+        <n v="17"/>
+        <n v="3"/>
+        <n v="11"/>
+        <n v="4"/>
+      </sharedItems>
     </cacheField>
     <cacheField name="Diseño" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="3" maxValue="20"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="3" maxValue="20" count="10">
+        <n v="16"/>
+        <n v="15"/>
+        <n v="12"/>
+        <n v="20"/>
+        <n v="8"/>
+        <n v="6"/>
+        <n v="10"/>
+        <n v="17"/>
+        <n v="3"/>
+        <n v="4"/>
+      </sharedItems>
     </cacheField>
     <cacheField name="Codificación" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="24" maxValue="80"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="24" maxValue="80" count="13">
+        <n v="70"/>
+        <n v="45"/>
+        <n v="75"/>
+        <n v="80"/>
+        <n v="55"/>
+        <n v="40"/>
+        <n v="35"/>
+        <n v="30"/>
+        <n v="50"/>
+        <n v="24"/>
+        <n v="32"/>
+        <n v="36"/>
+        <n v="28"/>
+      </sharedItems>
     </cacheField>
     <cacheField name="Pruebas y ajustes" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="5" maxValue="30"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="5" maxValue="30" count="8">
+        <n v="8"/>
+        <n v="10"/>
+        <n v="5"/>
+        <n v="9"/>
+        <n v="12"/>
+        <n v="15"/>
+        <n v="20"/>
+        <n v="30"/>
+      </sharedItems>
     </cacheField>
     <cacheField name="TOTAL por CU" numFmtId="0">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="51" maxValue="134"/>
@@ -3619,6 +4308,101 @@
     </cacheField>
     <cacheField name="Martín" numFmtId="0">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="2" maxValue="210"/>
+    </cacheField>
+  </cacheFields>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Martin Loureiro" refreshedDate="40988.181627777776" createdVersion="3" refreshedVersion="3" minRefreshableVersion="3" recordCount="17">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="B3:J20" sheet="Por CU"/>
+  </cacheSource>
+  <cacheFields count="9">
+    <cacheField name="Iteración" numFmtId="0">
+      <sharedItems count="3">
+        <s v="1er It"/>
+        <s v="2da It"/>
+        <s v="3er It"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="CU" numFmtId="0">
+      <sharedItems count="17">
+        <s v="CU01 - Login"/>
+        <s v="CU02 - Crear Usuario"/>
+        <s v="CU03 - Ver Perfil"/>
+        <s v="CU05 - Buscar Usuario"/>
+        <s v="CU13 - Buscar Sitio"/>
+        <s v="CU14 - Crear Sitio"/>
+        <s v="CU16 - Ver Sitio"/>
+        <s v="CU06 - Ver Solicitudes de Amistad"/>
+        <s v="CU07 - Generar Solicitud de Amistad"/>
+        <s v="CU08 - Responder Solicitud de Amistad"/>
+        <s v="CU09 - Ver Amigos"/>
+        <s v="CU12 - Invitar amigos"/>
+        <s v="CU17 - Publicar Información"/>
+        <s v="CU04 - Modificar - Eliminar Usuario"/>
+        <s v="CU10 - Ubicar Amigos - Radar"/>
+        <s v="CU11 - Compartir Ubicacion"/>
+        <s v="CU15 - Modificar - Eliminar Sitio"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Investigación" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="15" count="8">
+        <n v="13"/>
+        <n v="15"/>
+        <n v="2"/>
+        <n v="10"/>
+        <n v="8"/>
+        <n v="1"/>
+        <n v="7"/>
+        <n v="11"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Análisis" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="3" maxValue="17" count="10">
+        <n v="15"/>
+        <n v="8"/>
+        <n v="12"/>
+        <n v="14"/>
+        <n v="6"/>
+        <n v="10"/>
+        <n v="17"/>
+        <n v="3"/>
+        <n v="11"/>
+        <n v="4"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Diseño" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="3" maxValue="20" count="10">
+        <n v="16"/>
+        <n v="15"/>
+        <n v="12"/>
+        <n v="20"/>
+        <n v="8"/>
+        <n v="6"/>
+        <n v="10"/>
+        <n v="17"/>
+        <n v="3"/>
+        <n v="4"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Codificación" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="24" maxValue="80"/>
+    </cacheField>
+    <cacheField name="Pruebas y ajustes" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="5" maxValue="30"/>
+    </cacheField>
+    <cacheField name="TOTAL por CU" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="51" maxValue="134"/>
+    </cacheField>
+    <cacheField name="TOTAL por It" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="297" maxValue="745" count="4">
+        <n v="745"/>
+        <m/>
+        <n v="518"/>
+        <n v="297"/>
+      </sharedItems>
     </cacheField>
   </cacheFields>
 </pivotCacheDefinition>
@@ -3787,171 +4571,171 @@
   <r>
     <x v="0"/>
     <x v="0"/>
-    <n v="13"/>
-    <n v="15"/>
-    <n v="16"/>
-    <n v="70"/>
-    <n v="8"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
     <n v="122"/>
   </r>
   <r>
     <x v="0"/>
     <x v="1"/>
-    <n v="15"/>
-    <n v="15"/>
-    <n v="15"/>
-    <n v="70"/>
-    <n v="10"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
     <n v="125"/>
   </r>
   <r>
     <x v="0"/>
     <x v="2"/>
-    <n v="2"/>
-    <n v="8"/>
-    <n v="12"/>
-    <n v="45"/>
-    <n v="5"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="2"/>
     <n v="72"/>
   </r>
   <r>
     <x v="0"/>
     <x v="3"/>
-    <n v="15"/>
-    <n v="12"/>
-    <n v="15"/>
-    <n v="75"/>
-    <n v="8"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="0"/>
     <n v="125"/>
   </r>
   <r>
     <x v="0"/>
     <x v="4"/>
-    <n v="10"/>
-    <n v="15"/>
-    <n v="20"/>
-    <n v="80"/>
-    <n v="9"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="3"/>
     <n v="134"/>
   </r>
   <r>
     <x v="0"/>
     <x v="5"/>
-    <n v="8"/>
-    <n v="12"/>
-    <n v="15"/>
-    <n v="55"/>
-    <n v="5"/>
+    <x v="4"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="4"/>
+    <x v="2"/>
     <n v="95"/>
   </r>
   <r>
     <x v="0"/>
     <x v="6"/>
-    <n v="2"/>
-    <n v="8"/>
-    <n v="12"/>
-    <n v="45"/>
-    <n v="5"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="2"/>
     <n v="72"/>
   </r>
   <r>
     <x v="1"/>
     <x v="7"/>
-    <n v="10"/>
-    <n v="14"/>
-    <n v="15"/>
-    <n v="40"/>
-    <n v="10"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="1"/>
     <n v="89"/>
   </r>
   <r>
     <x v="1"/>
     <x v="8"/>
-    <n v="2"/>
-    <n v="8"/>
-    <n v="8"/>
-    <n v="35"/>
-    <n v="8"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="4"/>
+    <x v="6"/>
+    <x v="0"/>
     <n v="61"/>
   </r>
   <r>
     <x v="1"/>
     <x v="9"/>
-    <n v="2"/>
-    <n v="6"/>
-    <n v="6"/>
-    <n v="30"/>
-    <n v="10"/>
+    <x v="2"/>
+    <x v="4"/>
+    <x v="5"/>
+    <x v="7"/>
+    <x v="1"/>
     <n v="54"/>
   </r>
   <r>
     <x v="1"/>
     <x v="10"/>
-    <n v="8"/>
-    <n v="10"/>
-    <n v="12"/>
-    <n v="50"/>
-    <n v="12"/>
+    <x v="4"/>
+    <x v="5"/>
+    <x v="2"/>
+    <x v="8"/>
+    <x v="4"/>
     <n v="92"/>
   </r>
   <r>
     <x v="1"/>
     <x v="11"/>
-    <n v="10"/>
-    <n v="8"/>
-    <n v="10"/>
-    <n v="50"/>
-    <n v="15"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="5"/>
     <n v="93"/>
   </r>
   <r>
     <x v="1"/>
     <x v="12"/>
-    <n v="10"/>
-    <n v="17"/>
-    <n v="17"/>
-    <n v="70"/>
-    <n v="15"/>
+    <x v="3"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="0"/>
+    <x v="5"/>
     <n v="129"/>
   </r>
   <r>
     <x v="2"/>
     <x v="13"/>
-    <n v="1"/>
-    <n v="3"/>
-    <n v="3"/>
-    <n v="24"/>
-    <n v="20"/>
+    <x v="5"/>
+    <x v="7"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="6"/>
     <n v="51"/>
   </r>
   <r>
     <x v="2"/>
     <x v="14"/>
-    <n v="7"/>
-    <n v="8"/>
-    <n v="8"/>
-    <n v="32"/>
-    <n v="30"/>
+    <x v="6"/>
+    <x v="1"/>
+    <x v="4"/>
+    <x v="10"/>
+    <x v="7"/>
     <n v="85"/>
   </r>
   <r>
     <x v="2"/>
     <x v="15"/>
-    <n v="11"/>
-    <n v="11"/>
-    <n v="15"/>
-    <n v="36"/>
-    <n v="30"/>
+    <x v="7"/>
+    <x v="8"/>
+    <x v="1"/>
+    <x v="11"/>
+    <x v="7"/>
     <n v="103"/>
   </r>
   <r>
     <x v="2"/>
     <x v="16"/>
-    <n v="2"/>
-    <n v="4"/>
-    <n v="4"/>
-    <n v="28"/>
-    <n v="20"/>
+    <x v="2"/>
+    <x v="9"/>
+    <x v="9"/>
+    <x v="12"/>
+    <x v="6"/>
     <n v="58"/>
   </r>
 </pivotCacheRecords>
@@ -4295,6 +5079,198 @@
 </pivotCacheRecords>
 </file>
 
+<file path=xl/pivotCache/pivotCacheRecords4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="17">
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="70"/>
+    <n v="8"/>
+    <n v="122"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="70"/>
+    <n v="10"/>
+    <n v="125"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="45"/>
+    <n v="5"/>
+    <n v="72"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="75"/>
+    <n v="8"/>
+    <n v="125"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="3"/>
+    <n v="80"/>
+    <n v="9"/>
+    <n v="134"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+    <x v="4"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="55"/>
+    <n v="5"/>
+    <n v="95"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="45"/>
+    <n v="5"/>
+    <n v="72"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="1"/>
+    <n v="40"/>
+    <n v="10"/>
+    <n v="89"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="8"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="4"/>
+    <n v="35"/>
+    <n v="8"/>
+    <n v="61"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="9"/>
+    <x v="2"/>
+    <x v="4"/>
+    <x v="5"/>
+    <n v="30"/>
+    <n v="10"/>
+    <n v="54"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="5"/>
+    <x v="2"/>
+    <n v="50"/>
+    <n v="12"/>
+    <n v="92"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="11"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="6"/>
+    <n v="50"/>
+    <n v="15"/>
+    <n v="93"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="12"/>
+    <x v="3"/>
+    <x v="6"/>
+    <x v="7"/>
+    <n v="70"/>
+    <n v="15"/>
+    <n v="129"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="7"/>
+    <x v="8"/>
+    <n v="24"/>
+    <n v="20"/>
+    <n v="51"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="14"/>
+    <x v="6"/>
+    <x v="1"/>
+    <x v="4"/>
+    <n v="32"/>
+    <n v="30"/>
+    <n v="85"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="15"/>
+    <x v="7"/>
+    <x v="8"/>
+    <x v="1"/>
+    <n v="36"/>
+    <n v="30"/>
+    <n v="103"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="16"/>
+    <x v="2"/>
+    <x v="9"/>
+    <x v="9"/>
+    <n v="28"/>
+    <n v="20"/>
+    <n v="58"/>
+    <x v="1"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica4" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="C79:D92" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
@@ -4537,8 +5513,113 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
-  <location ref="B95:C113" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica7" cacheId="19" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="B114:F120" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="7">
+    <pivotField axis="axisCol" showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="-2"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
+    <i i="4">
+      <x v="4"/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="0"/>
+  </colFields>
+  <colItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="5">
+    <dataField name="Suma de Investigación" fld="2" baseField="0" baseItem="0"/>
+    <dataField name="Suma de Análisis" fld="3" baseField="0" baseItem="0"/>
+    <dataField name="Suma de Diseño" fld="4" baseField="0" baseItem="0"/>
+    <dataField name="Suma de Codificación" fld="5" baseField="0" baseItem="0"/>
+    <dataField name="Suma de Pruebas y ajustes" fld="6" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="3">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica1" cacheId="18" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+  <location ref="B92:C110" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField showAll="0">
       <items count="4">
@@ -4675,9 +5756,9 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica2" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="B29:H34" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica2" cacheId="18" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="B26:H31" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField axis="axisRow" showAll="0">
       <items count="4">
@@ -4803,9 +5884,9 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica3" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="B56:G75" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica3" cacheId="19" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="B53:G72" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField showAll="0"/>
     <pivotField axis="axisRow" showAll="0">
@@ -4969,6 +6050,144 @@
       </pivotArea>
     </chartFormat>
   </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica10" cacheId="27" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="C8:G14" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="9">
+    <pivotField axis="axisCol" showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="18">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="13"/>
+        <item x="3"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="11"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="16"/>
+        <item x="6"/>
+        <item x="12"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0">
+      <items count="9">
+        <item x="5"/>
+        <item x="2"/>
+        <item x="6"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="7"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0">
+      <items count="11">
+        <item x="7"/>
+        <item x="9"/>
+        <item x="4"/>
+        <item x="1"/>
+        <item x="5"/>
+        <item x="8"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="0"/>
+        <item x="6"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0">
+      <items count="11">
+        <item x="8"/>
+        <item x="9"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="6"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item x="7"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="5">
+        <item x="3"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="-2"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
+    <i i="4">
+      <x v="4"/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="0"/>
+  </colFields>
+  <colItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="5">
+    <dataField name="Suma de Investigación" fld="2" baseField="0" baseItem="0"/>
+    <dataField name="Suma de Análisis" fld="3" baseField="0" baseItem="0"/>
+    <dataField name="Suma de Diseño" fld="4" baseField="0" baseItem="0"/>
+    <dataField name="Suma de Codificación" fld="5" baseField="0" baseItem="0"/>
+    <dataField name="Suma de Pruebas y ajustes" fld="6" baseField="0" baseItem="0"/>
+  </dataFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
 </pivotTableDefinition>
 </file>
@@ -5323,8 +6542,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AW301"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="L138" sqref="L138"/>
+    <sheetView topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="B121" sqref="B121:B123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="15"/>
@@ -6599,26 +7818,26 @@
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="1"/>
-      <c r="C81" s="21" t="s">
+      <c r="C81" s="22" t="s">
         <v>39</v>
       </c>
       <c r="D81" s="12">
         <v>236</v>
       </c>
-      <c r="E81" s="22">
+      <c r="E81" s="23">
         <f>GETPIVOTDATA("Horas",$C$79,"Etapa","Etapa 1","Tipo","Documentación")/GETPIVOTDATA("Horas",$C$79,"Etapa","Etapa 1")</f>
         <v>0.32373113854595337</v>
       </c>
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="1"/>
-      <c r="C82" s="21" t="s">
+      <c r="C82" s="22" t="s">
         <v>71</v>
       </c>
       <c r="D82" s="12">
         <v>493</v>
       </c>
-      <c r="E82" s="22">
+      <c r="E82" s="23">
         <f>GETPIVOTDATA("Horas",$C$79,"Etapa","Etapa 1","Tipo","Investigación")/GETPIVOTDATA("Horas",$C$79,"Etapa","Etapa 1")</f>
         <v>0.67626886145404663</v>
       </c>
@@ -6631,69 +7850,69 @@
       <c r="D83" s="12">
         <v>1560</v>
       </c>
-      <c r="E83" s="22"/>
+      <c r="E83" s="23"/>
     </row>
     <row r="84" spans="1:5">
       <c r="A84" s="1"/>
-      <c r="C84" s="21" t="s">
+      <c r="C84" s="22" t="s">
         <v>29</v>
       </c>
       <c r="D84" s="12">
         <v>174</v>
       </c>
-      <c r="E84" s="22">
+      <c r="E84" s="23">
         <f>GETPIVOTDATA("Horas",$C$79,"Etapa","Etapa 2","Tipo","Analisis")/GETPIVOTDATA("Horas",$C$79,"Etapa","Etapa 2")</f>
         <v>0.11153846153846154</v>
       </c>
     </row>
     <row r="85" spans="1:5">
       <c r="A85" s="1"/>
-      <c r="C85" s="21" t="s">
+      <c r="C85" s="22" t="s">
         <v>33</v>
       </c>
       <c r="D85" s="12">
         <v>835</v>
       </c>
-      <c r="E85" s="22">
+      <c r="E85" s="23">
         <f>GETPIVOTDATA("Horas",$C$79,"Etapa","Etapa 2","Tipo","Codificación")/GETPIVOTDATA("Horas",$C$79,"Etapa","Etapa 2")</f>
         <v>0.53525641025641024</v>
       </c>
     </row>
     <row r="86" spans="1:5">
       <c r="A86" s="1"/>
-      <c r="C86" s="21" t="s">
+      <c r="C86" s="22" t="s">
         <v>32</v>
       </c>
       <c r="D86" s="12">
         <v>203</v>
       </c>
-      <c r="E86" s="22">
+      <c r="E86" s="23">
         <f>GETPIVOTDATA("Horas",$C$79,"Etapa","Etapa 2","Tipo","Diseño")/GETPIVOTDATA("Horas",$C$79,"Etapa","Etapa 2")</f>
         <v>0.13012820512820514</v>
       </c>
     </row>
     <row r="87" spans="1:5">
       <c r="A87" s="1"/>
-      <c r="C87" s="21" t="s">
+      <c r="C87" s="22" t="s">
         <v>71</v>
       </c>
       <c r="D87" s="12">
         <v>128</v>
       </c>
-      <c r="E87" s="22">
+      <c r="E87" s="23">
         <f>GETPIVOTDATA("Horas",$C$79,"Etapa","Etapa 2","Tipo","Investigación")/GETPIVOTDATA("Horas",$C$79,"Etapa","Etapa 2")</f>
         <v>8.2051282051282051E-2</v>
       </c>
     </row>
     <row r="88" spans="1:5">
       <c r="A88" s="1"/>
-      <c r="C88" s="21" t="s">
+      <c r="C88" s="22" t="s">
         <v>26</v>
       </c>
       <c r="D88" s="12">
         <v>220</v>
       </c>
-      <c r="E88" s="22">
+      <c r="E88" s="23">
         <f>GETPIVOTDATA("Horas",$C$79,"Etapa","Etapa 2","Tipo","Pruebas")/GETPIVOTDATA("Horas",$C$79,"Etapa","Etapa 2")</f>
         <v>0.14102564102564102</v>
       </c>
@@ -6706,30 +7925,30 @@
       <c r="D89" s="12">
         <v>543</v>
       </c>
-      <c r="E89" s="22"/>
+      <c r="E89" s="23"/>
     </row>
     <row r="90" spans="1:5">
       <c r="A90" s="1"/>
-      <c r="C90" s="21" t="s">
+      <c r="C90" s="22" t="s">
         <v>39</v>
       </c>
       <c r="D90" s="12">
         <v>363</v>
       </c>
-      <c r="E90" s="22">
+      <c r="E90" s="23">
         <f>GETPIVOTDATA("Horas",$C$79,"Etapa","Etapa 3","Tipo","Documentación")/GETPIVOTDATA("Horas",$C$79,"Etapa","Etapa 3")</f>
         <v>0.66850828729281764</v>
       </c>
     </row>
     <row r="91" spans="1:5">
       <c r="A91" s="1"/>
-      <c r="C91" s="21" t="s">
+      <c r="C91" s="22" t="s">
         <v>26</v>
       </c>
       <c r="D91" s="12">
         <v>180</v>
       </c>
-      <c r="E91" s="22">
+      <c r="E91" s="23">
         <f>GETPIVOTDATA("Horas",$C$79,"Etapa","Etapa 3","Tipo","Pruebas")/GETPIVOTDATA("Horas",$C$79,"Etapa","Etapa 3")</f>
         <v>0.33149171270718231</v>
       </c>
@@ -6774,10 +7993,10 @@
       <c r="C97" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D97" s="21" t="s">
+      <c r="D97" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="E97" s="22">
+      <c r="E97" s="23">
         <f>GETPIVOTDATA("Horas",$C$79,"Etapa","Etapa 1","Tipo","Documentación")/GETPIVOTDATA("Horas",$C$79,"Etapa","Etapa 1")</f>
         <v>0.32373113854595337</v>
       </c>
@@ -6787,10 +8006,10 @@
       <c r="C98" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D98" s="21" t="s">
+      <c r="D98" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="E98" s="22">
+      <c r="E98" s="23">
         <f>GETPIVOTDATA("Horas",$C$79,"Etapa","Etapa 1","Tipo","Investigación")/GETPIVOTDATA("Horas",$C$79,"Etapa","Etapa 1")</f>
         <v>0.67626886145404663</v>
       </c>
@@ -6800,10 +8019,10 @@
       <c r="C99" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="D99" s="21" t="s">
+      <c r="D99" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="E99" s="22">
+      <c r="E99" s="23">
         <f>GETPIVOTDATA("Horas",$C$79,"Etapa","Etapa 2","Tipo","Analisis")/GETPIVOTDATA("Horas",$C$79,"Etapa","Etapa 2")</f>
         <v>0.11153846153846154</v>
       </c>
@@ -6813,10 +8032,10 @@
       <c r="C100" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="D100" s="21" t="s">
+      <c r="D100" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="E100" s="22">
+      <c r="E100" s="23">
         <f>GETPIVOTDATA("Horas",$C$79,"Etapa","Etapa 2","Tipo","Codificación")/GETPIVOTDATA("Horas",$C$79,"Etapa","Etapa 2")</f>
         <v>0.53525641025641024</v>
       </c>
@@ -6826,10 +8045,10 @@
       <c r="C101" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="D101" s="21" t="s">
+      <c r="D101" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="E101" s="22">
+      <c r="E101" s="23">
         <f>GETPIVOTDATA("Horas",$C$79,"Etapa","Etapa 2","Tipo","Diseño")/GETPIVOTDATA("Horas",$C$79,"Etapa","Etapa 2")</f>
         <v>0.13012820512820514</v>
       </c>
@@ -6839,10 +8058,10 @@
       <c r="C102" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="D102" s="21" t="s">
+      <c r="D102" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="E102" s="22">
+      <c r="E102" s="23">
         <f>GETPIVOTDATA("Horas",$C$79,"Etapa","Etapa 2","Tipo","Investigación")/GETPIVOTDATA("Horas",$C$79,"Etapa","Etapa 2")</f>
         <v>8.2051282051282051E-2</v>
       </c>
@@ -6852,10 +8071,10 @@
       <c r="C103" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D103" s="21" t="s">
+      <c r="D103" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="E103" s="22">
+      <c r="E103" s="23">
         <f>GETPIVOTDATA("Horas",$C$79,"Etapa","Etapa 2","Tipo","Pruebas")/GETPIVOTDATA("Horas",$C$79,"Etapa","Etapa 2")</f>
         <v>0.14102564102564102</v>
       </c>
@@ -6865,10 +8084,10 @@
       <c r="C104" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D104" s="21" t="s">
+      <c r="D104" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="E104" s="22">
+      <c r="E104" s="23">
         <f>GETPIVOTDATA("Horas",$C$79,"Etapa","Etapa 3","Tipo","Documentación")/GETPIVOTDATA("Horas",$C$79,"Etapa","Etapa 3")</f>
         <v>0.66850828729281764</v>
       </c>
@@ -6878,10 +8097,10 @@
       <c r="C105" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D105" s="21" t="s">
+      <c r="D105" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="E105" s="22">
+      <c r="E105" s="23">
         <f>GETPIVOTDATA("Horas",$C$79,"Etapa","Etapa 3","Tipo","Pruebas")/GETPIVOTDATA("Horas",$C$79,"Etapa","Etapa 3")</f>
         <v>0.33149171270718231</v>
       </c>
@@ -6910,13 +8129,13 @@
     </row>
     <row r="108" spans="1:6">
       <c r="A108" s="1"/>
-      <c r="B108" s="21" t="s">
+      <c r="B108" s="22" t="s">
         <v>39</v>
       </c>
       <c r="C108" s="2">
         <v>0</v>
       </c>
-      <c r="D108" s="22">
+      <c r="D108" s="23">
         <v>0.32</v>
       </c>
       <c r="E108" s="2">
@@ -6928,13 +8147,13 @@
     </row>
     <row r="109" spans="1:6">
       <c r="A109" s="1"/>
-      <c r="B109" s="21" t="s">
+      <c r="B109" s="22" t="s">
         <v>71</v>
       </c>
       <c r="C109" s="2">
         <v>0</v>
       </c>
-      <c r="D109" s="22">
+      <c r="D109" s="23">
         <v>0.68</v>
       </c>
       <c r="E109" s="2">
@@ -6946,7 +8165,7 @@
     </row>
     <row r="110" spans="1:6">
       <c r="A110" s="1"/>
-      <c r="B110" s="21" t="s">
+      <c r="B110" s="22" t="s">
         <v>29</v>
       </c>
       <c r="C110" s="2">
@@ -6964,7 +8183,7 @@
     </row>
     <row r="111" spans="1:6">
       <c r="A111" s="1"/>
-      <c r="B111" s="21" t="s">
+      <c r="B111" s="22" t="s">
         <v>33</v>
       </c>
       <c r="C111" s="2">
@@ -6982,7 +8201,7 @@
     </row>
     <row r="112" spans="1:6">
       <c r="A112" s="1"/>
-      <c r="B112" s="21" t="s">
+      <c r="B112" s="22" t="s">
         <v>32</v>
       </c>
       <c r="C112" s="2">
@@ -7000,7 +8219,7 @@
     </row>
     <row r="113" spans="1:6">
       <c r="A113" s="1"/>
-      <c r="B113" s="21" t="s">
+      <c r="B113" s="22" t="s">
         <v>26</v>
       </c>
       <c r="C113" s="2">
@@ -7054,13 +8273,13 @@
     </row>
     <row r="121" spans="1:6">
       <c r="A121" s="1"/>
-      <c r="B121" s="21" t="s">
+      <c r="B121" s="22" t="s">
         <v>39</v>
       </c>
       <c r="C121" s="2">
         <v>0</v>
       </c>
-      <c r="D121" s="22">
+      <c r="D121" s="23">
         <v>0.32</v>
       </c>
       <c r="E121" s="2">
@@ -7072,13 +8291,13 @@
     </row>
     <row r="122" spans="1:6">
       <c r="A122" s="1"/>
-      <c r="B122" s="21" t="s">
+      <c r="B122" s="22" t="s">
         <v>71</v>
       </c>
       <c r="C122" s="2">
         <v>0</v>
       </c>
-      <c r="D122" s="22">
+      <c r="D122" s="23">
         <v>0.68</v>
       </c>
       <c r="E122" s="2">
@@ -7090,7 +8309,7 @@
     </row>
     <row r="123" spans="1:6">
       <c r="A123" s="1"/>
-      <c r="B123" s="21" t="s">
+      <c r="B123" s="22" t="s">
         <v>82</v>
       </c>
       <c r="C123" s="2">
@@ -7108,15 +8327,15 @@
     </row>
     <row r="124" spans="1:6">
       <c r="A124" s="1"/>
-      <c r="B124" s="21"/>
+      <c r="B124" s="22"/>
     </row>
     <row r="125" spans="1:6">
       <c r="A125" s="1"/>
-      <c r="B125" s="21"/>
+      <c r="B125" s="22"/>
     </row>
     <row r="126" spans="1:6">
       <c r="A126" s="1"/>
-      <c r="B126" s="21"/>
+      <c r="B126" s="22"/>
     </row>
     <row r="127" spans="1:6">
       <c r="A127" s="1"/>
@@ -7652,24 +8871,33 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B3:J130"/>
+  <dimension ref="B3:R156"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="A129" workbookViewId="0">
+      <selection activeCell="B142" sqref="B142:B145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.5703125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="34.42578125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="22.85546875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="16.85546875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="15.85546875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="21.28515625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="25.85546875" style="2" customWidth="1"/>
-    <col min="8" max="8" width="22.85546875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="15.5703125" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="10.5703125" style="2"/>
+    <col min="2" max="2" width="24.28515625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="8.28515625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="7.5703125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="18.5703125" style="2" customWidth="1"/>
+    <col min="9" max="10" width="22" style="2" customWidth="1"/>
+    <col min="11" max="11" width="27.28515625" style="2" customWidth="1"/>
+    <col min="12" max="12" width="21.28515625" style="2" customWidth="1"/>
+    <col min="13" max="13" width="22.140625" style="2" customWidth="1"/>
+    <col min="14" max="16" width="25.85546875" style="2" customWidth="1"/>
+    <col min="17" max="17" width="27.28515625" style="2" customWidth="1"/>
+    <col min="18" max="18" width="26.5703125" style="2" customWidth="1"/>
+    <col min="19" max="19" width="21.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="22.140625" style="2" customWidth="1"/>
+    <col min="21" max="21" width="31.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="10.5703125" style="2"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:10" ht="15.75">
@@ -8212,422 +9440,422 @@
       </c>
     </row>
     <row r="23" spans="2:10">
-      <c r="C23" s="2">
-        <v>1</v>
-      </c>
-      <c r="D23" s="2">
-        <v>65</v>
-      </c>
-      <c r="E23" s="2">
-        <v>85</v>
-      </c>
-      <c r="F23" s="2">
-        <v>105</v>
-      </c>
-      <c r="G23" s="2">
-        <v>440</v>
-      </c>
-      <c r="H23" s="2">
-        <v>50</v>
-      </c>
+      <c r="B23"/>
+      <c r="C23"/>
+      <c r="D23"/>
     </row>
     <row r="24" spans="2:10">
-      <c r="C24" s="2">
-        <v>2</v>
-      </c>
-      <c r="D24" s="2">
-        <v>42</v>
-      </c>
-      <c r="E24" s="2">
-        <v>63</v>
-      </c>
-      <c r="F24" s="2">
-        <v>68</v>
-      </c>
-      <c r="G24" s="2">
-        <v>275</v>
-      </c>
-      <c r="H24" s="2">
-        <v>70</v>
-      </c>
+      <c r="B24"/>
+      <c r="C24"/>
+      <c r="D24"/>
     </row>
     <row r="25" spans="2:10">
-      <c r="C25" s="2">
-        <v>3</v>
-      </c>
-      <c r="D25" s="2">
-        <v>21</v>
-      </c>
-      <c r="E25" s="2">
-        <v>26</v>
-      </c>
-      <c r="F25" s="2">
-        <v>30</v>
-      </c>
-      <c r="G25" s="2">
-        <v>120</v>
-      </c>
-      <c r="H25" s="2">
-        <v>100</v>
-      </c>
+      <c r="B25"/>
+      <c r="C25"/>
+      <c r="D25"/>
     </row>
     <row r="26" spans="2:10">
       <c r="B26"/>
-      <c r="C26"/>
+      <c r="C26" s="10" t="s">
+        <v>74</v>
+      </c>
       <c r="D26"/>
+      <c r="E26"/>
+      <c r="F26"/>
+      <c r="G26"/>
+      <c r="H26"/>
     </row>
     <row r="27" spans="2:10">
-      <c r="B27"/>
-      <c r="C27"/>
-      <c r="D27"/>
+      <c r="B27" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C27" t="s">
+        <v>73</v>
+      </c>
+      <c r="D27" t="s">
+        <v>75</v>
+      </c>
+      <c r="E27" t="s">
+        <v>76</v>
+      </c>
+      <c r="F27" t="s">
+        <v>77</v>
+      </c>
+      <c r="G27" t="s">
+        <v>78</v>
+      </c>
+      <c r="H27" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="28" spans="2:10">
-      <c r="B28"/>
-      <c r="C28"/>
-      <c r="D28"/>
+      <c r="B28" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C28" s="12">
+        <v>65</v>
+      </c>
+      <c r="D28" s="12">
+        <v>85</v>
+      </c>
+      <c r="E28" s="12">
+        <v>105</v>
+      </c>
+      <c r="F28" s="12">
+        <v>440</v>
+      </c>
+      <c r="G28" s="12">
+        <v>50</v>
+      </c>
+      <c r="H28" s="12">
+        <v>745</v>
+      </c>
     </row>
     <row r="29" spans="2:10">
-      <c r="B29"/>
-      <c r="C29" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="D29"/>
-      <c r="E29"/>
-      <c r="F29"/>
-      <c r="G29"/>
-      <c r="H29"/>
+      <c r="B29" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C29" s="12">
+        <v>42</v>
+      </c>
+      <c r="D29" s="12">
+        <v>63</v>
+      </c>
+      <c r="E29" s="12">
+        <v>68</v>
+      </c>
+      <c r="F29" s="12">
+        <v>275</v>
+      </c>
+      <c r="G29" s="12">
+        <v>70</v>
+      </c>
+      <c r="H29" s="12">
+        <v>518</v>
+      </c>
     </row>
     <row r="30" spans="2:10">
-      <c r="B30" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="C30" t="s">
-        <v>73</v>
-      </c>
-      <c r="D30" t="s">
-        <v>75</v>
-      </c>
-      <c r="E30" t="s">
-        <v>76</v>
-      </c>
-      <c r="F30" t="s">
-        <v>77</v>
-      </c>
-      <c r="G30" t="s">
-        <v>78</v>
-      </c>
-      <c r="H30" t="s">
-        <v>79</v>
+      <c r="B30" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="C30" s="12">
+        <v>21</v>
+      </c>
+      <c r="D30" s="12">
+        <v>26</v>
+      </c>
+      <c r="E30" s="12">
+        <v>30</v>
+      </c>
+      <c r="F30" s="12">
+        <v>120</v>
+      </c>
+      <c r="G30" s="12">
+        <v>100</v>
+      </c>
+      <c r="H30" s="12">
+        <v>297</v>
       </c>
     </row>
     <row r="31" spans="2:10">
       <c r="B31" s="11" t="s">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="C31" s="12">
-        <v>65</v>
+        <v>128</v>
       </c>
       <c r="D31" s="12">
-        <v>85</v>
+        <v>174</v>
       </c>
       <c r="E31" s="12">
-        <v>105</v>
+        <v>203</v>
       </c>
       <c r="F31" s="12">
-        <v>440</v>
+        <v>835</v>
       </c>
       <c r="G31" s="12">
-        <v>50</v>
+        <v>220</v>
       </c>
       <c r="H31" s="12">
-        <v>745</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="32" spans="2:10">
-      <c r="B32" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="C32" s="12">
-        <v>42</v>
-      </c>
-      <c r="D32" s="12">
-        <v>63</v>
-      </c>
-      <c r="E32" s="12">
-        <v>68</v>
-      </c>
-      <c r="F32" s="12">
-        <v>275</v>
-      </c>
-      <c r="G32" s="12">
-        <v>70</v>
-      </c>
-      <c r="H32" s="12">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="33" spans="2:8">
-      <c r="B33" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="C33" s="12">
-        <v>21</v>
-      </c>
-      <c r="D33" s="12">
-        <v>26</v>
-      </c>
-      <c r="E33" s="12">
-        <v>30</v>
-      </c>
-      <c r="F33" s="12">
-        <v>120</v>
-      </c>
-      <c r="G33" s="12">
-        <v>100</v>
-      </c>
-      <c r="H33" s="12">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="34" spans="2:8">
-      <c r="B34" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="C34" s="12">
-        <v>128</v>
-      </c>
-      <c r="D34" s="12">
-        <v>174</v>
-      </c>
-      <c r="E34" s="12">
-        <v>203</v>
-      </c>
-      <c r="F34" s="12">
-        <v>835</v>
-      </c>
-      <c r="G34" s="12">
-        <v>220</v>
-      </c>
-      <c r="H34" s="12">
-        <v>1560</v>
-      </c>
-    </row>
-    <row r="35" spans="2:8">
+      <c r="B32"/>
+      <c r="C32"/>
+      <c r="D32"/>
+    </row>
+    <row r="33" spans="2:4">
+      <c r="B33"/>
+      <c r="C33"/>
+      <c r="D33"/>
+    </row>
+    <row r="34" spans="2:4">
+      <c r="B34"/>
+      <c r="C34"/>
+      <c r="D34"/>
+    </row>
+    <row r="35" spans="2:4">
       <c r="B35"/>
       <c r="C35"/>
       <c r="D35"/>
     </row>
-    <row r="36" spans="2:8">
+    <row r="36" spans="2:4">
       <c r="B36"/>
       <c r="C36"/>
       <c r="D36"/>
     </row>
-    <row r="37" spans="2:8">
+    <row r="37" spans="2:4">
       <c r="B37"/>
       <c r="C37"/>
       <c r="D37"/>
     </row>
-    <row r="38" spans="2:8">
+    <row r="38" spans="2:4">
       <c r="B38"/>
       <c r="C38"/>
       <c r="D38"/>
     </row>
-    <row r="39" spans="2:8">
+    <row r="39" spans="2:4">
       <c r="B39"/>
       <c r="C39"/>
       <c r="D39"/>
     </row>
-    <row r="40" spans="2:8">
+    <row r="40" spans="2:4">
       <c r="B40"/>
       <c r="C40"/>
       <c r="D40"/>
     </row>
-    <row r="41" spans="2:8">
+    <row r="41" spans="2:4">
       <c r="B41"/>
       <c r="C41"/>
       <c r="D41"/>
     </row>
-    <row r="42" spans="2:8">
+    <row r="42" spans="2:4">
       <c r="B42"/>
       <c r="C42"/>
       <c r="D42"/>
     </row>
-    <row r="43" spans="2:8">
+    <row r="43" spans="2:4">
       <c r="B43"/>
       <c r="C43"/>
       <c r="D43"/>
     </row>
-    <row r="44" spans="2:8">
-      <c r="B44"/>
-      <c r="C44"/>
-      <c r="D44"/>
-    </row>
-    <row r="45" spans="2:8">
-      <c r="B45"/>
-      <c r="C45"/>
-      <c r="D45"/>
-    </row>
-    <row r="46" spans="2:8">
-      <c r="B46"/>
-      <c r="C46"/>
-      <c r="D46"/>
+    <row r="53" spans="2:7">
+      <c r="B53"/>
+      <c r="C53" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="D53"/>
+      <c r="E53"/>
+      <c r="F53"/>
+      <c r="G53"/>
+    </row>
+    <row r="54" spans="2:7">
+      <c r="B54" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C54" t="s">
+        <v>73</v>
+      </c>
+      <c r="D54" t="s">
+        <v>75</v>
+      </c>
+      <c r="E54" t="s">
+        <v>76</v>
+      </c>
+      <c r="F54" t="s">
+        <v>77</v>
+      </c>
+      <c r="G54" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="55" spans="2:7">
+      <c r="B55" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C55" s="12">
+        <v>13</v>
+      </c>
+      <c r="D55" s="12">
+        <v>15</v>
+      </c>
+      <c r="E55" s="12">
+        <v>16</v>
+      </c>
+      <c r="F55" s="12">
+        <v>70</v>
+      </c>
+      <c r="G55" s="12">
+        <v>8</v>
+      </c>
     </row>
     <row r="56" spans="2:7">
-      <c r="B56"/>
-      <c r="C56" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="D56"/>
-      <c r="E56"/>
-      <c r="F56"/>
-      <c r="G56"/>
+      <c r="B56" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C56" s="12">
+        <v>15</v>
+      </c>
+      <c r="D56" s="12">
+        <v>15</v>
+      </c>
+      <c r="E56" s="12">
+        <v>15</v>
+      </c>
+      <c r="F56" s="12">
+        <v>70</v>
+      </c>
+      <c r="G56" s="12">
+        <v>10</v>
+      </c>
     </row>
     <row r="57" spans="2:7">
-      <c r="B57" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="C57" t="s">
-        <v>73</v>
-      </c>
-      <c r="D57" t="s">
-        <v>75</v>
-      </c>
-      <c r="E57" t="s">
-        <v>76</v>
-      </c>
-      <c r="F57" t="s">
-        <v>77</v>
-      </c>
-      <c r="G57" t="s">
-        <v>78</v>
+      <c r="B57" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C57" s="12">
+        <v>2</v>
+      </c>
+      <c r="D57" s="12">
+        <v>8</v>
+      </c>
+      <c r="E57" s="12">
+        <v>12</v>
+      </c>
+      <c r="F57" s="12">
+        <v>45</v>
+      </c>
+      <c r="G57" s="12">
+        <v>5</v>
       </c>
     </row>
     <row r="58" spans="2:7">
       <c r="B58" s="11" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="C58" s="12">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D58" s="12">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E58" s="12">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="F58" s="12">
-        <v>70</v>
+        <v>24</v>
       </c>
       <c r="G58" s="12">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="59" spans="2:7">
       <c r="B59" s="11" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C59" s="12">
         <v>15</v>
       </c>
       <c r="D59" s="12">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E59" s="12">
         <v>15</v>
       </c>
       <c r="F59" s="12">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="G59" s="12">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="60" spans="2:7">
       <c r="B60" s="11" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="C60" s="12">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D60" s="12">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E60" s="12">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F60" s="12">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G60" s="12">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="61" spans="2:7">
       <c r="B61" s="11" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C61" s="12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D61" s="12">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E61" s="12">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F61" s="12">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="G61" s="12">
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
     <row r="62" spans="2:7">
       <c r="B62" s="11" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="C62" s="12">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="D62" s="12">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E62" s="12">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="F62" s="12">
-        <v>75</v>
+        <v>30</v>
       </c>
       <c r="G62" s="12">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="63" spans="2:7">
       <c r="B63" s="11" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C63" s="12">
+        <v>8</v>
+      </c>
+      <c r="D63" s="12">
         <v>10</v>
       </c>
-      <c r="D63" s="12">
-        <v>14</v>
-      </c>
       <c r="E63" s="12">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F63" s="12">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G63" s="12">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="64" spans="2:7">
       <c r="B64" s="11" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="C64" s="12">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D64" s="12">
         <v>8</v>
@@ -8636,253 +9864,220 @@
         <v>8</v>
       </c>
       <c r="F64" s="12">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G64" s="12">
-        <v>8</v>
+        <v>30</v>
       </c>
     </row>
     <row r="65" spans="2:7">
       <c r="B65" s="11" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="C65" s="12">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D65" s="12">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E65" s="12">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="F65" s="12">
+        <v>36</v>
+      </c>
+      <c r="G65" s="12">
         <v>30</v>
-      </c>
-      <c r="G65" s="12">
-        <v>10</v>
       </c>
     </row>
     <row r="66" spans="2:7">
       <c r="B66" s="11" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C66" s="12">
+        <v>10</v>
+      </c>
+      <c r="D66" s="12">
         <v>8</v>
       </c>
-      <c r="D66" s="12">
+      <c r="E66" s="12">
         <v>10</v>
-      </c>
-      <c r="E66" s="12">
-        <v>12</v>
       </c>
       <c r="F66" s="12">
         <v>50</v>
       </c>
       <c r="G66" s="12">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="67" spans="2:7">
       <c r="B67" s="11" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="C67" s="12">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D67" s="12">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E67" s="12">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="F67" s="12">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="G67" s="12">
-        <v>30</v>
+        <v>9</v>
       </c>
     </row>
     <row r="68" spans="2:7">
       <c r="B68" s="11" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="C68" s="12">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D68" s="12">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E68" s="12">
         <v>15</v>
       </c>
       <c r="F68" s="12">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="G68" s="12">
-        <v>30</v>
+        <v>5</v>
       </c>
     </row>
     <row r="69" spans="2:7">
       <c r="B69" s="11" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="C69" s="12">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D69" s="12">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E69" s="12">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F69" s="12">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="G69" s="12">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="70" spans="2:7">
       <c r="B70" s="11" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C70" s="12">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D70" s="12">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E70" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F70" s="12">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="G70" s="12">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="71" spans="2:7">
       <c r="B71" s="11" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="C71" s="12">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D71" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E71" s="12">
+        <v>17</v>
+      </c>
+      <c r="F71" s="12">
+        <v>70</v>
+      </c>
+      <c r="G71" s="12">
         <v>15</v>
-      </c>
-      <c r="F71" s="12">
-        <v>55</v>
-      </c>
-      <c r="G71" s="12">
-        <v>5</v>
       </c>
     </row>
     <row r="72" spans="2:7">
       <c r="B72" s="11" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C72" s="12">
-        <v>2</v>
+        <v>128</v>
       </c>
       <c r="D72" s="12">
-        <v>4</v>
+        <v>174</v>
       </c>
       <c r="E72" s="12">
-        <v>4</v>
+        <v>203</v>
       </c>
       <c r="F72" s="12">
-        <v>28</v>
+        <v>835</v>
       </c>
       <c r="G72" s="12">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="73" spans="2:7">
-      <c r="B73" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="C73" s="12">
-        <v>2</v>
-      </c>
-      <c r="D73" s="12">
-        <v>8</v>
-      </c>
-      <c r="E73" s="12">
-        <v>12</v>
-      </c>
-      <c r="F73" s="12">
-        <v>45</v>
-      </c>
-      <c r="G73" s="12">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="74" spans="2:7">
-      <c r="B74" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="C74" s="12">
-        <v>10</v>
-      </c>
-      <c r="D74" s="12">
-        <v>17</v>
-      </c>
-      <c r="E74" s="12">
-        <v>17</v>
-      </c>
-      <c r="F74" s="12">
-        <v>70</v>
-      </c>
-      <c r="G74" s="12">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="75" spans="2:7">
-      <c r="B75" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="C75" s="12">
-        <v>128</v>
-      </c>
-      <c r="D75" s="12">
-        <v>174</v>
-      </c>
-      <c r="E75" s="12">
-        <v>203</v>
-      </c>
-      <c r="F75" s="12">
-        <v>835</v>
-      </c>
-      <c r="G75" s="12">
         <v>220</v>
       </c>
     </row>
+    <row r="92" spans="2:4">
+      <c r="B92" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C92" t="s">
+        <v>79</v>
+      </c>
+      <c r="D92"/>
+    </row>
+    <row r="93" spans="2:4">
+      <c r="B93" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C93" s="12">
+        <v>122</v>
+      </c>
+      <c r="D93"/>
+    </row>
+    <row r="94" spans="2:4">
+      <c r="B94" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C94" s="12">
+        <v>125</v>
+      </c>
+      <c r="D94"/>
+    </row>
     <row r="95" spans="2:4">
-      <c r="B95" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="C95" t="s">
-        <v>79</v>
+      <c r="B95" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C95" s="12">
+        <v>72</v>
       </c>
       <c r="D95"/>
     </row>
     <row r="96" spans="2:4">
       <c r="B96" s="11" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="C96" s="12">
-        <v>122</v>
+        <v>51</v>
       </c>
       <c r="D96"/>
     </row>
     <row r="97" spans="2:4">
       <c r="B97" s="11" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C97" s="12">
         <v>125</v>
@@ -8891,214 +10086,770 @@
     </row>
     <row r="98" spans="2:4">
       <c r="B98" s="11" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="C98" s="12">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="D98"/>
     </row>
     <row r="99" spans="2:4">
       <c r="B99" s="11" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C99" s="12">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="D99"/>
     </row>
     <row r="100" spans="2:4">
       <c r="B100" s="11" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="C100" s="12">
-        <v>125</v>
+        <v>54</v>
       </c>
       <c r="D100"/>
     </row>
     <row r="101" spans="2:4">
       <c r="B101" s="11" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C101" s="12">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D101"/>
     </row>
     <row r="102" spans="2:4">
       <c r="B102" s="11" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="C102" s="12">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="D102"/>
     </row>
     <row r="103" spans="2:4">
       <c r="B103" s="11" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="C103" s="12">
-        <v>54</v>
+        <v>103</v>
       </c>
       <c r="D103"/>
     </row>
     <row r="104" spans="2:4">
       <c r="B104" s="11" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C104" s="12">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D104"/>
     </row>
     <row r="105" spans="2:4">
       <c r="B105" s="11" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="C105" s="12">
-        <v>85</v>
+        <v>134</v>
       </c>
       <c r="D105"/>
     </row>
     <row r="106" spans="2:4">
       <c r="B106" s="11" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="C106" s="12">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="D106"/>
     </row>
     <row r="107" spans="2:4">
       <c r="B107" s="11" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="C107" s="12">
-        <v>93</v>
+        <v>58</v>
       </c>
       <c r="D107"/>
     </row>
     <row r="108" spans="2:4">
       <c r="B108" s="11" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C108" s="12">
-        <v>134</v>
+        <v>72</v>
       </c>
       <c r="D108"/>
     </row>
     <row r="109" spans="2:4">
       <c r="B109" s="11" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="C109" s="12">
-        <v>95</v>
+        <v>129</v>
       </c>
       <c r="D109"/>
     </row>
     <row r="110" spans="2:4">
       <c r="B110" s="11" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C110" s="12">
-        <v>58</v>
-      </c>
-      <c r="D110"/>
+        <v>1560</v>
+      </c>
     </row>
     <row r="111" spans="2:4">
-      <c r="B111" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="C111" s="12">
-        <v>72</v>
-      </c>
-      <c r="D111"/>
+      <c r="B111"/>
+      <c r="C111"/>
     </row>
     <row r="112" spans="2:4">
-      <c r="B112" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="C112" s="12">
-        <v>129</v>
-      </c>
-      <c r="D112"/>
-    </row>
-    <row r="113" spans="2:3">
-      <c r="B113" s="11" t="s">
+      <c r="B112"/>
+      <c r="C112"/>
+    </row>
+    <row r="113" spans="2:18">
+      <c r="B113"/>
+      <c r="C113"/>
+    </row>
+    <row r="114" spans="2:18">
+      <c r="B114"/>
+      <c r="C114" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="D114"/>
+      <c r="E114"/>
+      <c r="F114"/>
+      <c r="G114"/>
+      <c r="H114"/>
+      <c r="I114"/>
+      <c r="J114"/>
+      <c r="K114"/>
+      <c r="L114"/>
+      <c r="M114"/>
+      <c r="N114"/>
+      <c r="O114"/>
+      <c r="P114"/>
+      <c r="Q114"/>
+      <c r="R114"/>
+    </row>
+    <row r="115" spans="2:18">
+      <c r="B115" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="C115" t="s">
+        <v>47</v>
+      </c>
+      <c r="D115" t="s">
+        <v>55</v>
+      </c>
+      <c r="E115" t="s">
+        <v>62</v>
+      </c>
+      <c r="F115" t="s">
         <v>69</v>
       </c>
-      <c r="C113" s="12">
-        <v>1560</v>
-      </c>
-    </row>
-    <row r="114" spans="2:3">
-      <c r="B114"/>
-      <c r="C114"/>
-    </row>
-    <row r="115" spans="2:3">
-      <c r="B115"/>
-      <c r="C115"/>
-    </row>
-    <row r="116" spans="2:3">
-      <c r="B116"/>
-      <c r="C116"/>
-    </row>
-    <row r="117" spans="2:3">
-      <c r="B117"/>
-      <c r="C117"/>
-    </row>
-    <row r="118" spans="2:3">
-      <c r="B118"/>
-      <c r="C118"/>
-    </row>
-    <row r="119" spans="2:3">
-      <c r="B119"/>
-      <c r="C119"/>
-    </row>
-    <row r="120" spans="2:3">
-      <c r="B120"/>
-      <c r="C120"/>
-    </row>
-    <row r="121" spans="2:3">
+      <c r="G115"/>
+      <c r="H115"/>
+      <c r="I115"/>
+      <c r="J115"/>
+      <c r="K115"/>
+      <c r="L115"/>
+      <c r="M115"/>
+      <c r="N115"/>
+      <c r="O115"/>
+      <c r="P115"/>
+      <c r="Q115"/>
+      <c r="R115"/>
+    </row>
+    <row r="116" spans="2:18">
+      <c r="B116" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="C116" s="12">
+        <v>65</v>
+      </c>
+      <c r="D116" s="12">
+        <v>42</v>
+      </c>
+      <c r="E116" s="12">
+        <v>21</v>
+      </c>
+      <c r="F116" s="12">
+        <v>128</v>
+      </c>
+      <c r="G116"/>
+      <c r="H116"/>
+      <c r="I116"/>
+      <c r="J116"/>
+      <c r="K116"/>
+      <c r="L116"/>
+      <c r="M116"/>
+      <c r="N116"/>
+      <c r="O116"/>
+      <c r="P116"/>
+      <c r="Q116"/>
+      <c r="R116"/>
+    </row>
+    <row r="117" spans="2:18">
+      <c r="B117" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="C117" s="12">
+        <v>85</v>
+      </c>
+      <c r="D117" s="12">
+        <v>63</v>
+      </c>
+      <c r="E117" s="12">
+        <v>26</v>
+      </c>
+      <c r="F117" s="12">
+        <v>174</v>
+      </c>
+      <c r="G117"/>
+      <c r="H117"/>
+      <c r="I117"/>
+      <c r="J117"/>
+      <c r="K117"/>
+      <c r="L117"/>
+      <c r="M117"/>
+      <c r="N117"/>
+      <c r="O117"/>
+      <c r="P117"/>
+      <c r="Q117"/>
+      <c r="R117"/>
+    </row>
+    <row r="118" spans="2:18">
+      <c r="B118" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="C118" s="12">
+        <v>105</v>
+      </c>
+      <c r="D118" s="12">
+        <v>68</v>
+      </c>
+      <c r="E118" s="12">
+        <v>30</v>
+      </c>
+      <c r="F118" s="12">
+        <v>203</v>
+      </c>
+      <c r="G118"/>
+      <c r="H118"/>
+      <c r="I118"/>
+      <c r="J118"/>
+      <c r="K118"/>
+      <c r="L118"/>
+      <c r="M118"/>
+      <c r="N118"/>
+      <c r="O118"/>
+      <c r="P118"/>
+      <c r="Q118"/>
+      <c r="R118"/>
+    </row>
+    <row r="119" spans="2:18">
+      <c r="B119" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="C119" s="12">
+        <v>440</v>
+      </c>
+      <c r="D119" s="12">
+        <v>275</v>
+      </c>
+      <c r="E119" s="12">
+        <v>120</v>
+      </c>
+      <c r="F119" s="12">
+        <v>835</v>
+      </c>
+      <c r="G119"/>
+      <c r="H119"/>
+      <c r="I119"/>
+      <c r="J119"/>
+      <c r="K119"/>
+      <c r="L119"/>
+      <c r="M119"/>
+      <c r="N119"/>
+      <c r="O119"/>
+      <c r="P119"/>
+      <c r="Q119"/>
+      <c r="R119"/>
+    </row>
+    <row r="120" spans="2:18">
+      <c r="B120" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="C120" s="12">
+        <v>50</v>
+      </c>
+      <c r="D120" s="12">
+        <v>70</v>
+      </c>
+      <c r="E120" s="12">
+        <v>100</v>
+      </c>
+      <c r="F120" s="12">
+        <v>220</v>
+      </c>
+      <c r="G120"/>
+      <c r="H120"/>
+      <c r="I120"/>
+      <c r="J120"/>
+      <c r="K120"/>
+      <c r="L120"/>
+      <c r="M120"/>
+      <c r="N120"/>
+      <c r="O120"/>
+      <c r="P120"/>
+      <c r="Q120"/>
+      <c r="R120"/>
+    </row>
+    <row r="121" spans="2:18">
       <c r="B121"/>
       <c r="C121"/>
-    </row>
-    <row r="122" spans="2:3">
+      <c r="D121"/>
+      <c r="E121"/>
+      <c r="F121"/>
+      <c r="G121"/>
+      <c r="H121"/>
+      <c r="I121"/>
+      <c r="J121"/>
+      <c r="K121"/>
+      <c r="L121"/>
+      <c r="M121"/>
+      <c r="N121"/>
+      <c r="O121"/>
+      <c r="P121"/>
+      <c r="Q121"/>
+      <c r="R121"/>
+    </row>
+    <row r="122" spans="2:18">
       <c r="B122"/>
       <c r="C122"/>
-    </row>
-    <row r="123" spans="2:3">
+      <c r="D122"/>
+      <c r="E122"/>
+      <c r="F122"/>
+      <c r="G122"/>
+      <c r="H122"/>
+      <c r="I122"/>
+      <c r="J122"/>
+      <c r="K122"/>
+      <c r="L122"/>
+      <c r="M122"/>
+      <c r="N122"/>
+      <c r="O122"/>
+      <c r="P122"/>
+      <c r="Q122"/>
+      <c r="R122"/>
+    </row>
+    <row r="123" spans="2:18">
       <c r="B123"/>
       <c r="C123"/>
-    </row>
-    <row r="124" spans="2:3">
+      <c r="D123"/>
+      <c r="E123"/>
+      <c r="F123"/>
+      <c r="G123"/>
+      <c r="H123"/>
+      <c r="I123"/>
+      <c r="J123"/>
+      <c r="K123"/>
+      <c r="L123"/>
+      <c r="M123"/>
+      <c r="N123"/>
+    </row>
+    <row r="124" spans="2:18">
       <c r="B124"/>
       <c r="C124"/>
-    </row>
-    <row r="125" spans="2:3">
+      <c r="D124"/>
+      <c r="E124"/>
+      <c r="F124"/>
+      <c r="G124"/>
+      <c r="H124"/>
+      <c r="I124"/>
+      <c r="J124"/>
+      <c r="K124"/>
+      <c r="L124"/>
+      <c r="M124"/>
+      <c r="N124"/>
+    </row>
+    <row r="125" spans="2:18">
       <c r="B125"/>
       <c r="C125"/>
-    </row>
-    <row r="126" spans="2:3">
+      <c r="D125"/>
+      <c r="E125"/>
+      <c r="F125"/>
+      <c r="G125"/>
+      <c r="H125"/>
+      <c r="I125"/>
+      <c r="J125"/>
+      <c r="K125"/>
+      <c r="L125"/>
+      <c r="M125"/>
+      <c r="N125"/>
+    </row>
+    <row r="126" spans="2:18">
       <c r="B126"/>
       <c r="C126"/>
-    </row>
-    <row r="127" spans="2:3">
+      <c r="D126"/>
+      <c r="E126"/>
+      <c r="F126"/>
+      <c r="G126"/>
+      <c r="H126"/>
+      <c r="I126"/>
+      <c r="J126"/>
+      <c r="K126"/>
+      <c r="L126"/>
+      <c r="M126"/>
+      <c r="N126"/>
+    </row>
+    <row r="127" spans="2:18">
       <c r="B127"/>
       <c r="C127"/>
-    </row>
-    <row r="128" spans="2:3">
+      <c r="D127"/>
+      <c r="E127"/>
+      <c r="F127"/>
+      <c r="G127"/>
+      <c r="H127"/>
+      <c r="I127"/>
+      <c r="J127"/>
+      <c r="K127"/>
+      <c r="L127"/>
+      <c r="M127"/>
+      <c r="N127"/>
+    </row>
+    <row r="128" spans="2:18">
       <c r="B128"/>
       <c r="C128"/>
-    </row>
-    <row r="129" spans="2:3">
+      <c r="D128"/>
+      <c r="E128"/>
+      <c r="F128"/>
+      <c r="G128"/>
+      <c r="H128"/>
+      <c r="I128"/>
+      <c r="J128"/>
+      <c r="K128"/>
+      <c r="L128"/>
+      <c r="M128"/>
+      <c r="N128"/>
+    </row>
+    <row r="129" spans="2:10">
       <c r="B129"/>
       <c r="C129"/>
-    </row>
-    <row r="130" spans="2:3">
+      <c r="D129"/>
+      <c r="E129"/>
+      <c r="F129"/>
+      <c r="G129"/>
+      <c r="H129"/>
+      <c r="I129"/>
+      <c r="J129"/>
+    </row>
+    <row r="130" spans="2:10">
       <c r="B130"/>
       <c r="C130"/>
+      <c r="D130"/>
+      <c r="E130"/>
+      <c r="F130"/>
+      <c r="G130"/>
+      <c r="H130"/>
+      <c r="I130"/>
+      <c r="J130"/>
+    </row>
+    <row r="131" spans="2:10">
+      <c r="B131"/>
+      <c r="C131"/>
+      <c r="D131"/>
+      <c r="E131"/>
+      <c r="F131"/>
+    </row>
+    <row r="132" spans="2:10">
+      <c r="B132" t="s">
+        <v>74</v>
+      </c>
+      <c r="C132" t="s">
+        <v>47</v>
+      </c>
+      <c r="D132" t="s">
+        <v>55</v>
+      </c>
+      <c r="E132" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="133" spans="2:10">
+      <c r="B133" t="s">
+        <v>73</v>
+      </c>
+      <c r="C133">
+        <v>65</v>
+      </c>
+      <c r="D133">
+        <v>42</v>
+      </c>
+      <c r="E133">
+        <v>21</v>
+      </c>
+      <c r="F133" s="21"/>
+      <c r="H133" s="21"/>
+    </row>
+    <row r="134" spans="2:10">
+      <c r="B134" t="s">
+        <v>75</v>
+      </c>
+      <c r="C134">
+        <v>85</v>
+      </c>
+      <c r="D134">
+        <v>63</v>
+      </c>
+      <c r="E134">
+        <v>26</v>
+      </c>
+      <c r="F134" s="21"/>
+      <c r="H134" s="21"/>
+    </row>
+    <row r="135" spans="2:10">
+      <c r="B135" t="s">
+        <v>76</v>
+      </c>
+      <c r="C135">
+        <v>105</v>
+      </c>
+      <c r="D135">
+        <v>68</v>
+      </c>
+      <c r="E135">
+        <v>30</v>
+      </c>
+      <c r="F135" s="21"/>
+      <c r="H135" s="21"/>
+    </row>
+    <row r="136" spans="2:10">
+      <c r="B136" t="s">
+        <v>77</v>
+      </c>
+      <c r="C136">
+        <v>440</v>
+      </c>
+      <c r="D136">
+        <v>275</v>
+      </c>
+      <c r="E136">
+        <v>120</v>
+      </c>
+      <c r="F136" s="21"/>
+      <c r="H136" s="21"/>
+    </row>
+    <row r="137" spans="2:10">
+      <c r="B137" t="s">
+        <v>78</v>
+      </c>
+      <c r="C137">
+        <v>50</v>
+      </c>
+      <c r="D137">
+        <v>70</v>
+      </c>
+      <c r="E137">
+        <v>100</v>
+      </c>
+      <c r="F137" s="21"/>
+      <c r="H137" s="21"/>
+    </row>
+    <row r="138" spans="2:10">
+      <c r="B138" t="s">
+        <v>84</v>
+      </c>
+      <c r="C138">
+        <f>SUM(C133:C137)</f>
+        <v>745</v>
+      </c>
+      <c r="D138">
+        <f>SUM(D133:D137)</f>
+        <v>518</v>
+      </c>
+      <c r="E138">
+        <f>SUM(E133:E137)</f>
+        <v>297</v>
+      </c>
+    </row>
+    <row r="139" spans="2:10">
+      <c r="B139"/>
+      <c r="C139"/>
+      <c r="D139"/>
+      <c r="E139"/>
+      <c r="F139"/>
+    </row>
+    <row r="140" spans="2:10">
+      <c r="B140"/>
+      <c r="C140"/>
+      <c r="D140"/>
+      <c r="E140"/>
+      <c r="F140"/>
+    </row>
+    <row r="141" spans="2:10">
+      <c r="B141" t="s">
+        <v>74</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D141" t="s">
+        <v>47</v>
+      </c>
+      <c r="E141" t="s">
+        <v>55</v>
+      </c>
+      <c r="F141" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="142" spans="2:10">
+      <c r="B142" t="s">
+        <v>71</v>
+      </c>
+      <c r="C142" s="2">
+        <v>0</v>
+      </c>
+      <c r="D142" s="21">
+        <v>0.09</v>
+      </c>
+      <c r="E142">
+        <v>0.08</v>
+      </c>
+      <c r="F142">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="143" spans="2:10">
+      <c r="B143" t="s">
+        <v>86</v>
+      </c>
+      <c r="C143" s="2">
+        <v>0</v>
+      </c>
+      <c r="D143" s="21">
+        <v>0.25</v>
+      </c>
+      <c r="E143">
+        <v>0.25</v>
+      </c>
+      <c r="F143">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="144" spans="2:10">
+      <c r="B144" t="s">
+        <v>33</v>
+      </c>
+      <c r="C144" s="2">
+        <v>0</v>
+      </c>
+      <c r="D144" s="21">
+        <v>0.59</v>
+      </c>
+      <c r="E144">
+        <v>0.53</v>
+      </c>
+      <c r="F144">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="145" spans="2:6">
+      <c r="B145" t="s">
+        <v>34</v>
+      </c>
+      <c r="C145" s="2">
+        <v>0</v>
+      </c>
+      <c r="D145" s="21">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="E145">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="F145">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="146" spans="2:6">
+      <c r="B146"/>
+      <c r="C146"/>
+      <c r="D146"/>
+      <c r="E146"/>
+      <c r="F146"/>
+    </row>
+    <row r="147" spans="2:6">
+      <c r="B147"/>
+      <c r="C147"/>
+      <c r="D147"/>
+      <c r="E147"/>
+      <c r="F147"/>
+    </row>
+    <row r="148" spans="2:6">
+      <c r="B148"/>
+      <c r="C148"/>
+      <c r="D148"/>
+      <c r="E148"/>
+      <c r="F148"/>
+    </row>
+    <row r="149" spans="2:6">
+      <c r="B149"/>
+      <c r="C149"/>
+      <c r="D149"/>
+      <c r="E149"/>
+      <c r="F149"/>
+    </row>
+    <row r="150" spans="2:6">
+      <c r="B150"/>
+      <c r="C150"/>
+      <c r="D150"/>
+      <c r="E150"/>
+      <c r="F150"/>
+    </row>
+    <row r="151" spans="2:6">
+      <c r="B151"/>
+      <c r="C151"/>
+      <c r="D151"/>
+      <c r="E151"/>
+      <c r="F151"/>
+    </row>
+    <row r="152" spans="2:6">
+      <c r="B152"/>
+      <c r="C152"/>
+      <c r="D152"/>
+      <c r="E152"/>
+      <c r="F152"/>
+    </row>
+    <row r="153" spans="2:6">
+      <c r="B153"/>
+      <c r="C153"/>
+      <c r="D153"/>
+      <c r="E153"/>
+      <c r="F153"/>
+    </row>
+    <row r="154" spans="2:6">
+      <c r="B154"/>
+      <c r="C154"/>
+      <c r="D154"/>
+      <c r="E154"/>
+      <c r="F154"/>
+    </row>
+    <row r="155" spans="2:6">
+      <c r="B155"/>
+      <c r="C155"/>
+      <c r="D155"/>
+      <c r="E155"/>
+      <c r="F155"/>
+    </row>
+    <row r="156" spans="2:6">
+      <c r="B156"/>
+      <c r="C156"/>
+      <c r="D156"/>
+      <c r="E156"/>
+      <c r="F156"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
@@ -9108,22 +10859,130 @@
     <mergeCell ref="J17:J20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555551" footer="0.51180555555555551"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId4"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId5"/>
   <headerFooter alignWithMargins="0"/>
-  <drawing r:id="rId5"/>
+  <drawing r:id="rId6"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="C8:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C13"/>
+      <selection activeCell="C9" sqref="C9:G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
-  <sheetData/>
+  <sheetData>
+    <row r="8" spans="3:7">
+      <c r="D8" s="10" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="9" spans="3:7">
+      <c r="C9" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="D9" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" t="s">
+        <v>55</v>
+      </c>
+      <c r="F9" t="s">
+        <v>62</v>
+      </c>
+      <c r="G9" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="3:7">
+      <c r="C10" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="D10" s="12">
+        <v>65</v>
+      </c>
+      <c r="E10" s="12">
+        <v>42</v>
+      </c>
+      <c r="F10" s="12">
+        <v>21</v>
+      </c>
+      <c r="G10" s="12">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="11" spans="3:7">
+      <c r="C11" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="D11" s="12">
+        <v>85</v>
+      </c>
+      <c r="E11" s="12">
+        <v>63</v>
+      </c>
+      <c r="F11" s="12">
+        <v>26</v>
+      </c>
+      <c r="G11" s="12">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="12" spans="3:7">
+      <c r="C12" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D12" s="12">
+        <v>105</v>
+      </c>
+      <c r="E12" s="12">
+        <v>68</v>
+      </c>
+      <c r="F12" s="12">
+        <v>30</v>
+      </c>
+      <c r="G12" s="12">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="13" spans="3:7">
+      <c r="C13" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="D13" s="12">
+        <v>440</v>
+      </c>
+      <c r="E13" s="12">
+        <v>275</v>
+      </c>
+      <c r="F13" s="12">
+        <v>120</v>
+      </c>
+      <c r="G13" s="12">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="14" spans="3:7">
+      <c r="C14" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="D14" s="12">
+        <v>50</v>
+      </c>
+      <c r="E14" s="12">
+        <v>70</v>
+      </c>
+      <c r="F14" s="12">
+        <v>100</v>
+      </c>
+      <c r="G14" s="12">
+        <v>220</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/doc/Tareas Esfuerzo.xlsx
+++ b/doc/Tareas Esfuerzo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="3" r:id="rId1"/>
@@ -17,16 +17,16 @@
   </definedNames>
   <calcPr calcId="125725" iterateDelta="1E-4"/>
   <pivotCaches>
-    <pivotCache cacheId="19" r:id="rId4"/>
-    <pivotCache cacheId="18" r:id="rId5"/>
-    <pivotCache cacheId="11" r:id="rId6"/>
-    <pivotCache cacheId="27" r:id="rId7"/>
+    <pivotCache cacheId="8" r:id="rId4"/>
+    <pivotCache cacheId="9" r:id="rId5"/>
+    <pivotCache cacheId="10" r:id="rId6"/>
+    <pivotCache cacheId="11" r:id="rId7"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="94">
   <si>
     <t>Etapa</t>
   </si>
@@ -288,12 +288,33 @@
   <si>
     <t>Análisis y Diseño</t>
   </si>
+  <si>
+    <t>Incidencia por Tipos de Tareas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Investigación </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Análisis </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diseño </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Codificación </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pruebas y Ajustes </t>
+  </si>
+  <si>
+    <t>TOTAL</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -328,6 +349,12 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -499,7 +526,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
@@ -542,14 +569,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Excel Built-in Normal" xfId="1"/>
@@ -647,7 +675,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Horas por Tareas</a:t>
+              <a:t>Esfuerzo por Tareas</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -735,24 +763,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="96567296"/>
-        <c:axId val="96568832"/>
+        <c:axId val="104888192"/>
+        <c:axId val="104924672"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="96567296"/>
+        <c:axId val="104888192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="96568832"/>
+        <c:crossAx val="104924672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="96568832"/>
+        <c:axId val="104924672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -760,7 +788,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="96567296"/>
+        <c:crossAx val="104888192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -773,568 +801,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="es-CL"/>
-  <c:pivotSource>
-    <c:name>[Tareas Esfuerzo.xlsx]Por CU!Tabla dinámica7</c:name>
-    <c:fmtId val="0"/>
-  </c:pivotSource>
-  <c:chart>
-    <c:pivotFmts>
-      <c:pivotFmt>
-        <c:idx val="0"/>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="1"/>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="2"/>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-      </c:pivotFmt>
-    </c:pivotFmts>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Por CU'!$C$114:$C$115</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>1er It</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Por CU'!$B$116:$B$120</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>Suma de Investigación</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Suma de Análisis</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Suma de Diseño</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Suma de Codificación</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Suma de Pruebas y ajustes</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Por CU'!$C$116:$C$120</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>65</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>85</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>105</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>440</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>50</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Por CU'!$D$114:$D$115</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>2da It</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Por CU'!$B$116:$B$120</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>Suma de Investigación</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Suma de Análisis</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Suma de Diseño</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Suma de Codificación</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Suma de Pruebas y ajustes</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Por CU'!$D$116:$D$120</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>63</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>68</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>275</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>70</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Por CU'!$E$114:$E$115</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>3er It</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Por CU'!$B$116:$B$120</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>Suma de Investigación</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Suma de Análisis</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Suma de Diseño</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Suma de Codificación</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Suma de Pruebas y ajustes</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Por CU'!$E$116:$E$120</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>100</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:marker val="1"/>
-        <c:axId val="147273984"/>
-        <c:axId val="147543936"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="147273984"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="b"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="147543936"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="147543936"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="147273984"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="es-CL"/>
-  <c:chart>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Por CU'!$B$142</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Investigación</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Por CU'!$C$141:$F$141</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>inicio</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1er It</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2da It</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3er It</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Por CU'!$C$142:$F$142</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0" formatCode="General">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.09</c:v>
-                </c:pt>
-                <c:pt idx="2" formatCode="General">
-                  <c:v>0.08</c:v>
-                </c:pt>
-                <c:pt idx="3" formatCode="General">
-                  <c:v>7.0000000000000007E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Por CU'!$B$143</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Análisis y Diseño</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Por CU'!$C$141:$F$141</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>inicio</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1er It</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2da It</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3er It</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Por CU'!$C$143:$F$143</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0" formatCode="General">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.25</c:v>
-                </c:pt>
-                <c:pt idx="2" formatCode="General">
-                  <c:v>0.25</c:v>
-                </c:pt>
-                <c:pt idx="3" formatCode="General">
-                  <c:v>0.19</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Por CU'!$B$144</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Codificación</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Por CU'!$C$141:$F$141</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>inicio</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1er It</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2da It</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3er It</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Por CU'!$C$144:$F$144</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0" formatCode="General">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.59</c:v>
-                </c:pt>
-                <c:pt idx="2" formatCode="General">
-                  <c:v>0.53</c:v>
-                </c:pt>
-                <c:pt idx="3" formatCode="General">
-                  <c:v>0.4</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Por CU'!$B$145</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Pruebas y ajustes</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Por CU'!$C$141:$F$141</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>inicio</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1er It</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2da It</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3er It</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Por CU'!$C$145:$F$145</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0" formatCode="General">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7.0000000000000007E-2</c:v>
-                </c:pt>
-                <c:pt idx="2" formatCode="General">
-                  <c:v>0.14000000000000001</c:v>
-                </c:pt>
-                <c:pt idx="3" formatCode="General">
-                  <c:v>0.34</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:marker val="1"/>
-        <c:axId val="91023616"/>
-        <c:axId val="93532160"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="91023616"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="b"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="93532160"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="93532160"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="91023616"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1358,12 +825,8 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="es-CL"/>
-              <a:t>Horas</a:t>
-            </a:r>
-            <a:r>
               <a:rPr lang="es-CL" baseline="0"/>
-              <a:t> por Etapas</a:t>
+              <a:t>Esfuerzo por Etapas</a:t>
             </a:r>
             <a:endParaRPr lang="es-CL"/>
           </a:p>
@@ -1434,24 +897,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="99296768"/>
-        <c:axId val="99298304"/>
+        <c:axId val="112842624"/>
+        <c:axId val="112844160"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="99296768"/>
+        <c:axId val="112842624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="99298304"/>
+        <c:crossAx val="112844160"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="99298304"/>
+        <c:axId val="112844160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1459,7 +922,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="99296768"/>
+        <c:crossAx val="112842624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1472,7 +935,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1487,6 +950,43 @@
   </c:pivotSource>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0"/>
+              <a:t>Esfuerzo por Tareas</a:t>
+            </a:r>
+            <a:endParaRPr lang="es-CL"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
     </c:title>
     <c:pivotFmts>
@@ -1580,7 +1080,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1589,22 +1089,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="es-CL"/>
-  <c:pivotSource>
-    <c:name>[Tareas Esfuerzo.xlsx]General!Tabla dinámica4</c:name>
-    <c:fmtId val="0"/>
-  </c:pivotSource>
   <c:chart>
-    <c:title>
-      <c:layout/>
-    </c:title>
-    <c:pivotFmts>
-      <c:pivotFmt>
-        <c:idx val="0"/>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-      </c:pivotFmt>
-    </c:pivotFmts>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
@@ -1614,11 +1099,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>General!$D$79</c:f>
+              <c:f>General!$B$99</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Total</c:v>
+                  <c:v>Documentación</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1627,109 +1112,362 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
-            <c:multiLvlStrRef>
-              <c:f>General!$C$80:$C$92</c:f>
-              <c:multiLvlStrCache>
-                <c:ptCount val="9"/>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>Documentación</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>Investigación</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>Analisis</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>Codificación</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>Diseño</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>Investigación</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>Pruebas</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>Documentación</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>Pruebas</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>Etapa 1</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>Etapa 2</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>Etapa 3</c:v>
-                  </c:pt>
-                </c:lvl>
-              </c:multiLvlStrCache>
-            </c:multiLvlStrRef>
+            <c:strRef>
+              <c:f>General!$C$98:$F$98</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Inicio</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Etapa 1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Etapa 2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Etapa 3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>General!$D$80:$D$92</c:f>
+              <c:f>General!$C$99:$F$99</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="General">
+                  <c:v>0.67</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>General!$B$100</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Investigación</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>General!$C$98:$F$98</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Inicio</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Etapa 1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Etapa 2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Etapa 3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>General!$C$100:$F$100</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.68</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="General">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>General!$B$101</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Analisis</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>General!$C$98:$F$98</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Inicio</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Etapa 1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Etapa 2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Etapa 3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>General!$C$101:$F$101</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>236</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>493</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>174</c:v>
+                  <c:v>0.11</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>835</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>203</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>128</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>220</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>363</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>180</c:v>
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>General!$B$102</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Codificación</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>General!$C$98:$F$98</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Inicio</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Etapa 1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Etapa 2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Etapa 3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>General!$C$102:$F$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.54</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>General!$B$103</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Diseño</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>General!$C$98:$F$98</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Inicio</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Etapa 1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Etapa 2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Etapa 3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>General!$C$103:$F$103</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.13</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>General!$B$104</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Pruebas</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>General!$C$98:$F$98</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Inicio</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Etapa 1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Etapa 2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Etapa 3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>General!$C$104:$F$104</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.33</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="144032896"/>
-        <c:axId val="144034432"/>
+        <c:axId val="113010944"/>
+        <c:axId val="113025024"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="144032896"/>
+        <c:axId val="113010944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="144034432"/>
+        <c:crossAx val="113025024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="144034432"/>
+        <c:axId val="113025024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1737,9 +1475,9 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="144032896"/>
+        <c:crossAx val="113010944"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1750,7 +1488,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1769,7 +1507,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>General!$B$108</c:f>
+              <c:f>General!$B$112</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1783,7 +1521,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>General!$C$107:$F$107</c:f>
+              <c:f>General!$C$111:$F$111</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -1803,7 +1541,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>General!$C$108:$F$108</c:f>
+              <c:f>General!$C$112:$F$112</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1828,7 +1566,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>General!$B$109</c:f>
+              <c:f>General!$B$113</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1842,7 +1580,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>General!$C$107:$F$107</c:f>
+              <c:f>General!$C$111:$F$111</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -1862,7 +1600,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>General!$C$109:$F$109</c:f>
+              <c:f>General!$C$113:$F$113</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1887,11 +1625,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>General!$B$110</c:f>
+              <c:f>General!$B$114</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Analisis</c:v>
+                  <c:v>Desarrollo y Testing</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1901,7 +1639,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>General!$C$107:$F$107</c:f>
+              <c:f>General!$C$111:$F$111</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -1921,7 +1659,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>General!$C$110:$F$110</c:f>
+              <c:f>General!$C$114:$F$114</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1932,184 +1670,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.11</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>General!$B$111</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Codificación</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>General!$C$107:$F$107</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>Inicio</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Etapa 1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Etapa 2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Etapa 3</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>General!$C$111:$F$111</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.54</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>General!$B$112</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Diseño</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>General!$C$107:$F$107</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>Inicio</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Etapa 1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Etapa 2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Etapa 3</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>General!$C$112:$F$112</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.13</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>General!$B$113</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Pruebas</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>General!$C$107:$F$107</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>Inicio</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Etapa 1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Etapa 2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Etapa 3</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>General!$C$113:$F$113</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.14000000000000001</c:v>
+                  <c:v>0.92</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.33</c:v>
@@ -2119,24 +1680,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="120168832"/>
-        <c:axId val="120349824"/>
+        <c:axId val="113042176"/>
+        <c:axId val="113043712"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="120168832"/>
+        <c:axId val="113042176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="120349824"/>
+        <c:crossAx val="113043712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="120349824"/>
+        <c:axId val="113043712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2144,7 +1705,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="120168832"/>
+        <c:crossAx val="113042176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2157,7 +1718,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2166,241 +1727,36 @@
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="es-CL"/>
-  <c:chart>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>General!$B$121</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Documentación</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>General!$C$120:$F$120</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>Inicio</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Etapa 1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Etapa 2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Etapa 3</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>General!$C$121:$F$121</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0" formatCode="General">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.32</c:v>
-                </c:pt>
-                <c:pt idx="2" formatCode="General">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3" formatCode="General">
-                  <c:v>0.67</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>General!$B$122</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Investigación</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>General!$C$120:$F$120</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>Inicio</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Etapa 1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Etapa 2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Etapa 3</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>General!$C$122:$F$122</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0" formatCode="General">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.68</c:v>
-                </c:pt>
-                <c:pt idx="2" formatCode="General">
-                  <c:v>0.08</c:v>
-                </c:pt>
-                <c:pt idx="3" formatCode="General">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>General!$B$123</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Desarrollo y Testing</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>General!$C$120:$F$120</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>Inicio</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Etapa 1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Etapa 2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Etapa 3</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>General!$C$123:$F$123</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.92</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.33</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:marker val="1"/>
-        <c:axId val="67943040"/>
-        <c:axId val="68064384"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="67943040"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="b"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68064384"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="68064384"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="67943040"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="es-CL"/>
   <c:pivotSource>
     <c:name>[Tareas Esfuerzo.xlsx]Por CU!Tabla dinámica2</c:name>
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-CL"/>
+              <a:t>Esfuerzo por Iteraciones en Tareas</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.19437400058807452"/>
+          <c:y val="3.010751668528772E-2"/>
+        </c:manualLayout>
+      </c:layout>
+    </c:title>
     <c:pivotFmts>
       <c:pivotFmt>
         <c:idx val="0"/>
@@ -2453,7 +1809,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Suma de Investigación</c:v>
+                  <c:v>Investigación </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2503,7 +1859,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Suma de Análisis</c:v>
+                  <c:v>Análisis </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2553,7 +1909,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Suma de Diseño</c:v>
+                  <c:v>Diseño </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2603,7 +1959,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Suma de Codificación</c:v>
+                  <c:v>Codificación </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2653,7 +2009,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Suma de Pruebas y ajustes</c:v>
+                  <c:v>Pruebas y Ajustes </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2703,7 +2059,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Suma de TOTAL por CU</c:v>
+                  <c:v>TOTAL</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2744,24 +2100,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="99376512"/>
-        <c:axId val="99390592"/>
+        <c:axId val="113445120"/>
+        <c:axId val="113455104"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="99376512"/>
+        <c:axId val="113445120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="99390592"/>
+        <c:crossAx val="113455104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="99390592"/>
+        <c:axId val="113455104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2769,7 +2125,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="99376512"/>
+        <c:crossAx val="113445120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2782,13 +2138,13 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="es-CL"/>
   <c:pivotSource>
@@ -2796,6 +2152,24 @@
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-CL"/>
+              <a:t>Esfuerzo por CU en Tareas</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
     <c:pivotFmts>
       <c:pivotFmt>
         <c:idx val="0"/>
@@ -2842,7 +2216,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Suma de Investigación</c:v>
+                  <c:v>Investigación </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2976,7 +2350,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Suma de Análisis</c:v>
+                  <c:v>Análisis </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3110,7 +2484,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Suma de Diseño</c:v>
+                  <c:v>Diseño </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3244,7 +2618,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Suma de Codificación</c:v>
+                  <c:v>Codificación </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3378,7 +2752,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Suma de Pruebas y ajustes</c:v>
+                  <c:v>Pruebas y Ajustes </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3503,24 +2877,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="99487104"/>
-        <c:axId val="99505280"/>
+        <c:axId val="113502464"/>
+        <c:axId val="113508352"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="99487104"/>
+        <c:axId val="113502464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="99505280"/>
+        <c:crossAx val="113508352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="99505280"/>
+        <c:axId val="113508352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3528,7 +2902,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="99487104"/>
+        <c:crossAx val="113502464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3541,13 +2915,13 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="es-CL"/>
   <c:pivotSource>
@@ -3556,6 +2930,21 @@
   </c:pivotSource>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Esfuerzo por CU</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
     </c:title>
     <c:pivotFmts>
@@ -3576,7 +2965,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Por CU'!$C$92</c:f>
+              <c:f>'Por CU'!$C$95</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3587,7 +2976,7 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'Por CU'!$B$93:$B$110</c:f>
+              <c:f>'Por CU'!$B$96:$B$113</c:f>
               <c:strCache>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
@@ -3646,7 +3035,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Por CU'!$C$93:$C$110</c:f>
+              <c:f>'Por CU'!$C$96:$C$113</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
@@ -3705,24 +3094,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="99516800"/>
-        <c:axId val="99518336"/>
+        <c:axId val="113527808"/>
+        <c:axId val="113554176"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="99516800"/>
+        <c:axId val="113527808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="99518336"/>
+        <c:crossAx val="113554176"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="99518336"/>
+        <c:axId val="113554176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3730,9 +3119,294 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="99516800"/>
+        <c:crossAx val="113527808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="es-CL"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Por CU'!$B$132</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Investigación</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Por CU'!$C$131:$F$131</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>inicio</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1er It</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2da It</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3er It</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Por CU'!$C$132:$F$132</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="General">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="General">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Por CU'!$B$133</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Análisis y Diseño</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Por CU'!$C$131:$F$131</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>inicio</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1er It</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2da It</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3er It</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Por CU'!$C$133:$F$133</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="General">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="General">
+                  <c:v>0.19</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Por CU'!$B$134</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Codificación</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Por CU'!$C$131:$F$131</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>inicio</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1er It</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2da It</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3er It</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Por CU'!$C$134:$F$134</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.59</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="General">
+                  <c:v>0.53</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="General">
+                  <c:v>0.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Por CU'!$B$135</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Pruebas y ajustes</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Por CU'!$C$131:$F$131</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>inicio</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1er It</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2da It</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3er It</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Por CU'!$C$135:$F$135</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="General">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="General">
+                  <c:v>0.34</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="113685632"/>
+        <c:axId val="113687168"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="113685632"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="113687168"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="113687168"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="113685632"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -3843,20 +3517,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1209675</xdr:colOff>
-      <xdr:row>77</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>504824</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>91</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>47624</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="12" name="11 Gráfico"/>
+        <xdr:cNvPr id="13" name="12 Gráfico"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -3873,20 +3547,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>504824</xdr:colOff>
-      <xdr:row>98</xdr:row>
-      <xdr:rowOff>95249</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>47624</xdr:colOff>
-      <xdr:row>114</xdr:row>
-      <xdr:rowOff>180974</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="13" name="12 Gráfico"/>
+        <xdr:cNvPr id="14" name="13 Gráfico"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -3901,36 +3575,6 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>119</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>133</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="14" name="13 Gráfico"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3939,15 +3583,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>876300</xdr:colOff>
+      <xdr:colOff>228599</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:rowOff>152399</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>161924</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>895350</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3968,16 +3612,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>74</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>619123</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>88</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1428749</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3998,16 +3642,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>92</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>695326</xdr:colOff>
-      <xdr:row>107</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>781050</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4029,45 +3673,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>112</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>127</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="6 Gráfico"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>885825</xdr:colOff>
-      <xdr:row>131</xdr:row>
-      <xdr:rowOff>57149</xdr:rowOff>
+      <xdr:colOff>904874</xdr:colOff>
+      <xdr:row>125</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>638175</xdr:colOff>
-      <xdr:row>146</xdr:row>
-      <xdr:rowOff>47624</xdr:rowOff>
+      <xdr:colOff>1257299</xdr:colOff>
+      <xdr:row>139</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4080,7 +3694,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -5272,7 +4886,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica4" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica4" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="C79:D92" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField axis="axisRow" showAll="0">
@@ -5368,7 +4982,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica3" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica3" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="C61:D65" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField axis="axisRow" showAll="0">
@@ -5426,7 +5040,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica2" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica2" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
   <location ref="C43:D50" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField showAll="0"/>
@@ -5513,8 +5127,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica7" cacheId="19" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="B114:F120" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica7" cacheId="8" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="B117:F123" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField axis="axisCol" showAll="0">
       <items count="4">
@@ -5618,8 +5232,178 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica1" cacheId="18" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
-  <location ref="B92:C110" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica3" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="B53:G72" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="7">
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="18">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="13"/>
+        <item x="3"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="11"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="16"/>
+        <item x="6"/>
+        <item x="12"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="18">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
+    <i i="4">
+      <x v="4"/>
+    </i>
+  </colItems>
+  <dataFields count="5">
+    <dataField name="Investigación " fld="2" baseField="0" baseItem="0"/>
+    <dataField name="Análisis " fld="3" baseField="0" baseItem="0"/>
+    <dataField name="Diseño " fld="4" baseField="0" baseItem="0"/>
+    <dataField name="Codificación " fld="5" baseField="0" baseItem="0"/>
+    <dataField name="Pruebas y Ajustes " fld="6" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="5">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="3" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="4" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica1" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+  <location ref="B95:C113" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField showAll="0">
       <items count="4">
@@ -5756,8 +5540,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica2" cacheId="18" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica2" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="B26:H31" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField axis="axisRow" showAll="0">
@@ -5817,12 +5601,12 @@
     </i>
   </colItems>
   <dataFields count="6">
-    <dataField name="Suma de Investigación" fld="2" baseField="0" baseItem="0"/>
-    <dataField name="Suma de Análisis" fld="3" baseField="0" baseItem="0"/>
-    <dataField name="Suma de Diseño" fld="4" baseField="0" baseItem="0"/>
-    <dataField name="Suma de Codificación" fld="5" baseField="0" baseItem="0"/>
-    <dataField name="Suma de Pruebas y ajustes" fld="6" baseField="0" baseItem="0"/>
-    <dataField name="Suma de TOTAL por CU" fld="7" baseField="0" baseItem="0"/>
+    <dataField name="Investigación " fld="2" baseField="0" baseItem="0"/>
+    <dataField name="Análisis " fld="3" baseField="0" baseItem="0"/>
+    <dataField name="Diseño " fld="4" baseField="0" baseItem="0"/>
+    <dataField name="Codificación " fld="5" baseField="0" baseItem="0"/>
+    <dataField name="Pruebas y Ajustes " fld="6" baseField="0" baseItem="0"/>
+    <dataField name="TOTAL" fld="7" baseField="0" baseItem="0"/>
   </dataFields>
   <chartFormats count="6">
     <chartFormat chart="0" format="0" series="1">
@@ -5884,178 +5668,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica3" cacheId="19" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="B53:G72" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="7">
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="18">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="13"/>
-        <item x="3"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="11"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="16"/>
-        <item x="6"/>
-        <item x="12"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="1"/>
-  </rowFields>
-  <rowItems count="18">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i>
-      <x v="12"/>
-    </i>
-    <i>
-      <x v="13"/>
-    </i>
-    <i>
-      <x v="14"/>
-    </i>
-    <i>
-      <x v="15"/>
-    </i>
-    <i>
-      <x v="16"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="5">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-    <i i="2">
-      <x v="2"/>
-    </i>
-    <i i="3">
-      <x v="3"/>
-    </i>
-    <i i="4">
-      <x v="4"/>
-    </i>
-  </colItems>
-  <dataFields count="5">
-    <dataField name="Suma de Investigación" fld="2" baseField="0" baseItem="0"/>
-    <dataField name="Suma de Análisis" fld="3" baseField="0" baseItem="0"/>
-    <dataField name="Suma de Diseño" fld="4" baseField="0" baseItem="0"/>
-    <dataField name="Suma de Codificación" fld="5" baseField="0" baseItem="0"/>
-    <dataField name="Suma de Pruebas y ajustes" fld="6" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="5">
-    <chartFormat chart="0" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="2" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="3" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="4" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-</pivotTableDefinition>
-</file>
-
 <file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica10" cacheId="27" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica10" cacheId="11" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="C8:G14" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField axis="axisCol" showAll="0">
@@ -6540,10 +6154,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AW301"/>
+  <dimension ref="A1:AW292"/>
   <sheetViews>
-    <sheetView topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="B121" sqref="B121:B123"/>
+    <sheetView tabSelected="1" topLeftCell="C103" workbookViewId="0">
+      <selection activeCell="D120" sqref="D120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="15"/>
@@ -6553,9 +6167,9 @@
     <col min="3" max="3" width="18.28515625" style="2" customWidth="1"/>
     <col min="4" max="4" width="14.85546875" style="2" customWidth="1"/>
     <col min="5" max="5" width="27.28515625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="29.28515625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="25.85546875" style="2" customWidth="1"/>
     <col min="7" max="7" width="7.7109375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="9" style="2" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="2" customWidth="1"/>
     <col min="9" max="9" width="7.7109375" style="2" customWidth="1"/>
     <col min="10" max="49" width="11.42578125" style="1" customWidth="1"/>
     <col min="50" max="16384" width="10.5703125" style="2"/>
@@ -6711,7 +6325,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" ht="30">
       <c r="A8" s="1"/>
       <c r="C8" s="5" t="s">
         <v>7</v>
@@ -6736,7 +6350,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" ht="30">
       <c r="A9" s="1"/>
       <c r="C9" s="5" t="s">
         <v>7</v>
@@ -6886,7 +6500,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" ht="30">
       <c r="A15" s="1"/>
       <c r="C15" s="5" t="s">
         <v>7</v>
@@ -7712,7 +7326,7 @@
       </c>
       <c r="E64"/>
     </row>
-    <row r="65" spans="1:5">
+    <row r="65" spans="1:9">
       <c r="A65" s="1"/>
       <c r="C65" s="11" t="s">
         <v>69</v>
@@ -7722,79 +7336,81 @@
       </c>
       <c r="E65"/>
     </row>
-    <row r="66" spans="1:5">
+    <row r="66" spans="1:9">
       <c r="A66" s="1"/>
       <c r="C66"/>
       <c r="D66"/>
       <c r="E66"/>
     </row>
-    <row r="67" spans="1:5">
+    <row r="67" spans="1:9">
       <c r="A67" s="1"/>
       <c r="C67"/>
       <c r="D67"/>
       <c r="E67"/>
     </row>
-    <row r="68" spans="1:5">
+    <row r="68" spans="1:9">
       <c r="A68" s="1"/>
       <c r="C68"/>
       <c r="D68"/>
       <c r="E68"/>
     </row>
-    <row r="69" spans="1:5">
+    <row r="69" spans="1:9">
       <c r="A69" s="1"/>
       <c r="C69"/>
       <c r="D69"/>
       <c r="E69"/>
     </row>
-    <row r="70" spans="1:5">
+    <row r="70" spans="1:9">
       <c r="A70" s="1"/>
       <c r="C70"/>
       <c r="D70"/>
       <c r="E70"/>
     </row>
-    <row r="71" spans="1:5">
+    <row r="71" spans="1:9">
       <c r="A71" s="1"/>
       <c r="C71"/>
       <c r="D71"/>
       <c r="E71"/>
     </row>
-    <row r="72" spans="1:5">
+    <row r="72" spans="1:9">
       <c r="A72" s="1"/>
       <c r="C72"/>
       <c r="D72"/>
       <c r="E72"/>
     </row>
-    <row r="73" spans="1:5">
+    <row r="73" spans="1:9">
       <c r="A73" s="1"/>
       <c r="C73"/>
       <c r="D73"/>
       <c r="E73"/>
     </row>
-    <row r="74" spans="1:5">
+    <row r="74" spans="1:9">
       <c r="A74" s="1"/>
       <c r="C74"/>
       <c r="D74"/>
       <c r="E74"/>
     </row>
-    <row r="75" spans="1:5">
+    <row r="75" spans="1:9">
       <c r="A75" s="1"/>
       <c r="C75"/>
       <c r="D75"/>
       <c r="E75"/>
     </row>
-    <row r="76" spans="1:5">
+    <row r="76" spans="1:9">
       <c r="A76" s="1"/>
-      <c r="C76"/>
+      <c r="C76" s="24" t="s">
+        <v>87</v>
+      </c>
       <c r="D76"/>
       <c r="E76"/>
     </row>
-    <row r="77" spans="1:5">
+    <row r="77" spans="1:9">
       <c r="A77" s="1"/>
     </row>
-    <row r="78" spans="1:5">
+    <row r="78" spans="1:9">
       <c r="A78" s="1"/>
     </row>
-    <row r="79" spans="1:5">
+    <row r="79" spans="1:9">
       <c r="A79" s="1"/>
       <c r="C79" s="10" t="s">
         <v>68</v>
@@ -7806,7 +7422,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="80" spans="1:5">
+    <row r="80" spans="1:9">
       <c r="A80" s="1"/>
       <c r="C80" s="11" t="s">
         <v>7</v>
@@ -7815,34 +7431,51 @@
         <v>729</v>
       </c>
       <c r="E80"/>
-    </row>
-    <row r="81" spans="1:5">
+      <c r="G80"/>
+      <c r="H80"/>
+      <c r="I80" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1"/>
-      <c r="C81" s="22" t="s">
+      <c r="C81" s="21" t="s">
         <v>39</v>
       </c>
       <c r="D81" s="12">
         <v>236</v>
       </c>
-      <c r="E81" s="23">
+      <c r="E81" s="22">
         <f>GETPIVOTDATA("Horas",$C$79,"Etapa","Etapa 1","Tipo","Documentación")/GETPIVOTDATA("Horas",$C$79,"Etapa","Etapa 1")</f>
         <v>0.32373113854595337</v>
       </c>
-    </row>
-    <row r="82" spans="1:5">
+      <c r="H81" s="12"/>
+      <c r="I81"/>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1"/>
-      <c r="C82" s="22" t="s">
+      <c r="C82" s="21" t="s">
         <v>71</v>
       </c>
       <c r="D82" s="12">
         <v>493</v>
       </c>
-      <c r="E82" s="23">
+      <c r="E82" s="22">
         <f>GETPIVOTDATA("Horas",$C$79,"Etapa","Etapa 1","Tipo","Investigación")/GETPIVOTDATA("Horas",$C$79,"Etapa","Etapa 1")</f>
         <v>0.67626886145404663</v>
       </c>
-    </row>
-    <row r="83" spans="1:5">
+      <c r="G82" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="H82" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="I82" s="22">
+        <f>GETPIVOTDATA("Horas",$C$79,"Etapa","Etapa 1","Tipo","Documentación")/GETPIVOTDATA("Horas",$C$79,"Etapa","Etapa 1")</f>
+        <v>0.32373113854595337</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1"/>
       <c r="C83" s="11" t="s">
         <v>28</v>
@@ -7850,74 +7483,134 @@
       <c r="D83" s="12">
         <v>1560</v>
       </c>
-      <c r="E83" s="23"/>
-    </row>
-    <row r="84" spans="1:5">
+      <c r="E83" s="22"/>
+      <c r="G83" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="H83" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="I83" s="22">
+        <f>GETPIVOTDATA("Horas",$C$79,"Etapa","Etapa 1","Tipo","Investigación")/GETPIVOTDATA("Horas",$C$79,"Etapa","Etapa 1")</f>
+        <v>0.67626886145404663</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1"/>
-      <c r="C84" s="22" t="s">
+      <c r="C84" s="21" t="s">
         <v>29</v>
       </c>
       <c r="D84" s="12">
         <v>174</v>
       </c>
-      <c r="E84" s="23">
+      <c r="E84" s="22">
         <f>GETPIVOTDATA("Horas",$C$79,"Etapa","Etapa 2","Tipo","Analisis")/GETPIVOTDATA("Horas",$C$79,"Etapa","Etapa 2")</f>
         <v>0.11153846153846154</v>
       </c>
-    </row>
-    <row r="85" spans="1:5">
+      <c r="G84" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="H84" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="I84" s="22">
+        <f>GETPIVOTDATA("Horas",$C$79,"Etapa","Etapa 2","Tipo","Analisis")/GETPIVOTDATA("Horas",$C$79,"Etapa","Etapa 2")</f>
+        <v>0.11153846153846154</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1"/>
-      <c r="C85" s="22" t="s">
+      <c r="C85" s="21" t="s">
         <v>33</v>
       </c>
       <c r="D85" s="12">
         <v>835</v>
       </c>
-      <c r="E85" s="23">
+      <c r="E85" s="22">
         <f>GETPIVOTDATA("Horas",$C$79,"Etapa","Etapa 2","Tipo","Codificación")/GETPIVOTDATA("Horas",$C$79,"Etapa","Etapa 2")</f>
         <v>0.53525641025641024</v>
       </c>
-    </row>
-    <row r="86" spans="1:5">
+      <c r="G85" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="H85" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="I85" s="22">
+        <f>GETPIVOTDATA("Horas",$C$79,"Etapa","Etapa 2","Tipo","Codificación")/GETPIVOTDATA("Horas",$C$79,"Etapa","Etapa 2")</f>
+        <v>0.53525641025641024</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1"/>
-      <c r="C86" s="22" t="s">
+      <c r="C86" s="21" t="s">
         <v>32</v>
       </c>
       <c r="D86" s="12">
         <v>203</v>
       </c>
-      <c r="E86" s="23">
+      <c r="E86" s="22">
         <f>GETPIVOTDATA("Horas",$C$79,"Etapa","Etapa 2","Tipo","Diseño")/GETPIVOTDATA("Horas",$C$79,"Etapa","Etapa 2")</f>
         <v>0.13012820512820514</v>
       </c>
-    </row>
-    <row r="87" spans="1:5">
+      <c r="G86" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="H86" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="I86" s="22">
+        <f>GETPIVOTDATA("Horas",$C$79,"Etapa","Etapa 2","Tipo","Diseño")/GETPIVOTDATA("Horas",$C$79,"Etapa","Etapa 2")</f>
+        <v>0.13012820512820514</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1"/>
-      <c r="C87" s="22" t="s">
+      <c r="C87" s="21" t="s">
         <v>71</v>
       </c>
       <c r="D87" s="12">
         <v>128</v>
       </c>
-      <c r="E87" s="23">
+      <c r="E87" s="22">
         <f>GETPIVOTDATA("Horas",$C$79,"Etapa","Etapa 2","Tipo","Investigación")/GETPIVOTDATA("Horas",$C$79,"Etapa","Etapa 2")</f>
         <v>8.2051282051282051E-2</v>
       </c>
-    </row>
-    <row r="88" spans="1:5">
+      <c r="G87" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="H87" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="I87" s="22">
+        <f>GETPIVOTDATA("Horas",$C$79,"Etapa","Etapa 2","Tipo","Investigación")/GETPIVOTDATA("Horas",$C$79,"Etapa","Etapa 2")</f>
+        <v>8.2051282051282051E-2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1"/>
-      <c r="C88" s="22" t="s">
+      <c r="C88" s="21" t="s">
         <v>26</v>
       </c>
       <c r="D88" s="12">
         <v>220</v>
       </c>
-      <c r="E88" s="23">
+      <c r="E88" s="22">
         <f>GETPIVOTDATA("Horas",$C$79,"Etapa","Etapa 2","Tipo","Pruebas")/GETPIVOTDATA("Horas",$C$79,"Etapa","Etapa 2")</f>
         <v>0.14102564102564102</v>
       </c>
-    </row>
-    <row r="89" spans="1:5">
+      <c r="G88" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H88" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="I88" s="22">
+        <f>GETPIVOTDATA("Horas",$C$79,"Etapa","Etapa 2","Tipo","Pruebas")/GETPIVOTDATA("Horas",$C$79,"Etapa","Etapa 2")</f>
+        <v>0.14102564102564102</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1"/>
       <c r="C89" s="11" t="s">
         <v>38</v>
@@ -7925,35 +7618,55 @@
       <c r="D89" s="12">
         <v>543</v>
       </c>
-      <c r="E89" s="23"/>
-    </row>
-    <row r="90" spans="1:5">
+      <c r="E89" s="22"/>
+      <c r="G89" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H89" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="I89" s="22">
+        <f>GETPIVOTDATA("Horas",$C$79,"Etapa","Etapa 3","Tipo","Documentación")/GETPIVOTDATA("Horas",$C$79,"Etapa","Etapa 3")</f>
+        <v>0.66850828729281764</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1"/>
-      <c r="C90" s="22" t="s">
+      <c r="C90" s="21" t="s">
         <v>39</v>
       </c>
       <c r="D90" s="12">
         <v>363</v>
       </c>
-      <c r="E90" s="23">
+      <c r="E90" s="22">
         <f>GETPIVOTDATA("Horas",$C$79,"Etapa","Etapa 3","Tipo","Documentación")/GETPIVOTDATA("Horas",$C$79,"Etapa","Etapa 3")</f>
         <v>0.66850828729281764</v>
       </c>
-    </row>
-    <row r="91" spans="1:5">
+      <c r="G90" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H90" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="I90" s="22">
+        <f>GETPIVOTDATA("Horas",$C$79,"Etapa","Etapa 3","Tipo","Pruebas")/GETPIVOTDATA("Horas",$C$79,"Etapa","Etapa 3")</f>
+        <v>0.33149171270718231</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1"/>
-      <c r="C91" s="22" t="s">
+      <c r="C91" s="21" t="s">
         <v>26</v>
       </c>
       <c r="D91" s="12">
         <v>180</v>
       </c>
-      <c r="E91" s="23">
+      <c r="E91" s="22">
         <f>GETPIVOTDATA("Horas",$C$79,"Etapa","Etapa 3","Tipo","Pruebas")/GETPIVOTDATA("Horas",$C$79,"Etapa","Etapa 3")</f>
         <v>0.33149171270718231</v>
       </c>
     </row>
-    <row r="92" spans="1:5">
+    <row r="92" spans="1:9">
       <c r="A92" s="1"/>
       <c r="C92" s="11" t="s">
         <v>69</v>
@@ -7963,289 +7676,255 @@
       </c>
       <c r="E92"/>
     </row>
-    <row r="93" spans="1:5">
+    <row r="93" spans="1:9">
       <c r="A93" s="1"/>
       <c r="C93"/>
       <c r="D93"/>
       <c r="E93"/>
     </row>
-    <row r="94" spans="1:5">
+    <row r="94" spans="1:9">
       <c r="A94" s="1"/>
-      <c r="C94"/>
-      <c r="D94"/>
-      <c r="E94"/>
-    </row>
-    <row r="95" spans="1:5">
+      <c r="B94" s="21"/>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1"/>
-      <c r="C95"/>
-      <c r="D95"/>
-      <c r="E95" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1"/>
-      <c r="D96" s="12"/>
-      <c r="E96"/>
+      <c r="D96" s="21"/>
+      <c r="E96" s="22"/>
     </row>
     <row r="97" spans="1:6">
       <c r="A97" s="1"/>
-      <c r="C97" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D97" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="E97" s="23">
-        <f>GETPIVOTDATA("Horas",$C$79,"Etapa","Etapa 1","Tipo","Documentación")/GETPIVOTDATA("Horas",$C$79,"Etapa","Etapa 1")</f>
-        <v>0.32373113854595337</v>
-      </c>
+      <c r="D97" s="12"/>
     </row>
     <row r="98" spans="1:6">
       <c r="A98" s="1"/>
-      <c r="C98" s="11" t="s">
+      <c r="B98" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D98" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D98" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="E98" s="23">
-        <f>GETPIVOTDATA("Horas",$C$79,"Etapa","Etapa 1","Tipo","Investigación")/GETPIVOTDATA("Horas",$C$79,"Etapa","Etapa 1")</f>
-        <v>0.67626886145404663</v>
+      <c r="E98" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F98" s="11" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="99" spans="1:6">
       <c r="A99" s="1"/>
-      <c r="C99" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="D99" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="E99" s="23">
-        <f>GETPIVOTDATA("Horas",$C$79,"Etapa","Etapa 2","Tipo","Analisis")/GETPIVOTDATA("Horas",$C$79,"Etapa","Etapa 2")</f>
-        <v>0.11153846153846154</v>
+      <c r="B99" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="C99" s="2">
+        <v>0</v>
+      </c>
+      <c r="D99" s="22">
+        <v>0.32</v>
+      </c>
+      <c r="E99" s="2">
+        <v>0</v>
+      </c>
+      <c r="F99" s="2">
+        <v>0.67</v>
       </c>
     </row>
     <row r="100" spans="1:6">
       <c r="A100" s="1"/>
-      <c r="C100" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="D100" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="E100" s="23">
-        <f>GETPIVOTDATA("Horas",$C$79,"Etapa","Etapa 2","Tipo","Codificación")/GETPIVOTDATA("Horas",$C$79,"Etapa","Etapa 2")</f>
-        <v>0.53525641025641024</v>
+      <c r="B100" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="C100" s="2">
+        <v>0</v>
+      </c>
+      <c r="D100" s="22">
+        <v>0.68</v>
+      </c>
+      <c r="E100" s="2">
+        <v>0.08</v>
+      </c>
+      <c r="F100" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:6">
       <c r="A101" s="1"/>
-      <c r="C101" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="D101" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="E101" s="23">
-        <f>GETPIVOTDATA("Horas",$C$79,"Etapa","Etapa 2","Tipo","Diseño")/GETPIVOTDATA("Horas",$C$79,"Etapa","Etapa 2")</f>
-        <v>0.13012820512820514</v>
+      <c r="B101" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="C101" s="2">
+        <v>0</v>
+      </c>
+      <c r="D101" s="2">
+        <v>0</v>
+      </c>
+      <c r="E101" s="2">
+        <v>0.11</v>
+      </c>
+      <c r="F101" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:6">
       <c r="A102" s="1"/>
-      <c r="C102" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="D102" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="E102" s="23">
-        <f>GETPIVOTDATA("Horas",$C$79,"Etapa","Etapa 2","Tipo","Investigación")/GETPIVOTDATA("Horas",$C$79,"Etapa","Etapa 2")</f>
-        <v>8.2051282051282051E-2</v>
+      <c r="B102" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="C102" s="2">
+        <v>0</v>
+      </c>
+      <c r="D102" s="2">
+        <v>0</v>
+      </c>
+      <c r="E102" s="2">
+        <v>0.54</v>
+      </c>
+      <c r="F102" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:6">
       <c r="A103" s="1"/>
-      <c r="C103" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D103" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="E103" s="23">
-        <f>GETPIVOTDATA("Horas",$C$79,"Etapa","Etapa 2","Tipo","Pruebas")/GETPIVOTDATA("Horas",$C$79,"Etapa","Etapa 2")</f>
-        <v>0.14102564102564102</v>
+      <c r="B103" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="C103" s="2">
+        <v>0</v>
+      </c>
+      <c r="D103" s="2">
+        <v>0</v>
+      </c>
+      <c r="E103" s="2">
+        <v>0.13</v>
+      </c>
+      <c r="F103" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:6">
       <c r="A104" s="1"/>
-      <c r="C104" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D104" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="E104" s="23">
-        <f>GETPIVOTDATA("Horas",$C$79,"Etapa","Etapa 3","Tipo","Documentación")/GETPIVOTDATA("Horas",$C$79,"Etapa","Etapa 3")</f>
-        <v>0.66850828729281764</v>
+      <c r="B104" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C104" s="2">
+        <v>0</v>
+      </c>
+      <c r="D104" s="2">
+        <v>0</v>
+      </c>
+      <c r="E104" s="2">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="F104" s="2">
+        <v>0.33</v>
       </c>
     </row>
     <row r="105" spans="1:6">
       <c r="A105" s="1"/>
-      <c r="C105" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D105" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="E105" s="23">
-        <f>GETPIVOTDATA("Horas",$C$79,"Etapa","Etapa 3","Tipo","Pruebas")/GETPIVOTDATA("Horas",$C$79,"Etapa","Etapa 3")</f>
-        <v>0.33149171270718231</v>
-      </c>
     </row>
     <row r="106" spans="1:6">
       <c r="A106" s="1"/>
-      <c r="D106" s="12"/>
     </row>
     <row r="107" spans="1:6">
       <c r="A107" s="1"/>
-      <c r="B107" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C107" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D107" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E107" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="F107" s="11" t="s">
-        <v>38</v>
-      </c>
     </row>
     <row r="108" spans="1:6">
       <c r="A108" s="1"/>
-      <c r="B108" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="C108" s="2">
-        <v>0</v>
-      </c>
-      <c r="D108" s="23">
-        <v>0.32</v>
-      </c>
-      <c r="E108" s="2">
-        <v>0</v>
-      </c>
-      <c r="F108" s="2">
-        <v>0.67</v>
-      </c>
     </row>
     <row r="109" spans="1:6">
       <c r="A109" s="1"/>
-      <c r="B109" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="C109" s="2">
-        <v>0</v>
-      </c>
-      <c r="D109" s="23">
-        <v>0.68</v>
-      </c>
-      <c r="E109" s="2">
-        <v>0.08</v>
-      </c>
-      <c r="F109" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="110" spans="1:6">
       <c r="A110" s="1"/>
-      <c r="B110" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="C110" s="2">
-        <v>0</v>
-      </c>
-      <c r="D110" s="2">
-        <v>0</v>
-      </c>
-      <c r="E110" s="2">
-        <v>0.11</v>
-      </c>
-      <c r="F110" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="111" spans="1:6">
       <c r="A111" s="1"/>
-      <c r="B111" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="C111" s="2">
-        <v>0</v>
-      </c>
-      <c r="D111" s="2">
-        <v>0</v>
-      </c>
-      <c r="E111" s="2">
-        <v>0.54</v>
-      </c>
-      <c r="F111" s="2">
-        <v>0</v>
+      <c r="B111" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D111" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E111" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F111" s="11" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="112" spans="1:6">
       <c r="A112" s="1"/>
-      <c r="B112" s="22" t="s">
-        <v>32</v>
+      <c r="B112" s="21" t="s">
+        <v>39</v>
       </c>
       <c r="C112" s="2">
         <v>0</v>
       </c>
-      <c r="D112" s="2">
+      <c r="D112" s="22">
+        <v>0.32</v>
+      </c>
+      <c r="E112" s="2">
         <v>0</v>
       </c>
-      <c r="E112" s="2">
-        <v>0.13</v>
-      </c>
       <c r="F112" s="2">
-        <v>0</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="113" spans="1:6">
       <c r="A113" s="1"/>
-      <c r="B113" s="22" t="s">
-        <v>26</v>
+      <c r="B113" s="21" t="s">
+        <v>71</v>
       </c>
       <c r="C113" s="2">
         <v>0</v>
       </c>
-      <c r="D113" s="2">
+      <c r="D113" s="22">
+        <v>0.68</v>
+      </c>
+      <c r="E113" s="2">
+        <v>0.08</v>
+      </c>
+      <c r="F113" s="2">
         <v>0</v>
-      </c>
-      <c r="E113" s="2">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="F113" s="2">
-        <v>0.33</v>
       </c>
     </row>
     <row r="114" spans="1:6">
       <c r="A114" s="1"/>
+      <c r="B114" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="C114" s="2">
+        <v>0</v>
+      </c>
+      <c r="D114" s="2">
+        <v>0</v>
+      </c>
+      <c r="E114" s="2">
+        <v>0.92</v>
+      </c>
+      <c r="F114" s="2">
+        <v>0.33</v>
+      </c>
     </row>
     <row r="115" spans="1:6">
       <c r="A115" s="1"/>
+      <c r="B115" s="21"/>
     </row>
     <row r="116" spans="1:6">
       <c r="A116" s="1"/>
+      <c r="B116" s="21"/>
     </row>
     <row r="117" spans="1:6">
       <c r="A117" s="1"/>
+      <c r="B117" s="21"/>
     </row>
     <row r="118" spans="1:6">
       <c r="A118" s="1"/>
@@ -8255,87 +7934,24 @@
     </row>
     <row r="120" spans="1:6">
       <c r="A120" s="1"/>
-      <c r="B120" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C120" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D120" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E120" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="F120" s="11" t="s">
-        <v>38</v>
-      </c>
     </row>
     <row r="121" spans="1:6">
       <c r="A121" s="1"/>
-      <c r="B121" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="C121" s="2">
-        <v>0</v>
-      </c>
-      <c r="D121" s="23">
-        <v>0.32</v>
-      </c>
-      <c r="E121" s="2">
-        <v>0</v>
-      </c>
-      <c r="F121" s="2">
-        <v>0.67</v>
-      </c>
     </row>
     <row r="122" spans="1:6">
       <c r="A122" s="1"/>
-      <c r="B122" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="C122" s="2">
-        <v>0</v>
-      </c>
-      <c r="D122" s="23">
-        <v>0.68</v>
-      </c>
-      <c r="E122" s="2">
-        <v>0.08</v>
-      </c>
-      <c r="F122" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="123" spans="1:6">
       <c r="A123" s="1"/>
-      <c r="B123" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="C123" s="2">
-        <v>0</v>
-      </c>
-      <c r="D123" s="2">
-        <v>0</v>
-      </c>
-      <c r="E123" s="2">
-        <v>0.92</v>
-      </c>
-      <c r="F123" s="2">
-        <v>0.33</v>
-      </c>
     </row>
     <row r="124" spans="1:6">
       <c r="A124" s="1"/>
-      <c r="B124" s="22"/>
     </row>
     <row r="125" spans="1:6">
       <c r="A125" s="1"/>
-      <c r="B125" s="22"/>
     </row>
     <row r="126" spans="1:6">
       <c r="A126" s="1"/>
-      <c r="B126" s="22"/>
     </row>
     <row r="127" spans="1:6">
       <c r="A127" s="1"/>
@@ -8834,33 +8450,6 @@
     </row>
     <row r="292" spans="1:1">
       <c r="A292" s="1"/>
-    </row>
-    <row r="293" spans="1:1">
-      <c r="A293" s="1"/>
-    </row>
-    <row r="294" spans="1:1">
-      <c r="A294" s="1"/>
-    </row>
-    <row r="295" spans="1:1">
-      <c r="A295" s="1"/>
-    </row>
-    <row r="296" spans="1:1">
-      <c r="A296" s="1"/>
-    </row>
-    <row r="297" spans="1:1">
-      <c r="A297" s="1"/>
-    </row>
-    <row r="298" spans="1:1">
-      <c r="A298" s="1"/>
-    </row>
-    <row r="299" spans="1:1">
-      <c r="A299" s="1"/>
-    </row>
-    <row r="300" spans="1:1">
-      <c r="A300" s="1"/>
-    </row>
-    <row r="301" spans="1:1">
-      <c r="A301" s="1"/>
     </row>
   </sheetData>
   <autoFilter ref="C2:I39"/>
@@ -8871,22 +8460,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B3:R156"/>
+  <dimension ref="B3:R146"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A129" workbookViewId="0">
-      <selection activeCell="B142" sqref="B142:B145"/>
+    <sheetView topLeftCell="A118" workbookViewId="0">
+      <selection activeCell="F140" sqref="F140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.5703125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="24.28515625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="8.28515625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="7.5703125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="18.5703125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="8.5703125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="7.7109375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="17.7109375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="7.140625" style="2" customWidth="1"/>
     <col min="9" max="10" width="22" style="2" customWidth="1"/>
     <col min="11" max="11" width="27.28515625" style="2" customWidth="1"/>
     <col min="12" max="12" width="21.28515625" style="2" customWidth="1"/>
@@ -8900,7 +8489,7 @@
     <col min="22" max="16384" width="10.5703125" style="2"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:10" ht="15.75">
+    <row r="3" spans="2:10" ht="31.5">
       <c r="B3" s="16" t="s">
         <v>72</v>
       </c>
@@ -8955,7 +8544,7 @@
         <f>SUM(D4:H4)</f>
         <v>122</v>
       </c>
-      <c r="J4" s="20">
+      <c r="J4" s="23">
         <f>SUM(I4:I10)</f>
         <v>745</v>
       </c>
@@ -8986,7 +8575,7 @@
         <f t="shared" ref="I5:I20" si="0">SUM(D5:H5)</f>
         <v>125</v>
       </c>
-      <c r="J5" s="20"/>
+      <c r="J5" s="23"/>
     </row>
     <row r="6" spans="2:10">
       <c r="B6" s="18" t="s">
@@ -9014,7 +8603,7 @@
         <f t="shared" si="0"/>
         <v>72</v>
       </c>
-      <c r="J6" s="20"/>
+      <c r="J6" s="23"/>
     </row>
     <row r="7" spans="2:10">
       <c r="B7" s="18" t="s">
@@ -9042,7 +8631,7 @@
         <f t="shared" si="0"/>
         <v>125</v>
       </c>
-      <c r="J7" s="20"/>
+      <c r="J7" s="23"/>
     </row>
     <row r="8" spans="2:10">
       <c r="B8" s="18" t="s">
@@ -9070,7 +8659,7 @@
         <f t="shared" si="0"/>
         <v>134</v>
       </c>
-      <c r="J8" s="20"/>
+      <c r="J8" s="23"/>
     </row>
     <row r="9" spans="2:10">
       <c r="B9" s="18" t="s">
@@ -9098,7 +8687,7 @@
         <f t="shared" si="0"/>
         <v>95</v>
       </c>
-      <c r="J9" s="20"/>
+      <c r="J9" s="23"/>
     </row>
     <row r="10" spans="2:10">
       <c r="B10" s="18" t="s">
@@ -9126,7 +8715,7 @@
         <f t="shared" si="0"/>
         <v>72</v>
       </c>
-      <c r="J10" s="20"/>
+      <c r="J10" s="23"/>
     </row>
     <row r="11" spans="2:10">
       <c r="B11" s="18" t="s">
@@ -9154,7 +8743,7 @@
         <f t="shared" si="0"/>
         <v>89</v>
       </c>
-      <c r="J11" s="20">
+      <c r="J11" s="23">
         <f>SUM(I11:I16)</f>
         <v>518</v>
       </c>
@@ -9185,7 +8774,7 @@
         <f>SUM(D12:H12)</f>
         <v>61</v>
       </c>
-      <c r="J12" s="20"/>
+      <c r="J12" s="23"/>
     </row>
     <row r="13" spans="2:10">
       <c r="B13" s="18" t="s">
@@ -9213,7 +8802,7 @@
         <f t="shared" si="0"/>
         <v>54</v>
       </c>
-      <c r="J13" s="20"/>
+      <c r="J13" s="23"/>
     </row>
     <row r="14" spans="2:10">
       <c r="B14" s="18" t="s">
@@ -9241,7 +8830,7 @@
         <f t="shared" si="0"/>
         <v>92</v>
       </c>
-      <c r="J14" s="20"/>
+      <c r="J14" s="23"/>
     </row>
     <row r="15" spans="2:10">
       <c r="B15" s="18" t="s">
@@ -9269,7 +8858,7 @@
         <f t="shared" si="0"/>
         <v>93</v>
       </c>
-      <c r="J15" s="20"/>
+      <c r="J15" s="23"/>
     </row>
     <row r="16" spans="2:10">
       <c r="B16" s="18" t="s">
@@ -9297,7 +8886,7 @@
         <f t="shared" si="0"/>
         <v>129</v>
       </c>
-      <c r="J16" s="20"/>
+      <c r="J16" s="23"/>
     </row>
     <row r="17" spans="2:10">
       <c r="B17" s="18" t="s">
@@ -9325,7 +8914,7 @@
         <f t="shared" si="0"/>
         <v>51</v>
       </c>
-      <c r="J17" s="20">
+      <c r="J17" s="23">
         <f>SUM(I17:I20)</f>
         <v>297</v>
       </c>
@@ -9356,7 +8945,7 @@
         <f t="shared" si="0"/>
         <v>85</v>
       </c>
-      <c r="J18" s="20"/>
+      <c r="J18" s="23"/>
     </row>
     <row r="19" spans="2:10">
       <c r="B19" s="18" t="s">
@@ -9384,7 +8973,7 @@
         <f t="shared" si="0"/>
         <v>103</v>
       </c>
-      <c r="J19" s="20"/>
+      <c r="J19" s="23"/>
     </row>
     <row r="20" spans="2:10">
       <c r="B20" s="19" t="s">
@@ -9412,7 +9001,7 @@
         <f t="shared" si="0"/>
         <v>58</v>
       </c>
-      <c r="J20" s="20"/>
+      <c r="J20" s="23"/>
     </row>
     <row r="21" spans="2:10">
       <c r="C21" s="17" t="s">
@@ -9470,22 +9059,22 @@
         <v>68</v>
       </c>
       <c r="C27" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="D27" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="E27" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="F27" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="G27" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="H27" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
     </row>
     <row r="28" spans="2:10">
@@ -9655,19 +9244,19 @@
         <v>68</v>
       </c>
       <c r="C54" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="D54" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="E54" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="F54" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="G54" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
     </row>
     <row r="55" spans="2:7">
@@ -10030,54 +9619,27 @@
         <v>220</v>
       </c>
     </row>
-    <row r="92" spans="2:4">
-      <c r="B92" s="10" t="s">
+    <row r="95" spans="2:4">
+      <c r="B95" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="C92" t="s">
+      <c r="C95" t="s">
         <v>79</v>
-      </c>
-      <c r="D92"/>
-    </row>
-    <row r="93" spans="2:4">
-      <c r="B93" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="C93" s="12">
-        <v>122</v>
-      </c>
-      <c r="D93"/>
-    </row>
-    <row r="94" spans="2:4">
-      <c r="B94" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="C94" s="12">
-        <v>125</v>
-      </c>
-      <c r="D94"/>
-    </row>
-    <row r="95" spans="2:4">
-      <c r="B95" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="C95" s="12">
-        <v>72</v>
       </c>
       <c r="D95"/>
     </row>
     <row r="96" spans="2:4">
       <c r="B96" s="11" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="C96" s="12">
-        <v>51</v>
+        <v>122</v>
       </c>
       <c r="D96"/>
     </row>
     <row r="97" spans="2:4">
       <c r="B97" s="11" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C97" s="12">
         <v>125</v>
@@ -10086,233 +9648,180 @@
     </row>
     <row r="98" spans="2:4">
       <c r="B98" s="11" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C98" s="12">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="D98"/>
     </row>
     <row r="99" spans="2:4">
       <c r="B99" s="11" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="C99" s="12">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="D99"/>
     </row>
     <row r="100" spans="2:4">
       <c r="B100" s="11" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="C100" s="12">
-        <v>54</v>
+        <v>125</v>
       </c>
       <c r="D100"/>
     </row>
     <row r="101" spans="2:4">
       <c r="B101" s="11" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C101" s="12">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D101"/>
     </row>
     <row r="102" spans="2:4">
       <c r="B102" s="11" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="C102" s="12">
-        <v>85</v>
+        <v>61</v>
       </c>
       <c r="D102"/>
     </row>
     <row r="103" spans="2:4">
       <c r="B103" s="11" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="C103" s="12">
-        <v>103</v>
+        <v>54</v>
       </c>
       <c r="D103"/>
     </row>
     <row r="104" spans="2:4">
       <c r="B104" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C104" s="12">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D104"/>
     </row>
     <row r="105" spans="2:4">
       <c r="B105" s="11" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="C105" s="12">
-        <v>134</v>
+        <v>85</v>
       </c>
       <c r="D105"/>
     </row>
     <row r="106" spans="2:4">
       <c r="B106" s="11" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="C106" s="12">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="D106"/>
     </row>
     <row r="107" spans="2:4">
       <c r="B107" s="11" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C107" s="12">
-        <v>58</v>
+        <v>93</v>
       </c>
       <c r="D107"/>
     </row>
     <row r="108" spans="2:4">
       <c r="B108" s="11" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C108" s="12">
-        <v>72</v>
+        <v>134</v>
       </c>
       <c r="D108"/>
     </row>
     <row r="109" spans="2:4">
       <c r="B109" s="11" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C109" s="12">
-        <v>129</v>
+        <v>95</v>
       </c>
       <c r="D109"/>
     </row>
     <row r="110" spans="2:4">
       <c r="B110" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C110" s="12">
+        <v>58</v>
+      </c>
+      <c r="D110"/>
+    </row>
+    <row r="111" spans="2:4">
+      <c r="B111" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C111" s="12">
+        <v>72</v>
+      </c>
+      <c r="D111"/>
+    </row>
+    <row r="112" spans="2:4">
+      <c r="B112" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="C112" s="12">
+        <v>129</v>
+      </c>
+      <c r="D112"/>
+    </row>
+    <row r="113" spans="2:18">
+      <c r="B113" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="C110" s="12">
+      <c r="C113" s="12">
         <v>1560</v>
       </c>
-    </row>
-    <row r="111" spans="2:4">
-      <c r="B111"/>
-      <c r="C111"/>
-    </row>
-    <row r="112" spans="2:4">
-      <c r="B112"/>
-      <c r="C112"/>
-    </row>
-    <row r="113" spans="2:18">
-      <c r="B113"/>
-      <c r="C113"/>
     </row>
     <row r="114" spans="2:18">
       <c r="B114"/>
-      <c r="C114" s="10" t="s">
+      <c r="C114"/>
+    </row>
+    <row r="115" spans="2:18">
+      <c r="B115"/>
+      <c r="C115"/>
+    </row>
+    <row r="116" spans="2:18">
+      <c r="B116"/>
+      <c r="C116"/>
+    </row>
+    <row r="117" spans="2:18">
+      <c r="B117"/>
+      <c r="C117" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="D114"/>
-      <c r="E114"/>
-      <c r="F114"/>
-      <c r="G114"/>
-      <c r="H114"/>
-      <c r="I114"/>
-      <c r="J114"/>
-      <c r="K114"/>
-      <c r="L114"/>
-      <c r="M114"/>
-      <c r="N114"/>
-      <c r="O114"/>
-      <c r="P114"/>
-      <c r="Q114"/>
-      <c r="R114"/>
-    </row>
-    <row r="115" spans="2:18">
-      <c r="B115" s="10" t="s">
+      <c r="D117"/>
+      <c r="E117"/>
+      <c r="F117"/>
+      <c r="G117"/>
+      <c r="H117" t="s">
         <v>74</v>
       </c>
-      <c r="C115" t="s">
+      <c r="I117" t="s">
         <v>47</v>
       </c>
-      <c r="D115" t="s">
+      <c r="J117" t="s">
         <v>55</v>
       </c>
-      <c r="E115" t="s">
+      <c r="K117" t="s">
         <v>62</v>
       </c>
-      <c r="F115" t="s">
-        <v>69</v>
-      </c>
-      <c r="G115"/>
-      <c r="H115"/>
-      <c r="I115"/>
-      <c r="J115"/>
-      <c r="K115"/>
-      <c r="L115"/>
-      <c r="M115"/>
-      <c r="N115"/>
-      <c r="O115"/>
-      <c r="P115"/>
-      <c r="Q115"/>
-      <c r="R115"/>
-    </row>
-    <row r="116" spans="2:18">
-      <c r="B116" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="C116" s="12">
-        <v>65</v>
-      </c>
-      <c r="D116" s="12">
-        <v>42</v>
-      </c>
-      <c r="E116" s="12">
-        <v>21</v>
-      </c>
-      <c r="F116" s="12">
-        <v>128</v>
-      </c>
-      <c r="G116"/>
-      <c r="H116"/>
-      <c r="I116"/>
-      <c r="J116"/>
-      <c r="K116"/>
-      <c r="L116"/>
-      <c r="M116"/>
-      <c r="N116"/>
-      <c r="O116"/>
-      <c r="P116"/>
-      <c r="Q116"/>
-      <c r="R116"/>
-    </row>
-    <row r="117" spans="2:18">
-      <c r="B117" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="C117" s="12">
-        <v>85</v>
-      </c>
-      <c r="D117" s="12">
-        <v>63</v>
-      </c>
-      <c r="E117" s="12">
-        <v>26</v>
-      </c>
-      <c r="F117" s="12">
-        <v>174</v>
-      </c>
-      <c r="G117"/>
-      <c r="H117"/>
-      <c r="I117"/>
-      <c r="J117"/>
-      <c r="K117"/>
-      <c r="L117"/>
       <c r="M117"/>
       <c r="N117"/>
       <c r="O117"/>
@@ -10321,27 +9830,35 @@
       <c r="R117"/>
     </row>
     <row r="118" spans="2:18">
-      <c r="B118" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="C118" s="12">
-        <v>105</v>
-      </c>
-      <c r="D118" s="12">
-        <v>68</v>
-      </c>
-      <c r="E118" s="12">
-        <v>30</v>
-      </c>
-      <c r="F118" s="12">
-        <v>203</v>
+      <c r="B118" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="C118" t="s">
+        <v>47</v>
+      </c>
+      <c r="D118" t="s">
+        <v>55</v>
+      </c>
+      <c r="E118" t="s">
+        <v>62</v>
+      </c>
+      <c r="F118" t="s">
+        <v>69</v>
       </c>
       <c r="G118"/>
-      <c r="H118"/>
-      <c r="I118"/>
-      <c r="J118"/>
-      <c r="K118"/>
-      <c r="L118"/>
+      <c r="H118" t="s">
+        <v>73</v>
+      </c>
+      <c r="I118">
+        <v>65</v>
+      </c>
+      <c r="J118">
+        <v>42</v>
+      </c>
+      <c r="K118">
+        <v>21</v>
+      </c>
+      <c r="L118" s="20"/>
       <c r="M118"/>
       <c r="N118"/>
       <c r="O118"/>
@@ -10351,26 +9868,34 @@
     </row>
     <row r="119" spans="2:18">
       <c r="B119" s="11" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C119" s="12">
-        <v>440</v>
+        <v>65</v>
       </c>
       <c r="D119" s="12">
-        <v>275</v>
+        <v>42</v>
       </c>
       <c r="E119" s="12">
-        <v>120</v>
+        <v>21</v>
       </c>
       <c r="F119" s="12">
-        <v>835</v>
+        <v>128</v>
       </c>
       <c r="G119"/>
-      <c r="H119"/>
-      <c r="I119"/>
-      <c r="J119"/>
-      <c r="K119"/>
-      <c r="L119"/>
+      <c r="H119" t="s">
+        <v>75</v>
+      </c>
+      <c r="I119">
+        <v>85</v>
+      </c>
+      <c r="J119">
+        <v>63</v>
+      </c>
+      <c r="K119">
+        <v>26</v>
+      </c>
+      <c r="L119" s="20"/>
       <c r="M119"/>
       <c r="N119"/>
       <c r="O119"/>
@@ -10380,26 +9905,34 @@
     </row>
     <row r="120" spans="2:18">
       <c r="B120" s="11" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C120" s="12">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="D120" s="12">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="E120" s="12">
-        <v>100</v>
+        <v>26</v>
       </c>
       <c r="F120" s="12">
-        <v>220</v>
+        <v>174</v>
       </c>
       <c r="G120"/>
-      <c r="H120"/>
-      <c r="I120"/>
-      <c r="J120"/>
-      <c r="K120"/>
-      <c r="L120"/>
+      <c r="H120" t="s">
+        <v>76</v>
+      </c>
+      <c r="I120">
+        <v>105</v>
+      </c>
+      <c r="J120">
+        <v>68</v>
+      </c>
+      <c r="K120">
+        <v>30</v>
+      </c>
+      <c r="L120" s="20"/>
       <c r="M120"/>
       <c r="N120"/>
       <c r="O120"/>
@@ -10408,17 +9941,35 @@
       <c r="R120"/>
     </row>
     <row r="121" spans="2:18">
-      <c r="B121"/>
-      <c r="C121"/>
-      <c r="D121"/>
-      <c r="E121"/>
-      <c r="F121"/>
+      <c r="B121" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="C121" s="12">
+        <v>105</v>
+      </c>
+      <c r="D121" s="12">
+        <v>68</v>
+      </c>
+      <c r="E121" s="12">
+        <v>30</v>
+      </c>
+      <c r="F121" s="12">
+        <v>203</v>
+      </c>
       <c r="G121"/>
-      <c r="H121"/>
-      <c r="I121"/>
-      <c r="J121"/>
-      <c r="K121"/>
-      <c r="L121"/>
+      <c r="H121" t="s">
+        <v>77</v>
+      </c>
+      <c r="I121">
+        <v>440</v>
+      </c>
+      <c r="J121">
+        <v>275</v>
+      </c>
+      <c r="K121">
+        <v>120</v>
+      </c>
+      <c r="L121" s="20"/>
       <c r="M121"/>
       <c r="N121"/>
       <c r="O121"/>
@@ -10427,17 +9978,35 @@
       <c r="R121"/>
     </row>
     <row r="122" spans="2:18">
-      <c r="B122"/>
-      <c r="C122"/>
-      <c r="D122"/>
-      <c r="E122"/>
-      <c r="F122"/>
+      <c r="B122" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="C122" s="12">
+        <v>440</v>
+      </c>
+      <c r="D122" s="12">
+        <v>275</v>
+      </c>
+      <c r="E122" s="12">
+        <v>120</v>
+      </c>
+      <c r="F122" s="12">
+        <v>835</v>
+      </c>
       <c r="G122"/>
-      <c r="H122"/>
-      <c r="I122"/>
-      <c r="J122"/>
-      <c r="K122"/>
-      <c r="L122"/>
+      <c r="H122" t="s">
+        <v>78</v>
+      </c>
+      <c r="I122">
+        <v>50</v>
+      </c>
+      <c r="J122">
+        <v>70</v>
+      </c>
+      <c r="K122">
+        <v>100</v>
+      </c>
+      <c r="L122" s="20"/>
       <c r="M122"/>
       <c r="N122"/>
       <c r="O122"/>
@@ -10446,19 +10015,43 @@
       <c r="R122"/>
     </row>
     <row r="123" spans="2:18">
-      <c r="B123"/>
-      <c r="C123"/>
-      <c r="D123"/>
-      <c r="E123"/>
-      <c r="F123"/>
+      <c r="B123" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="C123" s="12">
+        <v>50</v>
+      </c>
+      <c r="D123" s="12">
+        <v>70</v>
+      </c>
+      <c r="E123" s="12">
+        <v>100</v>
+      </c>
+      <c r="F123" s="12">
+        <v>220</v>
+      </c>
       <c r="G123"/>
-      <c r="H123"/>
-      <c r="I123"/>
-      <c r="J123"/>
-      <c r="K123"/>
-      <c r="L123"/>
+      <c r="H123" t="s">
+        <v>84</v>
+      </c>
+      <c r="I123">
+        <f>SUM(I118:I122)</f>
+        <v>745</v>
+      </c>
+      <c r="J123">
+        <f>SUM(J118:J122)</f>
+        <v>518</v>
+      </c>
+      <c r="K123">
+        <f>SUM(K118:K122)</f>
+        <v>297</v>
+      </c>
       <c r="M123"/>
       <c r="N123"/>
+      <c r="O123"/>
+      <c r="P123"/>
+      <c r="Q123"/>
+      <c r="R123"/>
     </row>
     <row r="124" spans="2:18">
       <c r="B124"/>
@@ -10474,305 +10067,188 @@
       <c r="L124"/>
       <c r="M124"/>
       <c r="N124"/>
+      <c r="O124"/>
+      <c r="P124"/>
+      <c r="Q124"/>
+      <c r="R124"/>
     </row>
     <row r="125" spans="2:18">
-      <c r="B125"/>
-      <c r="C125"/>
-      <c r="D125"/>
-      <c r="E125"/>
-      <c r="F125"/>
-      <c r="G125"/>
-      <c r="H125"/>
-      <c r="I125"/>
-      <c r="J125"/>
-      <c r="K125"/>
-      <c r="L125"/>
-      <c r="M125"/>
-      <c r="N125"/>
+      <c r="H125" s="20"/>
     </row>
     <row r="126" spans="2:18">
-      <c r="B126"/>
-      <c r="C126"/>
-      <c r="D126"/>
-      <c r="E126"/>
-      <c r="F126"/>
-      <c r="G126"/>
-      <c r="H126"/>
-      <c r="I126"/>
-      <c r="J126"/>
-      <c r="K126"/>
-      <c r="L126"/>
-      <c r="M126"/>
-      <c r="N126"/>
+      <c r="H126" s="20"/>
     </row>
     <row r="127" spans="2:18">
-      <c r="B127"/>
-      <c r="C127"/>
-      <c r="D127"/>
-      <c r="E127"/>
-      <c r="F127"/>
-      <c r="G127"/>
-      <c r="H127"/>
-      <c r="I127"/>
-      <c r="J127"/>
-      <c r="K127"/>
-      <c r="L127"/>
-      <c r="M127"/>
-      <c r="N127"/>
-    </row>
-    <row r="128" spans="2:18">
-      <c r="B128"/>
-      <c r="C128"/>
-      <c r="D128"/>
-      <c r="E128"/>
-      <c r="F128"/>
-      <c r="G128"/>
-      <c r="H128"/>
-      <c r="I128"/>
-      <c r="J128"/>
-      <c r="K128"/>
-      <c r="L128"/>
-      <c r="M128"/>
-      <c r="N128"/>
-    </row>
-    <row r="129" spans="2:10">
+      <c r="H127" s="20"/>
+    </row>
+    <row r="129" spans="2:6">
       <c r="B129"/>
       <c r="C129"/>
       <c r="D129"/>
       <c r="E129"/>
       <c r="F129"/>
-      <c r="G129"/>
-      <c r="H129"/>
-      <c r="I129"/>
-      <c r="J129"/>
-    </row>
-    <row r="130" spans="2:10">
+    </row>
+    <row r="130" spans="2:6">
       <c r="B130"/>
       <c r="C130"/>
       <c r="D130"/>
       <c r="E130"/>
       <c r="F130"/>
-      <c r="G130"/>
-      <c r="H130"/>
-      <c r="I130"/>
-      <c r="J130"/>
-    </row>
-    <row r="131" spans="2:10">
-      <c r="B131"/>
-      <c r="C131"/>
-      <c r="D131"/>
-      <c r="E131"/>
-      <c r="F131"/>
-    </row>
-    <row r="132" spans="2:10">
+    </row>
+    <row r="131" spans="2:6">
+      <c r="B131" t="s">
+        <v>74</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D131" t="s">
+        <v>47</v>
+      </c>
+      <c r="E131" t="s">
+        <v>55</v>
+      </c>
+      <c r="F131" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="132" spans="2:6">
       <c r="B132" t="s">
-        <v>74</v>
-      </c>
-      <c r="C132" t="s">
-        <v>47</v>
-      </c>
-      <c r="D132" t="s">
-        <v>55</v>
-      </c>
-      <c r="E132" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="133" spans="2:10">
+        <v>71</v>
+      </c>
+      <c r="C132" s="2">
+        <v>0</v>
+      </c>
+      <c r="D132" s="20">
+        <v>0.09</v>
+      </c>
+      <c r="E132">
+        <v>0.08</v>
+      </c>
+      <c r="F132">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="133" spans="2:6">
       <c r="B133" t="s">
-        <v>73</v>
-      </c>
-      <c r="C133">
-        <v>65</v>
-      </c>
-      <c r="D133">
-        <v>42</v>
+        <v>86</v>
+      </c>
+      <c r="C133" s="2">
+        <v>0</v>
+      </c>
+      <c r="D133" s="20">
+        <v>0.25</v>
       </c>
       <c r="E133">
-        <v>21</v>
-      </c>
-      <c r="F133" s="21"/>
-      <c r="H133" s="21"/>
-    </row>
-    <row r="134" spans="2:10">
+        <v>0.25</v>
+      </c>
+      <c r="F133">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="134" spans="2:6">
       <c r="B134" t="s">
-        <v>75</v>
-      </c>
-      <c r="C134">
-        <v>85</v>
-      </c>
-      <c r="D134">
-        <v>63</v>
+        <v>33</v>
+      </c>
+      <c r="C134" s="2">
+        <v>0</v>
+      </c>
+      <c r="D134" s="20">
+        <v>0.59</v>
       </c>
       <c r="E134">
-        <v>26</v>
-      </c>
-      <c r="F134" s="21"/>
-      <c r="H134" s="21"/>
-    </row>
-    <row r="135" spans="2:10">
+        <v>0.53</v>
+      </c>
+      <c r="F134">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="135" spans="2:6">
       <c r="B135" t="s">
-        <v>76</v>
-      </c>
-      <c r="C135">
-        <v>105</v>
-      </c>
-      <c r="D135">
-        <v>68</v>
+        <v>34</v>
+      </c>
+      <c r="C135" s="2">
+        <v>0</v>
+      </c>
+      <c r="D135" s="20">
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="E135">
-        <v>30</v>
-      </c>
-      <c r="F135" s="21"/>
-      <c r="H135" s="21"/>
-    </row>
-    <row r="136" spans="2:10">
-      <c r="B136" t="s">
-        <v>77</v>
-      </c>
-      <c r="C136">
-        <v>440</v>
-      </c>
-      <c r="D136">
-        <v>275</v>
-      </c>
-      <c r="E136">
-        <v>120</v>
-      </c>
-      <c r="F136" s="21"/>
-      <c r="H136" s="21"/>
-    </row>
-    <row r="137" spans="2:10">
-      <c r="B137" t="s">
-        <v>78</v>
-      </c>
-      <c r="C137">
-        <v>50</v>
-      </c>
-      <c r="D137">
-        <v>70</v>
-      </c>
-      <c r="E137">
-        <v>100</v>
-      </c>
-      <c r="F137" s="21"/>
-      <c r="H137" s="21"/>
-    </row>
-    <row r="138" spans="2:10">
-      <c r="B138" t="s">
-        <v>84</v>
-      </c>
-      <c r="C138">
-        <f>SUM(C133:C137)</f>
-        <v>745</v>
-      </c>
-      <c r="D138">
-        <f>SUM(D133:D137)</f>
-        <v>518</v>
-      </c>
-      <c r="E138">
-        <f>SUM(E133:E137)</f>
-        <v>297</v>
-      </c>
-    </row>
-    <row r="139" spans="2:10">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="F135">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="136" spans="2:6">
+      <c r="B136"/>
+      <c r="C136"/>
+      <c r="D136"/>
+      <c r="E136"/>
+      <c r="F136"/>
+    </row>
+    <row r="137" spans="2:6">
+      <c r="B137"/>
+      <c r="C137"/>
+      <c r="D137"/>
+      <c r="E137"/>
+      <c r="F137"/>
+    </row>
+    <row r="138" spans="2:6">
+      <c r="B138"/>
+      <c r="C138"/>
+      <c r="D138"/>
+      <c r="E138"/>
+      <c r="F138"/>
+    </row>
+    <row r="139" spans="2:6">
       <c r="B139"/>
       <c r="C139"/>
       <c r="D139"/>
       <c r="E139"/>
       <c r="F139"/>
     </row>
-    <row r="140" spans="2:10">
+    <row r="140" spans="2:6">
       <c r="B140"/>
       <c r="C140"/>
       <c r="D140"/>
       <c r="E140"/>
       <c r="F140"/>
     </row>
-    <row r="141" spans="2:10">
-      <c r="B141" t="s">
-        <v>74</v>
-      </c>
-      <c r="C141" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D141" t="s">
-        <v>47</v>
-      </c>
-      <c r="E141" t="s">
-        <v>55</v>
-      </c>
-      <c r="F141" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="142" spans="2:10">
-      <c r="B142" t="s">
-        <v>71</v>
-      </c>
-      <c r="C142" s="2">
-        <v>0</v>
-      </c>
-      <c r="D142" s="21">
-        <v>0.09</v>
-      </c>
-      <c r="E142">
-        <v>0.08</v>
-      </c>
-      <c r="F142">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="143" spans="2:10">
-      <c r="B143" t="s">
-        <v>86</v>
-      </c>
-      <c r="C143" s="2">
-        <v>0</v>
-      </c>
-      <c r="D143" s="21">
-        <v>0.25</v>
-      </c>
-      <c r="E143">
-        <v>0.25</v>
-      </c>
-      <c r="F143">
-        <v>0.19</v>
-      </c>
-    </row>
-    <row r="144" spans="2:10">
-      <c r="B144" t="s">
-        <v>33</v>
-      </c>
-      <c r="C144" s="2">
-        <v>0</v>
-      </c>
-      <c r="D144" s="21">
-        <v>0.59</v>
-      </c>
-      <c r="E144">
-        <v>0.53</v>
-      </c>
-      <c r="F144">
-        <v>0.4</v>
-      </c>
+    <row r="141" spans="2:6">
+      <c r="B141"/>
+      <c r="C141"/>
+      <c r="D141"/>
+      <c r="E141"/>
+      <c r="F141"/>
+    </row>
+    <row r="142" spans="2:6">
+      <c r="B142"/>
+      <c r="C142"/>
+      <c r="D142"/>
+      <c r="E142"/>
+      <c r="F142"/>
+    </row>
+    <row r="143" spans="2:6">
+      <c r="B143"/>
+      <c r="C143"/>
+      <c r="D143"/>
+      <c r="E143"/>
+      <c r="F143"/>
+    </row>
+    <row r="144" spans="2:6">
+      <c r="B144"/>
+      <c r="C144"/>
+      <c r="D144"/>
+      <c r="E144"/>
+      <c r="F144"/>
     </row>
     <row r="145" spans="2:6">
-      <c r="B145" t="s">
-        <v>34</v>
-      </c>
-      <c r="C145" s="2">
-        <v>0</v>
-      </c>
-      <c r="D145" s="21">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="E145">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="F145">
-        <v>0.34</v>
-      </c>
+      <c r="B145"/>
+      <c r="C145"/>
+      <c r="D145"/>
+      <c r="E145"/>
+      <c r="F145"/>
     </row>
     <row r="146" spans="2:6">
       <c r="B146"/>
@@ -10780,76 +10256,6 @@
       <c r="D146"/>
       <c r="E146"/>
       <c r="F146"/>
-    </row>
-    <row r="147" spans="2:6">
-      <c r="B147"/>
-      <c r="C147"/>
-      <c r="D147"/>
-      <c r="E147"/>
-      <c r="F147"/>
-    </row>
-    <row r="148" spans="2:6">
-      <c r="B148"/>
-      <c r="C148"/>
-      <c r="D148"/>
-      <c r="E148"/>
-      <c r="F148"/>
-    </row>
-    <row r="149" spans="2:6">
-      <c r="B149"/>
-      <c r="C149"/>
-      <c r="D149"/>
-      <c r="E149"/>
-      <c r="F149"/>
-    </row>
-    <row r="150" spans="2:6">
-      <c r="B150"/>
-      <c r="C150"/>
-      <c r="D150"/>
-      <c r="E150"/>
-      <c r="F150"/>
-    </row>
-    <row r="151" spans="2:6">
-      <c r="B151"/>
-      <c r="C151"/>
-      <c r="D151"/>
-      <c r="E151"/>
-      <c r="F151"/>
-    </row>
-    <row r="152" spans="2:6">
-      <c r="B152"/>
-      <c r="C152"/>
-      <c r="D152"/>
-      <c r="E152"/>
-      <c r="F152"/>
-    </row>
-    <row r="153" spans="2:6">
-      <c r="B153"/>
-      <c r="C153"/>
-      <c r="D153"/>
-      <c r="E153"/>
-      <c r="F153"/>
-    </row>
-    <row r="154" spans="2:6">
-      <c r="B154"/>
-      <c r="C154"/>
-      <c r="D154"/>
-      <c r="E154"/>
-      <c r="F154"/>
-    </row>
-    <row r="155" spans="2:6">
-      <c r="B155"/>
-      <c r="C155"/>
-      <c r="D155"/>
-      <c r="E155"/>
-      <c r="F155"/>
-    </row>
-    <row r="156" spans="2:6">
-      <c r="B156"/>
-      <c r="C156"/>
-      <c r="D156"/>
-      <c r="E156"/>
-      <c r="F156"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
@@ -10870,7 +10276,7 @@
   <dimension ref="C8:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9:G14"/>
+      <selection activeCell="C22" sqref="C22:I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>

--- a/doc/Tareas Esfuerzo.xlsx
+++ b/doc/Tareas Esfuerzo.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="94">
   <si>
     <t>Etapa</t>
   </si>
@@ -274,9 +274,6 @@
     <t>Inicio</t>
   </si>
   <si>
-    <t>Desarrollo y Testing</t>
-  </si>
-  <si>
     <t>Rótulos de columna</t>
   </si>
   <si>
@@ -308,6 +305,9 @@
   </si>
   <si>
     <t>TOTAL</t>
+  </si>
+  <si>
+    <t>Desarrollo</t>
   </si>
 </sst>
 </file>
@@ -1629,7 +1629,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Desarrollo y Testing</c:v>
+                  <c:v>Desarrollo</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1670,7 +1670,66 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.92</c:v>
+                  <c:v>0.78</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>General!$B$115</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Pruebas</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>General!$C$111:$F$111</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Inicio</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Etapa 1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Etapa 2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Etapa 3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>General!$C$115:$F$115</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.14000000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.33</c:v>
@@ -6156,8 +6215,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AW292"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C103" workbookViewId="0">
-      <selection activeCell="D120" sqref="D120"/>
+    <sheetView tabSelected="1" topLeftCell="B100" workbookViewId="0">
+      <selection activeCell="F120" sqref="F120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="15"/>
@@ -7399,7 +7458,7 @@
     <row r="76" spans="1:9">
       <c r="A76" s="1"/>
       <c r="C76" s="24" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D76"/>
       <c r="E76"/>
@@ -7899,7 +7958,7 @@
     <row r="114" spans="1:6">
       <c r="A114" s="1"/>
       <c r="B114" s="21" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="C114" s="2">
         <v>0</v>
@@ -7908,15 +7967,29 @@
         <v>0</v>
       </c>
       <c r="E114" s="2">
-        <v>0.92</v>
+        <v>0.78</v>
       </c>
       <c r="F114" s="2">
-        <v>0.33</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:6">
       <c r="A115" s="1"/>
-      <c r="B115" s="21"/>
+      <c r="B115" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C115" s="2">
+        <v>0</v>
+      </c>
+      <c r="D115" s="2">
+        <v>0</v>
+      </c>
+      <c r="E115" s="2">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="F115" s="2">
+        <v>0.33</v>
+      </c>
     </row>
     <row r="116" spans="1:6">
       <c r="A116" s="1"/>
@@ -9059,22 +9132,22 @@
         <v>68</v>
       </c>
       <c r="C27" t="s">
+        <v>87</v>
+      </c>
+      <c r="D27" t="s">
         <v>88</v>
       </c>
-      <c r="D27" t="s">
+      <c r="E27" t="s">
         <v>89</v>
       </c>
-      <c r="E27" t="s">
+      <c r="F27" t="s">
         <v>90</v>
       </c>
-      <c r="F27" t="s">
+      <c r="G27" t="s">
         <v>91</v>
       </c>
-      <c r="G27" t="s">
+      <c r="H27" t="s">
         <v>92</v>
-      </c>
-      <c r="H27" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="28" spans="2:10">
@@ -9244,19 +9317,19 @@
         <v>68</v>
       </c>
       <c r="C54" t="s">
+        <v>87</v>
+      </c>
+      <c r="D54" t="s">
         <v>88</v>
       </c>
-      <c r="D54" t="s">
+      <c r="E54" t="s">
         <v>89</v>
       </c>
-      <c r="E54" t="s">
+      <c r="F54" t="s">
         <v>90</v>
       </c>
-      <c r="F54" t="s">
+      <c r="G54" t="s">
         <v>91</v>
-      </c>
-      <c r="G54" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="55" spans="2:7">
@@ -9804,7 +9877,7 @@
     <row r="117" spans="2:18">
       <c r="B117"/>
       <c r="C117" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D117"/>
       <c r="E117"/>
@@ -10032,7 +10105,7 @@
       </c>
       <c r="G123"/>
       <c r="H123" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I123">
         <f>SUM(I118:I122)</f>
@@ -10100,7 +10173,7 @@
         <v>74</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D131" t="s">
         <v>47</v>
@@ -10131,7 +10204,7 @@
     </row>
     <row r="133" spans="2:6">
       <c r="B133" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C133" s="2">
         <v>0</v>
@@ -10283,7 +10356,7 @@
   <sheetData>
     <row r="8" spans="3:7">
       <c r="D8" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="3:7">

--- a/doc/Tareas Esfuerzo.xlsx
+++ b/doc/Tareas Esfuerzo.xlsx
@@ -4,12 +4,11 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="3" r:id="rId1"/>
     <sheet name="Por CU" sheetId="2" r:id="rId2"/>
-    <sheet name="Hoja1" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="__xlnm._FilterDatabase">#REF!</definedName>
@@ -17,16 +16,15 @@
   </definedNames>
   <calcPr calcId="125725" iterateDelta="1E-4"/>
   <pivotCaches>
-    <pivotCache cacheId="8" r:id="rId4"/>
-    <pivotCache cacheId="9" r:id="rId5"/>
-    <pivotCache cacheId="10" r:id="rId6"/>
-    <pivotCache cacheId="11" r:id="rId7"/>
+    <pivotCache cacheId="23" r:id="rId3"/>
+    <pivotCache cacheId="31" r:id="rId4"/>
+    <pivotCache cacheId="39" r:id="rId5"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="94">
   <si>
     <t>Etapa</t>
   </si>
@@ -754,10 +752,10 @@
                   <c:v>599</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>621</c:v>
+                  <c:v>631</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>835</c:v>
+                  <c:v>830</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -888,7 +886,7 @@
                   <c:v>729</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1560</c:v>
+                  <c:v>1565</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>543</c:v>
@@ -1060,10 +1058,10 @@
                   <c:v>599</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>621</c:v>
+                  <c:v>631</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>835</c:v>
+                  <c:v>830</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1141,13 +1139,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.32</c:v>
+                  <c:v>0.32373113854595337</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="General">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="3" formatCode="General">
-                  <c:v>0.67</c:v>
+                <c:pt idx="3">
+                  <c:v>0.66850828729281764</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1200,10 +1198,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.68</c:v>
-                </c:pt>
-                <c:pt idx="2" formatCode="General">
-                  <c:v>0.08</c:v>
+                  <c:v>0.67626886145404663</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.8178913738019171E-2</c:v>
                 </c:pt>
                 <c:pt idx="3" formatCode="General">
                   <c:v>0</c:v>
@@ -1261,8 +1259,8 @@
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.11</c:v>
+                <c:pt idx="2" formatCode="0.00">
+                  <c:v>0.11118210862619808</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -1320,8 +1318,8 @@
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.54</c:v>
+                <c:pt idx="2" formatCode="0.00">
+                  <c:v>0.53035143769968052</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -1379,8 +1377,8 @@
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.13</c:v>
+                <c:pt idx="2" formatCode="0.00">
+                  <c:v>0.12971246006389775</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -1438,11 +1436,11 @@
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.14000000000000001</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.33</c:v>
+                <c:pt idx="2" formatCode="0.00">
+                  <c:v>0.14057507987220447</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0.00">
+                  <c:v>0.33149171270718231</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1611,7 +1609,7 @@
                   <c:v>0.68</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="General">
-                  <c:v>0.08</c:v>
+                  <c:v>0.09</c:v>
                 </c:pt>
                 <c:pt idx="3" formatCode="General">
                   <c:v>0</c:v>
@@ -1670,7 +1668,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.78</c:v>
+                  <c:v>0.77</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -1897,10 +1895,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>65</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>42</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>21</c:v>
@@ -1950,7 +1948,7 @@
                   <c:v>85</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>63</c:v>
+                  <c:v>61</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>26</c:v>
@@ -2000,7 +1998,7 @@
                   <c:v>105</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>68</c:v>
+                  <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>30</c:v>
@@ -2047,7 +2045,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>440</c:v>
+                  <c:v>435</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>275</c:v>
@@ -2382,7 +2380,7 @@
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>10</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>8</c:v>
@@ -2394,7 +2392,7 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>10</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2528,7 +2526,7 @@
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>17</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2662,7 +2660,7 @@
                   <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>17</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2784,7 +2782,7 @@
                   <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>80</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>55</c:v>
@@ -3248,13 +3246,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.09</c:v>
-                </c:pt>
-                <c:pt idx="2" formatCode="General">
-                  <c:v>0.08</c:v>
-                </c:pt>
-                <c:pt idx="3" formatCode="General">
-                  <c:v>7.0000000000000007E-2</c:v>
+                  <c:v>9.3959731543624164E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.0733590733590733E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.0707070707070704E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3307,13 +3305,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.25</c:v>
-                </c:pt>
-                <c:pt idx="2" formatCode="General">
-                  <c:v>0.25</c:v>
-                </c:pt>
-                <c:pt idx="3" formatCode="General">
-                  <c:v>0.19</c:v>
+                  <c:v>0.25503355704697989</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.24324324324324326</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.18855218855218855</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3366,13 +3364,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.59</c:v>
-                </c:pt>
-                <c:pt idx="2" formatCode="General">
-                  <c:v>0.53</c:v>
-                </c:pt>
-                <c:pt idx="3" formatCode="General">
-                  <c:v>0.4</c:v>
+                  <c:v>0.58389261744966447</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.53088803088803094</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.40404040404040403</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3425,13 +3423,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.0000000000000007E-2</c:v>
-                </c:pt>
-                <c:pt idx="2" formatCode="General">
-                  <c:v>0.14000000000000001</c:v>
-                </c:pt>
-                <c:pt idx="3" formatCode="General">
-                  <c:v>0.34</c:v>
+                  <c:v>6.7114093959731544E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.13513513513513514</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.33670033670033672</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3732,15 +3730,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>904874</xdr:colOff>
-      <xdr:row>125</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:colOff>981074</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>1257299</xdr:colOff>
-      <xdr:row>139</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>76199</xdr:colOff>
+      <xdr:row>132</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3763,7 +3761,106 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Martin Loureiro" refreshedDate="40987.631493865738" createdVersion="3" refreshedVersion="3" minRefreshableVersion="3" recordCount="17">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Martin Loureiro" refreshedDate="40991.386438078705" createdVersion="3" refreshedVersion="3" minRefreshableVersion="3" recordCount="37">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="C2:I39" sheet="General"/>
+  </cacheSource>
+  <cacheFields count="7">
+    <cacheField name="Etapa" numFmtId="0">
+      <sharedItems count="4">
+        <s v="Etapa 1"/>
+        <s v="Etapa 2"/>
+        <s v="Etapa 3"/>
+        <s v="Etapa3" u="1"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Tipo" numFmtId="0">
+      <sharedItems count="6">
+        <s v="Documentación"/>
+        <s v="Investigación"/>
+        <s v="Analisis"/>
+        <s v="Diseño"/>
+        <s v="Codificación"/>
+        <s v="Pruebas"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Fase" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Tarea" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Horas" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="6" maxValue="435"/>
+    </cacheField>
+    <cacheField name="Antonio" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="2" maxValue="225"/>
+    </cacheField>
+    <cacheField name="Martín" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="2" maxValue="210"/>
+    </cacheField>
+  </cacheFields>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Martin Loureiro" refreshedDate="40991.388684606478" createdVersion="3" refreshedVersion="3" minRefreshableVersion="3" recordCount="17">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="B3:I20" sheet="Por CU"/>
+  </cacheSource>
+  <cacheFields count="8">
+    <cacheField name="Iteración" numFmtId="0">
+      <sharedItems count="3">
+        <s v="1er It"/>
+        <s v="2da It"/>
+        <s v="3er It"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="CU" numFmtId="0">
+      <sharedItems count="17">
+        <s v="CU01 - Login"/>
+        <s v="CU02 - Crear Usuario"/>
+        <s v="CU03 - Ver Perfil"/>
+        <s v="CU05 - Buscar Usuario"/>
+        <s v="CU13 - Buscar Sitio"/>
+        <s v="CU14 - Crear Sitio"/>
+        <s v="CU16 - Ver Sitio"/>
+        <s v="CU06 - Ver Solicitudes de Amistad"/>
+        <s v="CU07 - Generar Solicitud de Amistad"/>
+        <s v="CU08 - Responder Solicitud de Amistad"/>
+        <s v="CU09 - Ver Amigos"/>
+        <s v="CU12 - Invitar amigos"/>
+        <s v="CU17 - Publicar Información"/>
+        <s v="CU04 - Modificar - Eliminar Usuario"/>
+        <s v="CU10 - Ubicar Amigos - Radar"/>
+        <s v="CU11 - Compartir Ubicacion"/>
+        <s v="CU15 - Modificar - Eliminar Sitio"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Investigación" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="15"/>
+    </cacheField>
+    <cacheField name="Análisis" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="3" maxValue="15"/>
+    </cacheField>
+    <cacheField name="Diseño" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="3" maxValue="20"/>
+    </cacheField>
+    <cacheField name="Codificación" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="24" maxValue="75"/>
+    </cacheField>
+    <cacheField name="Pruebas y ajustes" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="5" maxValue="30"/>
+    </cacheField>
+    <cacheField name="TOTAL por CU" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="51" maxValue="134"/>
+    </cacheField>
+  </cacheFields>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Martin Loureiro" refreshedDate="40991.389505439816" createdVersion="3" refreshedVersion="3" minRefreshableVersion="3" recordCount="17">
   <cacheSource type="worksheet">
     <worksheetSource ref="B3:H20" sheet="Por CU"/>
   </cacheSource>
@@ -3797,624 +3894,25 @@
       </sharedItems>
     </cacheField>
     <cacheField name="Investigación" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="15" count="8">
-        <n v="13"/>
-        <n v="15"/>
-        <n v="2"/>
-        <n v="10"/>
-        <n v="8"/>
-        <n v="1"/>
-        <n v="7"/>
-        <n v="11"/>
-      </sharedItems>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="15"/>
     </cacheField>
     <cacheField name="Análisis" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="3" maxValue="17"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="3" maxValue="15"/>
     </cacheField>
     <cacheField name="Diseño" numFmtId="0">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="3" maxValue="20"/>
     </cacheField>
     <cacheField name="Codificación" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="24" maxValue="80"/>
-    </cacheField>
-    <cacheField name="Pruebas y ajustes" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="5" maxValue="30" count="8">
-        <n v="8"/>
-        <n v="10"/>
-        <n v="5"/>
-        <n v="9"/>
-        <n v="12"/>
-        <n v="15"/>
-        <n v="20"/>
-        <n v="30"/>
-      </sharedItems>
-    </cacheField>
-  </cacheFields>
-</pivotCacheDefinition>
-</file>
-
-<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Martin Loureiro" refreshedDate="40987.634994675929" createdVersion="3" refreshedVersion="3" minRefreshableVersion="3" recordCount="17">
-  <cacheSource type="worksheet">
-    <worksheetSource ref="B3:I20" sheet="Por CU"/>
-  </cacheSource>
-  <cacheFields count="8">
-    <cacheField name="Iteración" numFmtId="0">
-      <sharedItems count="3">
-        <s v="1er It"/>
-        <s v="2da It"/>
-        <s v="3er It"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="CU" numFmtId="0">
-      <sharedItems count="17">
-        <s v="CU01 - Login"/>
-        <s v="CU02 - Crear Usuario"/>
-        <s v="CU03 - Ver Perfil"/>
-        <s v="CU05 - Buscar Usuario"/>
-        <s v="CU13 - Buscar Sitio"/>
-        <s v="CU14 - Crear Sitio"/>
-        <s v="CU16 - Ver Sitio"/>
-        <s v="CU06 - Ver Solicitudes de Amistad"/>
-        <s v="CU07 - Generar Solicitud de Amistad"/>
-        <s v="CU08 - Responder Solicitud de Amistad"/>
-        <s v="CU09 - Ver Amigos"/>
-        <s v="CU12 - Invitar amigos"/>
-        <s v="CU17 - Publicar Información"/>
-        <s v="CU04 - Modificar - Eliminar Usuario"/>
-        <s v="CU10 - Ubicar Amigos - Radar"/>
-        <s v="CU11 - Compartir Ubicacion"/>
-        <s v="CU15 - Modificar - Eliminar Sitio"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="Investigación" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="15" count="8">
-        <n v="13"/>
-        <n v="15"/>
-        <n v="2"/>
-        <n v="10"/>
-        <n v="8"/>
-        <n v="1"/>
-        <n v="7"/>
-        <n v="11"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="Análisis" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="3" maxValue="17" count="10">
-        <n v="15"/>
-        <n v="8"/>
-        <n v="12"/>
-        <n v="14"/>
-        <n v="6"/>
-        <n v="10"/>
-        <n v="17"/>
-        <n v="3"/>
-        <n v="11"/>
-        <n v="4"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="Diseño" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="3" maxValue="20" count="10">
-        <n v="16"/>
-        <n v="15"/>
-        <n v="12"/>
-        <n v="20"/>
-        <n v="8"/>
-        <n v="6"/>
-        <n v="10"/>
-        <n v="17"/>
-        <n v="3"/>
-        <n v="4"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="Codificación" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="24" maxValue="80" count="13">
-        <n v="70"/>
-        <n v="45"/>
-        <n v="75"/>
-        <n v="80"/>
-        <n v="55"/>
-        <n v="40"/>
-        <n v="35"/>
-        <n v="30"/>
-        <n v="50"/>
-        <n v="24"/>
-        <n v="32"/>
-        <n v="36"/>
-        <n v="28"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="Pruebas y ajustes" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="5" maxValue="30" count="8">
-        <n v="8"/>
-        <n v="10"/>
-        <n v="5"/>
-        <n v="9"/>
-        <n v="12"/>
-        <n v="15"/>
-        <n v="20"/>
-        <n v="30"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="TOTAL por CU" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="51" maxValue="134"/>
-    </cacheField>
-  </cacheFields>
-</pivotCacheDefinition>
-</file>
-
-<file path=xl/pivotCache/pivotCacheDefinition3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Martin Loureiro" refreshedDate="40988.121901620369" createdVersion="3" refreshedVersion="3" minRefreshableVersion="3" recordCount="37">
-  <cacheSource type="worksheet">
-    <worksheetSource ref="C2:I39" sheet="General"/>
-  </cacheSource>
-  <cacheFields count="7">
-    <cacheField name="Etapa" numFmtId="0">
-      <sharedItems count="4">
-        <s v="Etapa 1"/>
-        <s v="Etapa 2"/>
-        <s v="Etapa 3"/>
-        <s v="Etapa3" u="1"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="Tipo" numFmtId="0">
-      <sharedItems count="6">
-        <s v="Documentación"/>
-        <s v="Investigación"/>
-        <s v="Analisis"/>
-        <s v="Diseño"/>
-        <s v="Codificación"/>
-        <s v="Pruebas"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="Fase" numFmtId="0">
-      <sharedItems/>
-    </cacheField>
-    <cacheField name="Tarea" numFmtId="0">
-      <sharedItems/>
-    </cacheField>
-    <cacheField name="Horas" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="6" maxValue="440"/>
-    </cacheField>
-    <cacheField name="Antonio" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="2" maxValue="230"/>
-    </cacheField>
-    <cacheField name="Martín" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="2" maxValue="210"/>
-    </cacheField>
-  </cacheFields>
-</pivotCacheDefinition>
-</file>
-
-<file path=xl/pivotCache/pivotCacheDefinition4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Martin Loureiro" refreshedDate="40988.181627777776" createdVersion="3" refreshedVersion="3" minRefreshableVersion="3" recordCount="17">
-  <cacheSource type="worksheet">
-    <worksheetSource ref="B3:J20" sheet="Por CU"/>
-  </cacheSource>
-  <cacheFields count="9">
-    <cacheField name="Iteración" numFmtId="0">
-      <sharedItems count="3">
-        <s v="1er It"/>
-        <s v="2da It"/>
-        <s v="3er It"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="CU" numFmtId="0">
-      <sharedItems count="17">
-        <s v="CU01 - Login"/>
-        <s v="CU02 - Crear Usuario"/>
-        <s v="CU03 - Ver Perfil"/>
-        <s v="CU05 - Buscar Usuario"/>
-        <s v="CU13 - Buscar Sitio"/>
-        <s v="CU14 - Crear Sitio"/>
-        <s v="CU16 - Ver Sitio"/>
-        <s v="CU06 - Ver Solicitudes de Amistad"/>
-        <s v="CU07 - Generar Solicitud de Amistad"/>
-        <s v="CU08 - Responder Solicitud de Amistad"/>
-        <s v="CU09 - Ver Amigos"/>
-        <s v="CU12 - Invitar amigos"/>
-        <s v="CU17 - Publicar Información"/>
-        <s v="CU04 - Modificar - Eliminar Usuario"/>
-        <s v="CU10 - Ubicar Amigos - Radar"/>
-        <s v="CU11 - Compartir Ubicacion"/>
-        <s v="CU15 - Modificar - Eliminar Sitio"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="Investigación" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="15" count="8">
-        <n v="13"/>
-        <n v="15"/>
-        <n v="2"/>
-        <n v="10"/>
-        <n v="8"/>
-        <n v="1"/>
-        <n v="7"/>
-        <n v="11"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="Análisis" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="3" maxValue="17" count="10">
-        <n v="15"/>
-        <n v="8"/>
-        <n v="12"/>
-        <n v="14"/>
-        <n v="6"/>
-        <n v="10"/>
-        <n v="17"/>
-        <n v="3"/>
-        <n v="11"/>
-        <n v="4"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="Diseño" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="3" maxValue="20" count="10">
-        <n v="16"/>
-        <n v="15"/>
-        <n v="12"/>
-        <n v="20"/>
-        <n v="8"/>
-        <n v="6"/>
-        <n v="10"/>
-        <n v="17"/>
-        <n v="3"/>
-        <n v="4"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="Codificación" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="24" maxValue="80"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="24" maxValue="75"/>
     </cacheField>
     <cacheField name="Pruebas y ajustes" numFmtId="0">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="5" maxValue="30"/>
-    </cacheField>
-    <cacheField name="TOTAL por CU" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="51" maxValue="134"/>
-    </cacheField>
-    <cacheField name="TOTAL por It" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="297" maxValue="745" count="4">
-        <n v="745"/>
-        <m/>
-        <n v="518"/>
-        <n v="297"/>
-      </sharedItems>
     </cacheField>
   </cacheFields>
 </pivotCacheDefinition>
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="17">
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="15"/>
-    <n v="16"/>
-    <n v="70"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="1"/>
-    <n v="15"/>
-    <n v="15"/>
-    <n v="70"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="2"/>
-    <n v="8"/>
-    <n v="12"/>
-    <n v="45"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="3"/>
-    <x v="1"/>
-    <n v="12"/>
-    <n v="15"/>
-    <n v="75"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-    <x v="3"/>
-    <n v="15"/>
-    <n v="20"/>
-    <n v="80"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-    <x v="4"/>
-    <n v="12"/>
-    <n v="15"/>
-    <n v="55"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-    <x v="2"/>
-    <n v="8"/>
-    <n v="12"/>
-    <n v="45"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="7"/>
-    <x v="3"/>
-    <n v="14"/>
-    <n v="15"/>
-    <n v="40"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="8"/>
-    <x v="2"/>
-    <n v="8"/>
-    <n v="8"/>
-    <n v="35"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="9"/>
-    <x v="2"/>
-    <n v="6"/>
-    <n v="6"/>
-    <n v="30"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="10"/>
-    <x v="4"/>
-    <n v="10"/>
-    <n v="12"/>
-    <n v="50"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="11"/>
-    <x v="3"/>
-    <n v="8"/>
-    <n v="10"/>
-    <n v="50"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="12"/>
-    <x v="3"/>
-    <n v="17"/>
-    <n v="17"/>
-    <n v="70"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="13"/>
-    <x v="5"/>
-    <n v="3"/>
-    <n v="3"/>
-    <n v="24"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="14"/>
-    <x v="6"/>
-    <n v="8"/>
-    <n v="8"/>
-    <n v="32"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="15"/>
-    <x v="7"/>
-    <n v="11"/>
-    <n v="15"/>
-    <n v="36"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="16"/>
-    <x v="2"/>
-    <n v="4"/>
-    <n v="4"/>
-    <n v="28"/>
-    <x v="6"/>
-  </r>
-</pivotCacheRecords>
-</file>
-
-<file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="17">
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="122"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="1"/>
-    <n v="125"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="1"/>
-    <x v="2"/>
-    <n v="72"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="3"/>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="0"/>
-    <n v="125"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-    <x v="3"/>
-    <x v="0"/>
-    <x v="3"/>
-    <x v="3"/>
-    <x v="3"/>
-    <n v="134"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-    <x v="4"/>
-    <x v="2"/>
-    <x v="1"/>
-    <x v="4"/>
-    <x v="2"/>
-    <n v="95"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-    <x v="2"/>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="1"/>
-    <x v="2"/>
-    <n v="72"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="3"/>
-    <x v="1"/>
-    <x v="5"/>
-    <x v="1"/>
-    <n v="89"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="8"/>
-    <x v="2"/>
-    <x v="1"/>
-    <x v="4"/>
-    <x v="6"/>
-    <x v="0"/>
-    <n v="61"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="9"/>
-    <x v="2"/>
-    <x v="4"/>
-    <x v="5"/>
-    <x v="7"/>
-    <x v="1"/>
-    <n v="54"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="5"/>
-    <x v="2"/>
-    <x v="8"/>
-    <x v="4"/>
-    <n v="92"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="11"/>
-    <x v="3"/>
-    <x v="1"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="5"/>
-    <n v="93"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="12"/>
-    <x v="3"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="0"/>
-    <x v="5"/>
-    <n v="129"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="7"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="6"/>
-    <n v="51"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="14"/>
-    <x v="6"/>
-    <x v="1"/>
-    <x v="4"/>
-    <x v="10"/>
-    <x v="7"/>
-    <n v="85"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="15"/>
-    <x v="7"/>
-    <x v="8"/>
-    <x v="1"/>
-    <x v="11"/>
-    <x v="7"/>
-    <n v="103"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="16"/>
-    <x v="2"/>
-    <x v="9"/>
-    <x v="9"/>
-    <x v="12"/>
-    <x v="6"/>
-    <n v="58"/>
-  </r>
-</pivotCacheRecords>
-</file>
-
-<file path=xl/pivotCache/pivotCacheRecords3.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="37">
   <r>
     <x v="0"/>
@@ -4574,9 +4072,9 @@
     <x v="1"/>
     <s v="Iteración 1: Desarrollo de CU prioridad alta"/>
     <s v="Investigación"/>
-    <n v="65"/>
-    <n v="35"/>
-    <n v="30"/>
+    <n v="70"/>
+    <n v="37"/>
+    <n v="33"/>
   </r>
   <r>
     <x v="1"/>
@@ -4601,8 +4099,8 @@
     <x v="4"/>
     <s v="Iteración 1: Desarrollo de CU prioridad alta"/>
     <s v="Codificación"/>
-    <n v="440"/>
-    <n v="230"/>
+    <n v="435"/>
+    <n v="225"/>
     <n v="210"/>
   </r>
   <r>
@@ -4619,9 +4117,9 @@
     <x v="1"/>
     <s v="Iteración 2: Desarrollo de CU prioridad media"/>
     <s v="Investigación"/>
-    <n v="42"/>
-    <n v="18"/>
-    <n v="24"/>
+    <n v="47"/>
+    <n v="20"/>
+    <n v="27"/>
   </r>
   <r>
     <x v="1"/>
@@ -4752,200 +4250,341 @@
 </pivotCacheRecords>
 </file>
 
-<file path=xl/pivotCache/pivotCacheRecords4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="17">
   <r>
     <x v="0"/>
     <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <n v="13"/>
+    <n v="15"/>
+    <n v="16"/>
     <n v="70"/>
     <n v="8"/>
     <n v="122"/>
-    <x v="0"/>
   </r>
   <r>
     <x v="0"/>
     <x v="1"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="1"/>
+    <n v="15"/>
+    <n v="15"/>
+    <n v="15"/>
     <n v="70"/>
     <n v="10"/>
     <n v="125"/>
-    <x v="1"/>
   </r>
   <r>
     <x v="0"/>
     <x v="2"/>
-    <x v="2"/>
-    <x v="1"/>
-    <x v="2"/>
+    <n v="2"/>
+    <n v="8"/>
+    <n v="12"/>
     <n v="45"/>
     <n v="5"/>
     <n v="72"/>
-    <x v="1"/>
   </r>
   <r>
     <x v="0"/>
     <x v="3"/>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="1"/>
+    <n v="15"/>
+    <n v="12"/>
+    <n v="15"/>
     <n v="75"/>
     <n v="8"/>
     <n v="125"/>
-    <x v="1"/>
   </r>
   <r>
     <x v="0"/>
     <x v="4"/>
-    <x v="3"/>
-    <x v="0"/>
-    <x v="3"/>
-    <n v="80"/>
+    <n v="15"/>
+    <n v="15"/>
+    <n v="20"/>
+    <n v="75"/>
     <n v="9"/>
     <n v="134"/>
-    <x v="1"/>
   </r>
   <r>
     <x v="0"/>
     <x v="5"/>
-    <x v="4"/>
-    <x v="2"/>
-    <x v="1"/>
+    <n v="8"/>
+    <n v="12"/>
+    <n v="15"/>
     <n v="55"/>
     <n v="5"/>
     <n v="95"/>
-    <x v="1"/>
   </r>
   <r>
     <x v="0"/>
     <x v="6"/>
-    <x v="2"/>
-    <x v="1"/>
-    <x v="2"/>
+    <n v="2"/>
+    <n v="8"/>
+    <n v="12"/>
     <n v="45"/>
     <n v="5"/>
     <n v="72"/>
-    <x v="1"/>
   </r>
   <r>
     <x v="1"/>
     <x v="7"/>
-    <x v="3"/>
-    <x v="3"/>
-    <x v="1"/>
+    <n v="10"/>
+    <n v="14"/>
+    <n v="15"/>
     <n v="40"/>
     <n v="10"/>
     <n v="89"/>
-    <x v="2"/>
   </r>
   <r>
     <x v="1"/>
     <x v="8"/>
-    <x v="2"/>
-    <x v="1"/>
-    <x v="4"/>
+    <n v="2"/>
+    <n v="8"/>
+    <n v="8"/>
     <n v="35"/>
     <n v="8"/>
     <n v="61"/>
-    <x v="1"/>
   </r>
   <r>
     <x v="1"/>
     <x v="9"/>
-    <x v="2"/>
-    <x v="4"/>
-    <x v="5"/>
+    <n v="2"/>
+    <n v="6"/>
+    <n v="6"/>
     <n v="30"/>
     <n v="10"/>
     <n v="54"/>
-    <x v="1"/>
   </r>
   <r>
     <x v="1"/>
     <x v="10"/>
-    <x v="4"/>
-    <x v="5"/>
-    <x v="2"/>
+    <n v="8"/>
+    <n v="10"/>
+    <n v="12"/>
     <n v="50"/>
     <n v="12"/>
     <n v="92"/>
-    <x v="1"/>
   </r>
   <r>
     <x v="1"/>
     <x v="11"/>
-    <x v="3"/>
-    <x v="1"/>
-    <x v="6"/>
+    <n v="10"/>
+    <n v="8"/>
+    <n v="10"/>
     <n v="50"/>
     <n v="15"/>
     <n v="93"/>
-    <x v="1"/>
   </r>
   <r>
     <x v="1"/>
     <x v="12"/>
-    <x v="3"/>
-    <x v="6"/>
-    <x v="7"/>
+    <n v="15"/>
+    <n v="15"/>
+    <n v="14"/>
     <n v="70"/>
     <n v="15"/>
     <n v="129"/>
-    <x v="1"/>
   </r>
   <r>
     <x v="2"/>
     <x v="13"/>
-    <x v="5"/>
-    <x v="7"/>
-    <x v="8"/>
+    <n v="1"/>
+    <n v="3"/>
+    <n v="3"/>
     <n v="24"/>
     <n v="20"/>
     <n v="51"/>
-    <x v="3"/>
   </r>
   <r>
     <x v="2"/>
     <x v="14"/>
-    <x v="6"/>
-    <x v="1"/>
-    <x v="4"/>
+    <n v="7"/>
+    <n v="8"/>
+    <n v="8"/>
     <n v="32"/>
     <n v="30"/>
     <n v="85"/>
-    <x v="1"/>
   </r>
   <r>
     <x v="2"/>
     <x v="15"/>
-    <x v="7"/>
-    <x v="8"/>
-    <x v="1"/>
+    <n v="11"/>
+    <n v="11"/>
+    <n v="15"/>
     <n v="36"/>
     <n v="30"/>
     <n v="103"/>
-    <x v="1"/>
   </r>
   <r>
     <x v="2"/>
     <x v="16"/>
-    <x v="2"/>
-    <x v="9"/>
-    <x v="9"/>
+    <n v="2"/>
+    <n v="4"/>
+    <n v="4"/>
     <n v="28"/>
     <n v="20"/>
     <n v="58"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="17">
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="13"/>
+    <n v="15"/>
+    <n v="16"/>
+    <n v="70"/>
+    <n v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
     <x v="1"/>
+    <n v="15"/>
+    <n v="15"/>
+    <n v="15"/>
+    <n v="70"/>
+    <n v="10"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="2"/>
+    <n v="8"/>
+    <n v="12"/>
+    <n v="45"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="3"/>
+    <n v="15"/>
+    <n v="12"/>
+    <n v="15"/>
+    <n v="75"/>
+    <n v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+    <n v="15"/>
+    <n v="15"/>
+    <n v="20"/>
+    <n v="75"/>
+    <n v="9"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+    <n v="8"/>
+    <n v="12"/>
+    <n v="15"/>
+    <n v="55"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+    <n v="2"/>
+    <n v="8"/>
+    <n v="12"/>
+    <n v="45"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="7"/>
+    <n v="10"/>
+    <n v="14"/>
+    <n v="15"/>
+    <n v="40"/>
+    <n v="10"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="8"/>
+    <n v="2"/>
+    <n v="8"/>
+    <n v="8"/>
+    <n v="35"/>
+    <n v="8"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="9"/>
+    <n v="2"/>
+    <n v="6"/>
+    <n v="6"/>
+    <n v="30"/>
+    <n v="10"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="10"/>
+    <n v="8"/>
+    <n v="10"/>
+    <n v="12"/>
+    <n v="50"/>
+    <n v="12"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="11"/>
+    <n v="10"/>
+    <n v="8"/>
+    <n v="10"/>
+    <n v="50"/>
+    <n v="15"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="12"/>
+    <n v="15"/>
+    <n v="15"/>
+    <n v="14"/>
+    <n v="70"/>
+    <n v="15"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="13"/>
+    <n v="1"/>
+    <n v="3"/>
+    <n v="3"/>
+    <n v="24"/>
+    <n v="20"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="14"/>
+    <n v="7"/>
+    <n v="8"/>
+    <n v="8"/>
+    <n v="32"/>
+    <n v="30"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="15"/>
+    <n v="11"/>
+    <n v="11"/>
+    <n v="15"/>
+    <n v="36"/>
+    <n v="30"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="16"/>
+    <n v="2"/>
+    <n v="4"/>
+    <n v="4"/>
+    <n v="28"/>
+    <n v="20"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica4" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica4" cacheId="23" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="C79:D92" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField axis="axisRow" showAll="0">
@@ -5025,23 +4664,12 @@
   <dataFields count="1">
     <dataField name="Suma de Horas" fld="4" baseField="0" baseItem="0"/>
   </dataFields>
-  <chartFormats count="1">
-    <chartFormat chart="0" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
 </pivotTableDefinition>
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica3" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica3" cacheId="23" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="C61:D65" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField axis="axisRow" showAll="0">
@@ -5099,7 +4727,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica2" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica2" cacheId="23" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
   <location ref="C43:D50" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField showAll="0"/>
@@ -5186,7 +4814,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica7" cacheId="8" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica7" cacheId="39" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="B117:F123" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField axis="axisCol" showAll="0">
@@ -5248,50 +4876,12 @@
     <dataField name="Suma de Codificación" fld="5" baseField="0" baseItem="0"/>
     <dataField name="Suma de Pruebas y ajustes" fld="6" baseField="0" baseItem="0"/>
   </dataFields>
-  <chartFormats count="3">
-    <chartFormat chart="0" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="2" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
 </pivotTableDefinition>
 </file>
 
 <file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica3" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica3" cacheId="39" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="B53:G72" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField showAll="0"/>
@@ -5461,17 +5051,10 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica1" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica1" cacheId="31" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
   <location ref="B95:C113" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
-    <pivotField showAll="0">
-      <items count="4">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
+    <pivotField showAll="0"/>
     <pivotField axis="axisRow" showAll="0">
       <items count="18">
         <item sd="0" x="0"/>
@@ -5600,7 +5183,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica2" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica2" cacheId="31" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="B26:H31" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField axis="axisRow" showAll="0">
@@ -5723,144 +5306,6 @@
       </pivotArea>
     </chartFormat>
   </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica10" cacheId="11" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="C8:G14" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="9">
-    <pivotField axis="axisCol" showAll="0">
-      <items count="4">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="18">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="13"/>
-        <item x="3"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="11"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="16"/>
-        <item x="6"/>
-        <item x="12"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0">
-      <items count="9">
-        <item x="5"/>
-        <item x="2"/>
-        <item x="6"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="7"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0">
-      <items count="11">
-        <item x="7"/>
-        <item x="9"/>
-        <item x="4"/>
-        <item x="1"/>
-        <item x="5"/>
-        <item x="8"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="0"/>
-        <item x="6"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0">
-      <items count="11">
-        <item x="8"/>
-        <item x="9"/>
-        <item x="5"/>
-        <item x="4"/>
-        <item x="6"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item x="7"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="5">
-        <item x="3"/>
-        <item x="2"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="-2"/>
-  </rowFields>
-  <rowItems count="5">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-    <i i="2">
-      <x v="2"/>
-    </i>
-    <i i="3">
-      <x v="3"/>
-    </i>
-    <i i="4">
-      <x v="4"/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="0"/>
-  </colFields>
-  <colItems count="4">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <dataFields count="5">
-    <dataField name="Suma de Investigación" fld="2" baseField="0" baseItem="0"/>
-    <dataField name="Suma de Análisis" fld="3" baseField="0" baseItem="0"/>
-    <dataField name="Suma de Diseño" fld="4" baseField="0" baseItem="0"/>
-    <dataField name="Suma de Codificación" fld="5" baseField="0" baseItem="0"/>
-    <dataField name="Suma de Pruebas y ajustes" fld="6" baseField="0" baseItem="0"/>
-  </dataFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
 </pivotTableDefinition>
 </file>
@@ -6215,15 +5660,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AW292"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B100" workbookViewId="0">
-      <selection activeCell="F120" sqref="F120"/>
+    <sheetView topLeftCell="B15" workbookViewId="0">
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.5703125" style="2"/>
     <col min="2" max="2" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" style="2" customWidth="1"/>
     <col min="4" max="4" width="14.85546875" style="2" customWidth="1"/>
     <col min="5" max="5" width="27.28515625" style="2" customWidth="1"/>
     <col min="6" max="6" width="25.85546875" style="2" customWidth="1"/>
@@ -6700,13 +6145,13 @@
       </c>
       <c r="G20" s="5">
         <f t="shared" si="0"/>
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="H20" s="5">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="I20" s="6">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="30">
@@ -6775,10 +6220,10 @@
       </c>
       <c r="G23" s="5">
         <f t="shared" si="0"/>
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="H23" s="5">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="I23" s="6">
         <v>210</v>
@@ -6825,13 +6270,13 @@
       </c>
       <c r="G25" s="5">
         <f t="shared" si="0"/>
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="H25" s="5">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I25" s="6">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="30">
@@ -7257,11 +6702,14 @@
     </row>
     <row r="48" spans="1:9">
       <c r="A48" s="1"/>
+      <c r="B48" s="1">
+        <v>621</v>
+      </c>
       <c r="C48" s="11" t="s">
         <v>71</v>
       </c>
       <c r="D48" s="12">
-        <v>621</v>
+        <v>631</v>
       </c>
       <c r="E48"/>
     </row>
@@ -7271,7 +6719,7 @@
         <v>33</v>
       </c>
       <c r="D49" s="12">
-        <v>835</v>
+        <v>830</v>
       </c>
       <c r="E49"/>
     </row>
@@ -7281,7 +6729,7 @@
         <v>69</v>
       </c>
       <c r="D50" s="12">
-        <v>2832</v>
+        <v>2837</v>
       </c>
       <c r="E50"/>
     </row>
@@ -7371,7 +6819,7 @@
         <v>28</v>
       </c>
       <c r="D63" s="12">
-        <v>1560</v>
+        <v>1565</v>
       </c>
       <c r="E63"/>
     </row>
@@ -7391,7 +6839,7 @@
         <v>69</v>
       </c>
       <c r="D65" s="12">
-        <v>2832</v>
+        <v>2837</v>
       </c>
       <c r="E65"/>
     </row>
@@ -7540,7 +6988,7 @@
         <v>28</v>
       </c>
       <c r="D83" s="12">
-        <v>1560</v>
+        <v>1565</v>
       </c>
       <c r="E83" s="22"/>
       <c r="G83" s="11" t="s">
@@ -7564,7 +7012,7 @@
       </c>
       <c r="E84" s="22">
         <f>GETPIVOTDATA("Horas",$C$79,"Etapa","Etapa 2","Tipo","Analisis")/GETPIVOTDATA("Horas",$C$79,"Etapa","Etapa 2")</f>
-        <v>0.11153846153846154</v>
+        <v>0.11118210862619808</v>
       </c>
       <c r="G84" s="11" t="s">
         <v>28</v>
@@ -7574,7 +7022,7 @@
       </c>
       <c r="I84" s="22">
         <f>GETPIVOTDATA("Horas",$C$79,"Etapa","Etapa 2","Tipo","Analisis")/GETPIVOTDATA("Horas",$C$79,"Etapa","Etapa 2")</f>
-        <v>0.11153846153846154</v>
+        <v>0.11118210862619808</v>
       </c>
     </row>
     <row r="85" spans="1:9">
@@ -7583,11 +7031,11 @@
         <v>33</v>
       </c>
       <c r="D85" s="12">
-        <v>835</v>
+        <v>830</v>
       </c>
       <c r="E85" s="22">
         <f>GETPIVOTDATA("Horas",$C$79,"Etapa","Etapa 2","Tipo","Codificación")/GETPIVOTDATA("Horas",$C$79,"Etapa","Etapa 2")</f>
-        <v>0.53525641025641024</v>
+        <v>0.53035143769968052</v>
       </c>
       <c r="G85" s="11" t="s">
         <v>28</v>
@@ -7597,7 +7045,7 @@
       </c>
       <c r="I85" s="22">
         <f>GETPIVOTDATA("Horas",$C$79,"Etapa","Etapa 2","Tipo","Codificación")/GETPIVOTDATA("Horas",$C$79,"Etapa","Etapa 2")</f>
-        <v>0.53525641025641024</v>
+        <v>0.53035143769968052</v>
       </c>
     </row>
     <row r="86" spans="1:9">
@@ -7610,7 +7058,7 @@
       </c>
       <c r="E86" s="22">
         <f>GETPIVOTDATA("Horas",$C$79,"Etapa","Etapa 2","Tipo","Diseño")/GETPIVOTDATA("Horas",$C$79,"Etapa","Etapa 2")</f>
-        <v>0.13012820512820514</v>
+        <v>0.12971246006389775</v>
       </c>
       <c r="G86" s="11" t="s">
         <v>28</v>
@@ -7620,7 +7068,7 @@
       </c>
       <c r="I86" s="22">
         <f>GETPIVOTDATA("Horas",$C$79,"Etapa","Etapa 2","Tipo","Diseño")/GETPIVOTDATA("Horas",$C$79,"Etapa","Etapa 2")</f>
-        <v>0.13012820512820514</v>
+        <v>0.12971246006389775</v>
       </c>
     </row>
     <row r="87" spans="1:9">
@@ -7629,11 +7077,11 @@
         <v>71</v>
       </c>
       <c r="D87" s="12">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="E87" s="22">
         <f>GETPIVOTDATA("Horas",$C$79,"Etapa","Etapa 2","Tipo","Investigación")/GETPIVOTDATA("Horas",$C$79,"Etapa","Etapa 2")</f>
-        <v>8.2051282051282051E-2</v>
+        <v>8.8178913738019171E-2</v>
       </c>
       <c r="G87" s="11" t="s">
         <v>28</v>
@@ -7643,7 +7091,7 @@
       </c>
       <c r="I87" s="22">
         <f>GETPIVOTDATA("Horas",$C$79,"Etapa","Etapa 2","Tipo","Investigación")/GETPIVOTDATA("Horas",$C$79,"Etapa","Etapa 2")</f>
-        <v>8.2051282051282051E-2</v>
+        <v>8.8178913738019171E-2</v>
       </c>
     </row>
     <row r="88" spans="1:9">
@@ -7656,7 +7104,7 @@
       </c>
       <c r="E88" s="22">
         <f>GETPIVOTDATA("Horas",$C$79,"Etapa","Etapa 2","Tipo","Pruebas")/GETPIVOTDATA("Horas",$C$79,"Etapa","Etapa 2")</f>
-        <v>0.14102564102564102</v>
+        <v>0.14057507987220447</v>
       </c>
       <c r="G88" s="2" t="s">
         <v>28</v>
@@ -7666,7 +7114,7 @@
       </c>
       <c r="I88" s="22">
         <f>GETPIVOTDATA("Horas",$C$79,"Etapa","Etapa 2","Tipo","Pruebas")/GETPIVOTDATA("Horas",$C$79,"Etapa","Etapa 2")</f>
-        <v>0.14102564102564102</v>
+        <v>0.14057507987220447</v>
       </c>
     </row>
     <row r="89" spans="1:9">
@@ -7731,7 +7179,7 @@
         <v>69</v>
       </c>
       <c r="D92" s="12">
-        <v>2832</v>
+        <v>2837</v>
       </c>
       <c r="E92"/>
     </row>
@@ -7784,13 +7232,15 @@
         <v>0</v>
       </c>
       <c r="D99" s="22">
-        <v>0.32</v>
+        <f>I82</f>
+        <v>0.32373113854595337</v>
       </c>
       <c r="E99" s="2">
         <v>0</v>
       </c>
-      <c r="F99" s="2">
-        <v>0.67</v>
+      <c r="F99" s="20">
+        <f>I89</f>
+        <v>0.66850828729281764</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -7802,10 +7252,12 @@
         <v>0</v>
       </c>
       <c r="D100" s="22">
-        <v>0.68</v>
-      </c>
-      <c r="E100" s="2">
-        <v>0.08</v>
+        <f>I83</f>
+        <v>0.67626886145404663</v>
+      </c>
+      <c r="E100" s="20">
+        <f>I87</f>
+        <v>8.8178913738019171E-2</v>
       </c>
       <c r="F100" s="2">
         <v>0</v>
@@ -7822,8 +7274,9 @@
       <c r="D101" s="2">
         <v>0</v>
       </c>
-      <c r="E101" s="2">
-        <v>0.11</v>
+      <c r="E101" s="20">
+        <f>I84</f>
+        <v>0.11118210862619808</v>
       </c>
       <c r="F101" s="2">
         <v>0</v>
@@ -7840,8 +7293,9 @@
       <c r="D102" s="2">
         <v>0</v>
       </c>
-      <c r="E102" s="2">
-        <v>0.54</v>
+      <c r="E102" s="20">
+        <f>I85</f>
+        <v>0.53035143769968052</v>
       </c>
       <c r="F102" s="2">
         <v>0</v>
@@ -7858,8 +7312,9 @@
       <c r="D103" s="2">
         <v>0</v>
       </c>
-      <c r="E103" s="2">
-        <v>0.13</v>
+      <c r="E103" s="20">
+        <f>I86</f>
+        <v>0.12971246006389775</v>
       </c>
       <c r="F103" s="2">
         <v>0</v>
@@ -7876,11 +7331,13 @@
       <c r="D104" s="2">
         <v>0</v>
       </c>
-      <c r="E104" s="2">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="F104" s="2">
-        <v>0.33</v>
+      <c r="E104" s="20">
+        <f>I88</f>
+        <v>0.14057507987220447</v>
+      </c>
+      <c r="F104" s="20">
+        <f>I90</f>
+        <v>0.33149171270718231</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -7949,7 +7406,7 @@
         <v>0.68</v>
       </c>
       <c r="E113" s="2">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="F113" s="2">
         <v>0</v>
@@ -7967,7 +7424,7 @@
         <v>0</v>
       </c>
       <c r="E114" s="2">
-        <v>0.78</v>
+        <v>0.77</v>
       </c>
       <c r="F114" s="2">
         <v>0</v>
@@ -8535,22 +7992,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B3:R146"/>
   <sheetViews>
-    <sheetView topLeftCell="A118" workbookViewId="0">
-      <selection activeCell="F140" sqref="F140"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4:E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.5703125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="34.42578125" style="2" customWidth="1"/>
     <col min="3" max="3" width="13.5703125" style="2" customWidth="1"/>
     <col min="4" max="4" width="8.5703125" style="2" customWidth="1"/>
     <col min="5" max="5" width="7.7109375" style="2" customWidth="1"/>
     <col min="6" max="6" width="12.85546875" style="2" customWidth="1"/>
     <col min="7" max="7" width="17.7109375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="7.140625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="13.7109375" style="2" customWidth="1"/>
     <col min="9" max="10" width="22" style="2" customWidth="1"/>
-    <col min="11" max="11" width="27.28515625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="16.140625" style="2" customWidth="1"/>
     <col min="12" max="12" width="21.28515625" style="2" customWidth="1"/>
     <col min="13" max="13" width="22.140625" style="2" customWidth="1"/>
     <col min="14" max="16" width="25.85546875" style="2" customWidth="1"/>
@@ -8714,7 +8171,7 @@
         <v>52</v>
       </c>
       <c r="D8" s="15">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E8" s="9">
         <v>15</v>
@@ -8723,7 +8180,7 @@
         <v>20</v>
       </c>
       <c r="G8" s="9">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="H8" s="9">
         <v>9</v>
@@ -8941,13 +8398,13 @@
         <v>61</v>
       </c>
       <c r="D16" s="15">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E16" s="9">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F16" s="9">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G16" s="9">
         <v>70</v>
@@ -9082,19 +8539,19 @@
       </c>
       <c r="D21" s="2">
         <f>SUM(D4:D20)</f>
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="E21" s="2">
         <f>SUM(E4:E20)</f>
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F21" s="2">
         <f>SUM(F4:F20)</f>
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="G21" s="2">
         <f>SUM(G4:G20)</f>
-        <v>835</v>
+        <v>830</v>
       </c>
       <c r="H21" s="2">
         <f>SUM(H4:H20)</f>
@@ -9155,7 +8612,7 @@
         <v>47</v>
       </c>
       <c r="C28" s="12">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D28" s="12">
         <v>85</v>
@@ -9164,7 +8621,7 @@
         <v>105</v>
       </c>
       <c r="F28" s="12">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="G28" s="12">
         <v>50</v>
@@ -9178,13 +8635,13 @@
         <v>55</v>
       </c>
       <c r="C29" s="12">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D29" s="12">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E29" s="12">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F29" s="12">
         <v>275</v>
@@ -9224,16 +8681,16 @@
         <v>69</v>
       </c>
       <c r="C31" s="12">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="D31" s="12">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E31" s="12">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="F31" s="12">
-        <v>835</v>
+        <v>830</v>
       </c>
       <c r="G31" s="12">
         <v>220</v>
@@ -9577,7 +9034,7 @@
         <v>52</v>
       </c>
       <c r="C67" s="12">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D67" s="12">
         <v>15</v>
@@ -9586,7 +9043,7 @@
         <v>20</v>
       </c>
       <c r="F67" s="12">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="G67" s="12">
         <v>9</v>
@@ -9657,13 +9114,13 @@
         <v>61</v>
       </c>
       <c r="C71" s="12">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D71" s="12">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E71" s="12">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F71" s="12">
         <v>70</v>
@@ -9677,16 +9134,16 @@
         <v>69</v>
       </c>
       <c r="C72" s="12">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="D72" s="12">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E72" s="12">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="F72" s="12">
-        <v>835</v>
+        <v>830</v>
       </c>
       <c r="G72" s="12">
         <v>220</v>
@@ -9883,18 +9340,10 @@
       <c r="E117"/>
       <c r="F117"/>
       <c r="G117"/>
-      <c r="H117" t="s">
-        <v>74</v>
-      </c>
-      <c r="I117" t="s">
-        <v>47</v>
-      </c>
-      <c r="J117" t="s">
-        <v>55</v>
-      </c>
-      <c r="K117" t="s">
-        <v>62</v>
-      </c>
+      <c r="H117"/>
+      <c r="I117"/>
+      <c r="J117"/>
+      <c r="K117"/>
       <c r="M117"/>
       <c r="N117"/>
       <c r="O117"/>
@@ -9919,18 +9368,10 @@
         <v>69</v>
       </c>
       <c r="G118"/>
-      <c r="H118" t="s">
-        <v>73</v>
-      </c>
-      <c r="I118">
-        <v>65</v>
-      </c>
-      <c r="J118">
-        <v>42</v>
-      </c>
-      <c r="K118">
-        <v>21</v>
-      </c>
+      <c r="H118"/>
+      <c r="I118"/>
+      <c r="J118"/>
+      <c r="K118"/>
       <c r="L118" s="20"/>
       <c r="M118"/>
       <c r="N118"/>
@@ -9944,30 +9385,22 @@
         <v>73</v>
       </c>
       <c r="C119" s="12">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D119" s="12">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="E119" s="12">
         <v>21</v>
       </c>
       <c r="F119" s="12">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="G119"/>
-      <c r="H119" t="s">
-        <v>75</v>
-      </c>
-      <c r="I119">
-        <v>85</v>
-      </c>
-      <c r="J119">
-        <v>63</v>
-      </c>
-      <c r="K119">
-        <v>26</v>
-      </c>
+      <c r="H119"/>
+      <c r="I119"/>
+      <c r="J119"/>
+      <c r="K119"/>
       <c r="L119" s="20"/>
       <c r="M119"/>
       <c r="N119"/>
@@ -9984,27 +9417,19 @@
         <v>85</v>
       </c>
       <c r="D120" s="12">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E120" s="12">
         <v>26</v>
       </c>
       <c r="F120" s="12">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G120"/>
-      <c r="H120" t="s">
-        <v>76</v>
-      </c>
-      <c r="I120">
-        <v>105</v>
-      </c>
-      <c r="J120">
-        <v>68</v>
-      </c>
-      <c r="K120">
-        <v>30</v>
-      </c>
+      <c r="H120"/>
+      <c r="I120"/>
+      <c r="J120"/>
+      <c r="K120"/>
       <c r="L120" s="20"/>
       <c r="M120"/>
       <c r="N120"/>
@@ -10021,27 +9446,19 @@
         <v>105</v>
       </c>
       <c r="D121" s="12">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E121" s="12">
         <v>30</v>
       </c>
       <c r="F121" s="12">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="G121"/>
-      <c r="H121" t="s">
-        <v>77</v>
-      </c>
-      <c r="I121">
-        <v>440</v>
-      </c>
-      <c r="J121">
-        <v>275</v>
-      </c>
-      <c r="K121">
-        <v>120</v>
-      </c>
+      <c r="H121"/>
+      <c r="I121"/>
+      <c r="J121"/>
+      <c r="K121"/>
       <c r="L121" s="20"/>
       <c r="M121"/>
       <c r="N121"/>
@@ -10055,7 +9472,7 @@
         <v>77</v>
       </c>
       <c r="C122" s="12">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="D122" s="12">
         <v>275</v>
@@ -10064,21 +9481,13 @@
         <v>120</v>
       </c>
       <c r="F122" s="12">
-        <v>835</v>
+        <v>830</v>
       </c>
       <c r="G122"/>
-      <c r="H122" t="s">
-        <v>78</v>
-      </c>
-      <c r="I122">
-        <v>50</v>
-      </c>
-      <c r="J122">
-        <v>70</v>
-      </c>
-      <c r="K122">
-        <v>100</v>
-      </c>
+      <c r="H122"/>
+      <c r="I122"/>
+      <c r="J122"/>
+      <c r="K122"/>
       <c r="L122" s="20"/>
       <c r="M122"/>
       <c r="N122"/>
@@ -10104,21 +9513,10 @@
         <v>220</v>
       </c>
       <c r="G123"/>
-      <c r="H123" t="s">
-        <v>83</v>
-      </c>
-      <c r="I123">
-        <f>SUM(I118:I122)</f>
-        <v>745</v>
-      </c>
-      <c r="J123">
-        <f>SUM(J118:J122)</f>
-        <v>518</v>
-      </c>
-      <c r="K123">
-        <f>SUM(K118:K122)</f>
-        <v>297</v>
-      </c>
+      <c r="H123"/>
+      <c r="I123"/>
+      <c r="J123"/>
+      <c r="K123"/>
       <c r="M123"/>
       <c r="N123"/>
       <c r="O123"/>
@@ -10127,10 +9525,21 @@
       <c r="R123"/>
     </row>
     <row r="124" spans="2:18">
-      <c r="B124"/>
-      <c r="C124"/>
-      <c r="D124"/>
-      <c r="E124"/>
+      <c r="B124" t="s">
+        <v>83</v>
+      </c>
+      <c r="C124">
+        <f>SUM(C119:C123)</f>
+        <v>745</v>
+      </c>
+      <c r="D124">
+        <f>SUM(D119:D123)</f>
+        <v>518</v>
+      </c>
+      <c r="E124">
+        <f>SUM(E119:E123)</f>
+        <v>297</v>
+      </c>
       <c r="F124"/>
       <c r="G124"/>
       <c r="H124"/>
@@ -10193,13 +9602,16 @@
         <v>0</v>
       </c>
       <c r="D132" s="20">
-        <v>0.09</v>
-      </c>
-      <c r="E132">
-        <v>0.08</v>
-      </c>
-      <c r="F132">
-        <v>7.0000000000000007E-2</v>
+        <f>C119/C124</f>
+        <v>9.3959731543624164E-2</v>
+      </c>
+      <c r="E132" s="22">
+        <f>GETPIVOTDATA("Suma de Investigación",$B$117,"Iteración","2da It")/D124</f>
+        <v>9.0733590733590733E-2</v>
+      </c>
+      <c r="F132" s="22">
+        <f>GETPIVOTDATA("Suma de Investigación",$B$117,"Iteración","3er It")/E124</f>
+        <v>7.0707070707070704E-2</v>
       </c>
     </row>
     <row r="133" spans="2:6">
@@ -10210,13 +9622,16 @@
         <v>0</v>
       </c>
       <c r="D133" s="20">
-        <v>0.25</v>
-      </c>
-      <c r="E133">
-        <v>0.25</v>
-      </c>
-      <c r="F133">
-        <v>0.19</v>
+        <f>SUM(C120:C121)/C124</f>
+        <v>0.25503355704697989</v>
+      </c>
+      <c r="E133" s="22">
+        <f>SUM(D120:D121)/D124</f>
+        <v>0.24324324324324326</v>
+      </c>
+      <c r="F133" s="22">
+        <f>SUM(E120:E121)/E124</f>
+        <v>0.18855218855218855</v>
       </c>
     </row>
     <row r="134" spans="2:6">
@@ -10227,13 +9642,16 @@
         <v>0</v>
       </c>
       <c r="D134" s="20">
-        <v>0.59</v>
-      </c>
-      <c r="E134">
-        <v>0.53</v>
-      </c>
-      <c r="F134">
-        <v>0.4</v>
+        <f>GETPIVOTDATA("Suma de Codificación",$B$117,"Iteración","1er It")/C124</f>
+        <v>0.58389261744966447</v>
+      </c>
+      <c r="E134" s="22">
+        <f>GETPIVOTDATA("Suma de Codificación",$B$117,"Iteración","2da It")/D124</f>
+        <v>0.53088803088803094</v>
+      </c>
+      <c r="F134" s="22">
+        <f>GETPIVOTDATA("Suma de Codificación",$B$117,"Iteración","3er It")/E124</f>
+        <v>0.40404040404040403</v>
       </c>
     </row>
     <row r="135" spans="2:6">
@@ -10244,13 +9662,16 @@
         <v>0</v>
       </c>
       <c r="D135" s="20">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="E135">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="F135">
-        <v>0.34</v>
+        <f>GETPIVOTDATA("Suma de Pruebas y ajustes",$B$117,"Iteración","1er It")/C124</f>
+        <v>6.7114093959731544E-2</v>
+      </c>
+      <c r="E135" s="22">
+        <f>GETPIVOTDATA("Suma de Pruebas y ajustes",$B$117,"Iteración","2da It")/D124</f>
+        <v>0.13513513513513514</v>
+      </c>
+      <c r="F135" s="22">
+        <f>GETPIVOTDATA("Suma de Pruebas y ajustes",$B$117,"Iteración","3er It")/E124</f>
+        <v>0.33670033670033672</v>
       </c>
     </row>
     <row r="136" spans="2:6">
@@ -10342,126 +9763,4 @@
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId6"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="C8:G14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22:I27"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
-  <sheetData>
-    <row r="8" spans="3:7">
-      <c r="D8" s="10" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="9" spans="3:7">
-      <c r="C9" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="D9" t="s">
-        <v>47</v>
-      </c>
-      <c r="E9" t="s">
-        <v>55</v>
-      </c>
-      <c r="F9" t="s">
-        <v>62</v>
-      </c>
-      <c r="G9" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="10" spans="3:7">
-      <c r="C10" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="D10" s="12">
-        <v>65</v>
-      </c>
-      <c r="E10" s="12">
-        <v>42</v>
-      </c>
-      <c r="F10" s="12">
-        <v>21</v>
-      </c>
-      <c r="G10" s="12">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="11" spans="3:7">
-      <c r="C11" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="D11" s="12">
-        <v>85</v>
-      </c>
-      <c r="E11" s="12">
-        <v>63</v>
-      </c>
-      <c r="F11" s="12">
-        <v>26</v>
-      </c>
-      <c r="G11" s="12">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="12" spans="3:7">
-      <c r="C12" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="D12" s="12">
-        <v>105</v>
-      </c>
-      <c r="E12" s="12">
-        <v>68</v>
-      </c>
-      <c r="F12" s="12">
-        <v>30</v>
-      </c>
-      <c r="G12" s="12">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="13" spans="3:7">
-      <c r="C13" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="D13" s="12">
-        <v>440</v>
-      </c>
-      <c r="E13" s="12">
-        <v>275</v>
-      </c>
-      <c r="F13" s="12">
-        <v>120</v>
-      </c>
-      <c r="G13" s="12">
-        <v>835</v>
-      </c>
-    </row>
-    <row r="14" spans="3:7">
-      <c r="C14" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="D14" s="12">
-        <v>50</v>
-      </c>
-      <c r="E14" s="12">
-        <v>70</v>
-      </c>
-      <c r="F14" s="12">
-        <v>100</v>
-      </c>
-      <c r="G14" s="12">
-        <v>220</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/doc/Tareas Esfuerzo.xlsx
+++ b/doc/Tareas Esfuerzo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="3" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="97">
   <si>
     <t>Etapa</t>
   </si>
@@ -307,6 +307,15 @@
   <si>
     <t>Desarrollo</t>
   </si>
+  <si>
+    <t>Etapa 2 - IT 1</t>
+  </si>
+  <si>
+    <t>Etapa 2 - IT 2</t>
+  </si>
+  <si>
+    <t>Etapa 2 - IT 3</t>
+  </si>
 </sst>
 </file>
 
@@ -355,7 +364,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -378,6 +387,18 @@
       <patternFill patternType="solid">
         <fgColor indexed="44"/>
         <bgColor indexed="24"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="26"/>
       </patternFill>
     </fill>
   </fills>
@@ -524,7 +545,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
@@ -576,6 +597,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Excel Built-in Normal" xfId="1"/>
@@ -805,6 +828,295 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="es-CL"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Por CU'!$B$132</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Investigación</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Por CU'!$C$131:$F$131</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>inicio</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1er It</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2da It</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3er It</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Por CU'!$C$132:$F$132</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.3959731543624164E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.0733590733590733E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.0707070707070704E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Por CU'!$B$133</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Análisis y Diseño</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Por CU'!$C$131:$F$131</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>inicio</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1er It</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2da It</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3er It</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Por CU'!$C$133:$F$133</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.25503355704697989</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.24324324324324326</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.18855218855218855</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Por CU'!$B$134</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Codificación</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Por CU'!$C$131:$F$131</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>inicio</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1er It</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2da It</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3er It</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Por CU'!$C$134:$F$134</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.58389261744966447</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.53088803088803094</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.40404040404040403</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Por CU'!$B$135</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Pruebas y ajustes</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Por CU'!$C$131:$F$131</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>inicio</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1er It</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2da It</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3er It</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Por CU'!$C$135:$F$135</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.7114093959731544E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.13513513513513514</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.33670033670033672</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="113685632"/>
+        <c:axId val="113687168"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="113685632"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="113687168"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="113687168"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="113685632"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="es-CL"/>
@@ -1784,6 +2096,485 @@
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="es-CL"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>General!$C$143</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Documentación</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>General!$D$142:$I$142</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Inicio</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Etapa 1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Etapa 2 - IT 1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Etapa 2 - IT 2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Etapa 2 - IT 3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Etapa 3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>General!$D$143:$I$143</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>236</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>363</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>General!$C$144</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Investigación</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>General!$D$142:$I$142</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Inicio</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Etapa 1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Etapa 2 - IT 1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Etapa 2 - IT 2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Etapa 2 - IT 3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Etapa 3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>General!$D$144:$I$144</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>493</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>General!$C$145</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Analisis</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>General!$D$142:$I$142</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Inicio</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Etapa 1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Etapa 2 - IT 1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Etapa 2 - IT 2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Etapa 2 - IT 3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Etapa 3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>General!$D$145:$I$145</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>General!$C$146</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Codificación</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>General!$D$142:$I$142</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Inicio</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Etapa 1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Etapa 2 - IT 1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Etapa 2 - IT 2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Etapa 2 - IT 3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Etapa 3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>General!$D$146:$I$146</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>435</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>275</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>General!$C$147</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Diseño</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>General!$D$142:$I$142</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Inicio</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Etapa 1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Etapa 2 - IT 1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Etapa 2 - IT 2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Etapa 2 - IT 3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Etapa 3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>General!$D$147:$I$147</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>General!$C$148</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Pruebas</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>General!$D$142:$I$142</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Inicio</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Etapa 1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Etapa 2 - IT 1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Etapa 2 - IT 2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Etapa 2 - IT 3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Etapa 3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>General!$D$148:$I$148</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>180</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="39701120"/>
+        <c:axId val="62636416"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="39701120"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="62636416"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="62636416"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="39701120"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="es-CL"/>
   <c:pivotSource>
     <c:name>[Tareas Esfuerzo.xlsx]Por CU!Tabla dinámica2</c:name>
     <c:fmtId val="0"/>
@@ -2201,7 +2992,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="es-CL"/>
   <c:pivotSource>
@@ -2978,7 +3769,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="es-CL"/>
   <c:pivotSource>
@@ -3186,295 +3977,6 @@
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="es-CL"/>
-  <c:chart>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Por CU'!$B$132</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Investigación</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Por CU'!$C$131:$F$131</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>inicio</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1er It</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2da It</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3er It</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Por CU'!$C$132:$F$132</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0" formatCode="General">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>9.3959731543624164E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>9.0733590733590733E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>7.0707070707070704E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Por CU'!$B$133</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Análisis y Diseño</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Por CU'!$C$131:$F$131</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>inicio</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1er It</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2da It</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3er It</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Por CU'!$C$133:$F$133</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0" formatCode="General">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.25503355704697989</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.24324324324324326</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.18855218855218855</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Por CU'!$B$134</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Codificación</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Por CU'!$C$131:$F$131</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>inicio</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1er It</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2da It</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3er It</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Por CU'!$C$134:$F$134</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0" formatCode="General">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.58389261744966447</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.53088803088803094</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.40404040404040403</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Por CU'!$B$135</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Pruebas y ajustes</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Por CU'!$C$131:$F$131</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>inicio</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1er It</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2da It</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3er It</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Por CU'!$C$135:$F$135</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0" formatCode="General">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6.7114093959731544E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.13513513513513514</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.33670033670033672</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:marker val="1"/>
-        <c:axId val="113685632"/>
-        <c:axId val="113687168"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="113685632"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="b"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="113687168"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="113687168"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="113685632"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3627,6 +4129,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>628649</xdr:colOff>
+      <xdr:row>150</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>704850</xdr:colOff>
+      <xdr:row>168</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name="10 Gráfico"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -5658,21 +6190,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AW292"/>
+  <dimension ref="A1:AW232"/>
   <sheetViews>
-    <sheetView topLeftCell="B15" workbookViewId="0">
-      <selection activeCell="K24" sqref="K24"/>
+    <sheetView tabSelected="1" topLeftCell="A149" workbookViewId="0">
+      <selection activeCell="C161" sqref="C161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.5703125" style="2"/>
     <col min="2" max="2" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.28515625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" style="2" customWidth="1"/>
     <col min="4" max="4" width="14.85546875" style="2" customWidth="1"/>
     <col min="5" max="5" width="27.28515625" style="2" customWidth="1"/>
     <col min="6" max="6" width="25.85546875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="7.7109375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" style="2" customWidth="1"/>
     <col min="8" max="8" width="14.85546875" style="2" customWidth="1"/>
     <col min="9" max="9" width="7.7109375" style="2" customWidth="1"/>
     <col min="10" max="49" width="11.42578125" style="1" customWidth="1"/>
@@ -6702,9 +7234,6 @@
     </row>
     <row r="48" spans="1:9">
       <c r="A48" s="1"/>
-      <c r="B48" s="1">
-        <v>621</v>
-      </c>
       <c r="C48" s="11" t="s">
         <v>71</v>
       </c>
@@ -7489,100 +8018,381 @@
     <row r="128" spans="1:6">
       <c r="A128" s="1"/>
     </row>
-    <row r="129" spans="1:1">
+    <row r="129" spans="1:11">
       <c r="A129" s="1"/>
     </row>
-    <row r="130" spans="1:1">
+    <row r="130" spans="1:11">
       <c r="A130" s="1"/>
     </row>
-    <row r="131" spans="1:1">
+    <row r="131" spans="1:11">
       <c r="A131" s="1"/>
-    </row>
-    <row r="132" spans="1:1">
+      <c r="B131" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E131" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F131" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="G131" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="H131" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11">
       <c r="A132" s="1"/>
-    </row>
-    <row r="133" spans="1:1">
+      <c r="B132" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C132" s="11">
+        <v>0</v>
+      </c>
+      <c r="D132" s="11">
+        <v>0.32</v>
+      </c>
+      <c r="E132" s="11">
+        <v>0</v>
+      </c>
+      <c r="H132" s="2">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11">
       <c r="A133" s="1"/>
-    </row>
-    <row r="134" spans="1:1">
+      <c r="B133" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C133" s="22">
+        <v>0</v>
+      </c>
+      <c r="D133" s="2">
+        <v>0.68</v>
+      </c>
+      <c r="E133" s="20">
+        <v>0.09</v>
+      </c>
+      <c r="H133" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11">
       <c r="A134" s="1"/>
-    </row>
-    <row r="135" spans="1:1">
+      <c r="B134" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C134" s="22">
+        <v>0</v>
+      </c>
+      <c r="D134" s="20">
+        <v>0</v>
+      </c>
+      <c r="E134" s="2">
+        <v>0.11</v>
+      </c>
+      <c r="H134" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11">
       <c r="A135" s="1"/>
-    </row>
-    <row r="136" spans="1:1">
+      <c r="B135" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C135" s="2">
+        <v>0</v>
+      </c>
+      <c r="D135" s="20">
+        <v>0</v>
+      </c>
+      <c r="E135" s="2">
+        <v>0.53</v>
+      </c>
+      <c r="H135" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11">
       <c r="A136" s="1"/>
-    </row>
-    <row r="137" spans="1:1">
+      <c r="B136" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C136" s="2">
+        <v>0</v>
+      </c>
+      <c r="D136" s="20">
+        <v>0</v>
+      </c>
+      <c r="E136" s="2">
+        <v>0.13</v>
+      </c>
+      <c r="H136" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11">
       <c r="A137" s="1"/>
-    </row>
-    <row r="138" spans="1:1">
+      <c r="B137" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C137" s="2">
+        <v>0</v>
+      </c>
+      <c r="D137" s="20">
+        <v>0</v>
+      </c>
+      <c r="E137" s="2">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="H137" s="2">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11">
       <c r="A138" s="1"/>
-    </row>
-    <row r="139" spans="1:1">
+      <c r="C138" s="21"/>
+      <c r="F138" s="20"/>
+      <c r="G138" s="20"/>
+    </row>
+    <row r="139" spans="1:11">
       <c r="A139" s="1"/>
     </row>
-    <row r="140" spans="1:1">
+    <row r="140" spans="1:11">
       <c r="A140" s="1"/>
     </row>
-    <row r="141" spans="1:1">
+    <row r="141" spans="1:11">
       <c r="A141" s="1"/>
     </row>
-    <row r="142" spans="1:1">
+    <row r="142" spans="1:11">
       <c r="A142" s="1"/>
-    </row>
-    <row r="143" spans="1:1">
+      <c r="C142" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E142" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F142" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="G142" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="H142" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="I142" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11">
       <c r="A143" s="1"/>
-    </row>
-    <row r="144" spans="1:1">
+      <c r="C143" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D143" s="11">
+        <v>0</v>
+      </c>
+      <c r="E143" s="2">
+        <v>236</v>
+      </c>
+      <c r="F143" s="11">
+        <v>0</v>
+      </c>
+      <c r="G143" s="2">
+        <v>0</v>
+      </c>
+      <c r="H143" s="2">
+        <v>0</v>
+      </c>
+      <c r="I143" s="2">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11">
       <c r="A144" s="1"/>
-    </row>
-    <row r="145" spans="1:1">
+      <c r="C144" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D144" s="11">
+        <v>0</v>
+      </c>
+      <c r="E144" s="2">
+        <v>493</v>
+      </c>
+      <c r="F144" s="2">
+        <v>70</v>
+      </c>
+      <c r="G144" s="2">
+        <v>47</v>
+      </c>
+      <c r="H144" s="2">
+        <v>21</v>
+      </c>
+      <c r="I144" s="2">
+        <v>0</v>
+      </c>
+      <c r="J144" s="25">
+        <v>138</v>
+      </c>
+      <c r="K144" s="26"/>
+    </row>
+    <row r="145" spans="1:11">
       <c r="A145" s="1"/>
-    </row>
-    <row r="146" spans="1:1">
+      <c r="C145" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D145" s="11">
+        <v>0</v>
+      </c>
+      <c r="E145" s="11">
+        <v>0</v>
+      </c>
+      <c r="F145" s="2">
+        <v>85</v>
+      </c>
+      <c r="G145" s="2">
+        <v>61</v>
+      </c>
+      <c r="H145" s="2">
+        <v>26</v>
+      </c>
+      <c r="I145" s="2">
+        <v>0</v>
+      </c>
+      <c r="J145" s="25">
+        <v>174</v>
+      </c>
+      <c r="K145" s="26"/>
+    </row>
+    <row r="146" spans="1:11">
       <c r="A146" s="1"/>
-    </row>
-    <row r="147" spans="1:1">
+      <c r="C146" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D146" s="11">
+        <v>0</v>
+      </c>
+      <c r="E146" s="11">
+        <v>0</v>
+      </c>
+      <c r="F146" s="2">
+        <v>435</v>
+      </c>
+      <c r="G146" s="2">
+        <v>275</v>
+      </c>
+      <c r="H146" s="2">
+        <v>120</v>
+      </c>
+      <c r="I146" s="2">
+        <v>0</v>
+      </c>
+      <c r="J146" s="25">
+        <v>830</v>
+      </c>
+      <c r="K146" s="26"/>
+    </row>
+    <row r="147" spans="1:11">
       <c r="A147" s="1"/>
-    </row>
-    <row r="148" spans="1:1">
+      <c r="C147" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D147" s="11">
+        <v>0</v>
+      </c>
+      <c r="E147" s="11">
+        <v>0</v>
+      </c>
+      <c r="F147" s="2">
+        <v>105</v>
+      </c>
+      <c r="G147" s="2">
+        <v>65</v>
+      </c>
+      <c r="H147" s="2">
+        <v>30</v>
+      </c>
+      <c r="I147" s="2">
+        <v>0</v>
+      </c>
+      <c r="J147" s="25">
+        <v>203</v>
+      </c>
+      <c r="K147" s="26"/>
+    </row>
+    <row r="148" spans="1:11">
       <c r="A148" s="1"/>
-    </row>
-    <row r="149" spans="1:1">
+      <c r="C148" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D148" s="11">
+        <v>0</v>
+      </c>
+      <c r="E148" s="11">
+        <v>0</v>
+      </c>
+      <c r="F148" s="2">
+        <v>50</v>
+      </c>
+      <c r="G148" s="2">
+        <v>70</v>
+      </c>
+      <c r="H148" s="2">
+        <v>100</v>
+      </c>
+      <c r="I148" s="2">
+        <v>180</v>
+      </c>
+      <c r="J148" s="25">
+        <v>220</v>
+      </c>
+      <c r="K148" s="26"/>
+    </row>
+    <row r="149" spans="1:11">
       <c r="A149" s="1"/>
     </row>
-    <row r="150" spans="1:1">
+    <row r="150" spans="1:11">
       <c r="A150" s="1"/>
     </row>
-    <row r="151" spans="1:1">
+    <row r="151" spans="1:11">
       <c r="A151" s="1"/>
     </row>
-    <row r="152" spans="1:1">
+    <row r="152" spans="1:11">
       <c r="A152" s="1"/>
     </row>
-    <row r="153" spans="1:1">
+    <row r="153" spans="1:11">
       <c r="A153" s="1"/>
     </row>
-    <row r="154" spans="1:1">
+    <row r="154" spans="1:11">
       <c r="A154" s="1"/>
     </row>
-    <row r="155" spans="1:1">
+    <row r="155" spans="1:11">
       <c r="A155" s="1"/>
     </row>
-    <row r="156" spans="1:1">
+    <row r="156" spans="1:11">
       <c r="A156" s="1"/>
     </row>
-    <row r="157" spans="1:1">
+    <row r="157" spans="1:11">
       <c r="A157" s="1"/>
     </row>
-    <row r="158" spans="1:1">
+    <row r="158" spans="1:11">
       <c r="A158" s="1"/>
     </row>
-    <row r="159" spans="1:1">
+    <row r="159" spans="1:11">
       <c r="A159" s="1"/>
     </row>
-    <row r="160" spans="1:1">
+    <row r="160" spans="1:11">
       <c r="A160" s="1"/>
     </row>
     <row r="161" spans="1:1">
@@ -7800,186 +8610,6 @@
     </row>
     <row r="232" spans="1:1">
       <c r="A232" s="1"/>
-    </row>
-    <row r="233" spans="1:1">
-      <c r="A233" s="1"/>
-    </row>
-    <row r="234" spans="1:1">
-      <c r="A234" s="1"/>
-    </row>
-    <row r="235" spans="1:1">
-      <c r="A235" s="1"/>
-    </row>
-    <row r="236" spans="1:1">
-      <c r="A236" s="1"/>
-    </row>
-    <row r="237" spans="1:1">
-      <c r="A237" s="1"/>
-    </row>
-    <row r="238" spans="1:1">
-      <c r="A238" s="1"/>
-    </row>
-    <row r="239" spans="1:1">
-      <c r="A239" s="1"/>
-    </row>
-    <row r="240" spans="1:1">
-      <c r="A240" s="1"/>
-    </row>
-    <row r="241" spans="1:1">
-      <c r="A241" s="1"/>
-    </row>
-    <row r="242" spans="1:1">
-      <c r="A242" s="1"/>
-    </row>
-    <row r="243" spans="1:1">
-      <c r="A243" s="1"/>
-    </row>
-    <row r="244" spans="1:1">
-      <c r="A244" s="1"/>
-    </row>
-    <row r="245" spans="1:1">
-      <c r="A245" s="1"/>
-    </row>
-    <row r="246" spans="1:1">
-      <c r="A246" s="1"/>
-    </row>
-    <row r="247" spans="1:1">
-      <c r="A247" s="1"/>
-    </row>
-    <row r="248" spans="1:1">
-      <c r="A248" s="1"/>
-    </row>
-    <row r="249" spans="1:1">
-      <c r="A249" s="1"/>
-    </row>
-    <row r="250" spans="1:1">
-      <c r="A250" s="1"/>
-    </row>
-    <row r="251" spans="1:1">
-      <c r="A251" s="1"/>
-    </row>
-    <row r="252" spans="1:1">
-      <c r="A252" s="1"/>
-    </row>
-    <row r="253" spans="1:1">
-      <c r="A253" s="1"/>
-    </row>
-    <row r="254" spans="1:1">
-      <c r="A254" s="1"/>
-    </row>
-    <row r="255" spans="1:1">
-      <c r="A255" s="1"/>
-    </row>
-    <row r="256" spans="1:1">
-      <c r="A256" s="1"/>
-    </row>
-    <row r="257" spans="1:1">
-      <c r="A257" s="1"/>
-    </row>
-    <row r="258" spans="1:1">
-      <c r="A258" s="1"/>
-    </row>
-    <row r="259" spans="1:1">
-      <c r="A259" s="1"/>
-    </row>
-    <row r="260" spans="1:1">
-      <c r="A260" s="1"/>
-    </row>
-    <row r="261" spans="1:1">
-      <c r="A261" s="1"/>
-    </row>
-    <row r="262" spans="1:1">
-      <c r="A262" s="1"/>
-    </row>
-    <row r="263" spans="1:1">
-      <c r="A263" s="1"/>
-    </row>
-    <row r="264" spans="1:1">
-      <c r="A264" s="1"/>
-    </row>
-    <row r="265" spans="1:1">
-      <c r="A265" s="1"/>
-    </row>
-    <row r="266" spans="1:1">
-      <c r="A266" s="1"/>
-    </row>
-    <row r="267" spans="1:1">
-      <c r="A267" s="1"/>
-    </row>
-    <row r="268" spans="1:1">
-      <c r="A268" s="1"/>
-    </row>
-    <row r="269" spans="1:1">
-      <c r="A269" s="1"/>
-    </row>
-    <row r="270" spans="1:1">
-      <c r="A270" s="1"/>
-    </row>
-    <row r="271" spans="1:1">
-      <c r="A271" s="1"/>
-    </row>
-    <row r="272" spans="1:1">
-      <c r="A272" s="1"/>
-    </row>
-    <row r="273" spans="1:1">
-      <c r="A273" s="1"/>
-    </row>
-    <row r="274" spans="1:1">
-      <c r="A274" s="1"/>
-    </row>
-    <row r="275" spans="1:1">
-      <c r="A275" s="1"/>
-    </row>
-    <row r="276" spans="1:1">
-      <c r="A276" s="1"/>
-    </row>
-    <row r="277" spans="1:1">
-      <c r="A277" s="1"/>
-    </row>
-    <row r="278" spans="1:1">
-      <c r="A278" s="1"/>
-    </row>
-    <row r="279" spans="1:1">
-      <c r="A279" s="1"/>
-    </row>
-    <row r="280" spans="1:1">
-      <c r="A280" s="1"/>
-    </row>
-    <row r="281" spans="1:1">
-      <c r="A281" s="1"/>
-    </row>
-    <row r="282" spans="1:1">
-      <c r="A282" s="1"/>
-    </row>
-    <row r="283" spans="1:1">
-      <c r="A283" s="1"/>
-    </row>
-    <row r="284" spans="1:1">
-      <c r="A284" s="1"/>
-    </row>
-    <row r="285" spans="1:1">
-      <c r="A285" s="1"/>
-    </row>
-    <row r="286" spans="1:1">
-      <c r="A286" s="1"/>
-    </row>
-    <row r="287" spans="1:1">
-      <c r="A287" s="1"/>
-    </row>
-    <row r="288" spans="1:1">
-      <c r="A288" s="1"/>
-    </row>
-    <row r="289" spans="1:1">
-      <c r="A289" s="1"/>
-    </row>
-    <row r="290" spans="1:1">
-      <c r="A290" s="1"/>
-    </row>
-    <row r="291" spans="1:1">
-      <c r="A291" s="1"/>
-    </row>
-    <row r="292" spans="1:1">
-      <c r="A292" s="1"/>
     </row>
   </sheetData>
   <autoFilter ref="C2:I39"/>
@@ -7992,8 +8622,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B3:R146"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4:E10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="15"/>

--- a/doc/Tareas Esfuerzo.xlsx
+++ b/doc/Tareas Esfuerzo.xlsx
@@ -4136,16 +4136,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>628649</xdr:colOff>
-      <xdr:row>150</xdr:row>
-      <xdr:rowOff>85724</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1019174</xdr:colOff>
+      <xdr:row>149</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>704850</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
       <xdr:row>168</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6192,8 +6192,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AW232"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A149" workbookViewId="0">
-      <selection activeCell="C161" sqref="C161"/>
+    <sheetView tabSelected="1" topLeftCell="A172" workbookViewId="0">
+      <selection activeCell="E127" sqref="E127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="15"/>

--- a/doc/Tareas Esfuerzo.xlsx
+++ b/doc/Tareas Esfuerzo.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="3" r:id="rId1"/>
     <sheet name="Por CU" sheetId="2" r:id="rId2"/>
+    <sheet name="Hoja4" sheetId="7" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="__xlnm._FilterDatabase">#REF!</definedName>
@@ -16,15 +17,15 @@
   </definedNames>
   <calcPr calcId="125725" iterateDelta="1E-4"/>
   <pivotCaches>
-    <pivotCache cacheId="179" r:id="rId3"/>
-    <pivotCache cacheId="183" r:id="rId4"/>
-    <pivotCache cacheId="195" r:id="rId5"/>
+    <pivotCache cacheId="179" r:id="rId4"/>
+    <pivotCache cacheId="183" r:id="rId5"/>
+    <pivotCache cacheId="195" r:id="rId6"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="104">
   <si>
     <t>Etapa</t>
   </si>
@@ -316,12 +317,33 @@
   <si>
     <t>Pruebas y Ajustes</t>
   </si>
+  <si>
+    <t>Actividad</t>
+  </si>
+  <si>
+    <t>Etapa 1 - It 0</t>
+  </si>
+  <si>
+    <t>Etapa 2 - It 1</t>
+  </si>
+  <si>
+    <t>Etapa 2 - It 2</t>
+  </si>
+  <si>
+    <t>Etapa 2 - It 3</t>
+  </si>
+  <si>
+    <t>Etapa 3 - It 0</t>
+  </si>
+  <si>
+    <t>Cus</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -360,11 +382,33 @@
     <font>
       <b/>
       <sz val="10"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -387,6 +431,18 @@
       <patternFill patternType="solid">
         <fgColor indexed="44"/>
         <bgColor indexed="24"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
       </patternFill>
     </fill>
   </fills>
@@ -631,7 +687,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
@@ -681,7 +737,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -708,6 +764,29 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -807,7 +886,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Esfuerzo por Actividades</a:t>
+              <a:t>Esfuerzo por Actividad</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1710,6 +1789,7 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="es-CL"/>
   <c:chart>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
@@ -2466,6 +2546,25 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="es-CL"/>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-ES_tradnl" sz="1800" b="1" i="0" baseline="0"/>
+              <a:t>Incidencia de la Actividad </a:t>
+            </a:r>
+            <a:endParaRPr lang="es-CL" sz="1800" b="1" i="0" baseline="0"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
@@ -2496,19 +2595,19 @@
                   <c:v>Inicio</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Etapa 1 - IT 0</c:v>
+                  <c:v>Etapa 1 - It 0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Etapa 2 - IT 1</c:v>
+                  <c:v>Etapa 2 - It 1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Etapa 2 - IT 2</c:v>
+                  <c:v>Etapa 2 - It 2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Etapa 2 - IT 3</c:v>
+                  <c:v>Etapa 2 - It 3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Etapa 3 - IT 0</c:v>
+                  <c:v>Etapa 3 - It 0</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2567,19 +2666,19 @@
                   <c:v>Inicio</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Etapa 1 - IT 0</c:v>
+                  <c:v>Etapa 1 - It 0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Etapa 2 - IT 1</c:v>
+                  <c:v>Etapa 2 - It 1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Etapa 2 - IT 2</c:v>
+                  <c:v>Etapa 2 - It 2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Etapa 2 - IT 3</c:v>
+                  <c:v>Etapa 2 - It 3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Etapa 3 - IT 0</c:v>
+                  <c:v>Etapa 3 - It 0</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2621,7 +2720,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Analisis y Diseño</c:v>
+                  <c:v>Análisis y Diseño</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2638,19 +2737,19 @@
                   <c:v>Inicio</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Etapa 1 - IT 0</c:v>
+                  <c:v>Etapa 1 - It 0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Etapa 2 - IT 1</c:v>
+                  <c:v>Etapa 2 - It 1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Etapa 2 - IT 2</c:v>
+                  <c:v>Etapa 2 - It 2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Etapa 2 - IT 3</c:v>
+                  <c:v>Etapa 2 - It 3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Etapa 3 - IT 0</c:v>
+                  <c:v>Etapa 3 - It 0</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2709,19 +2808,19 @@
                   <c:v>Inicio</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Etapa 1 - IT 0</c:v>
+                  <c:v>Etapa 1 - It 0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Etapa 2 - IT 1</c:v>
+                  <c:v>Etapa 2 - It 1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Etapa 2 - IT 2</c:v>
+                  <c:v>Etapa 2 - It 2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Etapa 2 - IT 3</c:v>
+                  <c:v>Etapa 2 - It 3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Etapa 3 - IT 0</c:v>
+                  <c:v>Etapa 3 - It 0</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2780,19 +2879,19 @@
                   <c:v>Inicio</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Etapa 1 - IT 0</c:v>
+                  <c:v>Etapa 1 - It 0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Etapa 2 - IT 1</c:v>
+                  <c:v>Etapa 2 - It 1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Etapa 2 - IT 2</c:v>
+                  <c:v>Etapa 2 - It 2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Etapa 2 - IT 3</c:v>
+                  <c:v>Etapa 2 - It 3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Etapa 3 - IT 0</c:v>
+                  <c:v>Etapa 3 - It 0</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3272,7 +3371,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="es-CL"/>
-              <a:t>Esfuerzo por CU en Tareas</a:t>
+              <a:t>Esfuerzo por CU</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -4126,15 +4225,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
+      <xdr:colOff>409574</xdr:colOff>
       <xdr:row>41</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:rowOff>142874</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
       <xdr:row>56</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:rowOff>95249</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4155,16 +4254,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
       <xdr:row>41</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4216,15 +4315,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>438149</xdr:colOff>
+      <xdr:colOff>438148</xdr:colOff>
       <xdr:row>105</xdr:row>
       <xdr:rowOff>104774</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>123</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4278,13 +4377,13 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>466725</xdr:colOff>
       <xdr:row>135</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:rowOff>57149</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>149</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>152</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4341,15 +4440,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>619123</xdr:colOff>
-      <xdr:row>73</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>1428749</xdr:colOff>
-      <xdr:row>92</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5306,7 +5405,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica2" cacheId="195" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica2" cacheId="195" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="8">
   <location ref="C43:D49" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField showAll="0"/>
@@ -5442,7 +5541,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica3" cacheId="183" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica3" cacheId="183" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
   <location ref="B53:F72" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField showAll="0"/>
@@ -5555,7 +5654,7 @@
     <dataField name="Construcción " fld="4" baseField="0" baseItem="0"/>
     <dataField name="Pruebas y Ajustes " fld="5" baseField="0" baseItem="0"/>
   </dataFields>
-  <chartFormats count="4">
+  <chartFormats count="8">
     <chartFormat chart="0" format="0" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
@@ -5588,6 +5687,42 @@
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
             <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="7" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="8" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="9" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="10" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
           </reference>
         </references>
       </pivotArea>
@@ -6195,8 +6330,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AW187"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="B80" sqref="B80"/>
+    <sheetView topLeftCell="A151" workbookViewId="0">
+      <selection activeCell="K129" sqref="K129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="15"/>
@@ -8111,19 +8246,19 @@
         <v>77</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="H129" s="2" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="I129" s="2" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
     </row>
     <row r="130" spans="1:9">
@@ -8177,7 +8312,7 @@
     <row r="132" spans="1:9">
       <c r="A132" s="1"/>
       <c r="C132" s="2" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="D132" s="2">
         <v>0</v>
@@ -8416,8 +8551,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B3:R146"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B138" sqref="B138"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="E97" sqref="E97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="15"/>
@@ -10073,4 +10208,540 @@
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId6"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="C4:R22"/>
+  <sheetViews>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="N5" sqref="N5:R22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <cols>
+    <col min="3" max="3" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.140625" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" customWidth="1"/>
+    <col min="10" max="10" width="10.140625" customWidth="1"/>
+    <col min="11" max="11" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.140625" customWidth="1"/>
+    <col min="14" max="14" width="34.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13" customWidth="1"/>
+    <col min="18" max="18" width="11.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="3:18" ht="15">
+      <c r="C4" s="34" t="s">
+        <v>97</v>
+      </c>
+      <c r="D4" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="37"/>
+      <c r="K4" s="37"/>
+      <c r="L4" s="37"/>
+    </row>
+    <row r="5" spans="3:18" ht="25.5">
+      <c r="C5" s="35" t="s">
+        <v>70</v>
+      </c>
+      <c r="D5" s="36">
+        <v>690</v>
+      </c>
+      <c r="G5" s="37"/>
+      <c r="H5" s="37"/>
+      <c r="I5" s="35"/>
+      <c r="J5" s="37"/>
+      <c r="K5" s="37"/>
+      <c r="L5" s="37"/>
+      <c r="N5" s="42" t="s">
+        <v>103</v>
+      </c>
+      <c r="O5" s="43" t="s">
+        <v>83</v>
+      </c>
+      <c r="P5" s="43" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q5" s="43" t="s">
+        <v>95</v>
+      </c>
+      <c r="R5" s="43" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="3:18" ht="15">
+      <c r="C6" s="35" t="s">
+        <v>81</v>
+      </c>
+      <c r="D6" s="36">
+        <v>337</v>
+      </c>
+      <c r="G6" s="37"/>
+      <c r="H6" s="37"/>
+      <c r="I6" s="37"/>
+      <c r="J6" s="37"/>
+      <c r="K6" s="37"/>
+      <c r="L6" s="37"/>
+      <c r="N6" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="O6" s="44">
+        <v>20</v>
+      </c>
+      <c r="P6" s="44">
+        <v>25</v>
+      </c>
+      <c r="Q6" s="44">
+        <v>60</v>
+      </c>
+      <c r="R6" s="44">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="3:18" ht="15">
+      <c r="C7" s="35" t="s">
+        <v>94</v>
+      </c>
+      <c r="D7" s="36">
+        <v>749</v>
+      </c>
+      <c r="G7" s="37"/>
+      <c r="H7" s="35"/>
+      <c r="I7" s="37"/>
+      <c r="J7" s="37"/>
+      <c r="K7" s="37"/>
+      <c r="L7" s="37"/>
+      <c r="N7" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="O7" s="44">
+        <v>17</v>
+      </c>
+      <c r="P7" s="44">
+        <v>24</v>
+      </c>
+      <c r="Q7" s="44">
+        <v>63</v>
+      </c>
+      <c r="R7" s="44">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="3:18" ht="15">
+      <c r="C8" s="35" t="s">
+        <v>96</v>
+      </c>
+      <c r="D8" s="36">
+        <v>400</v>
+      </c>
+      <c r="G8" s="37"/>
+      <c r="H8" s="35"/>
+      <c r="I8" s="37"/>
+      <c r="J8" s="37"/>
+      <c r="K8" s="37"/>
+      <c r="L8" s="37"/>
+      <c r="N8" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="O8" s="44">
+        <v>6</v>
+      </c>
+      <c r="P8" s="44">
+        <v>17</v>
+      </c>
+      <c r="Q8" s="44">
+        <v>42</v>
+      </c>
+      <c r="R8" s="44">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="3:18" ht="15">
+      <c r="C9" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="36">
+        <v>599</v>
+      </c>
+      <c r="G9" s="37"/>
+      <c r="H9" s="35"/>
+      <c r="I9" s="37"/>
+      <c r="J9" s="37"/>
+      <c r="K9" s="37"/>
+      <c r="L9" s="37"/>
+      <c r="N9" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="O9" s="44">
+        <v>2</v>
+      </c>
+      <c r="P9" s="44">
+        <v>10</v>
+      </c>
+      <c r="Q9" s="44">
+        <v>23</v>
+      </c>
+      <c r="R9" s="44">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="3:18">
+      <c r="N10" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="O10" s="44">
+        <v>16</v>
+      </c>
+      <c r="P10" s="44">
+        <v>25</v>
+      </c>
+      <c r="Q10" s="44">
+        <v>62</v>
+      </c>
+      <c r="R10" s="44">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="3:18">
+      <c r="N11" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="O11" s="44">
+        <v>12</v>
+      </c>
+      <c r="P11" s="44">
+        <v>24</v>
+      </c>
+      <c r="Q11" s="44">
+        <v>40</v>
+      </c>
+      <c r="R11" s="44">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="3:18" ht="13.5" customHeight="1">
+      <c r="F12" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="G12" s="39" t="s">
+        <v>71</v>
+      </c>
+      <c r="H12" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="I12" s="39" t="s">
+        <v>70</v>
+      </c>
+      <c r="J12" s="40" t="s">
+        <v>89</v>
+      </c>
+      <c r="K12" s="39" t="s">
+        <v>94</v>
+      </c>
+      <c r="L12" s="40" t="s">
+        <v>96</v>
+      </c>
+      <c r="N12" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="O12" s="44">
+        <v>5</v>
+      </c>
+      <c r="P12" s="44">
+        <v>16</v>
+      </c>
+      <c r="Q12" s="44">
+        <v>32</v>
+      </c>
+      <c r="R12" s="44">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="3:18" ht="15">
+      <c r="F13" s="41">
+        <v>1</v>
+      </c>
+      <c r="G13" s="41">
+        <v>0</v>
+      </c>
+      <c r="H13" s="37">
+        <v>236</v>
+      </c>
+      <c r="I13" s="37">
+        <v>493</v>
+      </c>
+      <c r="J13" s="37">
+        <v>0</v>
+      </c>
+      <c r="K13" s="37">
+        <v>0</v>
+      </c>
+      <c r="L13" s="37">
+        <v>0</v>
+      </c>
+      <c r="N13" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="O13" s="44">
+        <v>4</v>
+      </c>
+      <c r="P13" s="44">
+        <v>12</v>
+      </c>
+      <c r="Q13" s="44">
+        <v>30</v>
+      </c>
+      <c r="R13" s="44">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="3:18" ht="15">
+      <c r="F14" s="41">
+        <v>2</v>
+      </c>
+      <c r="G14" s="41">
+        <v>1</v>
+      </c>
+      <c r="H14" s="37">
+        <v>0</v>
+      </c>
+      <c r="I14" s="37">
+        <v>99</v>
+      </c>
+      <c r="J14" s="37">
+        <v>168</v>
+      </c>
+      <c r="K14" s="37">
+        <v>382</v>
+      </c>
+      <c r="L14" s="37">
+        <v>50</v>
+      </c>
+      <c r="N14" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="O14" s="44">
+        <v>10</v>
+      </c>
+      <c r="P14" s="44">
+        <v>20</v>
+      </c>
+      <c r="Q14" s="44">
+        <v>46</v>
+      </c>
+      <c r="R14" s="44">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="3:18" ht="15">
+      <c r="F15" s="41">
+        <v>2</v>
+      </c>
+      <c r="G15" s="41">
+        <v>2</v>
+      </c>
+      <c r="H15" s="37">
+        <v>0</v>
+      </c>
+      <c r="I15" s="37">
+        <v>71</v>
+      </c>
+      <c r="J15" s="37">
+        <v>114</v>
+      </c>
+      <c r="K15" s="37">
+        <v>253</v>
+      </c>
+      <c r="L15" s="37">
+        <v>70</v>
+      </c>
+      <c r="N15" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="O15" s="44">
+        <v>8</v>
+      </c>
+      <c r="P15" s="44">
+        <v>14</v>
+      </c>
+      <c r="Q15" s="44">
+        <v>30</v>
+      </c>
+      <c r="R15" s="44">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="3:18" ht="15">
+      <c r="F16" s="41">
+        <v>2</v>
+      </c>
+      <c r="G16" s="41">
+        <v>3</v>
+      </c>
+      <c r="H16" s="37">
+        <v>0</v>
+      </c>
+      <c r="I16" s="37">
+        <v>27</v>
+      </c>
+      <c r="J16" s="37">
+        <v>55</v>
+      </c>
+      <c r="K16" s="37">
+        <v>114</v>
+      </c>
+      <c r="L16" s="37">
+        <v>100</v>
+      </c>
+      <c r="N16" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="O16" s="44">
+        <v>15</v>
+      </c>
+      <c r="P16" s="44">
+        <v>22</v>
+      </c>
+      <c r="Q16" s="44">
+        <v>34</v>
+      </c>
+      <c r="R16" s="44">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="6:18" ht="15">
+      <c r="F17" s="41">
+        <v>3</v>
+      </c>
+      <c r="G17" s="41">
+        <v>0</v>
+      </c>
+      <c r="H17" s="37">
+        <v>363</v>
+      </c>
+      <c r="I17" s="37">
+        <v>0</v>
+      </c>
+      <c r="J17" s="37">
+        <v>0</v>
+      </c>
+      <c r="K17" s="37">
+        <v>0</v>
+      </c>
+      <c r="L17" s="37">
+        <v>180</v>
+      </c>
+      <c r="N17" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="O17" s="44">
+        <v>20</v>
+      </c>
+      <c r="P17" s="44">
+        <v>18</v>
+      </c>
+      <c r="Q17" s="44">
+        <v>41</v>
+      </c>
+      <c r="R17" s="44">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="6:18">
+      <c r="N18" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="O18" s="44">
+        <v>20</v>
+      </c>
+      <c r="P18" s="44">
+        <v>28</v>
+      </c>
+      <c r="Q18" s="44">
+        <v>64</v>
+      </c>
+      <c r="R18" s="44">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="6:18">
+      <c r="N19" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="O19" s="44">
+        <v>10</v>
+      </c>
+      <c r="P19" s="44">
+        <v>24</v>
+      </c>
+      <c r="Q19" s="44">
+        <v>51</v>
+      </c>
+      <c r="R19" s="44">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="6:18">
+      <c r="N20" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="O20" s="44">
+        <v>2</v>
+      </c>
+      <c r="P20" s="44">
+        <v>9</v>
+      </c>
+      <c r="Q20" s="44">
+        <v>27</v>
+      </c>
+      <c r="R20" s="44">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="6:18">
+      <c r="N21" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="O21" s="44">
+        <v>10</v>
+      </c>
+      <c r="P21" s="44">
+        <v>25</v>
+      </c>
+      <c r="Q21" s="44">
+        <v>40</v>
+      </c>
+      <c r="R21" s="44">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="6:18">
+      <c r="N22" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="O22" s="44">
+        <v>20</v>
+      </c>
+      <c r="P22" s="44">
+        <v>24</v>
+      </c>
+      <c r="Q22" s="44">
+        <v>64</v>
+      </c>
+      <c r="R22" s="44">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/doc/Tareas Esfuerzo.xlsx
+++ b/doc/Tareas Esfuerzo.xlsx
@@ -17,15 +17,17 @@
   </definedNames>
   <calcPr calcId="125725" iterateDelta="1E-4"/>
   <pivotCaches>
-    <pivotCache cacheId="179" r:id="rId4"/>
-    <pivotCache cacheId="183" r:id="rId5"/>
+    <pivotCache cacheId="197" r:id="rId4"/>
+    <pivotCache cacheId="205" r:id="rId5"/>
     <pivotCache cacheId="195" r:id="rId6"/>
+    <pivotCache cacheId="204" r:id="rId7"/>
+    <pivotCache cacheId="209" r:id="rId8"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="121">
   <si>
     <t>Etapa</t>
   </si>
@@ -337,6 +339,57 @@
   </si>
   <si>
     <t>Cus</t>
+  </si>
+  <si>
+    <t>CU01</t>
+  </si>
+  <si>
+    <t>CU02</t>
+  </si>
+  <si>
+    <t>CU03</t>
+  </si>
+  <si>
+    <t>CU05</t>
+  </si>
+  <si>
+    <t>CU13</t>
+  </si>
+  <si>
+    <t>CU14</t>
+  </si>
+  <si>
+    <t>CU16</t>
+  </si>
+  <si>
+    <t>CU06</t>
+  </si>
+  <si>
+    <t>CU07</t>
+  </si>
+  <si>
+    <t>CU08</t>
+  </si>
+  <si>
+    <t>CU09</t>
+  </si>
+  <si>
+    <t>CU12</t>
+  </si>
+  <si>
+    <t>CU17</t>
+  </si>
+  <si>
+    <t>CU04</t>
+  </si>
+  <si>
+    <t>CU10</t>
+  </si>
+  <si>
+    <t>CU11</t>
+  </si>
+  <si>
+    <t>CU15</t>
   </si>
 </sst>
 </file>
@@ -1011,65 +1064,441 @@
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="es-CL"/>
+  <c:pivotSource>
+    <c:name>[Tareas Esfuerzo.xlsx]Por CU!Tabla dinámica8</c:name>
+    <c:fmtId val="0"/>
+  </c:pivotSource>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-CL" sz="1800" b="1" i="0" baseline="0"/>
+              <a:t>Esfuerzo por CU</a:t>
+            </a:r>
+            <a:endParaRPr lang="es-CL"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="4"/>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="5"/>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+    </c:pivotFmts>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Por CU'!$B$132</c:f>
+              <c:f>'Por CU'!$C$119</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Investigación</c:v>
+                  <c:v>Total</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
           <c:cat>
-            <c:strRef>
-              <c:f>'Por CU'!$C$131:$F$131</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>inicio</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1er It</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2da It</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3er It</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:multiLvlStrRef>
+              <c:f>'Por CU'!$B$120:$B$140</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="17"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>CU01 - Login</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>CU02 - Crear Usuario</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>CU03 - Ver Perfil</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>CU05 - Buscar Usuario</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>CU13 - Buscar Sitio</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>CU14 - Crear Sitio</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>CU16 - Ver Sitio</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>CU06 - Ver Solicitudes de Amistad</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>CU07 - Generar Solicitud de Amistad</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>CU08 - Responder Solicitud de Amistad</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>CU09 - Ver Amigos</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>CU12 - Invitar amigos</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>CU17 - Publicar Información</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>CU04 - Modificar - Eliminar Usuario</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>CU10 - Ubicar Amigos - Radar</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>CU11 - Compartir Ubicacion</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>CU15 - Modificar - Eliminar Sitio</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>1er It</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>2da It</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>3er It</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Por CU'!$C$132:$F$132</c:f>
+              <c:f>'Por CU'!$C$120:$C$140</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0" formatCode="General">
-                  <c:v>0</c:v>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>113</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.31230283911671924</c:v>
+                  <c:v>114</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.27843137254901962</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.14835164835164835</c:v>
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>58</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="145468800"/>
+        <c:axId val="145544704"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="145468800"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="145544704"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="145544704"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="145468800"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="es-CL"/>
+  <c:pivotSource>
+    <c:name>[Tareas Esfuerzo.xlsx]Por CU!Tabla dinámica9</c:name>
+    <c:fmtId val="0"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Por CU'!$C$146:$C$147</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Investigación </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>'Por CU'!$B$148:$B$168</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="17"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>CU01 - Login</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>CU02 - Crear Usuario</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>CU03 - Ver Perfil</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>CU05 - Buscar Usuario</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>CU13 - Buscar Sitio</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>CU14 - Crear Sitio</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>CU16 - Ver Sitio</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>CU06 - Ver Solicitudes de Amistad</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>CU07 - Generar Solicitud de Amistad</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>CU08 - Responder Solicitud de Amistad</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>CU09 - Ver Amigos</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>CU12 - Invitar amigos</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>CU17 - Publicar Información</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>CU04 - Modificar - Eliminar Usuario</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>CU10 - Ubicar Amigos - Radar</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>CU11 - Compartir Ubicacion</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>CU15 - Modificar - Eliminar Sitio</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>1er It</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>2da It</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>3er It</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Por CU'!$C$148:$C$168</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1080,55 +1509,143 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Por CU'!$B$133</c:f>
+              <c:f>'Por CU'!$D$146:$D$147</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Análisis y Diseño</c:v>
+                  <c:v>Análisis y Diseño </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
           <c:cat>
-            <c:strRef>
-              <c:f>'Por CU'!$C$131:$F$131</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>inicio</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1er It</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2da It</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3er It</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:multiLvlStrRef>
+              <c:f>'Por CU'!$B$148:$B$168</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="17"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>CU01 - Login</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>CU02 - Crear Usuario</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>CU03 - Ver Perfil</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>CU05 - Buscar Usuario</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>CU13 - Buscar Sitio</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>CU14 - Crear Sitio</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>CU16 - Ver Sitio</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>CU06 - Ver Solicitudes de Amistad</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>CU07 - Generar Solicitud de Amistad</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>CU08 - Responder Solicitud de Amistad</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>CU09 - Ver Amigos</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>CU12 - Invitar amigos</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>CU17 - Publicar Información</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>CU04 - Modificar - Eliminar Usuario</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>CU10 - Ubicar Amigos - Radar</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>CU11 - Compartir Ubicacion</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>CU15 - Modificar - Eliminar Sitio</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>1er It</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>2da It</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>3er It</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Por CU'!$C$133:$F$133</c:f>
+              <c:f>'Por CU'!$D$148:$D$168</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0" formatCode="General">
-                  <c:v>0</c:v>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.52996845425867511</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.44705882352941179</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.30219780219780218</c:v>
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1139,55 +1656,143 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Por CU'!$B$134</c:f>
+              <c:f>'Por CU'!$E$146:$E$147</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Construcción</c:v>
+                  <c:v>Construcción </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
           <c:cat>
-            <c:strRef>
-              <c:f>'Por CU'!$C$131:$F$131</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>inicio</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1er It</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2da It</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3er It</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:multiLvlStrRef>
+              <c:f>'Por CU'!$B$148:$B$168</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="17"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>CU01 - Login</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>CU02 - Crear Usuario</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>CU03 - Ver Perfil</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>CU05 - Buscar Usuario</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>CU13 - Buscar Sitio</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>CU14 - Crear Sitio</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>CU16 - Ver Sitio</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>CU06 - Ver Solicitudes de Amistad</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>CU07 - Generar Solicitud de Amistad</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>CU08 - Responder Solicitud de Amistad</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>CU09 - Ver Amigos</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>CU12 - Invitar amigos</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>CU17 - Publicar Información</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>CU04 - Modificar - Eliminar Usuario</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>CU10 - Ubicar Amigos - Radar</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>CU11 - Compartir Ubicacion</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>CU15 - Modificar - Eliminar Sitio</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>1er It</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>2da It</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>3er It</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Por CU'!$C$134:$F$134</c:f>
+              <c:f>'Por CU'!$E$148:$E$168</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0" formatCode="General">
-                  <c:v>0</c:v>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.15772870662460567</c:v>
+                  <c:v>63</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.27450980392156865</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.5494505494505495</c:v>
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>27</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1198,79 +1803,166 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Por CU'!$B$135</c:f>
+              <c:f>'Por CU'!$F$146:$F$147</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Pruebas y ajustes</c:v>
+                  <c:v>Pruebas y Ajustes </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
           <c:cat>
-            <c:strRef>
-              <c:f>'Por CU'!$C$131:$F$131</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>inicio</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1er It</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2da It</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3er It</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:multiLvlStrRef>
+              <c:f>'Por CU'!$B$148:$B$168</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="17"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>CU01 - Login</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>CU02 - Crear Usuario</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>CU03 - Ver Perfil</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>CU05 - Buscar Usuario</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>CU13 - Buscar Sitio</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>CU14 - Crear Sitio</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>CU16 - Ver Sitio</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>CU06 - Ver Solicitudes de Amistad</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>CU07 - Generar Solicitud de Amistad</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>CU08 - Responder Solicitud de Amistad</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>CU09 - Ver Amigos</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>CU12 - Invitar amigos</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>CU17 - Publicar Información</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>CU04 - Modificar - Eliminar Usuario</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>CU10 - Ubicar Amigos - Radar</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>CU11 - Compartir Ubicacion</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>CU15 - Modificar - Eliminar Sitio</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>1er It</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>2da It</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>3er It</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Por CU'!$C$135:$F$135</c:f>
+              <c:f>'Por CU'!$F$148:$F$168</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0" formatCode="General">
-                  <c:v>0</c:v>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>20</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:marker val="1"/>
-        <c:axId val="113685632"/>
-        <c:axId val="113687168"/>
-      </c:lineChart>
+        <c:axId val="172447232"/>
+        <c:axId val="172448768"/>
+      </c:barChart>
       <c:catAx>
-        <c:axId val="113685632"/>
+        <c:axId val="172447232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="113687168"/>
+        <c:crossAx val="172448768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="113687168"/>
+        <c:axId val="172448768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1278,9 +1970,9 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="113685632"/>
+        <c:crossAx val="172447232"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1291,7 +1983,702 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="es-CL"/>
+  <c:pivotSource>
+    <c:name>[Tareas Esfuerzo.xlsx]Por CU!Tabla dinámica10</c:name>
+    <c:fmtId val="0"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-CL" sz="1800" b="1" i="0" baseline="0"/>
+              <a:t>Esfuerzo por CU</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="4"/>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Por CU'!$C$193:$C$194</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Investigación </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>'Por CU'!$B$195:$B$215</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="17"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>CU01</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>CU02</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>CU03</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>CU05</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>CU13</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>CU14</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>CU16</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>CU06</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>CU07</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>CU08</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>CU09</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>CU12</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>CU17</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>CU04</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>CU10</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>CU11</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>CU15</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>1er It</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>2da It</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>3er It</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Por CU'!$C$195:$C$215</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Por CU'!$D$193:$D$194</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Análisis y Diseño </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>'Por CU'!$B$195:$B$215</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="17"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>CU01</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>CU02</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>CU03</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>CU05</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>CU13</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>CU14</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>CU16</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>CU06</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>CU07</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>CU08</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>CU09</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>CU12</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>CU17</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>CU04</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>CU10</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>CU11</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>CU15</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>1er It</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>2da It</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>3er It</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Por CU'!$D$195:$D$215</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Por CU'!$E$193:$E$194</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Construcción </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>'Por CU'!$B$195:$B$215</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="17"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>CU01</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>CU02</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>CU03</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>CU05</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>CU13</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>CU14</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>CU16</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>CU06</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>CU07</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>CU08</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>CU09</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>CU12</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>CU17</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>CU04</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>CU10</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>CU11</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>CU15</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>1er It</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>2da It</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>3er It</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Por CU'!$E$195:$E$215</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>27</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Por CU'!$F$193:$F$194</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Pruebas y Ajustes </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>'Por CU'!$B$195:$B$215</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="17"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>CU01</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>CU02</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>CU03</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>CU05</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>CU13</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>CU14</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>CU16</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>CU06</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>CU07</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>CU08</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>CU09</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>CU12</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>CU17</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>CU04</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>CU10</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>CU11</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>CU15</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>1er It</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>2da It</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>3er It</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Por CU'!$F$195:$F$215</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="113501312"/>
+        <c:axId val="113556096"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="113501312"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="113556096"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="113556096"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="113501312"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3456,46 +4843,46 @@
                   <c:v>CU03 - Ver Perfil</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>CU04 - Modificar - Eliminar Usuario</c:v>
+                  <c:v>CU05 - Buscar Usuario</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>CU05 - Buscar Usuario</c:v>
+                  <c:v>CU13 - Buscar Sitio</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>CU14 - Crear Sitio</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>CU16 - Ver Sitio</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>CU06 - Ver Solicitudes de Amistad</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8">
                   <c:v>CU07 - Generar Solicitud de Amistad</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="9">
                   <c:v>CU08 - Responder Solicitud de Amistad</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="10">
                   <c:v>CU09 - Ver Amigos</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>CU10 - Ubicar Amigos - Radar</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>CU11 - Compartir Ubicacion</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>CU12 - Invitar amigos</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>CU13 - Buscar Sitio</c:v>
+                  <c:v>CU17 - Publicar Información</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>CU14 - Crear Sitio</c:v>
+                  <c:v>CU04 - Modificar - Eliminar Usuario</c:v>
                 </c:pt>
                 <c:pt idx="14">
+                  <c:v>CU10 - Ubicar Amigos - Radar</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>CU11 - Compartir Ubicacion</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>CU15 - Modificar - Eliminar Sitio</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>CU16 - Ver Sitio</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>CU17 - Publicar Información</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3516,28 +4903,28 @@
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>12</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="9">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="10">
                   <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>20</c:v>
@@ -3546,16 +4933,16 @@
                   <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>10</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="14">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>20</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3590,46 +4977,46 @@
                   <c:v>CU03 - Ver Perfil</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>CU04 - Modificar - Eliminar Usuario</c:v>
+                  <c:v>CU05 - Buscar Usuario</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>CU05 - Buscar Usuario</c:v>
+                  <c:v>CU13 - Buscar Sitio</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>CU14 - Crear Sitio</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>CU16 - Ver Sitio</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>CU06 - Ver Solicitudes de Amistad</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8">
                   <c:v>CU07 - Generar Solicitud de Amistad</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="9">
                   <c:v>CU08 - Responder Solicitud de Amistad</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="10">
                   <c:v>CU09 - Ver Amigos</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>CU10 - Ubicar Amigos - Radar</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>CU11 - Compartir Ubicacion</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>CU12 - Invitar amigos</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>CU13 - Buscar Sitio</c:v>
+                  <c:v>CU17 - Publicar Información</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>CU14 - Crear Sitio</c:v>
+                  <c:v>CU04 - Modificar - Eliminar Usuario</c:v>
                 </c:pt>
                 <c:pt idx="14">
+                  <c:v>CU10 - Ubicar Amigos - Radar</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>CU11 - Compartir Ubicacion</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>CU15 - Modificar - Eliminar Sitio</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>CU16 - Ver Sitio</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>CU17 - Publicar Información</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3650,46 +5037,46 @@
                   <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>25</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>16</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="9">
                   <c:v>12</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="10">
                   <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>28</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>24</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>24</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3724,46 +5111,46 @@
                   <c:v>CU03 - Ver Perfil</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>CU04 - Modificar - Eliminar Usuario</c:v>
+                  <c:v>CU05 - Buscar Usuario</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>CU05 - Buscar Usuario</c:v>
+                  <c:v>CU13 - Buscar Sitio</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>CU14 - Crear Sitio</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>CU16 - Ver Sitio</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>CU06 - Ver Solicitudes de Amistad</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8">
                   <c:v>CU07 - Generar Solicitud de Amistad</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="9">
                   <c:v>CU08 - Responder Solicitud de Amistad</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="10">
                   <c:v>CU09 - Ver Amigos</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>CU10 - Ubicar Amigos - Radar</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>CU11 - Compartir Ubicacion</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>CU12 - Invitar amigos</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>CU13 - Buscar Sitio</c:v>
+                  <c:v>CU17 - Publicar Información</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>CU14 - Crear Sitio</c:v>
+                  <c:v>CU04 - Modificar - Eliminar Usuario</c:v>
                 </c:pt>
                 <c:pt idx="14">
+                  <c:v>CU10 - Ubicar Amigos - Radar</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>CU11 - Compartir Ubicacion</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>CU15 - Modificar - Eliminar Sitio</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>CU16 - Ver Sitio</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>CU17 - Publicar Información</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3784,28 +5171,28 @@
                   <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>23</c:v>
+                  <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>62</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>40</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>34</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>41</c:v>
@@ -3814,16 +5201,16 @@
                   <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>51</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="14">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>64</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3858,46 +5245,46 @@
                   <c:v>CU03 - Ver Perfil</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>CU04 - Modificar - Eliminar Usuario</c:v>
+                  <c:v>CU05 - Buscar Usuario</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>CU05 - Buscar Usuario</c:v>
+                  <c:v>CU13 - Buscar Sitio</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>CU14 - Crear Sitio</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>CU16 - Ver Sitio</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>CU06 - Ver Solicitudes de Amistad</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8">
                   <c:v>CU07 - Generar Solicitud de Amistad</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="9">
                   <c:v>CU08 - Responder Solicitud de Amistad</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="10">
                   <c:v>CU09 - Ver Amigos</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>CU10 - Ubicar Amigos - Radar</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>CU11 - Compartir Ubicacion</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>CU12 - Invitar amigos</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>CU13 - Buscar Sitio</c:v>
+                  <c:v>CU17 - Publicar Información</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>CU14 - Crear Sitio</c:v>
+                  <c:v>CU04 - Modificar - Eliminar Usuario</c:v>
                 </c:pt>
                 <c:pt idx="14">
+                  <c:v>CU10 - Ubicar Amigos - Radar</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>CU11 - Compartir Ubicacion</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>CU15 - Modificar - Eliminar Sitio</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>CU16 - Ver Sitio</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>CU17 - Publicar Información</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3918,46 +5305,46 @@
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>20</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>9</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="14">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4010,194 +5397,266 @@
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="es-CL"/>
-  <c:pivotSource>
-    <c:name>[Tareas Esfuerzo.xlsx]Por CU!Tabla dinámica1</c:name>
-    <c:fmtId val="0"/>
-  </c:pivotSource>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Esfuerzo por CU</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-    </c:title>
-    <c:pivotFmts>
-      <c:pivotFmt>
-        <c:idx val="0"/>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-      </c:pivotFmt>
-    </c:pivotFmts>
     <c:plotArea>
       <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Por CU'!$C$95</c:f>
+              <c:f>'Por CU'!$B$110</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Total</c:v>
+                  <c:v>Investigación</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Por CU'!$B$96:$B$113</c:f>
+              <c:f>'Por CU'!$C$109:$F$109</c:f>
               <c:strCache>
-                <c:ptCount val="17"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>CU01 - Login</c:v>
+                  <c:v>inicio</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>CU02 - Crear Usuario</c:v>
+                  <c:v>1er It</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>CU03 - Ver Perfil</c:v>
+                  <c:v>2da It</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>CU04 - Modificar - Eliminar Usuario</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>CU05 - Buscar Usuario</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>CU06 - Ver Solicitudes de Amistad</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>CU07 - Generar Solicitud de Amistad</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>CU08 - Responder Solicitud de Amistad</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>CU09 - Ver Amigos</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>CU10 - Ubicar Amigos - Radar</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>CU11 - Compartir Ubicacion</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>CU12 - Invitar amigos</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>CU13 - Buscar Sitio</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>CU14 - Crear Sitio</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>CU15 - Modificar - Eliminar Sitio</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>CU16 - Ver Sitio</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>CU17 - Publicar Información</c:v>
+                  <c:v>3er It</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Por CU'!$C$96:$C$113</c:f>
+              <c:f>'Por CU'!$C$110:$F$110</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
-                <c:pt idx="0">
-                  <c:v>113</c:v>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>114</c:v>
+                  <c:v>0.31230283911671924</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>70</c:v>
+                  <c:v>0.27843137254901962</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>111</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>86</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>61</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>88</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>82</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>101</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>94</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>121</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>58</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>123</c:v>
+                  <c:v>0.14835164835164835</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="113527808"/>
-        <c:axId val="113554176"/>
-      </c:barChart>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Por CU'!$B$111</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Análisis y Diseño</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Por CU'!$C$109:$F$109</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>inicio</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1er It</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2da It</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3er It</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Por CU'!$C$111:$F$111</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.52996845425867511</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.44705882352941179</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.30219780219780218</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Por CU'!$B$112</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Construcción</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Por CU'!$C$109:$F$109</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>inicio</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1er It</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2da It</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3er It</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Por CU'!$C$112:$F$112</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.15772870662460567</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.27450980392156865</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.5494505494505495</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Por CU'!$B$113</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Pruebas y ajustes</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Por CU'!$C$109:$F$109</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>inicio</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1er It</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2da It</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3er It</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Por CU'!$C$113:$F$113</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="113685632"/>
+        <c:axId val="113687168"/>
+      </c:lineChart>
       <c:catAx>
-        <c:axId val="113527808"/>
+        <c:axId val="113685632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="113554176"/>
+        <c:crossAx val="113687168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="113554176"/>
+        <c:axId val="113687168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4205,16 +5664,20 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="113527808"/>
+        <c:crossAx val="113685632"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4440,15 +5903,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
+      <xdr:colOff>657225</xdr:colOff>
       <xdr:row>72</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:rowOff>142874</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>1428749</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
       <xdr:row>93</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4469,20 +5932,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>94</xdr:row>
-      <xdr:rowOff>123824</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>981074</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>781050</xdr:colOff>
-      <xdr:row>111</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>76199</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="4 Gráfico"/>
+        <xdr:cNvPr id="11" name="10 Gráfico"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -4499,20 +5962,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>981074</xdr:colOff>
-      <xdr:row>118</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1552575</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>76199</xdr:colOff>
-      <xdr:row>132</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:colOff>266699</xdr:colOff>
+      <xdr:row>134</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="11" name="10 Gráfico"/>
+        <xdr:cNvPr id="12" name="11 Gráfico"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -4522,6 +5985,66 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>685799</xdr:colOff>
+      <xdr:row>145</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>885825</xdr:colOff>
+      <xdr:row>165</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="14" name="13 Gráfico"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1581150</xdr:colOff>
+      <xdr:row>193</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>1057275</xdr:colOff>
+      <xdr:row>210</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="15" name="14 Gráfico"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4546,7 +6069,7 @@
       </sharedItems>
     </cacheField>
     <cacheField name="CU" numFmtId="0">
-      <sharedItems containsBlank="1" count="18">
+      <sharedItems containsBlank="1" count="27">
         <s v="CU01 - Login"/>
         <s v="CU02 - Crear Usuario"/>
         <s v="CU03 - Ver Perfil"/>
@@ -4565,6 +6088,15 @@
         <s v="CU11 - Compartir Ubicacion"/>
         <s v="CU15 - Modificar - Eliminar Sitio"/>
         <m u="1"/>
+        <s v="Fórmula1" f="1"/>
+        <s v="Fórmula2" f="1"/>
+        <s v="Fórmula3" f="1"/>
+        <s v="Fórmula4" f="1"/>
+        <s v="Fórmula5" f="1"/>
+        <s v="Fórmula6" f="1"/>
+        <s v="Fórmula7" f="1"/>
+        <s v="Fórmula8" f="1"/>
+        <s v="Fórmula9" f="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Investigación" numFmtId="0">
@@ -4583,6 +6115,89 @@
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="55" maxValue="123"/>
     </cacheField>
   </cacheFields>
+  <calculatedItems count="9">
+    <calculatedItem>
+      <pivotArea cacheIndex="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="1" count="1">
+            <x v="18"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </calculatedItem>
+    <calculatedItem>
+      <pivotArea cacheIndex="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="1" count="1">
+            <x v="19"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </calculatedItem>
+    <calculatedItem>
+      <pivotArea cacheIndex="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="1" count="1">
+            <x v="20"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </calculatedItem>
+    <calculatedItem>
+      <pivotArea cacheIndex="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="1" count="1">
+            <x v="21"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </calculatedItem>
+    <calculatedItem>
+      <pivotArea cacheIndex="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="1" count="1">
+            <x v="22"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </calculatedItem>
+    <calculatedItem>
+      <pivotArea cacheIndex="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="1" count="1">
+            <x v="23"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </calculatedItem>
+    <calculatedItem>
+      <pivotArea cacheIndex="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="1" count="1">
+            <x v="24"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </calculatedItem>
+    <calculatedItem>
+      <pivotArea cacheIndex="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="1" count="1">
+            <x v="25"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </calculatedItem>
+    <calculatedItem>
+      <pivotArea cacheIndex="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="1" count="1">
+            <x v="26"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </calculatedItem>
+  </calculatedItems>
 </pivotCacheDefinition>
 </file>
 
@@ -4677,6 +6292,117 @@
     </cacheField>
     <cacheField name="Martín" numFmtId="0">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="2" maxValue="187"/>
+    </cacheField>
+  </cacheFields>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Martin Loureiro" refreshedDate="40991.348535300924" createdVersion="3" refreshedVersion="3" minRefreshableVersion="3" recordCount="17">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="B3:I20" sheet="Por CU"/>
+  </cacheSource>
+  <cacheFields count="8">
+    <cacheField name="Iteración" numFmtId="0">
+      <sharedItems count="3">
+        <s v="1er It"/>
+        <s v="2da It"/>
+        <s v="3er It"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="CU" numFmtId="0">
+      <sharedItems count="17">
+        <s v="CU01 - Login"/>
+        <s v="CU02 - Crear Usuario"/>
+        <s v="CU03 - Ver Perfil"/>
+        <s v="CU05 - Buscar Usuario"/>
+        <s v="CU13 - Buscar Sitio"/>
+        <s v="CU14 - Crear Sitio"/>
+        <s v="CU16 - Ver Sitio"/>
+        <s v="CU06 - Ver Solicitudes de Amistad"/>
+        <s v="CU07 - Generar Solicitud de Amistad"/>
+        <s v="CU08 - Responder Solicitud de Amistad"/>
+        <s v="CU09 - Ver Amigos"/>
+        <s v="CU12 - Invitar amigos"/>
+        <s v="CU17 - Publicar Información"/>
+        <s v="CU04 - Modificar - Eliminar Usuario"/>
+        <s v="CU10 - Ubicar Amigos - Radar"/>
+        <s v="CU11 - Compartir Ubicacion"/>
+        <s v="CU15 - Modificar - Eliminar Sitio"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Investigación" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="2" maxValue="20"/>
+    </cacheField>
+    <cacheField name="Análisis y Diseño" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="9" maxValue="28"/>
+    </cacheField>
+    <cacheField name="Construcción" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="23" maxValue="64"/>
+    </cacheField>
+    <cacheField name="Pruebas y ajustes" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="5" maxValue="30"/>
+    </cacheField>
+    <cacheField name="TOTAL por CU" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="55" maxValue="123"/>
+    </cacheField>
+    <cacheField name="TOTAL por It" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="296" maxValue="699" count="4">
+        <n v="699"/>
+        <m/>
+        <n v="508"/>
+        <n v="296"/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Martin Loureiro" refreshedDate="40991.37446608796" createdVersion="3" refreshedVersion="3" minRefreshableVersion="3" recordCount="17">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="B173:G190" sheet="Por CU"/>
+  </cacheSource>
+  <cacheFields count="6">
+    <cacheField name="Iteración" numFmtId="0">
+      <sharedItems count="3">
+        <s v="1er It"/>
+        <s v="2da It"/>
+        <s v="3er It"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="CU" numFmtId="0">
+      <sharedItems count="17">
+        <s v="CU01"/>
+        <s v="CU02"/>
+        <s v="CU03"/>
+        <s v="CU05"/>
+        <s v="CU13"/>
+        <s v="CU14"/>
+        <s v="CU16"/>
+        <s v="CU06"/>
+        <s v="CU07"/>
+        <s v="CU08"/>
+        <s v="CU09"/>
+        <s v="CU12"/>
+        <s v="CU17"/>
+        <s v="CU04"/>
+        <s v="CU10"/>
+        <s v="CU11"/>
+        <s v="CU15"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Investigación" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="2" maxValue="20"/>
+    </cacheField>
+    <cacheField name="Análisis y Diseño" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="9" maxValue="28"/>
+    </cacheField>
+    <cacheField name="Construcción" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="23" maxValue="64"/>
+    </cacheField>
+    <cacheField name="Pruebas y ajustes" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="5" maxValue="30"/>
     </cacheField>
   </cacheFields>
 </pivotCacheDefinition>
@@ -5319,6 +7045,322 @@
 </pivotCacheRecords>
 </file>
 
+<file path=xl/pivotCache/pivotCacheRecords4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="17">
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="20"/>
+    <n v="25"/>
+    <n v="60"/>
+    <n v="8"/>
+    <n v="113"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="17"/>
+    <n v="24"/>
+    <n v="63"/>
+    <n v="10"/>
+    <n v="114"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="6"/>
+    <n v="17"/>
+    <n v="42"/>
+    <n v="5"/>
+    <n v="70"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="3"/>
+    <n v="16"/>
+    <n v="25"/>
+    <n v="62"/>
+    <n v="8"/>
+    <n v="111"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+    <n v="20"/>
+    <n v="28"/>
+    <n v="64"/>
+    <n v="9"/>
+    <n v="121"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+    <n v="10"/>
+    <n v="24"/>
+    <n v="51"/>
+    <n v="5"/>
+    <n v="90"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+    <n v="10"/>
+    <n v="25"/>
+    <n v="40"/>
+    <n v="5"/>
+    <n v="80"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="7"/>
+    <n v="12"/>
+    <n v="24"/>
+    <n v="40"/>
+    <n v="10"/>
+    <n v="86"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="8"/>
+    <n v="5"/>
+    <n v="16"/>
+    <n v="32"/>
+    <n v="8"/>
+    <n v="61"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="9"/>
+    <n v="4"/>
+    <n v="12"/>
+    <n v="30"/>
+    <n v="10"/>
+    <n v="56"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="10"/>
+    <n v="10"/>
+    <n v="20"/>
+    <n v="46"/>
+    <n v="12"/>
+    <n v="88"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="11"/>
+    <n v="20"/>
+    <n v="18"/>
+    <n v="41"/>
+    <n v="15"/>
+    <n v="94"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="12"/>
+    <n v="20"/>
+    <n v="24"/>
+    <n v="64"/>
+    <n v="15"/>
+    <n v="123"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="13"/>
+    <n v="2"/>
+    <n v="10"/>
+    <n v="23"/>
+    <n v="20"/>
+    <n v="55"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="14"/>
+    <n v="8"/>
+    <n v="14"/>
+    <n v="30"/>
+    <n v="30"/>
+    <n v="82"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="15"/>
+    <n v="15"/>
+    <n v="22"/>
+    <n v="34"/>
+    <n v="30"/>
+    <n v="101"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="16"/>
+    <n v="2"/>
+    <n v="9"/>
+    <n v="27"/>
+    <n v="20"/>
+    <n v="58"/>
+    <x v="1"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="17">
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="20"/>
+    <n v="25"/>
+    <n v="60"/>
+    <n v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="17"/>
+    <n v="24"/>
+    <n v="63"/>
+    <n v="10"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="6"/>
+    <n v="17"/>
+    <n v="42"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="3"/>
+    <n v="16"/>
+    <n v="25"/>
+    <n v="62"/>
+    <n v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+    <n v="20"/>
+    <n v="28"/>
+    <n v="64"/>
+    <n v="9"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+    <n v="10"/>
+    <n v="24"/>
+    <n v="51"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+    <n v="10"/>
+    <n v="25"/>
+    <n v="40"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="7"/>
+    <n v="12"/>
+    <n v="24"/>
+    <n v="40"/>
+    <n v="10"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="8"/>
+    <n v="5"/>
+    <n v="16"/>
+    <n v="32"/>
+    <n v="8"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="9"/>
+    <n v="4"/>
+    <n v="12"/>
+    <n v="30"/>
+    <n v="10"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="10"/>
+    <n v="10"/>
+    <n v="20"/>
+    <n v="46"/>
+    <n v="12"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="11"/>
+    <n v="20"/>
+    <n v="18"/>
+    <n v="41"/>
+    <n v="15"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="12"/>
+    <n v="20"/>
+    <n v="24"/>
+    <n v="64"/>
+    <n v="15"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="13"/>
+    <n v="2"/>
+    <n v="10"/>
+    <n v="23"/>
+    <n v="20"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="14"/>
+    <n v="8"/>
+    <n v="14"/>
+    <n v="30"/>
+    <n v="30"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="15"/>
+    <n v="15"/>
+    <n v="22"/>
+    <n v="34"/>
+    <n v="30"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="16"/>
+    <n v="2"/>
+    <n v="9"/>
+    <n v="27"/>
+    <n v="20"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica4" cacheId="195" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
   <location ref="C64:D76" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
@@ -5483,8 +7525,493 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica7" cacheId="183" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="B117:F121" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica10" cacheId="209" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="B193:F215" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="6">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="18">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="13"/>
+        <item x="3"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="11"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="16"/>
+        <item x="6"/>
+        <item x="12"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="0"/>
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="21">
+    <i>
+      <x/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="12"/>
+    </i>
+    <i r="1">
+      <x v="13"/>
+    </i>
+    <i r="1">
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i r="1">
+      <x v="7"/>
+    </i>
+    <i r="1">
+      <x v="8"/>
+    </i>
+    <i r="1">
+      <x v="11"/>
+    </i>
+    <i r="1">
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="9"/>
+    </i>
+    <i r="1">
+      <x v="10"/>
+    </i>
+    <i r="1">
+      <x v="14"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
+  </colItems>
+  <dataFields count="4">
+    <dataField name="Investigación " fld="2" baseField="0" baseItem="0"/>
+    <dataField name="Análisis y Diseño " fld="3" baseField="0" baseItem="0"/>
+    <dataField name="Construcción " fld="4" baseField="0" baseItem="0"/>
+    <dataField name="Pruebas y Ajustes " fld="5" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="4">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="3" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="4" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica9" cacheId="205" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="B146:F168" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="6">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="18">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="13"/>
+        <item x="3"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="11"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="16"/>
+        <item x="6"/>
+        <item x="12"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="0"/>
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="21">
+    <i>
+      <x/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="12"/>
+    </i>
+    <i r="1">
+      <x v="13"/>
+    </i>
+    <i r="1">
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i r="1">
+      <x v="7"/>
+    </i>
+    <i r="1">
+      <x v="8"/>
+    </i>
+    <i r="1">
+      <x v="11"/>
+    </i>
+    <i r="1">
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="9"/>
+    </i>
+    <i r="1">
+      <x v="10"/>
+    </i>
+    <i r="1">
+      <x v="14"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
+  </colItems>
+  <dataFields count="4">
+    <dataField name="Investigación " fld="2" baseField="0" baseItem="0"/>
+    <dataField name="Análisis y Diseño " fld="3" baseField="0" baseItem="0"/>
+    <dataField name="Construcción " fld="4" baseField="0" baseItem="0"/>
+    <dataField name="Pruebas y Ajustes " fld="5" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="4">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="3" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica8" cacheId="204" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+  <location ref="B119:C140" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="8">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="18">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="13"/>
+        <item x="3"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="11"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="16"/>
+        <item x="6"/>
+        <item x="12"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0">
+      <items count="5">
+        <item x="3"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="0"/>
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="21">
+    <i>
+      <x/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="12"/>
+    </i>
+    <i r="1">
+      <x v="13"/>
+    </i>
+    <i r="1">
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i r="1">
+      <x v="7"/>
+    </i>
+    <i r="1">
+      <x v="8"/>
+    </i>
+    <i r="1">
+      <x v="11"/>
+    </i>
+    <i r="1">
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="9"/>
+    </i>
+    <i r="1">
+      <x v="10"/>
+    </i>
+    <i r="1">
+      <x v="14"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Suma de TOTAL por CU" fld="6" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="0" format="5" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica7" cacheId="205" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="B95:F99" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField axis="axisCol" showAll="0">
       <items count="4">
@@ -5540,8 +8067,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica3" cacheId="183" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica3" cacheId="205" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="13">
   <location ref="B53:F72" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField showAll="0"/>
@@ -5550,20 +8077,20 @@
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
-        <item x="13"/>
         <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
         <item x="7"/>
         <item x="8"/>
         <item x="9"/>
         <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
         <item x="14"/>
         <item x="15"/>
-        <item x="11"/>
-        <item x="4"/>
-        <item x="5"/>
         <item x="16"/>
-        <item x="6"/>
-        <item x="12"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -5654,7 +8181,7 @@
     <dataField name="Construcción " fld="4" baseField="0" baseItem="0"/>
     <dataField name="Pruebas y Ajustes " fld="5" baseField="0" baseItem="0"/>
   </dataFields>
-  <chartFormats count="8">
+  <chartFormats count="4">
     <chartFormat chart="0" format="0" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
@@ -5691,56 +8218,29 @@
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="1" format="7" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="1" format="8" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="1" format="9" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="1" format="10" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
   </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica1" cacheId="179" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
-  <location ref="B95:C113" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica2" cacheId="197" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="B26:G31" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="7">
-    <pivotField showAll="0"/>
     <pivotField axis="axisRow" showAll="0">
-      <items count="19">
-        <item sd="0" x="0"/>
-        <item sd="0" x="1"/>
+      <items count="6">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item m="1" x="3"/>
+        <item m="1" x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="28">
+        <item x="0"/>
+        <item x="1"/>
         <item x="2"/>
         <item x="13"/>
         <item x="3"/>
@@ -5757,128 +8257,18 @@
         <item x="6"/>
         <item x="12"/>
         <item m="1" x="17"/>
+        <item f="1" x="18"/>
+        <item f="1" x="19"/>
+        <item f="1" x="20"/>
+        <item f="1" x="21"/>
+        <item f="1" x="22"/>
+        <item f="1" x="23"/>
+        <item f="1" x="24"/>
+        <item f="1" x="25"/>
+        <item f="1" x="26"/>
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="1"/>
-  </rowFields>
-  <rowItems count="18">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i>
-      <x v="12"/>
-    </i>
-    <i>
-      <x v="13"/>
-    </i>
-    <i>
-      <x v="14"/>
-    </i>
-    <i>
-      <x v="15"/>
-    </i>
-    <i>
-      <x v="16"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Suma de TOTAL por CU" fld="6" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="3">
-    <chartFormat chart="0" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="1" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="2" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica2" cacheId="179" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="B26:G31" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="7">
-    <pivotField axis="axisRow" showAll="0">
-      <items count="6">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item m="1" x="3"/>
-        <item m="1" x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
     <pivotField dataField="1" showAll="0"/>
     <pivotField dataField="1" showAll="0" defaultSubtotal="0"/>
     <pivotField dataField="1" showAll="0" defaultSubtotal="0"/>
@@ -8549,21 +10939,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B3:R146"/>
+  <dimension ref="B3:R215"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="E97" sqref="E97"/>
+    <sheetView tabSelected="1" topLeftCell="F189" workbookViewId="0">
+      <selection activeCell="K191" sqref="K191"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.5703125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="34.42578125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" style="2" customWidth="1"/>
     <col min="3" max="3" width="13.5703125" style="2" customWidth="1"/>
     <col min="4" max="4" width="17" style="2" customWidth="1"/>
     <col min="5" max="5" width="13.28515625" style="2" customWidth="1"/>
     <col min="6" max="6" width="17.7109375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="7.140625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="25.28515625" style="2" customWidth="1"/>
     <col min="8" max="8" width="12.28515625" style="2" customWidth="1"/>
     <col min="9" max="10" width="22" style="2" customWidth="1"/>
     <col min="11" max="11" width="16.140625" style="2" customWidth="1"/>
@@ -9350,88 +11740,88 @@
     </row>
     <row r="58" spans="2:7">
       <c r="B58" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C58" s="11">
+        <v>16</v>
+      </c>
+      <c r="D58" s="11">
+        <v>25</v>
+      </c>
+      <c r="E58" s="11">
         <v>62</v>
       </c>
-      <c r="C58" s="11">
-        <v>2</v>
-      </c>
-      <c r="D58" s="11">
-        <v>10</v>
-      </c>
-      <c r="E58" s="11">
-        <v>23</v>
-      </c>
       <c r="F58" s="11">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="G58"/>
     </row>
     <row r="59" spans="2:7">
       <c r="B59" s="10" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C59" s="11">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D59" s="11">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E59" s="11">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F59" s="11">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G59"/>
     </row>
     <row r="60" spans="2:7">
       <c r="B60" s="10" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C60" s="11">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D60" s="11">
         <v>24</v>
       </c>
       <c r="E60" s="11">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="F60" s="11">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G60"/>
     </row>
     <row r="61" spans="2:7">
       <c r="B61" s="10" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C61" s="11">
+        <v>10</v>
+      </c>
+      <c r="D61" s="11">
+        <v>25</v>
+      </c>
+      <c r="E61" s="11">
+        <v>40</v>
+      </c>
+      <c r="F61" s="11">
         <v>5</v>
-      </c>
-      <c r="D61" s="11">
-        <v>16</v>
-      </c>
-      <c r="E61" s="11">
-        <v>32</v>
-      </c>
-      <c r="F61" s="11">
-        <v>8</v>
       </c>
       <c r="G61"/>
     </row>
     <row r="62" spans="2:7">
       <c r="B62" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C62" s="11">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D62" s="11">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="E62" s="11">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F62" s="11">
         <v>10</v>
@@ -9440,55 +11830,55 @@
     </row>
     <row r="63" spans="2:7">
       <c r="B63" s="10" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C63" s="11">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D63" s="11">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E63" s="11">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="F63" s="11">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G63"/>
     </row>
     <row r="64" spans="2:7">
       <c r="B64" s="10" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C64" s="11">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D64" s="11">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E64" s="11">
         <v>30</v>
       </c>
       <c r="F64" s="11">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="G64"/>
     </row>
     <row r="65" spans="2:7">
       <c r="B65" s="10" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C65" s="11">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D65" s="11">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E65" s="11">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="F65" s="11">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="G65"/>
     </row>
@@ -9512,91 +11902,91 @@
     </row>
     <row r="67" spans="2:7">
       <c r="B67" s="10" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="C67" s="11">
         <v>20</v>
       </c>
       <c r="D67" s="11">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E67" s="11">
         <v>64</v>
       </c>
       <c r="F67" s="11">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G67"/>
     </row>
     <row r="68" spans="2:7">
       <c r="B68" s="10" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="C68" s="11">
+        <v>2</v>
+      </c>
+      <c r="D68" s="11">
         <v>10</v>
       </c>
-      <c r="D68" s="11">
-        <v>24</v>
-      </c>
       <c r="E68" s="11">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="F68" s="11">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="G68"/>
     </row>
     <row r="69" spans="2:7">
       <c r="B69" s="10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C69" s="11">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D69" s="11">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E69" s="11">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F69" s="11">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="G69"/>
     </row>
     <row r="70" spans="2:7">
       <c r="B70" s="10" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="C70" s="11">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D70" s="11">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E70" s="11">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F70" s="11">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="G70"/>
     </row>
     <row r="71" spans="2:7">
       <c r="B71" s="10" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C71" s="11">
+        <v>2</v>
+      </c>
+      <c r="D71" s="11">
+        <v>9</v>
+      </c>
+      <c r="E71" s="11">
+        <v>27</v>
+      </c>
+      <c r="F71" s="11">
         <v>20</v>
-      </c>
-      <c r="D71" s="11">
-        <v>24</v>
-      </c>
-      <c r="E71" s="11">
-        <v>64</v>
-      </c>
-      <c r="F71" s="11">
-        <v>15</v>
       </c>
       <c r="G71"/>
     </row>
@@ -9618,583 +12008,1797 @@
       </c>
       <c r="G72"/>
     </row>
-    <row r="95" spans="2:4">
-      <c r="B95" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="C95" t="s">
-        <v>75</v>
+    <row r="95" spans="2:18">
+      <c r="B95"/>
+      <c r="C95" s="9" t="s">
+        <v>78</v>
       </c>
       <c r="D95"/>
-    </row>
-    <row r="96" spans="2:4">
-      <c r="B96" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="C96" s="11">
-        <v>113</v>
-      </c>
-      <c r="D96"/>
-    </row>
-    <row r="97" spans="2:4">
+      <c r="E95"/>
+      <c r="F95"/>
+      <c r="G95"/>
+      <c r="H95"/>
+      <c r="I95"/>
+      <c r="J95"/>
+      <c r="K95"/>
+      <c r="M95"/>
+      <c r="N95"/>
+      <c r="O95"/>
+      <c r="P95"/>
+      <c r="Q95"/>
+      <c r="R95"/>
+    </row>
+    <row r="96" spans="2:18">
+      <c r="B96" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C96" t="s">
+        <v>46</v>
+      </c>
+      <c r="D96" t="s">
+        <v>54</v>
+      </c>
+      <c r="E96" t="s">
+        <v>61</v>
+      </c>
+      <c r="F96" t="s">
+        <v>68</v>
+      </c>
+      <c r="G96"/>
+      <c r="H96"/>
+      <c r="I96"/>
+      <c r="J96"/>
+      <c r="K96"/>
+      <c r="L96" s="19"/>
+      <c r="M96"/>
+      <c r="N96"/>
+      <c r="O96"/>
+      <c r="P96"/>
+      <c r="Q96"/>
+      <c r="R96"/>
+    </row>
+    <row r="97" spans="2:18">
       <c r="B97" s="10" t="s">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="C97" s="11">
+        <v>99</v>
+      </c>
+      <c r="D97" s="11">
+        <v>71</v>
+      </c>
+      <c r="E97" s="11">
+        <v>27</v>
+      </c>
+      <c r="F97" s="11">
+        <v>197</v>
+      </c>
+      <c r="G97"/>
+      <c r="H97"/>
+      <c r="I97"/>
+      <c r="J97"/>
+      <c r="K97"/>
+      <c r="L97" s="19"/>
+      <c r="M97"/>
+      <c r="N97"/>
+      <c r="O97"/>
+      <c r="P97"/>
+      <c r="Q97"/>
+      <c r="R97"/>
+    </row>
+    <row r="98" spans="2:18">
+      <c r="B98" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="C98" s="11">
+        <v>168</v>
+      </c>
+      <c r="D98" s="11">
         <v>114</v>
       </c>
-      <c r="D97"/>
-    </row>
-    <row r="98" spans="2:4">
-      <c r="B98" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="C98" s="11">
+      <c r="E98" s="11">
+        <v>55</v>
+      </c>
+      <c r="F98" s="11">
+        <v>337</v>
+      </c>
+      <c r="G98"/>
+      <c r="H98"/>
+      <c r="I98"/>
+      <c r="J98"/>
+      <c r="K98"/>
+      <c r="L98" s="19"/>
+      <c r="M98"/>
+      <c r="N98"/>
+      <c r="O98"/>
+      <c r="P98"/>
+      <c r="Q98"/>
+      <c r="R98"/>
+    </row>
+    <row r="99" spans="2:18">
+      <c r="B99" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="C99" s="11">
+        <v>50</v>
+      </c>
+      <c r="D99" s="11">
         <v>70</v>
       </c>
-      <c r="D98"/>
-    </row>
-    <row r="99" spans="2:4">
-      <c r="B99" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="C99" s="11">
-        <v>55</v>
-      </c>
-      <c r="D99"/>
-    </row>
-    <row r="100" spans="2:4">
-      <c r="B100" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="C100" s="11">
-        <v>111</v>
-      </c>
+      <c r="E99" s="11">
+        <v>100</v>
+      </c>
+      <c r="F99" s="11">
+        <v>220</v>
+      </c>
+      <c r="G99"/>
+      <c r="H99"/>
+      <c r="I99"/>
+      <c r="J99"/>
+      <c r="K99"/>
+      <c r="L99" s="19"/>
+      <c r="M99"/>
+      <c r="N99"/>
+      <c r="O99"/>
+      <c r="P99"/>
+      <c r="Q99"/>
+      <c r="R99"/>
+    </row>
+    <row r="100" spans="2:18">
+      <c r="B100"/>
+      <c r="C100"/>
       <c r="D100"/>
-    </row>
-    <row r="101" spans="2:4">
-      <c r="B101" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="C101" s="11">
-        <v>86</v>
-      </c>
+      <c r="E100"/>
+      <c r="F100"/>
+      <c r="G100"/>
+      <c r="H100"/>
+      <c r="I100"/>
+      <c r="J100"/>
+      <c r="K100"/>
+      <c r="L100" s="19"/>
+      <c r="M100"/>
+      <c r="N100"/>
+      <c r="O100"/>
+      <c r="P100"/>
+      <c r="Q100"/>
+      <c r="R100"/>
+    </row>
+    <row r="101" spans="2:18">
+      <c r="B101"/>
+      <c r="C101"/>
       <c r="D101"/>
-    </row>
-    <row r="102" spans="2:4">
-      <c r="B102" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="C102" s="11">
+      <c r="E101"/>
+      <c r="F101"/>
+      <c r="G101"/>
+      <c r="H101"/>
+      <c r="I101"/>
+      <c r="J101"/>
+      <c r="K101"/>
+      <c r="M101"/>
+      <c r="N101"/>
+      <c r="O101"/>
+      <c r="P101"/>
+      <c r="Q101"/>
+      <c r="R101"/>
+    </row>
+    <row r="102" spans="2:18">
+      <c r="B102" t="s">
+        <v>79</v>
+      </c>
+      <c r="C102">
+        <f>SUM(C97:C100)</f>
+        <v>317</v>
+      </c>
+      <c r="D102">
+        <f t="shared" ref="D102:E102" si="1">SUM(D97:D100)</f>
+        <v>255</v>
+      </c>
+      <c r="E102">
+        <f t="shared" si="1"/>
+        <v>182</v>
+      </c>
+      <c r="F102"/>
+      <c r="G102"/>
+      <c r="H102"/>
+      <c r="I102"/>
+      <c r="J102"/>
+      <c r="K102"/>
+      <c r="L102"/>
+      <c r="M102"/>
+      <c r="N102"/>
+      <c r="O102"/>
+      <c r="P102"/>
+      <c r="Q102"/>
+      <c r="R102"/>
+    </row>
+    <row r="103" spans="2:18">
+      <c r="H103" s="19"/>
+    </row>
+    <row r="104" spans="2:18">
+      <c r="H104" s="19"/>
+    </row>
+    <row r="105" spans="2:18">
+      <c r="H105" s="19"/>
+    </row>
+    <row r="107" spans="2:18">
+      <c r="B107"/>
+      <c r="C107"/>
+      <c r="D107"/>
+      <c r="E107"/>
+      <c r="F107"/>
+    </row>
+    <row r="108" spans="2:18">
+      <c r="B108"/>
+      <c r="C108"/>
+      <c r="D108"/>
+      <c r="E108"/>
+      <c r="F108"/>
+    </row>
+    <row r="109" spans="2:18">
+      <c r="B109" t="s">
+        <v>73</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D109" t="s">
+        <v>46</v>
+      </c>
+      <c r="E109" t="s">
+        <v>54</v>
+      </c>
+      <c r="F109" t="s">
         <v>61</v>
       </c>
-      <c r="D102"/>
-    </row>
-    <row r="103" spans="2:4">
-      <c r="B103" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="C103" s="11">
-        <v>56</v>
-      </c>
-      <c r="D103"/>
-    </row>
-    <row r="104" spans="2:4">
-      <c r="B104" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="C104" s="11">
-        <v>88</v>
-      </c>
-      <c r="D104"/>
-    </row>
-    <row r="105" spans="2:4">
-      <c r="B105" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="C105" s="11">
-        <v>82</v>
-      </c>
-      <c r="D105"/>
-    </row>
-    <row r="106" spans="2:4">
-      <c r="B106" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="C106" s="11">
-        <v>101</v>
-      </c>
-      <c r="D106"/>
-    </row>
-    <row r="107" spans="2:4">
-      <c r="B107" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="C107" s="11">
+    </row>
+    <row r="110" spans="2:18">
+      <c r="B110" t="s">
+        <v>70</v>
+      </c>
+      <c r="C110" s="2">
+        <v>0</v>
+      </c>
+      <c r="D110" s="19">
+        <f>C97/C102</f>
+        <v>0.31230283911671924</v>
+      </c>
+      <c r="E110" s="21">
+        <f>D97/D102</f>
+        <v>0.27843137254901962</v>
+      </c>
+      <c r="F110" s="21">
+        <f>E97/E102</f>
+        <v>0.14835164835164835</v>
+      </c>
+    </row>
+    <row r="111" spans="2:18">
+      <c r="B111" t="s">
+        <v>81</v>
+      </c>
+      <c r="C111" s="2">
+        <v>0</v>
+      </c>
+      <c r="D111" s="19">
+        <f>C98/C102</f>
+        <v>0.52996845425867511</v>
+      </c>
+      <c r="E111" s="21">
+        <f>D98/D102</f>
+        <v>0.44705882352941179</v>
+      </c>
+      <c r="F111" s="21">
+        <f>E98/E102</f>
+        <v>0.30219780219780218</v>
+      </c>
+    </row>
+    <row r="112" spans="2:18">
+      <c r="B112" t="s">
         <v>94</v>
       </c>
-      <c r="D107"/>
-    </row>
-    <row r="108" spans="2:4">
-      <c r="B108" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="C108" s="11">
-        <v>121</v>
-      </c>
-      <c r="D108"/>
-    </row>
-    <row r="109" spans="2:4">
-      <c r="B109" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="C109" s="11">
-        <v>90</v>
-      </c>
-      <c r="D109"/>
-    </row>
-    <row r="110" spans="2:4">
-      <c r="B110" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="C110" s="11">
-        <v>58</v>
-      </c>
-      <c r="D110"/>
-    </row>
-    <row r="111" spans="2:4">
-      <c r="B111" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="C111" s="11">
-        <v>80</v>
-      </c>
-      <c r="D111"/>
-    </row>
-    <row r="112" spans="2:4">
-      <c r="B112" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="C112" s="11">
-        <v>123</v>
-      </c>
-      <c r="D112"/>
-    </row>
-    <row r="113" spans="2:18">
-      <c r="B113" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="C113" s="11">
-        <v>1503</v>
-      </c>
-    </row>
-    <row r="114" spans="2:18">
+      <c r="C112" s="2">
+        <v>0</v>
+      </c>
+      <c r="D112" s="19">
+        <f>C99/C102</f>
+        <v>0.15772870662460567</v>
+      </c>
+      <c r="E112" s="21">
+        <f>D99/D102</f>
+        <v>0.27450980392156865</v>
+      </c>
+      <c r="F112" s="21">
+        <f>E99/E102</f>
+        <v>0.5494505494505495</v>
+      </c>
+    </row>
+    <row r="113" spans="2:7">
+      <c r="B113" t="s">
+        <v>33</v>
+      </c>
+      <c r="C113" s="2">
+        <v>0</v>
+      </c>
+      <c r="D113" s="19">
+        <f>C100/C102</f>
+        <v>0</v>
+      </c>
+      <c r="E113" s="21">
+        <f>D100/D102</f>
+        <v>0</v>
+      </c>
+      <c r="F113" s="21">
+        <f>E100/E102</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="2:7">
       <c r="B114"/>
       <c r="C114"/>
-    </row>
-    <row r="115" spans="2:18">
+      <c r="D114"/>
+      <c r="E114"/>
+      <c r="F114"/>
+    </row>
+    <row r="115" spans="2:7">
       <c r="B115"/>
       <c r="C115"/>
-    </row>
-    <row r="116" spans="2:18">
+      <c r="D115"/>
+      <c r="E115"/>
+      <c r="F115"/>
+    </row>
+    <row r="116" spans="2:7">
       <c r="B116"/>
       <c r="C116"/>
-    </row>
-    <row r="117" spans="2:18">
+      <c r="D116"/>
+      <c r="E116"/>
+    </row>
+    <row r="117" spans="2:7">
       <c r="B117"/>
-      <c r="C117" s="9" t="s">
-        <v>78</v>
-      </c>
+      <c r="C117"/>
       <c r="D117"/>
       <c r="E117"/>
-      <c r="F117"/>
-      <c r="G117"/>
-      <c r="H117"/>
-      <c r="I117"/>
-      <c r="J117"/>
-      <c r="K117"/>
-      <c r="M117"/>
-      <c r="N117"/>
-      <c r="O117"/>
-      <c r="P117"/>
-      <c r="Q117"/>
-      <c r="R117"/>
-    </row>
-    <row r="118" spans="2:18">
-      <c r="B118" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="C118" t="s">
+    </row>
+    <row r="119" spans="2:7">
+      <c r="B119" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C119" t="s">
+        <v>75</v>
+      </c>
+      <c r="D119"/>
+      <c r="E119"/>
+      <c r="F119"/>
+      <c r="G119"/>
+    </row>
+    <row r="120" spans="2:7">
+      <c r="B120" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="D118" t="s">
-        <v>54</v>
-      </c>
-      <c r="E118" t="s">
-        <v>61</v>
-      </c>
-      <c r="F118" t="s">
-        <v>68</v>
-      </c>
-      <c r="G118"/>
-      <c r="H118"/>
-      <c r="I118"/>
-      <c r="J118"/>
-      <c r="K118"/>
-      <c r="L118" s="19"/>
-      <c r="M118"/>
-      <c r="N118"/>
-      <c r="O118"/>
-      <c r="P118"/>
-      <c r="Q118"/>
-      <c r="R118"/>
-    </row>
-    <row r="119" spans="2:18">
-      <c r="B119" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="C119" s="11">
-        <v>99</v>
-      </c>
-      <c r="D119" s="11">
-        <v>71</v>
-      </c>
-      <c r="E119" s="11">
-        <v>27</v>
-      </c>
-      <c r="F119" s="11">
-        <v>197</v>
-      </c>
-      <c r="G119"/>
-      <c r="H119"/>
-      <c r="I119"/>
-      <c r="J119"/>
-      <c r="K119"/>
-      <c r="L119" s="19"/>
-      <c r="M119"/>
-      <c r="N119"/>
-      <c r="O119"/>
-      <c r="P119"/>
-      <c r="Q119"/>
-      <c r="R119"/>
-    </row>
-    <row r="120" spans="2:18">
-      <c r="B120" s="10" t="s">
-        <v>90</v>
-      </c>
       <c r="C120" s="11">
-        <v>168</v>
-      </c>
-      <c r="D120" s="11">
+        <v>699</v>
+      </c>
+      <c r="D120"/>
+      <c r="E120"/>
+      <c r="F120"/>
+      <c r="G120"/>
+    </row>
+    <row r="121" spans="2:7">
+      <c r="B121" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C121" s="11">
+        <v>113</v>
+      </c>
+      <c r="D121"/>
+      <c r="E121"/>
+      <c r="F121"/>
+      <c r="G121"/>
+    </row>
+    <row r="122" spans="2:7">
+      <c r="B122" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="C122" s="11">
         <v>114</v>
       </c>
-      <c r="E120" s="11">
-        <v>55</v>
-      </c>
-      <c r="F120" s="11">
-        <v>337</v>
-      </c>
-      <c r="G120"/>
-      <c r="H120"/>
-      <c r="I120"/>
-      <c r="J120"/>
-      <c r="K120"/>
-      <c r="L120" s="19"/>
-      <c r="M120"/>
-      <c r="N120"/>
-      <c r="O120"/>
-      <c r="P120"/>
-      <c r="Q120"/>
-      <c r="R120"/>
-    </row>
-    <row r="121" spans="2:18">
-      <c r="B121" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="C121" s="11">
-        <v>50</v>
-      </c>
-      <c r="D121" s="11">
-        <v>70</v>
-      </c>
-      <c r="E121" s="11">
-        <v>100</v>
-      </c>
-      <c r="F121" s="11">
-        <v>220</v>
-      </c>
-      <c r="G121"/>
-      <c r="H121"/>
-      <c r="I121"/>
-      <c r="J121"/>
-      <c r="K121"/>
-      <c r="L121" s="19"/>
-      <c r="M121"/>
-      <c r="N121"/>
-      <c r="O121"/>
-      <c r="P121"/>
-      <c r="Q121"/>
-      <c r="R121"/>
-    </row>
-    <row r="122" spans="2:18">
-      <c r="B122"/>
-      <c r="C122"/>
       <c r="D122"/>
       <c r="E122"/>
       <c r="F122"/>
       <c r="G122"/>
-      <c r="H122"/>
-      <c r="I122"/>
-      <c r="J122"/>
-      <c r="K122"/>
-      <c r="L122" s="19"/>
-      <c r="M122"/>
-      <c r="N122"/>
-      <c r="O122"/>
-      <c r="P122"/>
-      <c r="Q122"/>
-      <c r="R122"/>
-    </row>
-    <row r="123" spans="2:18">
-      <c r="B123"/>
-      <c r="C123"/>
+    </row>
+    <row r="123" spans="2:7">
+      <c r="B123" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C123" s="11">
+        <v>70</v>
+      </c>
       <c r="D123"/>
       <c r="E123"/>
       <c r="F123"/>
       <c r="G123"/>
-      <c r="H123"/>
-      <c r="I123"/>
-      <c r="J123"/>
-      <c r="K123"/>
-      <c r="M123"/>
-      <c r="N123"/>
-      <c r="O123"/>
-      <c r="P123"/>
-      <c r="Q123"/>
-      <c r="R123"/>
-    </row>
-    <row r="124" spans="2:18">
-      <c r="B124" t="s">
-        <v>79</v>
-      </c>
-      <c r="C124">
-        <f>SUM(C119:C122)</f>
-        <v>317</v>
-      </c>
-      <c r="D124">
-        <f t="shared" ref="D124:E124" si="1">SUM(D119:D122)</f>
-        <v>255</v>
-      </c>
-      <c r="E124">
-        <f t="shared" si="1"/>
-        <v>182</v>
-      </c>
+    </row>
+    <row r="124" spans="2:7">
+      <c r="B124" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="C124" s="11">
+        <v>111</v>
+      </c>
+      <c r="D124"/>
+      <c r="E124"/>
       <c r="F124"/>
       <c r="G124"/>
-      <c r="H124"/>
-      <c r="I124"/>
-      <c r="J124"/>
-      <c r="K124"/>
-      <c r="L124"/>
-      <c r="M124"/>
-      <c r="N124"/>
-      <c r="O124"/>
-      <c r="P124"/>
-      <c r="Q124"/>
-      <c r="R124"/>
-    </row>
-    <row r="125" spans="2:18">
-      <c r="H125" s="19"/>
-    </row>
-    <row r="126" spans="2:18">
-      <c r="H126" s="19"/>
-    </row>
-    <row r="127" spans="2:18">
-      <c r="H127" s="19"/>
-    </row>
-    <row r="129" spans="2:6">
-      <c r="B129"/>
-      <c r="C129"/>
+    </row>
+    <row r="125" spans="2:7">
+      <c r="B125" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="C125" s="11">
+        <v>121</v>
+      </c>
+      <c r="D125"/>
+      <c r="E125"/>
+      <c r="F125"/>
+      <c r="G125"/>
+    </row>
+    <row r="126" spans="2:7">
+      <c r="B126" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="C126" s="11">
+        <v>90</v>
+      </c>
+      <c r="D126"/>
+      <c r="E126"/>
+      <c r="F126"/>
+      <c r="G126"/>
+    </row>
+    <row r="127" spans="2:7">
+      <c r="B127" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C127" s="11">
+        <v>80</v>
+      </c>
+      <c r="D127"/>
+      <c r="E127"/>
+      <c r="F127"/>
+      <c r="G127"/>
+    </row>
+    <row r="128" spans="2:7">
+      <c r="B128" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C128" s="11">
+        <v>508</v>
+      </c>
+      <c r="D128"/>
+      <c r="E128"/>
+      <c r="F128"/>
+      <c r="G128"/>
+    </row>
+    <row r="129" spans="2:7">
+      <c r="B129" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="C129" s="11">
+        <v>86</v>
+      </c>
       <c r="D129"/>
       <c r="E129"/>
       <c r="F129"/>
-    </row>
-    <row r="130" spans="2:6">
-      <c r="B130"/>
-      <c r="C130"/>
+      <c r="G129"/>
+    </row>
+    <row r="130" spans="2:7">
+      <c r="B130" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="C130" s="11">
+        <v>61</v>
+      </c>
       <c r="D130"/>
       <c r="E130"/>
       <c r="F130"/>
-    </row>
-    <row r="131" spans="2:6">
-      <c r="B131" t="s">
-        <v>73</v>
-      </c>
-      <c r="C131" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D131" t="s">
-        <v>46</v>
-      </c>
-      <c r="E131" t="s">
-        <v>54</v>
-      </c>
-      <c r="F131" t="s">
+      <c r="G130"/>
+    </row>
+    <row r="131" spans="2:7">
+      <c r="B131" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C131" s="11">
+        <v>56</v>
+      </c>
+      <c r="D131"/>
+      <c r="E131"/>
+      <c r="F131"/>
+      <c r="G131"/>
+    </row>
+    <row r="132" spans="2:7">
+      <c r="B132" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="C132" s="11">
+        <v>88</v>
+      </c>
+      <c r="D132"/>
+      <c r="E132"/>
+      <c r="F132"/>
+      <c r="G132"/>
+    </row>
+    <row r="133" spans="2:7">
+      <c r="B133" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="C133" s="11">
+        <v>94</v>
+      </c>
+      <c r="D133"/>
+      <c r="E133"/>
+      <c r="F133"/>
+      <c r="G133"/>
+    </row>
+    <row r="134" spans="2:7">
+      <c r="B134" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="C134" s="11">
+        <v>123</v>
+      </c>
+      <c r="D134"/>
+      <c r="E134"/>
+      <c r="F134"/>
+      <c r="G134"/>
+    </row>
+    <row r="135" spans="2:7">
+      <c r="B135" s="10" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="132" spans="2:6">
-      <c r="B132" t="s">
-        <v>70</v>
-      </c>
-      <c r="C132" s="2">
-        <v>0</v>
-      </c>
-      <c r="D132" s="19">
-        <f>C119/C124</f>
-        <v>0.31230283911671924</v>
-      </c>
-      <c r="E132" s="21">
-        <f>D119/D124</f>
-        <v>0.27843137254901962</v>
-      </c>
-      <c r="F132" s="21">
-        <f>E119/E124</f>
-        <v>0.14835164835164835</v>
-      </c>
-    </row>
-    <row r="133" spans="2:6">
-      <c r="B133" t="s">
-        <v>81</v>
-      </c>
-      <c r="C133" s="2">
-        <v>0</v>
-      </c>
-      <c r="D133" s="19">
-        <f>C120/C124</f>
-        <v>0.52996845425867511</v>
-      </c>
-      <c r="E133" s="21">
-        <f>D120/D124</f>
-        <v>0.44705882352941179</v>
-      </c>
-      <c r="F133" s="21">
-        <f>E120/E124</f>
-        <v>0.30219780219780218</v>
-      </c>
-    </row>
-    <row r="134" spans="2:6">
-      <c r="B134" t="s">
-        <v>94</v>
-      </c>
-      <c r="C134" s="2">
-        <v>0</v>
-      </c>
-      <c r="D134" s="19">
-        <f>C121/C124</f>
-        <v>0.15772870662460567</v>
-      </c>
-      <c r="E134" s="21">
-        <f>D121/D124</f>
-        <v>0.27450980392156865</v>
-      </c>
-      <c r="F134" s="21">
-        <f>E121/E124</f>
-        <v>0.5494505494505495</v>
-      </c>
-    </row>
-    <row r="135" spans="2:6">
-      <c r="B135" t="s">
-        <v>33</v>
-      </c>
-      <c r="C135" s="2">
-        <v>0</v>
-      </c>
-      <c r="D135" s="19">
-        <f>C122/C124</f>
-        <v>0</v>
-      </c>
-      <c r="E135" s="21">
-        <f>D122/D124</f>
-        <v>0</v>
-      </c>
-      <c r="F135" s="21">
-        <f>E122/E124</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" spans="2:6">
-      <c r="B136"/>
-      <c r="C136"/>
+      <c r="C135" s="11">
+        <v>296</v>
+      </c>
+      <c r="D135"/>
+      <c r="E135"/>
+      <c r="F135"/>
+      <c r="G135"/>
+    </row>
+    <row r="136" spans="2:7">
+      <c r="B136" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="C136" s="11">
+        <v>55</v>
+      </c>
       <c r="D136"/>
       <c r="E136"/>
       <c r="F136"/>
-    </row>
-    <row r="137" spans="2:6">
-      <c r="B137"/>
-      <c r="C137"/>
+      <c r="G136"/>
+    </row>
+    <row r="137" spans="2:7">
+      <c r="B137" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="C137" s="11">
+        <v>82</v>
+      </c>
       <c r="D137"/>
       <c r="E137"/>
       <c r="F137"/>
-    </row>
-    <row r="138" spans="2:6">
-      <c r="B138"/>
-      <c r="C138"/>
+      <c r="G137"/>
+    </row>
+    <row r="138" spans="2:7">
+      <c r="B138" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="C138" s="11">
+        <v>101</v>
+      </c>
       <c r="D138"/>
       <c r="E138"/>
-    </row>
-    <row r="139" spans="2:6">
-      <c r="B139"/>
-      <c r="C139"/>
+      <c r="F138"/>
+      <c r="G138"/>
+    </row>
+    <row r="139" spans="2:7">
+      <c r="B139" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="C139" s="11">
+        <v>58</v>
+      </c>
       <c r="D139"/>
       <c r="E139"/>
-    </row>
-    <row r="140" spans="2:6">
-      <c r="B140"/>
-      <c r="C140"/>
+      <c r="F139"/>
+      <c r="G139"/>
+    </row>
+    <row r="140" spans="2:7">
+      <c r="B140" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C140" s="11">
+        <v>1503</v>
+      </c>
       <c r="D140"/>
       <c r="E140"/>
-    </row>
-    <row r="141" spans="2:6">
+      <c r="F140"/>
+      <c r="G140"/>
+    </row>
+    <row r="141" spans="2:7">
       <c r="B141"/>
       <c r="C141"/>
       <c r="D141"/>
       <c r="E141"/>
-    </row>
-    <row r="142" spans="2:6">
+      <c r="F141"/>
+      <c r="G141"/>
+    </row>
+    <row r="142" spans="2:7">
       <c r="B142"/>
       <c r="C142"/>
       <c r="D142"/>
       <c r="E142"/>
       <c r="F142"/>
-    </row>
-    <row r="143" spans="2:6">
+      <c r="G142"/>
+    </row>
+    <row r="143" spans="2:7">
       <c r="B143"/>
       <c r="C143"/>
       <c r="D143"/>
       <c r="E143"/>
       <c r="F143"/>
-    </row>
-    <row r="144" spans="2:6">
+      <c r="G143"/>
+    </row>
+    <row r="144" spans="2:7">
       <c r="B144"/>
       <c r="C144"/>
       <c r="D144"/>
       <c r="E144"/>
       <c r="F144"/>
-    </row>
-    <row r="145" spans="2:6">
+      <c r="G144"/>
+    </row>
+    <row r="145" spans="2:7">
       <c r="B145"/>
       <c r="C145"/>
       <c r="D145"/>
       <c r="E145"/>
       <c r="F145"/>
-    </row>
-    <row r="146" spans="2:6">
+      <c r="G145"/>
+    </row>
+    <row r="146" spans="2:7">
       <c r="B146"/>
-      <c r="C146"/>
+      <c r="C146" s="9" t="s">
+        <v>73</v>
+      </c>
       <c r="D146"/>
       <c r="E146"/>
       <c r="F146"/>
+      <c r="G146"/>
+    </row>
+    <row r="147" spans="2:7">
+      <c r="B147" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C147" t="s">
+        <v>83</v>
+      </c>
+      <c r="D147" t="s">
+        <v>91</v>
+      </c>
+      <c r="E147" t="s">
+        <v>95</v>
+      </c>
+      <c r="F147" t="s">
+        <v>84</v>
+      </c>
+      <c r="G147"/>
+    </row>
+    <row r="148" spans="2:7">
+      <c r="B148" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C148" s="11">
+        <v>99</v>
+      </c>
+      <c r="D148" s="11">
+        <v>168</v>
+      </c>
+      <c r="E148" s="11">
+        <v>382</v>
+      </c>
+      <c r="F148" s="11">
+        <v>50</v>
+      </c>
+      <c r="G148"/>
+    </row>
+    <row r="149" spans="2:7">
+      <c r="B149" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C149" s="11">
+        <v>20</v>
+      </c>
+      <c r="D149" s="11">
+        <v>25</v>
+      </c>
+      <c r="E149" s="11">
+        <v>60</v>
+      </c>
+      <c r="F149" s="11">
+        <v>8</v>
+      </c>
+      <c r="G149"/>
+    </row>
+    <row r="150" spans="2:7">
+      <c r="B150" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="C150" s="11">
+        <v>17</v>
+      </c>
+      <c r="D150" s="11">
+        <v>24</v>
+      </c>
+      <c r="E150" s="11">
+        <v>63</v>
+      </c>
+      <c r="F150" s="11">
+        <v>10</v>
+      </c>
+      <c r="G150"/>
+    </row>
+    <row r="151" spans="2:7">
+      <c r="B151" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C151" s="11">
+        <v>6</v>
+      </c>
+      <c r="D151" s="11">
+        <v>17</v>
+      </c>
+      <c r="E151" s="11">
+        <v>42</v>
+      </c>
+      <c r="F151" s="11">
+        <v>5</v>
+      </c>
+      <c r="G151"/>
+    </row>
+    <row r="152" spans="2:7">
+      <c r="B152" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="C152" s="11">
+        <v>16</v>
+      </c>
+      <c r="D152" s="11">
+        <v>25</v>
+      </c>
+      <c r="E152" s="11">
+        <v>62</v>
+      </c>
+      <c r="F152" s="11">
+        <v>8</v>
+      </c>
+      <c r="G152"/>
+    </row>
+    <row r="153" spans="2:7">
+      <c r="B153" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="C153" s="11">
+        <v>20</v>
+      </c>
+      <c r="D153" s="11">
+        <v>28</v>
+      </c>
+      <c r="E153" s="11">
+        <v>64</v>
+      </c>
+      <c r="F153" s="11">
+        <v>9</v>
+      </c>
+      <c r="G153"/>
+    </row>
+    <row r="154" spans="2:7">
+      <c r="B154" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="C154" s="11">
+        <v>10</v>
+      </c>
+      <c r="D154" s="11">
+        <v>24</v>
+      </c>
+      <c r="E154" s="11">
+        <v>51</v>
+      </c>
+      <c r="F154" s="11">
+        <v>5</v>
+      </c>
+      <c r="G154"/>
+    </row>
+    <row r="155" spans="2:7">
+      <c r="B155" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C155" s="11">
+        <v>10</v>
+      </c>
+      <c r="D155" s="11">
+        <v>25</v>
+      </c>
+      <c r="E155" s="11">
+        <v>40</v>
+      </c>
+      <c r="F155" s="11">
+        <v>5</v>
+      </c>
+      <c r="G155"/>
+    </row>
+    <row r="156" spans="2:7">
+      <c r="B156" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C156" s="11">
+        <v>71</v>
+      </c>
+      <c r="D156" s="11">
+        <v>114</v>
+      </c>
+      <c r="E156" s="11">
+        <v>253</v>
+      </c>
+      <c r="F156" s="11">
+        <v>70</v>
+      </c>
+      <c r="G156"/>
+    </row>
+    <row r="157" spans="2:7">
+      <c r="B157" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="C157" s="11">
+        <v>12</v>
+      </c>
+      <c r="D157" s="11">
+        <v>24</v>
+      </c>
+      <c r="E157" s="11">
+        <v>40</v>
+      </c>
+      <c r="F157" s="11">
+        <v>10</v>
+      </c>
+      <c r="G157"/>
+    </row>
+    <row r="158" spans="2:7">
+      <c r="B158" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="C158" s="11">
+        <v>5</v>
+      </c>
+      <c r="D158" s="11">
+        <v>16</v>
+      </c>
+      <c r="E158" s="11">
+        <v>32</v>
+      </c>
+      <c r="F158" s="11">
+        <v>8</v>
+      </c>
+      <c r="G158"/>
+    </row>
+    <row r="159" spans="2:7">
+      <c r="B159" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C159" s="11">
+        <v>4</v>
+      </c>
+      <c r="D159" s="11">
+        <v>12</v>
+      </c>
+      <c r="E159" s="11">
+        <v>30</v>
+      </c>
+      <c r="F159" s="11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="160" spans="2:7">
+      <c r="B160" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="C160" s="11">
+        <v>10</v>
+      </c>
+      <c r="D160" s="11">
+        <v>20</v>
+      </c>
+      <c r="E160" s="11">
+        <v>46</v>
+      </c>
+      <c r="F160" s="11">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="161" spans="2:7">
+      <c r="B161" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="C161" s="11">
+        <v>20</v>
+      </c>
+      <c r="D161" s="11">
+        <v>18</v>
+      </c>
+      <c r="E161" s="11">
+        <v>41</v>
+      </c>
+      <c r="F161" s="11">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="162" spans="2:7">
+      <c r="B162" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="C162" s="11">
+        <v>20</v>
+      </c>
+      <c r="D162" s="11">
+        <v>24</v>
+      </c>
+      <c r="E162" s="11">
+        <v>64</v>
+      </c>
+      <c r="F162" s="11">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="163" spans="2:7">
+      <c r="B163" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C163" s="11">
+        <v>27</v>
+      </c>
+      <c r="D163" s="11">
+        <v>55</v>
+      </c>
+      <c r="E163" s="11">
+        <v>114</v>
+      </c>
+      <c r="F163" s="11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="164" spans="2:7">
+      <c r="B164" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="C164" s="11">
+        <v>2</v>
+      </c>
+      <c r="D164" s="11">
+        <v>10</v>
+      </c>
+      <c r="E164" s="11">
+        <v>23</v>
+      </c>
+      <c r="F164" s="11">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="165" spans="2:7">
+      <c r="B165" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="C165" s="11">
+        <v>8</v>
+      </c>
+      <c r="D165" s="11">
+        <v>14</v>
+      </c>
+      <c r="E165" s="11">
+        <v>30</v>
+      </c>
+      <c r="F165" s="11">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="166" spans="2:7">
+      <c r="B166" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="C166" s="11">
+        <v>15</v>
+      </c>
+      <c r="D166" s="11">
+        <v>22</v>
+      </c>
+      <c r="E166" s="11">
+        <v>34</v>
+      </c>
+      <c r="F166" s="11">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="167" spans="2:7">
+      <c r="B167" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="C167" s="11">
+        <v>2</v>
+      </c>
+      <c r="D167" s="11">
+        <v>9</v>
+      </c>
+      <c r="E167" s="11">
+        <v>27</v>
+      </c>
+      <c r="F167" s="11">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="168" spans="2:7">
+      <c r="B168" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C168" s="11">
+        <v>197</v>
+      </c>
+      <c r="D168" s="11">
+        <v>337</v>
+      </c>
+      <c r="E168" s="11">
+        <v>749</v>
+      </c>
+      <c r="F168" s="11">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="173" spans="2:7" ht="31.5">
+      <c r="B173" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="C173" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D173" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="E173" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="F173" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="G173" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="174" spans="2:7">
+      <c r="B174" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="C174" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="D174" s="24">
+        <v>20</v>
+      </c>
+      <c r="E174" s="33">
+        <v>25</v>
+      </c>
+      <c r="F174" s="33">
+        <v>60</v>
+      </c>
+      <c r="G174" s="33">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="175" spans="2:7">
+      <c r="B175" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="C175" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="D175" s="24">
+        <v>17</v>
+      </c>
+      <c r="E175" s="33">
+        <v>24</v>
+      </c>
+      <c r="F175" s="33">
+        <v>63</v>
+      </c>
+      <c r="G175" s="33">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="176" spans="2:7">
+      <c r="B176" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="C176" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="D176" s="24">
+        <v>6</v>
+      </c>
+      <c r="E176" s="33">
+        <v>17</v>
+      </c>
+      <c r="F176" s="33">
+        <v>42</v>
+      </c>
+      <c r="G176" s="33">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="177" spans="2:7">
+      <c r="B177" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="C177" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="D177" s="24">
+        <v>16</v>
+      </c>
+      <c r="E177" s="33">
+        <v>25</v>
+      </c>
+      <c r="F177" s="33">
+        <v>62</v>
+      </c>
+      <c r="G177" s="33">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="178" spans="2:7">
+      <c r="B178" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="C178" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="D178" s="24">
+        <v>20</v>
+      </c>
+      <c r="E178" s="33">
+        <v>28</v>
+      </c>
+      <c r="F178" s="33">
+        <v>64</v>
+      </c>
+      <c r="G178" s="33">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="179" spans="2:7">
+      <c r="B179" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="C179" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="D179" s="24">
+        <v>10</v>
+      </c>
+      <c r="E179" s="33">
+        <v>24</v>
+      </c>
+      <c r="F179" s="33">
+        <v>51</v>
+      </c>
+      <c r="G179" s="33">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="180" spans="2:7">
+      <c r="B180" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="C180" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="D180" s="24">
+        <v>10</v>
+      </c>
+      <c r="E180" s="33">
+        <v>25</v>
+      </c>
+      <c r="F180" s="33">
+        <v>40</v>
+      </c>
+      <c r="G180" s="33">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="181" spans="2:7">
+      <c r="B181" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="C181" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="D181" s="24">
+        <v>12</v>
+      </c>
+      <c r="E181" s="33">
+        <v>24</v>
+      </c>
+      <c r="F181" s="33">
+        <v>40</v>
+      </c>
+      <c r="G181" s="33">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="182" spans="2:7">
+      <c r="B182" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="C182" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="D182" s="24">
+        <v>5</v>
+      </c>
+      <c r="E182" s="33">
+        <v>16</v>
+      </c>
+      <c r="F182" s="33">
+        <v>32</v>
+      </c>
+      <c r="G182" s="33">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="183" spans="2:7">
+      <c r="B183" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="C183" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="D183" s="24">
+        <v>4</v>
+      </c>
+      <c r="E183" s="33">
+        <v>12</v>
+      </c>
+      <c r="F183" s="33">
+        <v>30</v>
+      </c>
+      <c r="G183" s="33">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="184" spans="2:7">
+      <c r="B184" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="C184" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="D184" s="24">
+        <v>10</v>
+      </c>
+      <c r="E184" s="33">
+        <v>20</v>
+      </c>
+      <c r="F184" s="33">
+        <v>46</v>
+      </c>
+      <c r="G184" s="33">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="185" spans="2:7">
+      <c r="B185" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="C185" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="D185" s="24">
+        <v>20</v>
+      </c>
+      <c r="E185" s="33">
+        <v>18</v>
+      </c>
+      <c r="F185" s="33">
+        <v>41</v>
+      </c>
+      <c r="G185" s="33">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="186" spans="2:7">
+      <c r="B186" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="C186" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="D186" s="24">
+        <v>20</v>
+      </c>
+      <c r="E186" s="33">
+        <v>24</v>
+      </c>
+      <c r="F186" s="33">
+        <v>64</v>
+      </c>
+      <c r="G186" s="33">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="187" spans="2:7">
+      <c r="B187" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="C187" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="D187" s="24">
+        <v>2</v>
+      </c>
+      <c r="E187" s="33">
+        <v>10</v>
+      </c>
+      <c r="F187" s="33">
+        <v>23</v>
+      </c>
+      <c r="G187" s="33">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="188" spans="2:7">
+      <c r="B188" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="C188" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="D188" s="24">
+        <v>8</v>
+      </c>
+      <c r="E188" s="33">
+        <v>14</v>
+      </c>
+      <c r="F188" s="33">
+        <v>30</v>
+      </c>
+      <c r="G188" s="33">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="189" spans="2:7">
+      <c r="B189" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="C189" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="D189" s="24">
+        <v>15</v>
+      </c>
+      <c r="E189" s="33">
+        <v>22</v>
+      </c>
+      <c r="F189" s="33">
+        <v>34</v>
+      </c>
+      <c r="G189" s="33">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="190" spans="2:7">
+      <c r="B190" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="C190" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="D190" s="24">
+        <v>2</v>
+      </c>
+      <c r="E190" s="33">
+        <v>9</v>
+      </c>
+      <c r="F190" s="33">
+        <v>27</v>
+      </c>
+      <c r="G190" s="33">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="193" spans="2:6">
+      <c r="B193"/>
+      <c r="C193" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="D193"/>
+      <c r="E193"/>
+      <c r="F193"/>
+    </row>
+    <row r="194" spans="2:6">
+      <c r="B194" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C194" t="s">
+        <v>83</v>
+      </c>
+      <c r="D194" t="s">
+        <v>91</v>
+      </c>
+      <c r="E194" t="s">
+        <v>95</v>
+      </c>
+      <c r="F194" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="195" spans="2:6">
+      <c r="B195" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C195" s="11">
+        <v>99</v>
+      </c>
+      <c r="D195" s="11">
+        <v>168</v>
+      </c>
+      <c r="E195" s="11">
+        <v>382</v>
+      </c>
+      <c r="F195" s="11">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="196" spans="2:6">
+      <c r="B196" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="C196" s="11">
+        <v>20</v>
+      </c>
+      <c r="D196" s="11">
+        <v>25</v>
+      </c>
+      <c r="E196" s="11">
+        <v>60</v>
+      </c>
+      <c r="F196" s="11">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="197" spans="2:6">
+      <c r="B197" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="C197" s="11">
+        <v>17</v>
+      </c>
+      <c r="D197" s="11">
+        <v>24</v>
+      </c>
+      <c r="E197" s="11">
+        <v>63</v>
+      </c>
+      <c r="F197" s="11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="198" spans="2:6">
+      <c r="B198" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="C198" s="11">
+        <v>6</v>
+      </c>
+      <c r="D198" s="11">
+        <v>17</v>
+      </c>
+      <c r="E198" s="11">
+        <v>42</v>
+      </c>
+      <c r="F198" s="11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="199" spans="2:6">
+      <c r="B199" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="C199" s="11">
+        <v>16</v>
+      </c>
+      <c r="D199" s="11">
+        <v>25</v>
+      </c>
+      <c r="E199" s="11">
+        <v>62</v>
+      </c>
+      <c r="F199" s="11">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="200" spans="2:6">
+      <c r="B200" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="C200" s="11">
+        <v>20</v>
+      </c>
+      <c r="D200" s="11">
+        <v>28</v>
+      </c>
+      <c r="E200" s="11">
+        <v>64</v>
+      </c>
+      <c r="F200" s="11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="201" spans="2:6">
+      <c r="B201" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="C201" s="11">
+        <v>10</v>
+      </c>
+      <c r="D201" s="11">
+        <v>24</v>
+      </c>
+      <c r="E201" s="11">
+        <v>51</v>
+      </c>
+      <c r="F201" s="11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="202" spans="2:6">
+      <c r="B202" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="C202" s="11">
+        <v>10</v>
+      </c>
+      <c r="D202" s="11">
+        <v>25</v>
+      </c>
+      <c r="E202" s="11">
+        <v>40</v>
+      </c>
+      <c r="F202" s="11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="203" spans="2:6">
+      <c r="B203" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C203" s="11">
+        <v>71</v>
+      </c>
+      <c r="D203" s="11">
+        <v>114</v>
+      </c>
+      <c r="E203" s="11">
+        <v>253</v>
+      </c>
+      <c r="F203" s="11">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="204" spans="2:6">
+      <c r="B204" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="C204" s="11">
+        <v>12</v>
+      </c>
+      <c r="D204" s="11">
+        <v>24</v>
+      </c>
+      <c r="E204" s="11">
+        <v>40</v>
+      </c>
+      <c r="F204" s="11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="205" spans="2:6">
+      <c r="B205" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="C205" s="11">
+        <v>5</v>
+      </c>
+      <c r="D205" s="11">
+        <v>16</v>
+      </c>
+      <c r="E205" s="11">
+        <v>32</v>
+      </c>
+      <c r="F205" s="11">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="206" spans="2:6">
+      <c r="B206" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="C206" s="11">
+        <v>4</v>
+      </c>
+      <c r="D206" s="11">
+        <v>12</v>
+      </c>
+      <c r="E206" s="11">
+        <v>30</v>
+      </c>
+      <c r="F206" s="11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="207" spans="2:6">
+      <c r="B207" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="C207" s="11">
+        <v>10</v>
+      </c>
+      <c r="D207" s="11">
+        <v>20</v>
+      </c>
+      <c r="E207" s="11">
+        <v>46</v>
+      </c>
+      <c r="F207" s="11">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="208" spans="2:6">
+      <c r="B208" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="C208" s="11">
+        <v>20</v>
+      </c>
+      <c r="D208" s="11">
+        <v>18</v>
+      </c>
+      <c r="E208" s="11">
+        <v>41</v>
+      </c>
+      <c r="F208" s="11">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="209" spans="2:6">
+      <c r="B209" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="C209" s="11">
+        <v>20</v>
+      </c>
+      <c r="D209" s="11">
+        <v>24</v>
+      </c>
+      <c r="E209" s="11">
+        <v>64</v>
+      </c>
+      <c r="F209" s="11">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="210" spans="2:6">
+      <c r="B210" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C210" s="11">
+        <v>27</v>
+      </c>
+      <c r="D210" s="11">
+        <v>55</v>
+      </c>
+      <c r="E210" s="11">
+        <v>114</v>
+      </c>
+      <c r="F210" s="11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="211" spans="2:6">
+      <c r="B211" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="C211" s="11">
+        <v>2</v>
+      </c>
+      <c r="D211" s="11">
+        <v>10</v>
+      </c>
+      <c r="E211" s="11">
+        <v>23</v>
+      </c>
+      <c r="F211" s="11">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="212" spans="2:6">
+      <c r="B212" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="C212" s="11">
+        <v>8</v>
+      </c>
+      <c r="D212" s="11">
+        <v>14</v>
+      </c>
+      <c r="E212" s="11">
+        <v>30</v>
+      </c>
+      <c r="F212" s="11">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="213" spans="2:6">
+      <c r="B213" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="C213" s="11">
+        <v>15</v>
+      </c>
+      <c r="D213" s="11">
+        <v>22</v>
+      </c>
+      <c r="E213" s="11">
+        <v>34</v>
+      </c>
+      <c r="F213" s="11">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="214" spans="2:6">
+      <c r="B214" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="C214" s="11">
+        <v>2</v>
+      </c>
+      <c r="D214" s="11">
+        <v>9</v>
+      </c>
+      <c r="E214" s="11">
+        <v>27</v>
+      </c>
+      <c r="F214" s="11">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="215" spans="2:6">
+      <c r="B215" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C215" s="11">
+        <v>197</v>
+      </c>
+      <c r="D215" s="11">
+        <v>337</v>
+      </c>
+      <c r="E215" s="11">
+        <v>749</v>
+      </c>
+      <c r="F215" s="11">
+        <v>220</v>
+      </c>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
@@ -10204,9 +13808,9 @@
     <mergeCell ref="I17:I20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555551" footer="0.51180555555555551"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId5"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId7"/>
   <headerFooter alignWithMargins="0"/>
-  <drawing r:id="rId6"/>
+  <drawing r:id="rId8"/>
 </worksheet>
 </file>
 

--- a/doc/Tareas Esfuerzo.xlsx
+++ b/doc/Tareas Esfuerzo.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="3" r:id="rId1"/>
     <sheet name="Por CU" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja4" sheetId="7" r:id="rId3"/>
+    <sheet name="Hoja1" sheetId="8" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="__xlnm._FilterDatabase">#REF!</definedName>
@@ -17,17 +18,17 @@
   </definedNames>
   <calcPr calcId="125725" iterateDelta="1E-4"/>
   <pivotCaches>
-    <pivotCache cacheId="197" r:id="rId4"/>
-    <pivotCache cacheId="205" r:id="rId5"/>
-    <pivotCache cacheId="195" r:id="rId6"/>
-    <pivotCache cacheId="204" r:id="rId7"/>
-    <pivotCache cacheId="209" r:id="rId8"/>
+    <pivotCache cacheId="0" r:id="rId5"/>
+    <pivotCache cacheId="1" r:id="rId6"/>
+    <pivotCache cacheId="2" r:id="rId7"/>
+    <pivotCache cacheId="3" r:id="rId8"/>
+    <pivotCache cacheId="4" r:id="rId9"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="685" uniqueCount="121">
   <si>
     <t>Etapa</t>
   </si>
@@ -787,9 +788,6 @@
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -840,6 +838,9 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1021,24 +1022,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="104888192"/>
-        <c:axId val="104924672"/>
+        <c:axId val="96695424"/>
+        <c:axId val="96696960"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="104888192"/>
+        <c:axId val="96695424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="104924672"/>
+        <c:crossAx val="96696960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="104924672"/>
+        <c:axId val="96696960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1046,7 +1047,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="104888192"/>
+        <c:crossAx val="96695424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1055,7 +1056,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1278,24 +1279,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="145468800"/>
-        <c:axId val="145544704"/>
+        <c:axId val="98255232"/>
+        <c:axId val="98256768"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="145468800"/>
+        <c:axId val="98255232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="145544704"/>
+        <c:crossAx val="98256768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="145544704"/>
+        <c:axId val="98256768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1303,7 +1304,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="145468800"/>
+        <c:crossAx val="98255232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1312,7 +1313,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1945,24 +1946,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="172447232"/>
-        <c:axId val="172448768"/>
+        <c:axId val="98303360"/>
+        <c:axId val="98112640"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="172447232"/>
+        <c:axId val="98303360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="172448768"/>
+        <c:crossAx val="98112640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="172448768"/>
+        <c:axId val="98112640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1970,7 +1971,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="172447232"/>
+        <c:crossAx val="98303360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1983,7 +1984,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2640,24 +2641,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="113501312"/>
-        <c:axId val="113556096"/>
+        <c:axId val="98142848"/>
+        <c:axId val="98156928"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="113501312"/>
+        <c:axId val="98142848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="113556096"/>
+        <c:crossAx val="98156928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="113556096"/>
+        <c:axId val="98156928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2665,7 +2666,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="113501312"/>
+        <c:crossAx val="98142848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2678,7 +2679,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2817,7 +2818,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3127,25 +3128,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="113010944"/>
-        <c:axId val="113025024"/>
+        <c:axId val="96910720"/>
+        <c:axId val="96920704"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="113010944"/>
+        <c:axId val="96910720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="113025024"/>
+        <c:crossAx val="96920704"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="113025024"/>
+        <c:axId val="96920704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3153,7 +3154,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="113010944"/>
+        <c:crossAx val="96910720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3166,7 +3167,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3537,24 +3538,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="39701120"/>
-        <c:axId val="62636416"/>
+        <c:axId val="96947584"/>
+        <c:axId val="96969856"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="39701120"/>
+        <c:axId val="96947584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="62636416"/>
+        <c:crossAx val="96969856"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="62636416"/>
+        <c:axId val="96969856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3562,7 +3563,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="39701120"/>
+        <c:crossAx val="96947584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3575,7 +3576,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3885,24 +3886,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="65642880"/>
-        <c:axId val="65644416"/>
+        <c:axId val="97652096"/>
+        <c:axId val="97657984"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="65642880"/>
+        <c:axId val="97652096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="65644416"/>
+        <c:crossAx val="97657984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="65644416"/>
+        <c:axId val="97657984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3910,20 +3911,19 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="65642880"/>
+        <c:crossAx val="97652096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4312,24 +4312,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="101283328"/>
-        <c:axId val="101295232"/>
+        <c:axId val="97701248"/>
+        <c:axId val="97711232"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="101283328"/>
+        <c:axId val="97701248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="101295232"/>
+        <c:crossAx val="97711232"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="101295232"/>
+        <c:axId val="97711232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.8"/>
@@ -4338,7 +4338,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="101283328"/>
+        <c:crossAx val="97701248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4351,7 +4351,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4386,7 +4386,7 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.19437400058807452"/>
-          <c:y val="3.010751668528772E-2"/>
+          <c:y val="3.0107516685287727E-2"/>
         </c:manualLayout>
       </c:layout>
     </c:title>
@@ -4695,24 +4695,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="113445120"/>
-        <c:axId val="113455104"/>
+        <c:axId val="97952512"/>
+        <c:axId val="97954048"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="113445120"/>
+        <c:axId val="97952512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="113455104"/>
+        <c:crossAx val="97954048"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="113455104"/>
+        <c:axId val="97954048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4720,7 +4720,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="113445120"/>
+        <c:crossAx val="97952512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4733,7 +4733,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5350,24 +5350,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="113502464"/>
-        <c:axId val="113508352"/>
+        <c:axId val="98050048"/>
+        <c:axId val="98051584"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="113502464"/>
+        <c:axId val="98050048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="113508352"/>
+        <c:crossAx val="98051584"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="113508352"/>
+        <c:axId val="98051584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5375,7 +5375,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="113502464"/>
+        <c:crossAx val="98050048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5388,7 +5388,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5639,24 +5639,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="113685632"/>
-        <c:axId val="113687168"/>
+        <c:axId val="98082176"/>
+        <c:axId val="98092160"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="113685632"/>
+        <c:axId val="98082176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="113687168"/>
+        <c:crossAx val="98092160"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="113687168"/>
+        <c:axId val="98092160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5664,7 +5664,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="113685632"/>
+        <c:crossAx val="98082176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5677,7 +5677,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -7362,7 +7362,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica4" cacheId="195" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica4" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
   <location ref="C64:D76" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField axis="axisRow" showAll="0">
@@ -7447,7 +7447,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica2" cacheId="195" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="8">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica2" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="8">
   <location ref="C43:D49" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField showAll="0"/>
@@ -7525,7 +7525,368 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica10" cacheId="209" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica7" cacheId="1" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="B95:F99" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="6">
+    <pivotField axis="axisCol" showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="-2"/>
+  </rowFields>
+  <rowItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="0"/>
+  </colFields>
+  <colItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="3">
+    <dataField name="Suma de Investigación" fld="2" baseField="0" baseItem="0"/>
+    <dataField name="Suma de Análisis y Diseño" fld="3" baseField="0" baseItem="0"/>
+    <dataField name="Suma de Pruebas y ajustes" fld="5" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica3" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="13">
+  <location ref="B53:F72" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="6">
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="18">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0" defaultSubtotal="0"/>
+    <pivotField name="Construcción2" dataField="1" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="18">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
+  </colItems>
+  <dataFields count="4">
+    <dataField name="Investigación " fld="2" baseField="0" baseItem="0"/>
+    <dataField name="Análisis y Diseño " fld="3" baseField="0" baseItem="0"/>
+    <dataField name="Construcción " fld="4" baseField="0" baseItem="0"/>
+    <dataField name="Pruebas y Ajustes " fld="5" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="4">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="4" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="5" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="6" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="B26:G31" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="7">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="6">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item m="1" x="3"/>
+        <item m="1" x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="28">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="13"/>
+        <item x="3"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="11"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="16"/>
+        <item x="6"/>
+        <item x="12"/>
+        <item m="1" x="17"/>
+        <item f="1" x="18"/>
+        <item f="1" x="19"/>
+        <item f="1" x="20"/>
+        <item f="1" x="21"/>
+        <item f="1" x="22"/>
+        <item f="1" x="23"/>
+        <item f="1" x="24"/>
+        <item f="1" x="25"/>
+        <item f="1" x="26"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
+    <i i="4">
+      <x v="4"/>
+    </i>
+  </colItems>
+  <dataFields count="5">
+    <dataField name="Investigación " fld="2" baseField="0" baseItem="0"/>
+    <dataField name="Análisis y Diseño " fld="3" baseField="0" baseItem="0"/>
+    <dataField name="Construcción " fld="4" baseField="0" baseItem="0"/>
+    <dataField name="Pruebas y Ajustes " fld="5" baseField="0" baseItem="0"/>
+    <dataField name="TOTAL" fld="6" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="5">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="4" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="5" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="6" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="7" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica10" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="B193:F215" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField axis="axisRow" showAll="0">
@@ -7697,8 +8058,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica9" cacheId="205" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica9" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="B146:F168" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField axis="axisRow" showAll="0">
@@ -7870,8 +8231,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica8" cacheId="204" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+<file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica8" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
   <location ref="B119:C140" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField axis="axisRow" showAll="0">
@@ -8000,367 +8361,6 @@
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
             <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica7" cacheId="205" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="B95:F99" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="6">
-    <pivotField axis="axisCol" showAll="0">
-      <items count="4">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="-2"/>
-  </rowFields>
-  <rowItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-    <i i="2">
-      <x v="2"/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="0"/>
-  </colFields>
-  <colItems count="4">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <dataFields count="3">
-    <dataField name="Suma de Investigación" fld="2" baseField="0" baseItem="0"/>
-    <dataField name="Suma de Análisis y Diseño" fld="3" baseField="0" baseItem="0"/>
-    <dataField name="Suma de Pruebas y ajustes" fld="5" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica3" cacheId="205" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="13">
-  <location ref="B53:F72" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="6">
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="18">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0" defaultSubtotal="0"/>
-    <pivotField name="Construcción2" dataField="1" showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="1"/>
-  </rowFields>
-  <rowItems count="18">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i>
-      <x v="12"/>
-    </i>
-    <i>
-      <x v="13"/>
-    </i>
-    <i>
-      <x v="14"/>
-    </i>
-    <i>
-      <x v="15"/>
-    </i>
-    <i>
-      <x v="16"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="4">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-    <i i="2">
-      <x v="2"/>
-    </i>
-    <i i="3">
-      <x v="3"/>
-    </i>
-  </colItems>
-  <dataFields count="4">
-    <dataField name="Investigación " fld="2" baseField="0" baseItem="0"/>
-    <dataField name="Análisis y Diseño " fld="3" baseField="0" baseItem="0"/>
-    <dataField name="Construcción " fld="4" baseField="0" baseItem="0"/>
-    <dataField name="Pruebas y Ajustes " fld="5" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="4">
-    <chartFormat chart="0" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="4" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="5" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="6" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica2" cacheId="197" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="B26:G31" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="7">
-    <pivotField axis="axisRow" showAll="0">
-      <items count="6">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item m="1" x="3"/>
-        <item m="1" x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="28">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="13"/>
-        <item x="3"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="11"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="16"/>
-        <item x="6"/>
-        <item x="12"/>
-        <item m="1" x="17"/>
-        <item f="1" x="18"/>
-        <item f="1" x="19"/>
-        <item f="1" x="20"/>
-        <item f="1" x="21"/>
-        <item f="1" x="22"/>
-        <item f="1" x="23"/>
-        <item f="1" x="24"/>
-        <item f="1" x="25"/>
-        <item f="1" x="26"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="4">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="5">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-    <i i="2">
-      <x v="2"/>
-    </i>
-    <i i="3">
-      <x v="3"/>
-    </i>
-    <i i="4">
-      <x v="4"/>
-    </i>
-  </colItems>
-  <dataFields count="5">
-    <dataField name="Investigación " fld="2" baseField="0" baseItem="0"/>
-    <dataField name="Análisis y Diseño " fld="3" baseField="0" baseItem="0"/>
-    <dataField name="Construcción " fld="4" baseField="0" baseItem="0"/>
-    <dataField name="Pruebas y Ajustes " fld="5" baseField="0" baseItem="0"/>
-    <dataField name="TOTAL" fld="6" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="5">
-    <chartFormat chart="0" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="4" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="5" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="6" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="7" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
           </reference>
         </references>
       </pivotArea>
@@ -8720,8 +8720,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AW187"/>
   <sheetViews>
-    <sheetView topLeftCell="A151" workbookViewId="0">
-      <selection activeCell="K129" sqref="K129"/>
+    <sheetView topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:I39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="15"/>
@@ -8770,32 +8770,32 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1"/>
-      <c r="C3" s="25" t="s">
+      <c r="C3" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="26" t="s">
+      <c r="D3" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="E3" s="26" t="s">
+      <c r="E3" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="26" t="s">
+      <c r="F3" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="26">
+      <c r="G3" s="25">
         <f>H3+I3</f>
         <v>18</v>
       </c>
-      <c r="H3" s="26">
+      <c r="H3" s="25">
         <v>8</v>
       </c>
-      <c r="I3" s="27">
+      <c r="I3" s="26">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="30">
       <c r="A4" s="1"/>
-      <c r="C4" s="28" t="s">
+      <c r="C4" s="27" t="s">
         <v>7</v>
       </c>
       <c r="D4" s="5" t="s">
@@ -8820,7 +8820,7 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1"/>
-      <c r="C5" s="28" t="s">
+      <c r="C5" s="27" t="s">
         <v>7</v>
       </c>
       <c r="D5" s="5" t="s">
@@ -8845,7 +8845,7 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="1"/>
-      <c r="C6" s="28" t="s">
+      <c r="C6" s="27" t="s">
         <v>7</v>
       </c>
       <c r="D6" s="5" t="s">
@@ -8870,7 +8870,7 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="1"/>
-      <c r="C7" s="28" t="s">
+      <c r="C7" s="27" t="s">
         <v>7</v>
       </c>
       <c r="D7" s="5" t="s">
@@ -8895,7 +8895,7 @@
     </row>
     <row r="8" spans="1:9" ht="30">
       <c r="A8" s="1"/>
-      <c r="C8" s="28" t="s">
+      <c r="C8" s="27" t="s">
         <v>7</v>
       </c>
       <c r="D8" s="5" t="s">
@@ -8920,7 +8920,7 @@
     </row>
     <row r="9" spans="1:9" ht="30">
       <c r="A9" s="1"/>
-      <c r="C9" s="28" t="s">
+      <c r="C9" s="27" t="s">
         <v>7</v>
       </c>
       <c r="D9" s="5" t="s">
@@ -8945,7 +8945,7 @@
     </row>
     <row r="10" spans="1:9" ht="30">
       <c r="A10" s="1"/>
-      <c r="C10" s="28" t="s">
+      <c r="C10" s="27" t="s">
         <v>7</v>
       </c>
       <c r="D10" s="5" t="s">
@@ -8970,7 +8970,7 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="1"/>
-      <c r="C11" s="28" t="s">
+      <c r="C11" s="27" t="s">
         <v>7</v>
       </c>
       <c r="D11" s="5" t="s">
@@ -8995,7 +8995,7 @@
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="1"/>
-      <c r="C12" s="28" t="s">
+      <c r="C12" s="27" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="5" t="s">
@@ -9020,7 +9020,7 @@
     </row>
     <row r="13" spans="1:9" ht="30">
       <c r="A13" s="1"/>
-      <c r="C13" s="28" t="s">
+      <c r="C13" s="27" t="s">
         <v>7</v>
       </c>
       <c r="D13" s="5" t="s">
@@ -9045,7 +9045,7 @@
     </row>
     <row r="14" spans="1:9" ht="45">
       <c r="A14" s="1"/>
-      <c r="C14" s="28" t="s">
+      <c r="C14" s="27" t="s">
         <v>7</v>
       </c>
       <c r="D14" s="5" t="s">
@@ -9070,7 +9070,7 @@
     </row>
     <row r="15" spans="1:9" ht="30">
       <c r="A15" s="1"/>
-      <c r="C15" s="28" t="s">
+      <c r="C15" s="27" t="s">
         <v>7</v>
       </c>
       <c r="D15" s="5" t="s">
@@ -9095,7 +9095,7 @@
     </row>
     <row r="16" spans="1:9" ht="30">
       <c r="A16" s="1"/>
-      <c r="C16" s="28" t="s">
+      <c r="C16" s="27" t="s">
         <v>7</v>
       </c>
       <c r="D16" s="5" t="s">
@@ -9120,7 +9120,7 @@
     </row>
     <row r="17" spans="1:9" ht="30">
       <c r="A17" s="1"/>
-      <c r="C17" s="28" t="s">
+      <c r="C17" s="27" t="s">
         <v>7</v>
       </c>
       <c r="D17" s="5" t="s">
@@ -9145,7 +9145,7 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="1"/>
-      <c r="C18" s="28" t="s">
+      <c r="C18" s="27" t="s">
         <v>7</v>
       </c>
       <c r="D18" s="5" t="s">
@@ -9170,7 +9170,7 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="1"/>
-      <c r="C19" s="28" t="s">
+      <c r="C19" s="27" t="s">
         <v>7</v>
       </c>
       <c r="D19" s="5" t="s">
@@ -9195,7 +9195,7 @@
     </row>
     <row r="20" spans="1:9" ht="30">
       <c r="A20" s="1"/>
-      <c r="C20" s="28" t="s">
+      <c r="C20" s="27" t="s">
         <v>28</v>
       </c>
       <c r="D20" s="5" t="s">
@@ -9220,7 +9220,7 @@
     </row>
     <row r="21" spans="1:9" ht="30">
       <c r="A21" s="1"/>
-      <c r="C21" s="28" t="s">
+      <c r="C21" s="27" t="s">
         <v>28</v>
       </c>
       <c r="D21" s="5" t="s">
@@ -9245,7 +9245,7 @@
     </row>
     <row r="22" spans="1:9" ht="30">
       <c r="A22" s="1"/>
-      <c r="C22" s="28" t="s">
+      <c r="C22" s="27" t="s">
         <v>28</v>
       </c>
       <c r="D22" s="5" t="s">
@@ -9270,7 +9270,7 @@
     </row>
     <row r="23" spans="1:9" ht="30">
       <c r="A23" s="1"/>
-      <c r="C23" s="28" t="s">
+      <c r="C23" s="27" t="s">
         <v>28</v>
       </c>
       <c r="D23" s="5" t="s">
@@ -9295,7 +9295,7 @@
     </row>
     <row r="24" spans="1:9" ht="30">
       <c r="A24" s="1"/>
-      <c r="C24" s="28" t="s">
+      <c r="C24" s="27" t="s">
         <v>28</v>
       </c>
       <c r="D24" s="5" t="s">
@@ -9320,7 +9320,7 @@
     </row>
     <row r="25" spans="1:9" ht="30">
       <c r="A25" s="1"/>
-      <c r="C25" s="28" t="s">
+      <c r="C25" s="27" t="s">
         <v>28</v>
       </c>
       <c r="D25" s="5" t="s">
@@ -9345,7 +9345,7 @@
     </row>
     <row r="26" spans="1:9" ht="30">
       <c r="A26" s="1"/>
-      <c r="C26" s="28" t="s">
+      <c r="C26" s="27" t="s">
         <v>28</v>
       </c>
       <c r="D26" s="5" t="s">
@@ -9370,7 +9370,7 @@
     </row>
     <row r="27" spans="1:9" ht="30">
       <c r="A27" s="1"/>
-      <c r="C27" s="28" t="s">
+      <c r="C27" s="27" t="s">
         <v>28</v>
       </c>
       <c r="D27" s="5" t="s">
@@ -9395,7 +9395,7 @@
     </row>
     <row r="28" spans="1:9" ht="30">
       <c r="A28" s="1"/>
-      <c r="C28" s="28" t="s">
+      <c r="C28" s="27" t="s">
         <v>28</v>
       </c>
       <c r="D28" s="5" t="s">
@@ -9420,7 +9420,7 @@
     </row>
     <row r="29" spans="1:9" ht="30">
       <c r="A29" s="1"/>
-      <c r="C29" s="28" t="s">
+      <c r="C29" s="27" t="s">
         <v>28</v>
       </c>
       <c r="D29" s="5" t="s">
@@ -9445,7 +9445,7 @@
     </row>
     <row r="30" spans="1:9" ht="30">
       <c r="A30" s="1"/>
-      <c r="C30" s="28" t="s">
+      <c r="C30" s="27" t="s">
         <v>28</v>
       </c>
       <c r="D30" s="5" t="s">
@@ -9470,7 +9470,7 @@
     </row>
     <row r="31" spans="1:9" ht="30">
       <c r="A31" s="1"/>
-      <c r="C31" s="28" t="s">
+      <c r="C31" s="27" t="s">
         <v>28</v>
       </c>
       <c r="D31" s="5" t="s">
@@ -9495,7 +9495,7 @@
     </row>
     <row r="32" spans="1:9" ht="30">
       <c r="A32" s="1"/>
-      <c r="C32" s="28" t="s">
+      <c r="C32" s="27" t="s">
         <v>28</v>
       </c>
       <c r="D32" s="5" t="s">
@@ -9520,7 +9520,7 @@
     </row>
     <row r="33" spans="1:9" ht="30">
       <c r="A33" s="1"/>
-      <c r="C33" s="28" t="s">
+      <c r="C33" s="27" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="5" t="s">
@@ -9545,7 +9545,7 @@
     </row>
     <row r="34" spans="1:9" ht="30">
       <c r="A34" s="1"/>
-      <c r="C34" s="28" t="s">
+      <c r="C34" s="27" t="s">
         <v>28</v>
       </c>
       <c r="D34" s="5" t="s">
@@ -9570,7 +9570,7 @@
     </row>
     <row r="35" spans="1:9" ht="30">
       <c r="A35" s="1"/>
-      <c r="C35" s="28" t="s">
+      <c r="C35" s="27" t="s">
         <v>37</v>
       </c>
       <c r="D35" s="5" t="s">
@@ -9595,7 +9595,7 @@
     </row>
     <row r="36" spans="1:9">
       <c r="A36" s="1"/>
-      <c r="C36" s="28" t="s">
+      <c r="C36" s="27" t="s">
         <v>37</v>
       </c>
       <c r="D36" s="5" t="s">
@@ -9620,7 +9620,7 @@
     </row>
     <row r="37" spans="1:9">
       <c r="A37" s="1"/>
-      <c r="C37" s="28" t="s">
+      <c r="C37" s="27" t="s">
         <v>37</v>
       </c>
       <c r="D37" s="5" t="s">
@@ -9645,7 +9645,7 @@
     </row>
     <row r="38" spans="1:9">
       <c r="A38" s="1"/>
-      <c r="C38" s="28" t="s">
+      <c r="C38" s="27" t="s">
         <v>37</v>
       </c>
       <c r="D38" s="5" t="s">
@@ -9670,26 +9670,26 @@
     </row>
     <row r="39" spans="1:9" ht="15.75" thickBot="1">
       <c r="A39" s="1"/>
-      <c r="C39" s="29" t="s">
+      <c r="C39" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="D39" s="30" t="s">
+      <c r="D39" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="E39" s="30" t="s">
+      <c r="E39" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="F39" s="32" t="s">
+      <c r="F39" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="G39" s="30">
+      <c r="G39" s="29">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="H39" s="30">
+      <c r="H39" s="29">
         <v>16</v>
       </c>
-      <c r="I39" s="31">
+      <c r="I39" s="30">
         <v>16</v>
       </c>
     </row>
@@ -9852,7 +9852,7 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="1"/>
-      <c r="C61" s="23" t="s">
+      <c r="C61" s="22" t="s">
         <v>82</v>
       </c>
       <c r="D61"/>
@@ -10941,8 +10941,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B3:R215"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F189" workbookViewId="0">
-      <selection activeCell="K191" sqref="K191"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="15"/>
@@ -11001,23 +11001,23 @@
       <c r="C4" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="D4" s="24">
+      <c r="D4" s="23">
         <v>20</v>
       </c>
-      <c r="E4" s="33">
+      <c r="E4" s="32">
         <v>25</v>
       </c>
-      <c r="F4" s="33">
+      <c r="F4" s="32">
         <v>60</v>
       </c>
-      <c r="G4" s="33">
+      <c r="G4" s="32">
         <v>8</v>
       </c>
       <c r="H4" s="2">
-        <f>SUM(D4:G4)</f>
+        <f t="shared" ref="H4:H20" si="0">SUM(D4:G4)</f>
         <v>113</v>
       </c>
-      <c r="I4" s="22">
+      <c r="I4" s="44">
         <f>SUM(H4:H10)</f>
         <v>699</v>
       </c>
@@ -11029,23 +11029,23 @@
       <c r="C5" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="D5" s="24">
+      <c r="D5" s="23">
         <v>17</v>
       </c>
-      <c r="E5" s="33">
+      <c r="E5" s="32">
         <v>24</v>
       </c>
-      <c r="F5" s="33">
+      <c r="F5" s="32">
         <v>63</v>
       </c>
-      <c r="G5" s="33">
+      <c r="G5" s="32">
         <v>10</v>
       </c>
       <c r="H5" s="2">
-        <f>SUM(D5:G5)</f>
+        <f t="shared" si="0"/>
         <v>114</v>
       </c>
-      <c r="I5" s="22"/>
+      <c r="I5" s="44"/>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="17" t="s">
@@ -11054,23 +11054,23 @@
       <c r="C6" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="D6" s="24">
+      <c r="D6" s="23">
         <v>6</v>
       </c>
-      <c r="E6" s="33">
+      <c r="E6" s="32">
         <v>17</v>
       </c>
-      <c r="F6" s="33">
+      <c r="F6" s="32">
         <v>42</v>
       </c>
-      <c r="G6" s="33">
+      <c r="G6" s="32">
         <v>5</v>
       </c>
       <c r="H6" s="2">
-        <f>SUM(D6:G6)</f>
+        <f t="shared" si="0"/>
         <v>70</v>
       </c>
-      <c r="I6" s="22"/>
+      <c r="I6" s="44"/>
     </row>
     <row r="7" spans="2:9">
       <c r="B7" s="17" t="s">
@@ -11079,23 +11079,23 @@
       <c r="C7" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="D7" s="24">
+      <c r="D7" s="23">
         <v>16</v>
       </c>
-      <c r="E7" s="33">
+      <c r="E7" s="32">
         <v>25</v>
       </c>
-      <c r="F7" s="33">
+      <c r="F7" s="32">
         <v>62</v>
       </c>
-      <c r="G7" s="33">
+      <c r="G7" s="32">
         <v>8</v>
       </c>
       <c r="H7" s="2">
-        <f>SUM(D7:G7)</f>
+        <f t="shared" si="0"/>
         <v>111</v>
       </c>
-      <c r="I7" s="22"/>
+      <c r="I7" s="44"/>
     </row>
     <row r="8" spans="2:9">
       <c r="B8" s="17" t="s">
@@ -11104,23 +11104,23 @@
       <c r="C8" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="D8" s="24">
+      <c r="D8" s="23">
         <v>20</v>
       </c>
-      <c r="E8" s="33">
+      <c r="E8" s="32">
         <v>28</v>
       </c>
-      <c r="F8" s="33">
+      <c r="F8" s="32">
         <v>64</v>
       </c>
-      <c r="G8" s="33">
+      <c r="G8" s="32">
         <v>9</v>
       </c>
       <c r="H8" s="2">
-        <f>SUM(D8:G8)</f>
+        <f t="shared" si="0"/>
         <v>121</v>
       </c>
-      <c r="I8" s="22"/>
+      <c r="I8" s="44"/>
     </row>
     <row r="9" spans="2:9">
       <c r="B9" s="17" t="s">
@@ -11129,23 +11129,23 @@
       <c r="C9" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="D9" s="24">
+      <c r="D9" s="23">
         <v>10</v>
       </c>
-      <c r="E9" s="33">
+      <c r="E9" s="32">
         <v>24</v>
       </c>
-      <c r="F9" s="33">
+      <c r="F9" s="32">
         <v>51</v>
       </c>
-      <c r="G9" s="33">
+      <c r="G9" s="32">
         <v>5</v>
       </c>
       <c r="H9" s="2">
-        <f>SUM(D9:G9)</f>
+        <f t="shared" si="0"/>
         <v>90</v>
       </c>
-      <c r="I9" s="22"/>
+      <c r="I9" s="44"/>
     </row>
     <row r="10" spans="2:9">
       <c r="B10" s="17" t="s">
@@ -11154,23 +11154,23 @@
       <c r="C10" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="D10" s="24">
+      <c r="D10" s="23">
         <v>10</v>
       </c>
-      <c r="E10" s="33">
+      <c r="E10" s="32">
         <v>25</v>
       </c>
-      <c r="F10" s="33">
+      <c r="F10" s="32">
         <v>40</v>
       </c>
-      <c r="G10" s="33">
+      <c r="G10" s="32">
         <v>5</v>
       </c>
       <c r="H10" s="2">
-        <f>SUM(D10:G10)</f>
+        <f t="shared" si="0"/>
         <v>80</v>
       </c>
-      <c r="I10" s="22"/>
+      <c r="I10" s="44"/>
     </row>
     <row r="11" spans="2:9">
       <c r="B11" s="17" t="s">
@@ -11179,23 +11179,23 @@
       <c r="C11" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="D11" s="24">
+      <c r="D11" s="23">
         <v>12</v>
       </c>
-      <c r="E11" s="33">
+      <c r="E11" s="32">
         <v>24</v>
       </c>
-      <c r="F11" s="33">
+      <c r="F11" s="32">
         <v>40</v>
       </c>
-      <c r="G11" s="33">
+      <c r="G11" s="32">
         <v>10</v>
       </c>
       <c r="H11" s="2">
-        <f>SUM(D11:G11)</f>
+        <f t="shared" si="0"/>
         <v>86</v>
       </c>
-      <c r="I11" s="22">
+      <c r="I11" s="44">
         <f>SUM(H11:H16)</f>
         <v>508</v>
       </c>
@@ -11207,23 +11207,23 @@
       <c r="C12" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="D12" s="24">
+      <c r="D12" s="23">
         <v>5</v>
       </c>
-      <c r="E12" s="33">
+      <c r="E12" s="32">
         <v>16</v>
       </c>
-      <c r="F12" s="33">
+      <c r="F12" s="32">
         <v>32</v>
       </c>
-      <c r="G12" s="33">
+      <c r="G12" s="32">
         <v>8</v>
       </c>
       <c r="H12" s="2">
-        <f>SUM(D12:G12)</f>
+        <f t="shared" si="0"/>
         <v>61</v>
       </c>
-      <c r="I12" s="22"/>
+      <c r="I12" s="44"/>
     </row>
     <row r="13" spans="2:9">
       <c r="B13" s="17" t="s">
@@ -11232,23 +11232,23 @@
       <c r="C13" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="D13" s="24">
+      <c r="D13" s="23">
         <v>4</v>
       </c>
-      <c r="E13" s="33">
+      <c r="E13" s="32">
         <v>12</v>
       </c>
-      <c r="F13" s="33">
+      <c r="F13" s="32">
         <v>30</v>
       </c>
-      <c r="G13" s="33">
+      <c r="G13" s="32">
         <v>10</v>
       </c>
       <c r="H13" s="2">
-        <f>SUM(D13:G13)</f>
+        <f t="shared" si="0"/>
         <v>56</v>
       </c>
-      <c r="I13" s="22"/>
+      <c r="I13" s="44"/>
     </row>
     <row r="14" spans="2:9">
       <c r="B14" s="17" t="s">
@@ -11257,23 +11257,23 @@
       <c r="C14" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="D14" s="24">
+      <c r="D14" s="23">
         <v>10</v>
       </c>
-      <c r="E14" s="33">
+      <c r="E14" s="32">
         <v>20</v>
       </c>
-      <c r="F14" s="33">
+      <c r="F14" s="32">
         <v>46</v>
       </c>
-      <c r="G14" s="33">
+      <c r="G14" s="32">
         <v>12</v>
       </c>
       <c r="H14" s="2">
-        <f>SUM(D14:G14)</f>
+        <f t="shared" si="0"/>
         <v>88</v>
       </c>
-      <c r="I14" s="22"/>
+      <c r="I14" s="44"/>
     </row>
     <row r="15" spans="2:9">
       <c r="B15" s="17" t="s">
@@ -11282,23 +11282,23 @@
       <c r="C15" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="D15" s="24">
+      <c r="D15" s="23">
         <v>20</v>
       </c>
-      <c r="E15" s="33">
+      <c r="E15" s="32">
         <v>18</v>
       </c>
-      <c r="F15" s="33">
+      <c r="F15" s="32">
         <v>41</v>
       </c>
-      <c r="G15" s="33">
+      <c r="G15" s="32">
         <v>15</v>
       </c>
       <c r="H15" s="2">
-        <f>SUM(D15:G15)</f>
+        <f t="shared" si="0"/>
         <v>94</v>
       </c>
-      <c r="I15" s="22"/>
+      <c r="I15" s="44"/>
     </row>
     <row r="16" spans="2:9">
       <c r="B16" s="17" t="s">
@@ -11307,23 +11307,23 @@
       <c r="C16" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="D16" s="24">
+      <c r="D16" s="23">
         <v>20</v>
       </c>
-      <c r="E16" s="33">
+      <c r="E16" s="32">
         <v>24</v>
       </c>
-      <c r="F16" s="33">
+      <c r="F16" s="32">
         <v>64</v>
       </c>
-      <c r="G16" s="33">
+      <c r="G16" s="32">
         <v>15</v>
       </c>
       <c r="H16" s="2">
-        <f>SUM(D16:G16)</f>
+        <f t="shared" si="0"/>
         <v>123</v>
       </c>
-      <c r="I16" s="22"/>
+      <c r="I16" s="44"/>
     </row>
     <row r="17" spans="2:9">
       <c r="B17" s="17" t="s">
@@ -11332,23 +11332,23 @@
       <c r="C17" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="D17" s="24">
+      <c r="D17" s="23">
         <v>2</v>
       </c>
-      <c r="E17" s="33">
+      <c r="E17" s="32">
         <v>10</v>
       </c>
-      <c r="F17" s="33">
+      <c r="F17" s="32">
         <v>23</v>
       </c>
-      <c r="G17" s="33">
+      <c r="G17" s="32">
         <v>20</v>
       </c>
       <c r="H17" s="2">
-        <f>SUM(D17:G17)</f>
+        <f t="shared" si="0"/>
         <v>55</v>
       </c>
-      <c r="I17" s="22">
+      <c r="I17" s="44">
         <f>SUM(H17:H20)</f>
         <v>296</v>
       </c>
@@ -11360,23 +11360,23 @@
       <c r="C18" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="D18" s="24">
+      <c r="D18" s="23">
         <v>8</v>
       </c>
-      <c r="E18" s="33">
+      <c r="E18" s="32">
         <v>14</v>
       </c>
-      <c r="F18" s="33">
+      <c r="F18" s="32">
         <v>30</v>
       </c>
-      <c r="G18" s="33">
+      <c r="G18" s="32">
         <v>30</v>
       </c>
       <c r="H18" s="2">
-        <f>SUM(D18:G18)</f>
+        <f t="shared" si="0"/>
         <v>82</v>
       </c>
-      <c r="I18" s="22"/>
+      <c r="I18" s="44"/>
     </row>
     <row r="19" spans="2:9">
       <c r="B19" s="17" t="s">
@@ -11385,23 +11385,23 @@
       <c r="C19" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="D19" s="24">
+      <c r="D19" s="23">
         <v>15</v>
       </c>
-      <c r="E19" s="33">
+      <c r="E19" s="32">
         <v>22</v>
       </c>
-      <c r="F19" s="33">
+      <c r="F19" s="32">
         <v>34</v>
       </c>
-      <c r="G19" s="33">
+      <c r="G19" s="32">
         <v>30</v>
       </c>
       <c r="H19" s="2">
-        <f>SUM(D19:G19)</f>
+        <f t="shared" si="0"/>
         <v>101</v>
       </c>
-      <c r="I19" s="22"/>
+      <c r="I19" s="44"/>
     </row>
     <row r="20" spans="2:9">
       <c r="B20" s="18" t="s">
@@ -11410,23 +11410,23 @@
       <c r="C20" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="D20" s="24">
+      <c r="D20" s="23">
         <v>2</v>
       </c>
-      <c r="E20" s="33">
+      <c r="E20" s="32">
         <v>9</v>
       </c>
-      <c r="F20" s="33">
+      <c r="F20" s="32">
         <v>27</v>
       </c>
-      <c r="G20" s="33">
+      <c r="G20" s="32">
         <v>20</v>
       </c>
       <c r="H20" s="2">
-        <f>SUM(D20:G20)</f>
+        <f t="shared" si="0"/>
         <v>58</v>
       </c>
-      <c r="I20" s="22"/>
+      <c r="I20" s="44"/>
     </row>
     <row r="21" spans="2:9">
       <c r="C21" s="16" t="s">
@@ -11437,15 +11437,15 @@
         <v>197</v>
       </c>
       <c r="E21" s="2">
-        <f t="shared" ref="E21:H21" si="0">SUM(E4:E20)</f>
+        <f t="shared" ref="E21:G21" si="1">SUM(E4:E20)</f>
         <v>337</v>
       </c>
       <c r="F21" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>749</v>
       </c>
       <c r="G21" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>220</v>
       </c>
     </row>
@@ -12190,11 +12190,11 @@
         <v>317</v>
       </c>
       <c r="D102">
-        <f t="shared" ref="D102:E102" si="1">SUM(D97:D100)</f>
+        <f t="shared" ref="D102:E102" si="2">SUM(D97:D100)</f>
         <v>255</v>
       </c>
       <c r="E102">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>182</v>
       </c>
       <c r="F102"/>
@@ -13084,16 +13084,16 @@
       <c r="C174" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="D174" s="24">
+      <c r="D174" s="23">
         <v>20</v>
       </c>
-      <c r="E174" s="33">
+      <c r="E174" s="32">
         <v>25</v>
       </c>
-      <c r="F174" s="33">
+      <c r="F174" s="32">
         <v>60</v>
       </c>
-      <c r="G174" s="33">
+      <c r="G174" s="32">
         <v>8</v>
       </c>
     </row>
@@ -13104,16 +13104,16 @@
       <c r="C175" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="D175" s="24">
+      <c r="D175" s="23">
         <v>17</v>
       </c>
-      <c r="E175" s="33">
+      <c r="E175" s="32">
         <v>24</v>
       </c>
-      <c r="F175" s="33">
+      <c r="F175" s="32">
         <v>63</v>
       </c>
-      <c r="G175" s="33">
+      <c r="G175" s="32">
         <v>10</v>
       </c>
     </row>
@@ -13124,16 +13124,16 @@
       <c r="C176" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="D176" s="24">
+      <c r="D176" s="23">
         <v>6</v>
       </c>
-      <c r="E176" s="33">
+      <c r="E176" s="32">
         <v>17</v>
       </c>
-      <c r="F176" s="33">
+      <c r="F176" s="32">
         <v>42</v>
       </c>
-      <c r="G176" s="33">
+      <c r="G176" s="32">
         <v>5</v>
       </c>
     </row>
@@ -13144,16 +13144,16 @@
       <c r="C177" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="D177" s="24">
+      <c r="D177" s="23">
         <v>16</v>
       </c>
-      <c r="E177" s="33">
+      <c r="E177" s="32">
         <v>25</v>
       </c>
-      <c r="F177" s="33">
+      <c r="F177" s="32">
         <v>62</v>
       </c>
-      <c r="G177" s="33">
+      <c r="G177" s="32">
         <v>8</v>
       </c>
     </row>
@@ -13164,16 +13164,16 @@
       <c r="C178" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="D178" s="24">
+      <c r="D178" s="23">
         <v>20</v>
       </c>
-      <c r="E178" s="33">
+      <c r="E178" s="32">
         <v>28</v>
       </c>
-      <c r="F178" s="33">
+      <c r="F178" s="32">
         <v>64</v>
       </c>
-      <c r="G178" s="33">
+      <c r="G178" s="32">
         <v>9</v>
       </c>
     </row>
@@ -13184,16 +13184,16 @@
       <c r="C179" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="D179" s="24">
+      <c r="D179" s="23">
         <v>10</v>
       </c>
-      <c r="E179" s="33">
+      <c r="E179" s="32">
         <v>24</v>
       </c>
-      <c r="F179" s="33">
+      <c r="F179" s="32">
         <v>51</v>
       </c>
-      <c r="G179" s="33">
+      <c r="G179" s="32">
         <v>5</v>
       </c>
     </row>
@@ -13204,16 +13204,16 @@
       <c r="C180" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="D180" s="24">
+      <c r="D180" s="23">
         <v>10</v>
       </c>
-      <c r="E180" s="33">
+      <c r="E180" s="32">
         <v>25</v>
       </c>
-      <c r="F180" s="33">
+      <c r="F180" s="32">
         <v>40</v>
       </c>
-      <c r="G180" s="33">
+      <c r="G180" s="32">
         <v>5</v>
       </c>
     </row>
@@ -13224,16 +13224,16 @@
       <c r="C181" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="D181" s="24">
+      <c r="D181" s="23">
         <v>12</v>
       </c>
-      <c r="E181" s="33">
+      <c r="E181" s="32">
         <v>24</v>
       </c>
-      <c r="F181" s="33">
+      <c r="F181" s="32">
         <v>40</v>
       </c>
-      <c r="G181" s="33">
+      <c r="G181" s="32">
         <v>10</v>
       </c>
     </row>
@@ -13244,16 +13244,16 @@
       <c r="C182" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="D182" s="24">
+      <c r="D182" s="23">
         <v>5</v>
       </c>
-      <c r="E182" s="33">
+      <c r="E182" s="32">
         <v>16</v>
       </c>
-      <c r="F182" s="33">
+      <c r="F182" s="32">
         <v>32</v>
       </c>
-      <c r="G182" s="33">
+      <c r="G182" s="32">
         <v>8</v>
       </c>
     </row>
@@ -13264,16 +13264,16 @@
       <c r="C183" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="D183" s="24">
+      <c r="D183" s="23">
         <v>4</v>
       </c>
-      <c r="E183" s="33">
+      <c r="E183" s="32">
         <v>12</v>
       </c>
-      <c r="F183" s="33">
+      <c r="F183" s="32">
         <v>30</v>
       </c>
-      <c r="G183" s="33">
+      <c r="G183" s="32">
         <v>10</v>
       </c>
     </row>
@@ -13284,16 +13284,16 @@
       <c r="C184" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="D184" s="24">
+      <c r="D184" s="23">
         <v>10</v>
       </c>
-      <c r="E184" s="33">
+      <c r="E184" s="32">
         <v>20</v>
       </c>
-      <c r="F184" s="33">
+      <c r="F184" s="32">
         <v>46</v>
       </c>
-      <c r="G184" s="33">
+      <c r="G184" s="32">
         <v>12</v>
       </c>
     </row>
@@ -13304,16 +13304,16 @@
       <c r="C185" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="D185" s="24">
+      <c r="D185" s="23">
         <v>20</v>
       </c>
-      <c r="E185" s="33">
+      <c r="E185" s="32">
         <v>18</v>
       </c>
-      <c r="F185" s="33">
+      <c r="F185" s="32">
         <v>41</v>
       </c>
-      <c r="G185" s="33">
+      <c r="G185" s="32">
         <v>15</v>
       </c>
     </row>
@@ -13324,16 +13324,16 @@
       <c r="C186" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="D186" s="24">
+      <c r="D186" s="23">
         <v>20</v>
       </c>
-      <c r="E186" s="33">
+      <c r="E186" s="32">
         <v>24</v>
       </c>
-      <c r="F186" s="33">
+      <c r="F186" s="32">
         <v>64</v>
       </c>
-      <c r="G186" s="33">
+      <c r="G186" s="32">
         <v>15</v>
       </c>
     </row>
@@ -13344,16 +13344,16 @@
       <c r="C187" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="D187" s="24">
+      <c r="D187" s="23">
         <v>2</v>
       </c>
-      <c r="E187" s="33">
+      <c r="E187" s="32">
         <v>10</v>
       </c>
-      <c r="F187" s="33">
+      <c r="F187" s="32">
         <v>23</v>
       </c>
-      <c r="G187" s="33">
+      <c r="G187" s="32">
         <v>20</v>
       </c>
     </row>
@@ -13364,16 +13364,16 @@
       <c r="C188" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="D188" s="24">
+      <c r="D188" s="23">
         <v>8</v>
       </c>
-      <c r="E188" s="33">
+      <c r="E188" s="32">
         <v>14</v>
       </c>
-      <c r="F188" s="33">
+      <c r="F188" s="32">
         <v>30</v>
       </c>
-      <c r="G188" s="33">
+      <c r="G188" s="32">
         <v>30</v>
       </c>
     </row>
@@ -13384,16 +13384,16 @@
       <c r="C189" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="D189" s="24">
+      <c r="D189" s="23">
         <v>15</v>
       </c>
-      <c r="E189" s="33">
+      <c r="E189" s="32">
         <v>22</v>
       </c>
-      <c r="F189" s="33">
+      <c r="F189" s="32">
         <v>34</v>
       </c>
-      <c r="G189" s="33">
+      <c r="G189" s="32">
         <v>30</v>
       </c>
     </row>
@@ -13404,16 +13404,16 @@
       <c r="C190" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="D190" s="24">
+      <c r="D190" s="23">
         <v>2</v>
       </c>
-      <c r="E190" s="33">
+      <c r="E190" s="32">
         <v>9</v>
       </c>
-      <c r="F190" s="33">
+      <c r="F190" s="32">
         <v>27</v>
       </c>
-      <c r="G190" s="33">
+      <c r="G190" s="32">
         <v>20</v>
       </c>
     </row>
@@ -13840,509 +13840,1796 @@
   </cols>
   <sheetData>
     <row r="4" spans="3:18" ht="15">
-      <c r="C4" s="34" t="s">
+      <c r="C4" s="33" t="s">
         <v>97</v>
       </c>
-      <c r="D4" s="34" t="s">
+      <c r="D4" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="37"/>
-      <c r="J4" s="37"/>
-      <c r="K4" s="37"/>
-      <c r="L4" s="37"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="36"/>
+      <c r="L4" s="36"/>
     </row>
     <row r="5" spans="3:18" ht="25.5">
-      <c r="C5" s="35" t="s">
+      <c r="C5" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="D5" s="36">
+      <c r="D5" s="35">
         <v>690</v>
       </c>
-      <c r="G5" s="37"/>
-      <c r="H5" s="37"/>
-      <c r="I5" s="35"/>
-      <c r="J5" s="37"/>
-      <c r="K5" s="37"/>
-      <c r="L5" s="37"/>
-      <c r="N5" s="42" t="s">
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="34"/>
+      <c r="J5" s="36"/>
+      <c r="K5" s="36"/>
+      <c r="L5" s="36"/>
+      <c r="N5" s="41" t="s">
         <v>103</v>
       </c>
-      <c r="O5" s="43" t="s">
+      <c r="O5" s="42" t="s">
         <v>83</v>
       </c>
-      <c r="P5" s="43" t="s">
+      <c r="P5" s="42" t="s">
         <v>91</v>
       </c>
-      <c r="Q5" s="43" t="s">
+      <c r="Q5" s="42" t="s">
         <v>95</v>
       </c>
-      <c r="R5" s="43" t="s">
+      <c r="R5" s="42" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="6" spans="3:18" ht="15">
-      <c r="C6" s="35" t="s">
+      <c r="C6" s="34" t="s">
         <v>81</v>
       </c>
-      <c r="D6" s="36">
+      <c r="D6" s="35">
         <v>337</v>
       </c>
-      <c r="G6" s="37"/>
-      <c r="H6" s="37"/>
-      <c r="I6" s="37"/>
-      <c r="J6" s="37"/>
-      <c r="K6" s="37"/>
-      <c r="L6" s="37"/>
-      <c r="N6" s="35" t="s">
+      <c r="G6" s="36"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="36"/>
+      <c r="J6" s="36"/>
+      <c r="K6" s="36"/>
+      <c r="L6" s="36"/>
+      <c r="N6" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="O6" s="44">
+      <c r="O6" s="43">
         <v>20</v>
       </c>
-      <c r="P6" s="44">
+      <c r="P6" s="43">
         <v>25</v>
       </c>
-      <c r="Q6" s="44">
+      <c r="Q6" s="43">
         <v>60</v>
       </c>
-      <c r="R6" s="44">
+      <c r="R6" s="43">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="3:18" ht="15">
-      <c r="C7" s="35" t="s">
+      <c r="C7" s="34" t="s">
         <v>94</v>
       </c>
-      <c r="D7" s="36">
+      <c r="D7" s="35">
         <v>749</v>
       </c>
-      <c r="G7" s="37"/>
-      <c r="H7" s="35"/>
-      <c r="I7" s="37"/>
-      <c r="J7" s="37"/>
-      <c r="K7" s="37"/>
-      <c r="L7" s="37"/>
-      <c r="N7" s="35" t="s">
+      <c r="G7" s="36"/>
+      <c r="H7" s="34"/>
+      <c r="I7" s="36"/>
+      <c r="J7" s="36"/>
+      <c r="K7" s="36"/>
+      <c r="L7" s="36"/>
+      <c r="N7" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="O7" s="44">
+      <c r="O7" s="43">
         <v>17</v>
       </c>
-      <c r="P7" s="44">
+      <c r="P7" s="43">
         <v>24</v>
       </c>
-      <c r="Q7" s="44">
+      <c r="Q7" s="43">
         <v>63</v>
       </c>
-      <c r="R7" s="44">
+      <c r="R7" s="43">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="3:18" ht="15">
-      <c r="C8" s="35" t="s">
+      <c r="C8" s="34" t="s">
         <v>96</v>
       </c>
-      <c r="D8" s="36">
+      <c r="D8" s="35">
         <v>400</v>
       </c>
-      <c r="G8" s="37"/>
-      <c r="H8" s="35"/>
-      <c r="I8" s="37"/>
-      <c r="J8" s="37"/>
-      <c r="K8" s="37"/>
-      <c r="L8" s="37"/>
-      <c r="N8" s="35" t="s">
+      <c r="G8" s="36"/>
+      <c r="H8" s="34"/>
+      <c r="I8" s="36"/>
+      <c r="J8" s="36"/>
+      <c r="K8" s="36"/>
+      <c r="L8" s="36"/>
+      <c r="N8" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="O8" s="44">
+      <c r="O8" s="43">
         <v>6</v>
       </c>
-      <c r="P8" s="44">
+      <c r="P8" s="43">
         <v>17</v>
       </c>
-      <c r="Q8" s="44">
+      <c r="Q8" s="43">
         <v>42</v>
       </c>
-      <c r="R8" s="44">
+      <c r="R8" s="43">
         <v>5</v>
       </c>
     </row>
     <row r="9" spans="3:18" ht="15">
-      <c r="C9" s="35" t="s">
+      <c r="C9" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="D9" s="36">
+      <c r="D9" s="35">
         <v>599</v>
       </c>
-      <c r="G9" s="37"/>
-      <c r="H9" s="35"/>
-      <c r="I9" s="37"/>
-      <c r="J9" s="37"/>
-      <c r="K9" s="37"/>
-      <c r="L9" s="37"/>
-      <c r="N9" s="35" t="s">
+      <c r="G9" s="36"/>
+      <c r="H9" s="34"/>
+      <c r="I9" s="36"/>
+      <c r="J9" s="36"/>
+      <c r="K9" s="36"/>
+      <c r="L9" s="36"/>
+      <c r="N9" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="O9" s="44">
+      <c r="O9" s="43">
         <v>2</v>
       </c>
-      <c r="P9" s="44">
+      <c r="P9" s="43">
         <v>10</v>
       </c>
-      <c r="Q9" s="44">
+      <c r="Q9" s="43">
         <v>23</v>
       </c>
-      <c r="R9" s="44">
+      <c r="R9" s="43">
         <v>20</v>
       </c>
     </row>
     <row r="10" spans="3:18">
-      <c r="N10" s="35" t="s">
+      <c r="N10" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="O10" s="44">
+      <c r="O10" s="43">
         <v>16</v>
       </c>
-      <c r="P10" s="44">
+      <c r="P10" s="43">
         <v>25</v>
       </c>
-      <c r="Q10" s="44">
+      <c r="Q10" s="43">
         <v>62</v>
       </c>
-      <c r="R10" s="44">
+      <c r="R10" s="43">
         <v>8</v>
       </c>
     </row>
     <row r="11" spans="3:18">
-      <c r="N11" s="35" t="s">
+      <c r="N11" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="O11" s="44">
+      <c r="O11" s="43">
         <v>12</v>
       </c>
-      <c r="P11" s="44">
+      <c r="P11" s="43">
         <v>24</v>
       </c>
-      <c r="Q11" s="44">
+      <c r="Q11" s="43">
         <v>40</v>
       </c>
-      <c r="R11" s="44">
+      <c r="R11" s="43">
         <v>10</v>
       </c>
     </row>
     <row r="12" spans="3:18" ht="13.5" customHeight="1">
-      <c r="F12" s="38" t="s">
+      <c r="F12" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="G12" s="39" t="s">
+      <c r="G12" s="38" t="s">
         <v>71</v>
       </c>
-      <c r="H12" s="39" t="s">
+      <c r="H12" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="I12" s="39" t="s">
+      <c r="I12" s="38" t="s">
         <v>70</v>
       </c>
-      <c r="J12" s="40" t="s">
+      <c r="J12" s="39" t="s">
         <v>89</v>
       </c>
-      <c r="K12" s="39" t="s">
+      <c r="K12" s="38" t="s">
         <v>94</v>
       </c>
-      <c r="L12" s="40" t="s">
+      <c r="L12" s="39" t="s">
         <v>96</v>
       </c>
-      <c r="N12" s="35" t="s">
+      <c r="N12" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="O12" s="44">
+      <c r="O12" s="43">
         <v>5</v>
       </c>
-      <c r="P12" s="44">
+      <c r="P12" s="43">
         <v>16</v>
       </c>
-      <c r="Q12" s="44">
+      <c r="Q12" s="43">
         <v>32</v>
       </c>
-      <c r="R12" s="44">
+      <c r="R12" s="43">
         <v>8</v>
       </c>
     </row>
     <row r="13" spans="3:18" ht="15">
-      <c r="F13" s="41">
+      <c r="F13" s="40">
         <v>1</v>
       </c>
-      <c r="G13" s="41">
+      <c r="G13" s="40">
         <v>0</v>
       </c>
-      <c r="H13" s="37">
+      <c r="H13" s="36">
         <v>236</v>
       </c>
-      <c r="I13" s="37">
+      <c r="I13" s="36">
         <v>493</v>
       </c>
-      <c r="J13" s="37">
+      <c r="J13" s="36">
         <v>0</v>
       </c>
-      <c r="K13" s="37">
+      <c r="K13" s="36">
         <v>0</v>
       </c>
-      <c r="L13" s="37">
+      <c r="L13" s="36">
         <v>0</v>
       </c>
-      <c r="N13" s="35" t="s">
+      <c r="N13" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="O13" s="44">
+      <c r="O13" s="43">
         <v>4</v>
       </c>
-      <c r="P13" s="44">
+      <c r="P13" s="43">
         <v>12</v>
       </c>
-      <c r="Q13" s="44">
+      <c r="Q13" s="43">
         <v>30</v>
       </c>
-      <c r="R13" s="44">
+      <c r="R13" s="43">
         <v>10</v>
       </c>
     </row>
     <row r="14" spans="3:18" ht="15">
-      <c r="F14" s="41">
+      <c r="F14" s="40">
         <v>2</v>
       </c>
-      <c r="G14" s="41">
+      <c r="G14" s="40">
         <v>1</v>
       </c>
-      <c r="H14" s="37">
+      <c r="H14" s="36">
         <v>0</v>
       </c>
-      <c r="I14" s="37">
+      <c r="I14" s="36">
         <v>99</v>
       </c>
-      <c r="J14" s="37">
+      <c r="J14" s="36">
         <v>168</v>
       </c>
-      <c r="K14" s="37">
+      <c r="K14" s="36">
         <v>382</v>
       </c>
-      <c r="L14" s="37">
+      <c r="L14" s="36">
         <v>50</v>
       </c>
-      <c r="N14" s="35" t="s">
+      <c r="N14" s="34" t="s">
         <v>58</v>
       </c>
-      <c r="O14" s="44">
+      <c r="O14" s="43">
         <v>10</v>
       </c>
-      <c r="P14" s="44">
+      <c r="P14" s="43">
         <v>20</v>
       </c>
-      <c r="Q14" s="44">
+      <c r="Q14" s="43">
         <v>46</v>
       </c>
-      <c r="R14" s="44">
+      <c r="R14" s="43">
         <v>12</v>
       </c>
     </row>
     <row r="15" spans="3:18" ht="15">
-      <c r="F15" s="41">
+      <c r="F15" s="40">
         <v>2</v>
       </c>
-      <c r="G15" s="41">
+      <c r="G15" s="40">
         <v>2</v>
       </c>
-      <c r="H15" s="37">
+      <c r="H15" s="36">
         <v>0</v>
       </c>
-      <c r="I15" s="37">
+      <c r="I15" s="36">
         <v>71</v>
       </c>
-      <c r="J15" s="37">
+      <c r="J15" s="36">
         <v>114</v>
       </c>
-      <c r="K15" s="37">
+      <c r="K15" s="36">
         <v>253</v>
       </c>
-      <c r="L15" s="37">
+      <c r="L15" s="36">
         <v>70</v>
       </c>
-      <c r="N15" s="35" t="s">
+      <c r="N15" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="O15" s="44">
+      <c r="O15" s="43">
         <v>8</v>
       </c>
-      <c r="P15" s="44">
+      <c r="P15" s="43">
         <v>14</v>
       </c>
-      <c r="Q15" s="44">
+      <c r="Q15" s="43">
         <v>30</v>
       </c>
-      <c r="R15" s="44">
+      <c r="R15" s="43">
         <v>30</v>
       </c>
     </row>
     <row r="16" spans="3:18" ht="15">
-      <c r="F16" s="41">
+      <c r="F16" s="40">
         <v>2</v>
       </c>
-      <c r="G16" s="41">
+      <c r="G16" s="40">
         <v>3</v>
       </c>
-      <c r="H16" s="37">
+      <c r="H16" s="36">
         <v>0</v>
       </c>
-      <c r="I16" s="37">
+      <c r="I16" s="36">
         <v>27</v>
       </c>
-      <c r="J16" s="37">
+      <c r="J16" s="36">
         <v>55</v>
       </c>
-      <c r="K16" s="37">
+      <c r="K16" s="36">
         <v>114</v>
       </c>
-      <c r="L16" s="37">
+      <c r="L16" s="36">
         <v>100</v>
       </c>
-      <c r="N16" s="35" t="s">
+      <c r="N16" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="O16" s="44">
+      <c r="O16" s="43">
         <v>15</v>
       </c>
-      <c r="P16" s="44">
+      <c r="P16" s="43">
         <v>22</v>
       </c>
-      <c r="Q16" s="44">
+      <c r="Q16" s="43">
         <v>34</v>
       </c>
-      <c r="R16" s="44">
+      <c r="R16" s="43">
         <v>30</v>
       </c>
     </row>
     <row r="17" spans="6:18" ht="15">
-      <c r="F17" s="41">
+      <c r="F17" s="40">
         <v>3</v>
       </c>
-      <c r="G17" s="41">
+      <c r="G17" s="40">
         <v>0</v>
       </c>
-      <c r="H17" s="37">
+      <c r="H17" s="36">
         <v>363</v>
       </c>
-      <c r="I17" s="37">
+      <c r="I17" s="36">
         <v>0</v>
       </c>
-      <c r="J17" s="37">
+      <c r="J17" s="36">
         <v>0</v>
       </c>
-      <c r="K17" s="37">
+      <c r="K17" s="36">
         <v>0</v>
       </c>
-      <c r="L17" s="37">
+      <c r="L17" s="36">
         <v>180</v>
       </c>
-      <c r="N17" s="35" t="s">
+      <c r="N17" s="34" t="s">
         <v>59</v>
       </c>
-      <c r="O17" s="44">
+      <c r="O17" s="43">
         <v>20</v>
       </c>
-      <c r="P17" s="44">
+      <c r="P17" s="43">
         <v>18</v>
       </c>
-      <c r="Q17" s="44">
+      <c r="Q17" s="43">
         <v>41</v>
       </c>
-      <c r="R17" s="44">
+      <c r="R17" s="43">
         <v>15</v>
       </c>
     </row>
     <row r="18" spans="6:18">
-      <c r="N18" s="35" t="s">
+      <c r="N18" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="O18" s="44">
+      <c r="O18" s="43">
         <v>20</v>
       </c>
-      <c r="P18" s="44">
+      <c r="P18" s="43">
         <v>28</v>
       </c>
-      <c r="Q18" s="44">
+      <c r="Q18" s="43">
         <v>64</v>
       </c>
-      <c r="R18" s="44">
+      <c r="R18" s="43">
         <v>9</v>
       </c>
     </row>
     <row r="19" spans="6:18">
-      <c r="N19" s="35" t="s">
+      <c r="N19" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="O19" s="44">
+      <c r="O19" s="43">
         <v>10</v>
       </c>
-      <c r="P19" s="44">
+      <c r="P19" s="43">
         <v>24</v>
       </c>
-      <c r="Q19" s="44">
+      <c r="Q19" s="43">
         <v>51</v>
       </c>
-      <c r="R19" s="44">
+      <c r="R19" s="43">
         <v>5</v>
       </c>
     </row>
     <row r="20" spans="6:18">
-      <c r="N20" s="35" t="s">
+      <c r="N20" s="34" t="s">
         <v>65</v>
       </c>
-      <c r="O20" s="44">
+      <c r="O20" s="43">
         <v>2</v>
       </c>
-      <c r="P20" s="44">
+      <c r="P20" s="43">
         <v>9</v>
       </c>
-      <c r="Q20" s="44">
+      <c r="Q20" s="43">
         <v>27</v>
       </c>
-      <c r="R20" s="44">
+      <c r="R20" s="43">
         <v>20</v>
       </c>
     </row>
     <row r="21" spans="6:18">
-      <c r="N21" s="35" t="s">
+      <c r="N21" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="O21" s="44">
+      <c r="O21" s="43">
         <v>10</v>
       </c>
-      <c r="P21" s="44">
+      <c r="P21" s="43">
         <v>25</v>
       </c>
-      <c r="Q21" s="44">
+      <c r="Q21" s="43">
         <v>40</v>
       </c>
-      <c r="R21" s="44">
+      <c r="R21" s="43">
         <v>5</v>
       </c>
     </row>
     <row r="22" spans="6:18">
-      <c r="N22" s="35" t="s">
+      <c r="N22" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="O22" s="44">
+      <c r="O22" s="43">
         <v>20</v>
       </c>
-      <c r="P22" s="44">
+      <c r="P22" s="43">
         <v>24</v>
       </c>
-      <c r="Q22" s="44">
+      <c r="Q22" s="43">
         <v>64</v>
       </c>
-      <c r="R22" s="44">
+      <c r="R22" s="43">
         <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B2:H65"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="B48" sqref="B48:G65"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <sheetData>
+    <row r="2" spans="2:8" ht="13.5" thickBot="1"/>
+    <row r="3" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" ht="45">
+      <c r="B4" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="25">
+        <f>G4+H4</f>
+        <v>18</v>
+      </c>
+      <c r="G4" s="25">
+        <v>8</v>
+      </c>
+      <c r="H4" s="26">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" ht="75">
+      <c r="B5" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="5">
+        <f t="shared" ref="F5:F40" si="0">G5+H5</f>
+        <v>12</v>
+      </c>
+      <c r="G5" s="5">
+        <v>10</v>
+      </c>
+      <c r="H5" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" ht="45">
+      <c r="B6" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="5">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="G6" s="5">
+        <v>2</v>
+      </c>
+      <c r="H6" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" ht="45">
+      <c r="B7" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="5">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="G7" s="5">
+        <v>15</v>
+      </c>
+      <c r="H7" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" ht="45">
+      <c r="B8" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="5">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="G8" s="5">
+        <v>4</v>
+      </c>
+      <c r="H8" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" ht="60">
+      <c r="B9" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="5">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="G9" s="5">
+        <v>25</v>
+      </c>
+      <c r="H9" s="6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" ht="60">
+      <c r="B10" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="5">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="G10" s="5">
+        <v>16</v>
+      </c>
+      <c r="H10" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" ht="60">
+      <c r="B11" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="5">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="G11" s="5">
+        <v>20</v>
+      </c>
+      <c r="H11" s="6">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" ht="45">
+      <c r="B12" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="5">
+        <f t="shared" si="0"/>
+        <v>290</v>
+      </c>
+      <c r="G12" s="5">
+        <v>150</v>
+      </c>
+      <c r="H12" s="6">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" ht="45">
+      <c r="B13" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" s="5">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="G13" s="5">
+        <v>35</v>
+      </c>
+      <c r="H13" s="6">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" ht="45">
+      <c r="B14" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14" s="5">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="G14" s="5">
+        <v>25</v>
+      </c>
+      <c r="H14" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" ht="90">
+      <c r="B15" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F15" s="5">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="G15" s="5">
+        <v>10</v>
+      </c>
+      <c r="H15" s="6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" ht="45">
+      <c r="B16" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F16" s="5">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="G16" s="5">
+        <v>2</v>
+      </c>
+      <c r="H16" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" ht="75">
+      <c r="B17" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F17" s="5">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="G17" s="5">
+        <v>4</v>
+      </c>
+      <c r="H17" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" ht="75">
+      <c r="B18" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F18" s="5">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="G18" s="5">
+        <v>6</v>
+      </c>
+      <c r="H18" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" ht="60">
+      <c r="B19" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F19" s="5">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="G19" s="5">
+        <v>45</v>
+      </c>
+      <c r="H19" s="6">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" ht="30">
+      <c r="B20" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F20" s="5">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="G20" s="5">
+        <v>4</v>
+      </c>
+      <c r="H20" s="6">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" ht="75">
+      <c r="B21" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="F21" s="5">
+        <f t="shared" si="0"/>
+        <v>99</v>
+      </c>
+      <c r="G21" s="5">
+        <v>52</v>
+      </c>
+      <c r="H21" s="6">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" ht="75">
+      <c r="B22" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F22" s="5">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="G22" s="5">
+        <v>36</v>
+      </c>
+      <c r="H22" s="6">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" ht="75">
+      <c r="B23" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F23" s="5">
+        <f t="shared" si="0"/>
+        <v>98</v>
+      </c>
+      <c r="G23" s="5">
+        <v>55</v>
+      </c>
+      <c r="H23" s="6">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" ht="75">
+      <c r="B24" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="F24" s="5">
+        <f t="shared" si="0"/>
+        <v>382</v>
+      </c>
+      <c r="G24" s="5">
+        <v>195</v>
+      </c>
+      <c r="H24" s="6">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" ht="75">
+      <c r="B25" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F25" s="5">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="G25" s="5">
+        <v>25</v>
+      </c>
+      <c r="H25" s="6">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" ht="75">
+      <c r="B26" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="F26" s="5">
+        <f t="shared" si="0"/>
+        <v>71</v>
+      </c>
+      <c r="G26" s="5">
+        <v>30</v>
+      </c>
+      <c r="H26" s="6">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" ht="75">
+      <c r="B27" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="5">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="G27" s="5">
+        <v>19</v>
+      </c>
+      <c r="H27" s="6">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" ht="75">
+      <c r="B28" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F28" s="5">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="G28" s="5">
+        <v>28</v>
+      </c>
+      <c r="H28" s="6">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" ht="75">
+      <c r="B29" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="F29" s="5">
+        <f t="shared" si="0"/>
+        <v>253</v>
+      </c>
+      <c r="G29" s="5">
+        <v>121</v>
+      </c>
+      <c r="H29" s="6">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" ht="75">
+      <c r="B30" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F30" s="5">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="G30" s="5">
+        <v>35</v>
+      </c>
+      <c r="H30" s="6">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" ht="75">
+      <c r="B31" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="F31" s="5">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="G31" s="5">
+        <v>12</v>
+      </c>
+      <c r="H31" s="6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" ht="75">
+      <c r="B32" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F32" s="5">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="G32" s="5">
+        <v>12</v>
+      </c>
+      <c r="H32" s="6">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" ht="75">
+      <c r="B33" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F33" s="5">
+        <f>G33+H33</f>
+        <v>30</v>
+      </c>
+      <c r="G33" s="5">
+        <v>16</v>
+      </c>
+      <c r="H33" s="6">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" ht="75">
+      <c r="B34" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="F34" s="5">
+        <f>G34+H34</f>
+        <v>114</v>
+      </c>
+      <c r="G34" s="5">
+        <v>54</v>
+      </c>
+      <c r="H34" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" ht="75">
+      <c r="B35" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F35" s="5">
+        <f>G35+H35</f>
+        <v>100</v>
+      </c>
+      <c r="G35" s="5">
+        <v>50</v>
+      </c>
+      <c r="H35" s="6">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" ht="45">
+      <c r="B36" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F36" s="5">
+        <f t="shared" si="0"/>
+        <v>180</v>
+      </c>
+      <c r="G36" s="5">
+        <v>85</v>
+      </c>
+      <c r="H36" s="6">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" ht="30">
+      <c r="B37" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F37" s="5">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="G37" s="5">
+        <v>10</v>
+      </c>
+      <c r="H37" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" ht="30">
+      <c r="B38" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F38" s="5">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="G38" s="5">
+        <v>14</v>
+      </c>
+      <c r="H38" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" ht="30">
+      <c r="B39" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F39" s="5">
+        <f t="shared" si="0"/>
+        <v>300</v>
+      </c>
+      <c r="G39" s="5">
+        <v>150</v>
+      </c>
+      <c r="H39" s="6">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" ht="30.75" thickBot="1">
+      <c r="B40" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="C40" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="D40" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="E40" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="F40" s="29">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="G40" s="29">
+        <v>16</v>
+      </c>
+      <c r="H40" s="30">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8" ht="31.5">
+      <c r="B48" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D48" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="E48" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="F48" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="G48" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="49" spans="2:7" ht="15">
+      <c r="B49" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="C49" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="D49" s="23">
+        <v>20</v>
+      </c>
+      <c r="E49" s="32">
+        <v>25</v>
+      </c>
+      <c r="F49" s="32">
+        <v>60</v>
+      </c>
+      <c r="G49" s="32">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="2:7" ht="15">
+      <c r="B50" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="C50" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="D50" s="23">
+        <v>17</v>
+      </c>
+      <c r="E50" s="32">
+        <v>24</v>
+      </c>
+      <c r="F50" s="32">
+        <v>63</v>
+      </c>
+      <c r="G50" s="32">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51" spans="2:7" ht="15">
+      <c r="B51" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="C51" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="D51" s="23">
+        <v>6</v>
+      </c>
+      <c r="E51" s="32">
+        <v>17</v>
+      </c>
+      <c r="F51" s="32">
+        <v>42</v>
+      </c>
+      <c r="G51" s="32">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="2:7" ht="15">
+      <c r="B52" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="C52" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="D52" s="23">
+        <v>16</v>
+      </c>
+      <c r="E52" s="32">
+        <v>25</v>
+      </c>
+      <c r="F52" s="32">
+        <v>62</v>
+      </c>
+      <c r="G52" s="32">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="2:7" ht="15">
+      <c r="B53" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="C53" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="D53" s="23">
+        <v>20</v>
+      </c>
+      <c r="E53" s="32">
+        <v>28</v>
+      </c>
+      <c r="F53" s="32">
+        <v>64</v>
+      </c>
+      <c r="G53" s="32">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54" spans="2:7" ht="15">
+      <c r="B54" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="C54" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="D54" s="23">
+        <v>10</v>
+      </c>
+      <c r="E54" s="32">
+        <v>24</v>
+      </c>
+      <c r="F54" s="32">
+        <v>51</v>
+      </c>
+      <c r="G54" s="32">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="2:7" ht="15">
+      <c r="B55" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="C55" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="D55" s="23">
+        <v>10</v>
+      </c>
+      <c r="E55" s="32">
+        <v>25</v>
+      </c>
+      <c r="F55" s="32">
+        <v>40</v>
+      </c>
+      <c r="G55" s="32">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="2:7" ht="15">
+      <c r="B56" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="C56" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="D56" s="23">
+        <v>12</v>
+      </c>
+      <c r="E56" s="32">
+        <v>24</v>
+      </c>
+      <c r="F56" s="32">
+        <v>40</v>
+      </c>
+      <c r="G56" s="32">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57" spans="2:7" ht="15">
+      <c r="B57" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="C57" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="D57" s="23">
+        <v>5</v>
+      </c>
+      <c r="E57" s="32">
+        <v>16</v>
+      </c>
+      <c r="F57" s="32">
+        <v>32</v>
+      </c>
+      <c r="G57" s="32">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="2:7" ht="15">
+      <c r="B58" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="C58" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="D58" s="23">
+        <v>4</v>
+      </c>
+      <c r="E58" s="32">
+        <v>12</v>
+      </c>
+      <c r="F58" s="32">
+        <v>30</v>
+      </c>
+      <c r="G58" s="32">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59" spans="2:7" ht="15">
+      <c r="B59" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="C59" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="D59" s="23">
+        <v>10</v>
+      </c>
+      <c r="E59" s="32">
+        <v>20</v>
+      </c>
+      <c r="F59" s="32">
+        <v>46</v>
+      </c>
+      <c r="G59" s="32">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="60" spans="2:7" ht="15">
+      <c r="B60" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="C60" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="D60" s="23">
+        <v>20</v>
+      </c>
+      <c r="E60" s="32">
+        <v>18</v>
+      </c>
+      <c r="F60" s="32">
+        <v>41</v>
+      </c>
+      <c r="G60" s="32">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="61" spans="2:7" ht="15">
+      <c r="B61" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="C61" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="D61" s="23">
+        <v>20</v>
+      </c>
+      <c r="E61" s="32">
+        <v>24</v>
+      </c>
+      <c r="F61" s="32">
+        <v>64</v>
+      </c>
+      <c r="G61" s="32">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="62" spans="2:7" ht="15">
+      <c r="B62" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="C62" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="D62" s="23">
+        <v>2</v>
+      </c>
+      <c r="E62" s="32">
+        <v>10</v>
+      </c>
+      <c r="F62" s="32">
+        <v>23</v>
+      </c>
+      <c r="G62" s="32">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="63" spans="2:7" ht="15">
+      <c r="B63" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="C63" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="D63" s="23">
+        <v>8</v>
+      </c>
+      <c r="E63" s="32">
+        <v>14</v>
+      </c>
+      <c r="F63" s="32">
+        <v>30</v>
+      </c>
+      <c r="G63" s="32">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="64" spans="2:7" ht="15">
+      <c r="B64" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="C64" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="D64" s="23">
+        <v>15</v>
+      </c>
+      <c r="E64" s="32">
+        <v>22</v>
+      </c>
+      <c r="F64" s="32">
+        <v>34</v>
+      </c>
+      <c r="G64" s="32">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="65" spans="2:7" ht="15">
+      <c r="B65" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="C65" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="D65" s="23">
+        <v>2</v>
+      </c>
+      <c r="E65" s="32">
+        <v>9</v>
+      </c>
+      <c r="F65" s="32">
+        <v>27</v>
+      </c>
+      <c r="G65" s="32">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
